--- a/カレンダー_設計書.xlsx
+++ b/カレンダー_設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagai\AndroidStudioProjects\OriginalCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6118D32-5874-4856-B67E-B9180220CF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2AE36D-E6F7-475E-B3FA-C5DA6BEA77B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="1740" windowWidth="20850" windowHeight="13395" xr2:uid="{7518170D-50F7-406D-9384-F6EA5B34F2A6}"/>
+    <workbookView xWindow="4845" yWindow="1950" windowWidth="20760" windowHeight="12435" activeTab="2" xr2:uid="{7518170D-50F7-406D-9384-F6EA5B34F2A6}"/>
   </bookViews>
   <sheets>
     <sheet name="デザイン" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>&lt;activity_main.xml&gt;</t>
     <phoneticPr fontId="1"/>
@@ -436,10 +436,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アラートON/OFF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>型</t>
     <rPh sb="0" eb="1">
       <t>カタ</t>
@@ -553,11 +549,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JSON</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(Jackson)</t>
+    <t>変数名</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSON(Jackson)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xml</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dayOfWeek</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flgAlarm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラームON/OFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flgNotice</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flgRepeat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2000.12.31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0000.01.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9999.12.31</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -839,45 +893,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -906,7 +921,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -926,20 +977,23 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2921,7 +2975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD698707-CAB3-45C5-975A-1AA2EFCAC50B}">
   <dimension ref="B2:DC39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Y46" sqref="Y46"/>
     </sheetView>
   </sheetViews>
@@ -3098,96 +3152,96 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="7"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="46" t="s">
+      <c r="U12" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="47"/>
-      <c r="W12" s="47"/>
-      <c r="X12" s="47"/>
-      <c r="Y12" s="47"/>
-      <c r="Z12" s="47"/>
-      <c r="AA12" s="47"/>
-      <c r="AB12" s="47"/>
-      <c r="AC12" s="47"/>
-      <c r="AD12" s="47"/>
-      <c r="AE12" s="47"/>
-      <c r="AF12" s="47"/>
-      <c r="AG12" s="47"/>
-      <c r="AH12" s="48"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="47"/>
       <c r="AI12" s="7"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="27" t="s">
+      <c r="AM12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AN12" s="28"/>
-      <c r="AO12" s="28"/>
-      <c r="AP12" s="28"/>
-      <c r="AQ12" s="28"/>
-      <c r="AR12" s="28"/>
-      <c r="AS12" s="28"/>
-      <c r="AT12" s="28"/>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="29"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="33"/>
       <c r="BA12" s="7"/>
       <c r="BD12" s="5"/>
-      <c r="BE12" s="27" t="s">
+      <c r="BE12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="BF12" s="28"/>
-      <c r="BG12" s="28"/>
-      <c r="BH12" s="28"/>
-      <c r="BI12" s="28"/>
-      <c r="BJ12" s="28"/>
-      <c r="BK12" s="28"/>
-      <c r="BL12" s="28"/>
-      <c r="BM12" s="28"/>
-      <c r="BN12" s="28"/>
-      <c r="BO12" s="28"/>
-      <c r="BP12" s="28"/>
-      <c r="BQ12" s="28"/>
-      <c r="BR12" s="29"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="42"/>
+      <c r="BM12" s="42"/>
+      <c r="BN12" s="42"/>
+      <c r="BO12" s="42"/>
+      <c r="BP12" s="42"/>
+      <c r="BQ12" s="42"/>
+      <c r="BR12" s="33"/>
       <c r="BS12" s="7"/>
       <c r="BV12" s="5"/>
-      <c r="BW12" s="27" t="s">
+      <c r="BW12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="BX12" s="28"/>
-      <c r="BY12" s="28"/>
-      <c r="BZ12" s="28"/>
-      <c r="CA12" s="28"/>
-      <c r="CB12" s="28"/>
-      <c r="CC12" s="28"/>
-      <c r="CD12" s="28"/>
-      <c r="CE12" s="28"/>
-      <c r="CF12" s="28"/>
-      <c r="CG12" s="29"/>
+      <c r="BX12" s="42"/>
+      <c r="BY12" s="42"/>
+      <c r="BZ12" s="42"/>
+      <c r="CA12" s="42"/>
+      <c r="CB12" s="42"/>
+      <c r="CC12" s="42"/>
+      <c r="CD12" s="42"/>
+      <c r="CE12" s="42"/>
+      <c r="CF12" s="42"/>
+      <c r="CG12" s="33"/>
       <c r="CH12" s="14"/>
-      <c r="CI12" s="23" t="s">
+      <c r="CI12" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="CJ12" s="24"/>
+      <c r="CJ12" s="53"/>
       <c r="CK12" s="7"/>
       <c r="CN12" s="5"/>
-      <c r="CO12" s="27" t="s">
+      <c r="CO12" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="CP12" s="28"/>
-      <c r="CQ12" s="28"/>
-      <c r="CR12" s="28"/>
-      <c r="CS12" s="28"/>
-      <c r="CT12" s="28"/>
-      <c r="CU12" s="28"/>
-      <c r="CV12" s="28"/>
-      <c r="CW12" s="28"/>
-      <c r="CX12" s="28"/>
-      <c r="CY12" s="28"/>
-      <c r="CZ12" s="28"/>
-      <c r="DA12" s="28"/>
-      <c r="DB12" s="29"/>
+      <c r="CP12" s="42"/>
+      <c r="CQ12" s="42"/>
+      <c r="CR12" s="42"/>
+      <c r="CS12" s="42"/>
+      <c r="CT12" s="42"/>
+      <c r="CU12" s="42"/>
+      <c r="CV12" s="42"/>
+      <c r="CW12" s="42"/>
+      <c r="CX12" s="42"/>
+      <c r="CY12" s="42"/>
+      <c r="CZ12" s="42"/>
+      <c r="DA12" s="42"/>
+      <c r="DB12" s="33"/>
       <c r="DC12" s="7"/>
     </row>
     <row r="13" spans="2:107" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3208,83 +3262,83 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="49"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="50"/>
-      <c r="Y13" s="50"/>
-      <c r="Z13" s="50"/>
-      <c r="AA13" s="50"/>
-      <c r="AB13" s="50"/>
-      <c r="AC13" s="50"/>
-      <c r="AD13" s="50"/>
-      <c r="AE13" s="50"/>
-      <c r="AF13" s="50"/>
-      <c r="AG13" s="50"/>
-      <c r="AH13" s="51"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
+      <c r="AB13" s="49"/>
+      <c r="AC13" s="49"/>
+      <c r="AD13" s="49"/>
+      <c r="AE13" s="49"/>
+      <c r="AF13" s="49"/>
+      <c r="AG13" s="49"/>
+      <c r="AH13" s="50"/>
       <c r="AI13" s="7"/>
       <c r="AL13" s="5"/>
-      <c r="AM13" s="33"/>
-      <c r="AN13" s="34"/>
-      <c r="AO13" s="34"/>
-      <c r="AP13" s="34"/>
-      <c r="AQ13" s="34"/>
-      <c r="AR13" s="34"/>
-      <c r="AS13" s="34"/>
-      <c r="AT13" s="34"/>
-      <c r="AU13" s="34"/>
-      <c r="AV13" s="34"/>
-      <c r="AW13" s="34"/>
-      <c r="AX13" s="34"/>
-      <c r="AY13" s="34"/>
+      <c r="AM13" s="34"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
       <c r="AZ13" s="35"/>
       <c r="BA13" s="7"/>
       <c r="BD13" s="5"/>
-      <c r="BE13" s="30"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="31"/>
-      <c r="BL13" s="31"/>
-      <c r="BM13" s="31"/>
-      <c r="BN13" s="31"/>
-      <c r="BO13" s="31"/>
-      <c r="BP13" s="31"/>
-      <c r="BQ13" s="31"/>
-      <c r="BR13" s="32"/>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="44"/>
+      <c r="BG13" s="44"/>
+      <c r="BH13" s="44"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="44"/>
+      <c r="BK13" s="44"/>
+      <c r="BL13" s="44"/>
+      <c r="BM13" s="44"/>
+      <c r="BN13" s="44"/>
+      <c r="BO13" s="44"/>
+      <c r="BP13" s="44"/>
+      <c r="BQ13" s="44"/>
+      <c r="BR13" s="37"/>
       <c r="BS13" s="7"/>
       <c r="BV13" s="5"/>
-      <c r="BW13" s="30"/>
-      <c r="BX13" s="31"/>
-      <c r="BY13" s="31"/>
-      <c r="BZ13" s="31"/>
-      <c r="CA13" s="31"/>
-      <c r="CB13" s="31"/>
-      <c r="CC13" s="31"/>
-      <c r="CD13" s="31"/>
-      <c r="CE13" s="31"/>
-      <c r="CF13" s="31"/>
-      <c r="CG13" s="32"/>
+      <c r="BW13" s="36"/>
+      <c r="BX13" s="44"/>
+      <c r="BY13" s="44"/>
+      <c r="BZ13" s="44"/>
+      <c r="CA13" s="44"/>
+      <c r="CB13" s="44"/>
+      <c r="CC13" s="44"/>
+      <c r="CD13" s="44"/>
+      <c r="CE13" s="44"/>
+      <c r="CF13" s="44"/>
+      <c r="CG13" s="37"/>
       <c r="CH13" s="14"/>
-      <c r="CI13" s="25"/>
-      <c r="CJ13" s="26"/>
+      <c r="CI13" s="54"/>
+      <c r="CJ13" s="55"/>
       <c r="CK13" s="7"/>
       <c r="CN13" s="5"/>
-      <c r="CO13" s="33"/>
-      <c r="CP13" s="34"/>
-      <c r="CQ13" s="34"/>
-      <c r="CR13" s="34"/>
-      <c r="CS13" s="34"/>
-      <c r="CT13" s="34"/>
-      <c r="CU13" s="34"/>
-      <c r="CV13" s="34"/>
-      <c r="CW13" s="34"/>
-      <c r="CX13" s="34"/>
-      <c r="CY13" s="34"/>
-      <c r="CZ13" s="34"/>
-      <c r="DA13" s="34"/>
+      <c r="CO13" s="34"/>
+      <c r="CP13" s="43"/>
+      <c r="CQ13" s="43"/>
+      <c r="CR13" s="43"/>
+      <c r="CS13" s="43"/>
+      <c r="CT13" s="43"/>
+      <c r="CU13" s="43"/>
+      <c r="CV13" s="43"/>
+      <c r="CW13" s="43"/>
+      <c r="CX13" s="43"/>
+      <c r="CY13" s="43"/>
+      <c r="CZ13" s="43"/>
+      <c r="DA13" s="43"/>
       <c r="DB13" s="35"/>
       <c r="DC13" s="7"/>
     </row>
@@ -3322,20 +3376,20 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="7"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="30"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31"/>
-      <c r="AS14" s="31"/>
-      <c r="AT14" s="31"/>
-      <c r="AU14" s="31"/>
-      <c r="AV14" s="31"/>
-      <c r="AW14" s="31"/>
-      <c r="AX14" s="31"/>
-      <c r="AY14" s="31"/>
-      <c r="AZ14" s="32"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="37"/>
       <c r="BA14" s="7"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="8"/>
@@ -3370,88 +3424,88 @@
       <c r="CJ14" s="14"/>
       <c r="CK14" s="7"/>
       <c r="CN14" s="5"/>
-      <c r="CO14" s="33"/>
-      <c r="CP14" s="34"/>
-      <c r="CQ14" s="34"/>
-      <c r="CR14" s="34"/>
-      <c r="CS14" s="34"/>
-      <c r="CT14" s="34"/>
-      <c r="CU14" s="34"/>
-      <c r="CV14" s="34"/>
-      <c r="CW14" s="34"/>
-      <c r="CX14" s="34"/>
-      <c r="CY14" s="34"/>
-      <c r="CZ14" s="34"/>
-      <c r="DA14" s="34"/>
+      <c r="CO14" s="34"/>
+      <c r="CP14" s="43"/>
+      <c r="CQ14" s="43"/>
+      <c r="CR14" s="43"/>
+      <c r="CS14" s="43"/>
+      <c r="CT14" s="43"/>
+      <c r="CU14" s="43"/>
+      <c r="CV14" s="43"/>
+      <c r="CW14" s="43"/>
+      <c r="CX14" s="43"/>
+      <c r="CY14" s="43"/>
+      <c r="CZ14" s="43"/>
+      <c r="DA14" s="43"/>
       <c r="DB14" s="35"/>
       <c r="DC14" s="7"/>
     </row>
     <row r="15" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
       <c r="Q15" s="7"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="56" t="s">
+      <c r="U15" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="56"/>
-      <c r="W15" s="52" t="s">
+      <c r="V15" s="40"/>
+      <c r="W15" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52" t="s">
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52" t="s">
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52" t="s">
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52" t="s">
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="53" t="s">
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="53"/>
+      <c r="AH15" s="51"/>
       <c r="AI15" s="7"/>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="27" t="s">
+      <c r="AM15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AN15" s="28"/>
-      <c r="AO15" s="28"/>
-      <c r="AP15" s="28"/>
-      <c r="AQ15" s="28"/>
-      <c r="AR15" s="28"/>
-      <c r="AS15" s="28"/>
-      <c r="AT15" s="28"/>
-      <c r="AU15" s="28"/>
-      <c r="AV15" s="28"/>
-      <c r="AW15" s="28"/>
-      <c r="AX15" s="28"/>
-      <c r="AY15" s="28"/>
-      <c r="AZ15" s="29"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+      <c r="AP15" s="42"/>
+      <c r="AQ15" s="42"/>
+      <c r="AR15" s="42"/>
+      <c r="AS15" s="42"/>
+      <c r="AT15" s="42"/>
+      <c r="AU15" s="42"/>
+      <c r="AV15" s="42"/>
+      <c r="AW15" s="42"/>
+      <c r="AX15" s="42"/>
+      <c r="AY15" s="42"/>
+      <c r="AZ15" s="33"/>
       <c r="BA15" s="7"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="10"/>
@@ -3470,93 +3524,93 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="7"/>
       <c r="BV15" s="5"/>
-      <c r="BW15" s="27" t="s">
+      <c r="BW15" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="BX15" s="28"/>
-      <c r="BY15" s="28"/>
-      <c r="BZ15" s="28"/>
-      <c r="CA15" s="28"/>
-      <c r="CB15" s="28"/>
-      <c r="CC15" s="28"/>
-      <c r="CD15" s="28"/>
-      <c r="CE15" s="28"/>
-      <c r="CF15" s="28"/>
-      <c r="CG15" s="28"/>
-      <c r="CH15" s="28"/>
-      <c r="CI15" s="28"/>
-      <c r="CJ15" s="29"/>
+      <c r="BX15" s="42"/>
+      <c r="BY15" s="42"/>
+      <c r="BZ15" s="42"/>
+      <c r="CA15" s="42"/>
+      <c r="CB15" s="42"/>
+      <c r="CC15" s="42"/>
+      <c r="CD15" s="42"/>
+      <c r="CE15" s="42"/>
+      <c r="CF15" s="42"/>
+      <c r="CG15" s="42"/>
+      <c r="CH15" s="42"/>
+      <c r="CI15" s="42"/>
+      <c r="CJ15" s="33"/>
       <c r="CK15" s="7"/>
       <c r="CN15" s="5"/>
-      <c r="CO15" s="33"/>
-      <c r="CP15" s="34"/>
-      <c r="CQ15" s="34"/>
-      <c r="CR15" s="34"/>
-      <c r="CS15" s="34"/>
-      <c r="CT15" s="34"/>
-      <c r="CU15" s="34"/>
-      <c r="CV15" s="34"/>
-      <c r="CW15" s="34"/>
-      <c r="CX15" s="34"/>
-      <c r="CY15" s="34"/>
-      <c r="CZ15" s="34"/>
-      <c r="DA15" s="34"/>
+      <c r="CO15" s="34"/>
+      <c r="CP15" s="43"/>
+      <c r="CQ15" s="43"/>
+      <c r="CR15" s="43"/>
+      <c r="CS15" s="43"/>
+      <c r="CT15" s="43"/>
+      <c r="CU15" s="43"/>
+      <c r="CV15" s="43"/>
+      <c r="CW15" s="43"/>
+      <c r="CX15" s="43"/>
+      <c r="CY15" s="43"/>
+      <c r="CZ15" s="43"/>
+      <c r="DA15" s="43"/>
       <c r="DB15" s="35"/>
       <c r="DC15" s="7"/>
     </row>
     <row r="16" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
       <c r="Q16" s="7"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="29"/>
-      <c r="W16" s="27">
+      <c r="U16" s="32"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="32">
         <v>1</v>
       </c>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="27">
+      <c r="X16" s="33"/>
+      <c r="Y16" s="32">
         <v>2</v>
       </c>
-      <c r="Z16" s="29"/>
-      <c r="AA16" s="27" t="s">
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AB16" s="29"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="29"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="29"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="29"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="33"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="33"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="33"/>
       <c r="AI16" s="7"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="34"/>
-      <c r="AQ16" s="34"/>
-      <c r="AR16" s="34"/>
-      <c r="AS16" s="34"/>
-      <c r="AT16" s="34"/>
-      <c r="AU16" s="34"/>
-      <c r="AV16" s="34"/>
-      <c r="AW16" s="34"/>
-      <c r="AX16" s="34"/>
-      <c r="AY16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43"/>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="43"/>
+      <c r="AX16" s="43"/>
+      <c r="AY16" s="43"/>
       <c r="AZ16" s="35"/>
       <c r="BA16" s="7"/>
       <c r="BD16" s="5"/>
@@ -3578,86 +3632,86 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="7"/>
       <c r="BV16" s="5"/>
-      <c r="BW16" s="33"/>
-      <c r="BX16" s="34"/>
-      <c r="BY16" s="34"/>
-      <c r="BZ16" s="34"/>
-      <c r="CA16" s="34"/>
-      <c r="CB16" s="34"/>
-      <c r="CC16" s="34"/>
-      <c r="CD16" s="34"/>
-      <c r="CE16" s="34"/>
-      <c r="CF16" s="34"/>
-      <c r="CG16" s="34"/>
-      <c r="CH16" s="34"/>
-      <c r="CI16" s="34"/>
+      <c r="BW16" s="34"/>
+      <c r="BX16" s="43"/>
+      <c r="BY16" s="43"/>
+      <c r="BZ16" s="43"/>
+      <c r="CA16" s="43"/>
+      <c r="CB16" s="43"/>
+      <c r="CC16" s="43"/>
+      <c r="CD16" s="43"/>
+      <c r="CE16" s="43"/>
+      <c r="CF16" s="43"/>
+      <c r="CG16" s="43"/>
+      <c r="CH16" s="43"/>
+      <c r="CI16" s="43"/>
       <c r="CJ16" s="35"/>
       <c r="CK16" s="7"/>
       <c r="CN16" s="5"/>
-      <c r="CO16" s="33"/>
-      <c r="CP16" s="34"/>
-      <c r="CQ16" s="34"/>
-      <c r="CR16" s="34"/>
-      <c r="CS16" s="34"/>
-      <c r="CT16" s="34"/>
-      <c r="CU16" s="34"/>
-      <c r="CV16" s="34"/>
-      <c r="CW16" s="34"/>
-      <c r="CX16" s="34"/>
-      <c r="CY16" s="34"/>
-      <c r="CZ16" s="34"/>
-      <c r="DA16" s="34"/>
+      <c r="CO16" s="34"/>
+      <c r="CP16" s="43"/>
+      <c r="CQ16" s="43"/>
+      <c r="CR16" s="43"/>
+      <c r="CS16" s="43"/>
+      <c r="CT16" s="43"/>
+      <c r="CU16" s="43"/>
+      <c r="CV16" s="43"/>
+      <c r="CW16" s="43"/>
+      <c r="CX16" s="43"/>
+      <c r="CY16" s="43"/>
+      <c r="CZ16" s="43"/>
+      <c r="DA16" s="43"/>
       <c r="DB16" s="35"/>
       <c r="DC16" s="7"/>
     </row>
     <row r="17" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
       <c r="Q17" s="7"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="33"/>
+      <c r="U17" s="34"/>
       <c r="V17" s="35"/>
-      <c r="W17" s="33"/>
+      <c r="W17" s="34"/>
       <c r="X17" s="35"/>
-      <c r="Y17" s="33"/>
+      <c r="Y17" s="34"/>
       <c r="Z17" s="35"/>
-      <c r="AA17" s="33"/>
+      <c r="AA17" s="34"/>
       <c r="AB17" s="35"/>
-      <c r="AC17" s="33"/>
+      <c r="AC17" s="34"/>
       <c r="AD17" s="35"/>
-      <c r="AE17" s="33"/>
+      <c r="AE17" s="34"/>
       <c r="AF17" s="35"/>
-      <c r="AG17" s="33"/>
+      <c r="AG17" s="34"/>
       <c r="AH17" s="35"/>
       <c r="AI17" s="7"/>
       <c r="AL17" s="5"/>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-      <c r="AS17" s="31"/>
-      <c r="AT17" s="31"/>
-      <c r="AU17" s="31"/>
-      <c r="AV17" s="31"/>
-      <c r="AW17" s="31"/>
-      <c r="AX17" s="31"/>
-      <c r="AY17" s="31"/>
-      <c r="AZ17" s="32"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="44"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="37"/>
       <c r="BA17" s="7"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="13"/>
@@ -3676,88 +3730,88 @@
       <c r="BR17" s="15"/>
       <c r="BS17" s="7"/>
       <c r="BV17" s="5"/>
-      <c r="BW17" s="30"/>
-      <c r="BX17" s="31"/>
-      <c r="BY17" s="31"/>
-      <c r="BZ17" s="31"/>
-      <c r="CA17" s="31"/>
-      <c r="CB17" s="31"/>
-      <c r="CC17" s="31"/>
-      <c r="CD17" s="31"/>
-      <c r="CE17" s="31"/>
-      <c r="CF17" s="31"/>
-      <c r="CG17" s="31"/>
-      <c r="CH17" s="31"/>
-      <c r="CI17" s="31"/>
-      <c r="CJ17" s="32"/>
+      <c r="BW17" s="36"/>
+      <c r="BX17" s="44"/>
+      <c r="BY17" s="44"/>
+      <c r="BZ17" s="44"/>
+      <c r="CA17" s="44"/>
+      <c r="CB17" s="44"/>
+      <c r="CC17" s="44"/>
+      <c r="CD17" s="44"/>
+      <c r="CE17" s="44"/>
+      <c r="CF17" s="44"/>
+      <c r="CG17" s="44"/>
+      <c r="CH17" s="44"/>
+      <c r="CI17" s="44"/>
+      <c r="CJ17" s="37"/>
       <c r="CK17" s="7"/>
       <c r="CN17" s="5"/>
-      <c r="CO17" s="33"/>
-      <c r="CP17" s="34"/>
-      <c r="CQ17" s="34"/>
-      <c r="CR17" s="34"/>
-      <c r="CS17" s="34"/>
-      <c r="CT17" s="34"/>
-      <c r="CU17" s="34"/>
-      <c r="CV17" s="34"/>
-      <c r="CW17" s="34"/>
-      <c r="CX17" s="34"/>
-      <c r="CY17" s="34"/>
-      <c r="CZ17" s="34"/>
-      <c r="DA17" s="34"/>
+      <c r="CO17" s="34"/>
+      <c r="CP17" s="43"/>
+      <c r="CQ17" s="43"/>
+      <c r="CR17" s="43"/>
+      <c r="CS17" s="43"/>
+      <c r="CT17" s="43"/>
+      <c r="CU17" s="43"/>
+      <c r="CV17" s="43"/>
+      <c r="CW17" s="43"/>
+      <c r="CX17" s="43"/>
+      <c r="CY17" s="43"/>
+      <c r="CZ17" s="43"/>
+      <c r="DA17" s="43"/>
       <c r="DB17" s="35"/>
       <c r="DC17" s="7"/>
     </row>
     <row r="18" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
       <c r="Q18" s="7"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="32"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="37"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="37"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="37"/>
       <c r="AI18" s="7"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="27" t="s">
+      <c r="AM18" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="29"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="33"/>
       <c r="BA18" s="7"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="13"/>
@@ -3778,87 +3832,87 @@
       <c r="BR18" s="15"/>
       <c r="BS18" s="7"/>
       <c r="BV18" s="5"/>
-      <c r="BW18" s="27" t="s">
+      <c r="BW18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="BX18" s="28"/>
-      <c r="BY18" s="28"/>
-      <c r="BZ18" s="28"/>
-      <c r="CA18" s="28"/>
-      <c r="CB18" s="28"/>
-      <c r="CC18" s="28"/>
-      <c r="CD18" s="28"/>
-      <c r="CE18" s="28"/>
-      <c r="CF18" s="28"/>
-      <c r="CG18" s="28"/>
-      <c r="CH18" s="28"/>
-      <c r="CI18" s="28"/>
-      <c r="CJ18" s="29"/>
+      <c r="BX18" s="42"/>
+      <c r="BY18" s="42"/>
+      <c r="BZ18" s="42"/>
+      <c r="CA18" s="42"/>
+      <c r="CB18" s="42"/>
+      <c r="CC18" s="42"/>
+      <c r="CD18" s="42"/>
+      <c r="CE18" s="42"/>
+      <c r="CF18" s="42"/>
+      <c r="CG18" s="42"/>
+      <c r="CH18" s="42"/>
+      <c r="CI18" s="42"/>
+      <c r="CJ18" s="33"/>
       <c r="CK18" s="7"/>
       <c r="CN18" s="5"/>
-      <c r="CO18" s="33"/>
-      <c r="CP18" s="34"/>
-      <c r="CQ18" s="34"/>
-      <c r="CR18" s="34"/>
-      <c r="CS18" s="34"/>
-      <c r="CT18" s="34"/>
-      <c r="CU18" s="34"/>
-      <c r="CV18" s="34"/>
-      <c r="CW18" s="34"/>
-      <c r="CX18" s="34"/>
-      <c r="CY18" s="34"/>
-      <c r="CZ18" s="34"/>
-      <c r="DA18" s="34"/>
+      <c r="CO18" s="34"/>
+      <c r="CP18" s="43"/>
+      <c r="CQ18" s="43"/>
+      <c r="CR18" s="43"/>
+      <c r="CS18" s="43"/>
+      <c r="CT18" s="43"/>
+      <c r="CU18" s="43"/>
+      <c r="CV18" s="43"/>
+      <c r="CW18" s="43"/>
+      <c r="CX18" s="43"/>
+      <c r="CY18" s="43"/>
+      <c r="CZ18" s="43"/>
+      <c r="DA18" s="43"/>
       <c r="DB18" s="35"/>
       <c r="DC18" s="7"/>
     </row>
     <row r="19" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
       <c r="Q19" s="7"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="29"/>
-      <c r="AA19" s="27"/>
-      <c r="AB19" s="29"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="29"/>
-      <c r="AE19" s="27"/>
-      <c r="AF19" s="29"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="29"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="32"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="32"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="32"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="33"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="33"/>
       <c r="AI19" s="7"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="33"/>
-      <c r="AN19" s="34"/>
-      <c r="AO19" s="34"/>
-      <c r="AP19" s="34"/>
-      <c r="AQ19" s="34"/>
-      <c r="AR19" s="34"/>
-      <c r="AS19" s="34"/>
-      <c r="AT19" s="34"/>
-      <c r="AU19" s="34"/>
-      <c r="AV19" s="34"/>
-      <c r="AW19" s="34"/>
-      <c r="AX19" s="34"/>
-      <c r="AY19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="43"/>
+      <c r="AO19" s="43"/>
+      <c r="AP19" s="43"/>
+      <c r="AQ19" s="43"/>
+      <c r="AR19" s="43"/>
+      <c r="AS19" s="43"/>
+      <c r="AT19" s="43"/>
+      <c r="AU19" s="43"/>
+      <c r="AV19" s="43"/>
+      <c r="AW19" s="43"/>
+      <c r="AX19" s="43"/>
+      <c r="AY19" s="43"/>
       <c r="AZ19" s="35"/>
       <c r="BA19" s="7"/>
       <c r="BD19" s="5"/>
@@ -3880,86 +3934,86 @@
       <c r="BR19" s="15"/>
       <c r="BS19" s="7"/>
       <c r="BV19" s="5"/>
-      <c r="BW19" s="33"/>
-      <c r="BX19" s="34"/>
-      <c r="BY19" s="34"/>
-      <c r="BZ19" s="34"/>
-      <c r="CA19" s="34"/>
-      <c r="CB19" s="34"/>
-      <c r="CC19" s="34"/>
-      <c r="CD19" s="34"/>
-      <c r="CE19" s="34"/>
-      <c r="CF19" s="34"/>
-      <c r="CG19" s="34"/>
-      <c r="CH19" s="34"/>
-      <c r="CI19" s="34"/>
+      <c r="BW19" s="34"/>
+      <c r="BX19" s="43"/>
+      <c r="BY19" s="43"/>
+      <c r="BZ19" s="43"/>
+      <c r="CA19" s="43"/>
+      <c r="CB19" s="43"/>
+      <c r="CC19" s="43"/>
+      <c r="CD19" s="43"/>
+      <c r="CE19" s="43"/>
+      <c r="CF19" s="43"/>
+      <c r="CG19" s="43"/>
+      <c r="CH19" s="43"/>
+      <c r="CI19" s="43"/>
       <c r="CJ19" s="35"/>
       <c r="CK19" s="7"/>
       <c r="CN19" s="5"/>
-      <c r="CO19" s="33"/>
-      <c r="CP19" s="34"/>
-      <c r="CQ19" s="34"/>
-      <c r="CR19" s="34"/>
-      <c r="CS19" s="34"/>
-      <c r="CT19" s="34"/>
-      <c r="CU19" s="34"/>
-      <c r="CV19" s="34"/>
-      <c r="CW19" s="34"/>
-      <c r="CX19" s="34"/>
-      <c r="CY19" s="34"/>
-      <c r="CZ19" s="34"/>
-      <c r="DA19" s="34"/>
+      <c r="CO19" s="34"/>
+      <c r="CP19" s="43"/>
+      <c r="CQ19" s="43"/>
+      <c r="CR19" s="43"/>
+      <c r="CS19" s="43"/>
+      <c r="CT19" s="43"/>
+      <c r="CU19" s="43"/>
+      <c r="CV19" s="43"/>
+      <c r="CW19" s="43"/>
+      <c r="CX19" s="43"/>
+      <c r="CY19" s="43"/>
+      <c r="CZ19" s="43"/>
+      <c r="DA19" s="43"/>
       <c r="DB19" s="35"/>
       <c r="DC19" s="7"/>
     </row>
     <row r="20" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
       <c r="Q20" s="7"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="33"/>
+      <c r="U20" s="34"/>
       <c r="V20" s="35"/>
-      <c r="W20" s="33"/>
+      <c r="W20" s="34"/>
       <c r="X20" s="35"/>
-      <c r="Y20" s="33"/>
+      <c r="Y20" s="34"/>
       <c r="Z20" s="35"/>
-      <c r="AA20" s="33"/>
+      <c r="AA20" s="34"/>
       <c r="AB20" s="35"/>
-      <c r="AC20" s="33"/>
+      <c r="AC20" s="34"/>
       <c r="AD20" s="35"/>
-      <c r="AE20" s="33"/>
+      <c r="AE20" s="34"/>
       <c r="AF20" s="35"/>
-      <c r="AG20" s="33"/>
+      <c r="AG20" s="34"/>
       <c r="AH20" s="35"/>
       <c r="AI20" s="7"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-      <c r="AS20" s="31"/>
-      <c r="AT20" s="31"/>
-      <c r="AU20" s="31"/>
-      <c r="AV20" s="31"/>
-      <c r="AW20" s="31"/>
-      <c r="AX20" s="31"/>
-      <c r="AY20" s="31"/>
-      <c r="AZ20" s="32"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="37"/>
       <c r="BA20" s="7"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="13"/>
@@ -3980,88 +4034,88 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="7"/>
       <c r="BV20" s="5"/>
-      <c r="BW20" s="30"/>
-      <c r="BX20" s="31"/>
-      <c r="BY20" s="31"/>
-      <c r="BZ20" s="31"/>
-      <c r="CA20" s="31"/>
-      <c r="CB20" s="31"/>
-      <c r="CC20" s="31"/>
-      <c r="CD20" s="31"/>
-      <c r="CE20" s="31"/>
-      <c r="CF20" s="31"/>
-      <c r="CG20" s="31"/>
-      <c r="CH20" s="31"/>
-      <c r="CI20" s="31"/>
-      <c r="CJ20" s="32"/>
+      <c r="BW20" s="36"/>
+      <c r="BX20" s="44"/>
+      <c r="BY20" s="44"/>
+      <c r="BZ20" s="44"/>
+      <c r="CA20" s="44"/>
+      <c r="CB20" s="44"/>
+      <c r="CC20" s="44"/>
+      <c r="CD20" s="44"/>
+      <c r="CE20" s="44"/>
+      <c r="CF20" s="44"/>
+      <c r="CG20" s="44"/>
+      <c r="CH20" s="44"/>
+      <c r="CI20" s="44"/>
+      <c r="CJ20" s="37"/>
       <c r="CK20" s="7"/>
       <c r="CN20" s="5"/>
-      <c r="CO20" s="33"/>
-      <c r="CP20" s="34"/>
-      <c r="CQ20" s="34"/>
-      <c r="CR20" s="34"/>
-      <c r="CS20" s="34"/>
-      <c r="CT20" s="34"/>
-      <c r="CU20" s="34"/>
-      <c r="CV20" s="34"/>
-      <c r="CW20" s="34"/>
-      <c r="CX20" s="34"/>
-      <c r="CY20" s="34"/>
-      <c r="CZ20" s="34"/>
-      <c r="DA20" s="34"/>
+      <c r="CO20" s="34"/>
+      <c r="CP20" s="43"/>
+      <c r="CQ20" s="43"/>
+      <c r="CR20" s="43"/>
+      <c r="CS20" s="43"/>
+      <c r="CT20" s="43"/>
+      <c r="CU20" s="43"/>
+      <c r="CV20" s="43"/>
+      <c r="CW20" s="43"/>
+      <c r="CX20" s="43"/>
+      <c r="CY20" s="43"/>
+      <c r="CZ20" s="43"/>
+      <c r="DA20" s="43"/>
       <c r="DB20" s="35"/>
       <c r="DC20" s="7"/>
     </row>
     <row r="21" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
       <c r="Q21" s="7"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="32"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="37"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="37"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="37"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="37"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="37"/>
       <c r="AI21" s="7"/>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="27" t="s">
+      <c r="AM21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AN21" s="28"/>
-      <c r="AO21" s="28"/>
-      <c r="AP21" s="28"/>
-      <c r="AQ21" s="28"/>
-      <c r="AR21" s="28"/>
-      <c r="AS21" s="28"/>
-      <c r="AT21" s="28"/>
-      <c r="AU21" s="28"/>
-      <c r="AV21" s="28"/>
-      <c r="AW21" s="28"/>
-      <c r="AX21" s="28"/>
-      <c r="AY21" s="28"/>
-      <c r="AZ21" s="29"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="33"/>
       <c r="BA21" s="7"/>
       <c r="BD21" s="5"/>
       <c r="BE21" s="13"/>
@@ -4080,87 +4134,87 @@
       <c r="BR21" s="15"/>
       <c r="BS21" s="7"/>
       <c r="BV21" s="5"/>
-      <c r="BW21" s="27" t="s">
+      <c r="BW21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="BX21" s="28"/>
-      <c r="BY21" s="28"/>
-      <c r="BZ21" s="28"/>
-      <c r="CA21" s="28"/>
-      <c r="CB21" s="28"/>
-      <c r="CC21" s="28"/>
-      <c r="CD21" s="28"/>
-      <c r="CE21" s="28"/>
-      <c r="CF21" s="28"/>
-      <c r="CG21" s="28"/>
-      <c r="CH21" s="28"/>
-      <c r="CI21" s="28"/>
-      <c r="CJ21" s="29"/>
+      <c r="BX21" s="42"/>
+      <c r="BY21" s="42"/>
+      <c r="BZ21" s="42"/>
+      <c r="CA21" s="42"/>
+      <c r="CB21" s="42"/>
+      <c r="CC21" s="42"/>
+      <c r="CD21" s="42"/>
+      <c r="CE21" s="42"/>
+      <c r="CF21" s="42"/>
+      <c r="CG21" s="42"/>
+      <c r="CH21" s="42"/>
+      <c r="CI21" s="42"/>
+      <c r="CJ21" s="33"/>
       <c r="CK21" s="7"/>
       <c r="CN21" s="5"/>
-      <c r="CO21" s="33"/>
-      <c r="CP21" s="34"/>
-      <c r="CQ21" s="34"/>
-      <c r="CR21" s="34"/>
-      <c r="CS21" s="34"/>
-      <c r="CT21" s="34"/>
-      <c r="CU21" s="34"/>
-      <c r="CV21" s="34"/>
-      <c r="CW21" s="34"/>
-      <c r="CX21" s="34"/>
-      <c r="CY21" s="34"/>
-      <c r="CZ21" s="34"/>
-      <c r="DA21" s="34"/>
+      <c r="CO21" s="34"/>
+      <c r="CP21" s="43"/>
+      <c r="CQ21" s="43"/>
+      <c r="CR21" s="43"/>
+      <c r="CS21" s="43"/>
+      <c r="CT21" s="43"/>
+      <c r="CU21" s="43"/>
+      <c r="CV21" s="43"/>
+      <c r="CW21" s="43"/>
+      <c r="CX21" s="43"/>
+      <c r="CY21" s="43"/>
+      <c r="CZ21" s="43"/>
+      <c r="DA21" s="43"/>
       <c r="DB21" s="35"/>
       <c r="DC21" s="7"/>
     </row>
     <row r="22" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
       <c r="Q22" s="7"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="27"/>
-      <c r="Z22" s="29"/>
-      <c r="AA22" s="27"/>
-      <c r="AB22" s="29"/>
-      <c r="AC22" s="27"/>
-      <c r="AD22" s="29"/>
-      <c r="AE22" s="27"/>
-      <c r="AF22" s="29"/>
-      <c r="AG22" s="27"/>
-      <c r="AH22" s="29"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="33"/>
       <c r="AI22" s="7"/>
       <c r="AL22" s="5"/>
-      <c r="AM22" s="33"/>
-      <c r="AN22" s="34"/>
-      <c r="AO22" s="34"/>
-      <c r="AP22" s="34"/>
-      <c r="AQ22" s="34"/>
-      <c r="AR22" s="34"/>
-      <c r="AS22" s="34"/>
-      <c r="AT22" s="34"/>
-      <c r="AU22" s="34"/>
-      <c r="AV22" s="34"/>
-      <c r="AW22" s="34"/>
-      <c r="AX22" s="34"/>
-      <c r="AY22" s="34"/>
+      <c r="AM22" s="34"/>
+      <c r="AN22" s="43"/>
+      <c r="AO22" s="43"/>
+      <c r="AP22" s="43"/>
+      <c r="AQ22" s="43"/>
+      <c r="AR22" s="43"/>
+      <c r="AS22" s="43"/>
+      <c r="AT22" s="43"/>
+      <c r="AU22" s="43"/>
+      <c r="AV22" s="43"/>
+      <c r="AW22" s="43"/>
+      <c r="AX22" s="43"/>
+      <c r="AY22" s="43"/>
       <c r="AZ22" s="35"/>
       <c r="BA22" s="7"/>
       <c r="BD22" s="5"/>
@@ -4180,86 +4234,86 @@
       <c r="BR22" s="15"/>
       <c r="BS22" s="7"/>
       <c r="BV22" s="5"/>
-      <c r="BW22" s="33"/>
-      <c r="BX22" s="34"/>
-      <c r="BY22" s="34"/>
-      <c r="BZ22" s="34"/>
-      <c r="CA22" s="34"/>
-      <c r="CB22" s="34"/>
-      <c r="CC22" s="34"/>
-      <c r="CD22" s="34"/>
-      <c r="CE22" s="34"/>
-      <c r="CF22" s="34"/>
-      <c r="CG22" s="34"/>
-      <c r="CH22" s="34"/>
-      <c r="CI22" s="34"/>
+      <c r="BW22" s="34"/>
+      <c r="BX22" s="43"/>
+      <c r="BY22" s="43"/>
+      <c r="BZ22" s="43"/>
+      <c r="CA22" s="43"/>
+      <c r="CB22" s="43"/>
+      <c r="CC22" s="43"/>
+      <c r="CD22" s="43"/>
+      <c r="CE22" s="43"/>
+      <c r="CF22" s="43"/>
+      <c r="CG22" s="43"/>
+      <c r="CH22" s="43"/>
+      <c r="CI22" s="43"/>
       <c r="CJ22" s="35"/>
       <c r="CK22" s="7"/>
       <c r="CN22" s="5"/>
-      <c r="CO22" s="33"/>
-      <c r="CP22" s="34"/>
-      <c r="CQ22" s="34"/>
-      <c r="CR22" s="34"/>
-      <c r="CS22" s="34"/>
-      <c r="CT22" s="34"/>
-      <c r="CU22" s="34"/>
-      <c r="CV22" s="34"/>
-      <c r="CW22" s="34"/>
-      <c r="CX22" s="34"/>
-      <c r="CY22" s="34"/>
-      <c r="CZ22" s="34"/>
-      <c r="DA22" s="34"/>
+      <c r="CO22" s="34"/>
+      <c r="CP22" s="43"/>
+      <c r="CQ22" s="43"/>
+      <c r="CR22" s="43"/>
+      <c r="CS22" s="43"/>
+      <c r="CT22" s="43"/>
+      <c r="CU22" s="43"/>
+      <c r="CV22" s="43"/>
+      <c r="CW22" s="43"/>
+      <c r="CX22" s="43"/>
+      <c r="CY22" s="43"/>
+      <c r="CZ22" s="43"/>
+      <c r="DA22" s="43"/>
       <c r="DB22" s="35"/>
       <c r="DC22" s="7"/>
     </row>
     <row r="23" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
       <c r="Q23" s="7"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="33"/>
+      <c r="U23" s="34"/>
       <c r="V23" s="35"/>
-      <c r="W23" s="33"/>
+      <c r="W23" s="34"/>
       <c r="X23" s="35"/>
-      <c r="Y23" s="33"/>
+      <c r="Y23" s="34"/>
       <c r="Z23" s="35"/>
-      <c r="AA23" s="33"/>
+      <c r="AA23" s="34"/>
       <c r="AB23" s="35"/>
-      <c r="AC23" s="33"/>
+      <c r="AC23" s="34"/>
       <c r="AD23" s="35"/>
-      <c r="AE23" s="33"/>
+      <c r="AE23" s="34"/>
       <c r="AF23" s="35"/>
-      <c r="AG23" s="33"/>
+      <c r="AG23" s="34"/>
       <c r="AH23" s="35"/>
       <c r="AI23" s="7"/>
       <c r="AL23" s="5"/>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="31"/>
-      <c r="AO23" s="31"/>
-      <c r="AP23" s="31"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="31"/>
-      <c r="AS23" s="31"/>
-      <c r="AT23" s="31"/>
-      <c r="AU23" s="31"/>
-      <c r="AV23" s="31"/>
-      <c r="AW23" s="31"/>
-      <c r="AX23" s="31"/>
-      <c r="AY23" s="31"/>
-      <c r="AZ23" s="32"/>
+      <c r="AM23" s="36"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="37"/>
       <c r="BA23" s="7"/>
       <c r="BD23" s="5"/>
       <c r="BE23" s="13"/>
@@ -4278,88 +4332,88 @@
       <c r="BR23" s="15"/>
       <c r="BS23" s="7"/>
       <c r="BV23" s="5"/>
-      <c r="BW23" s="30"/>
-      <c r="BX23" s="31"/>
-      <c r="BY23" s="31"/>
-      <c r="BZ23" s="31"/>
-      <c r="CA23" s="31"/>
-      <c r="CB23" s="31"/>
-      <c r="CC23" s="31"/>
-      <c r="CD23" s="31"/>
-      <c r="CE23" s="31"/>
-      <c r="CF23" s="31"/>
-      <c r="CG23" s="31"/>
-      <c r="CH23" s="31"/>
-      <c r="CI23" s="31"/>
-      <c r="CJ23" s="32"/>
+      <c r="BW23" s="36"/>
+      <c r="BX23" s="44"/>
+      <c r="BY23" s="44"/>
+      <c r="BZ23" s="44"/>
+      <c r="CA23" s="44"/>
+      <c r="CB23" s="44"/>
+      <c r="CC23" s="44"/>
+      <c r="CD23" s="44"/>
+      <c r="CE23" s="44"/>
+      <c r="CF23" s="44"/>
+      <c r="CG23" s="44"/>
+      <c r="CH23" s="44"/>
+      <c r="CI23" s="44"/>
+      <c r="CJ23" s="37"/>
       <c r="CK23" s="7"/>
       <c r="CN23" s="5"/>
-      <c r="CO23" s="33"/>
-      <c r="CP23" s="34"/>
-      <c r="CQ23" s="34"/>
-      <c r="CR23" s="34"/>
-      <c r="CS23" s="34"/>
-      <c r="CT23" s="34"/>
-      <c r="CU23" s="34"/>
-      <c r="CV23" s="34"/>
-      <c r="CW23" s="34"/>
-      <c r="CX23" s="34"/>
-      <c r="CY23" s="34"/>
-      <c r="CZ23" s="34"/>
-      <c r="DA23" s="34"/>
+      <c r="CO23" s="34"/>
+      <c r="CP23" s="43"/>
+      <c r="CQ23" s="43"/>
+      <c r="CR23" s="43"/>
+      <c r="CS23" s="43"/>
+      <c r="CT23" s="43"/>
+      <c r="CU23" s="43"/>
+      <c r="CV23" s="43"/>
+      <c r="CW23" s="43"/>
+      <c r="CX23" s="43"/>
+      <c r="CY23" s="43"/>
+      <c r="CZ23" s="43"/>
+      <c r="DA23" s="43"/>
       <c r="DB23" s="35"/>
       <c r="DC23" s="7"/>
     </row>
     <row r="24" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
       <c r="Q24" s="7"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="30"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="30"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="30"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="30"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="30"/>
-      <c r="AH24" s="32"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="36"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="37"/>
       <c r="AI24" s="7"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="27" t="s">
+      <c r="AM24" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AN24" s="28"/>
-      <c r="AO24" s="28"/>
-      <c r="AP24" s="28"/>
-      <c r="AQ24" s="28"/>
-      <c r="AR24" s="28"/>
-      <c r="AS24" s="28"/>
-      <c r="AT24" s="28"/>
-      <c r="AU24" s="28"/>
-      <c r="AV24" s="28"/>
-      <c r="AW24" s="28"/>
-      <c r="AX24" s="28"/>
-      <c r="AY24" s="28"/>
-      <c r="AZ24" s="29"/>
+      <c r="AN24" s="42"/>
+      <c r="AO24" s="42"/>
+      <c r="AP24" s="42"/>
+      <c r="AQ24" s="42"/>
+      <c r="AR24" s="42"/>
+      <c r="AS24" s="42"/>
+      <c r="AT24" s="42"/>
+      <c r="AU24" s="42"/>
+      <c r="AV24" s="42"/>
+      <c r="AW24" s="42"/>
+      <c r="AX24" s="42"/>
+      <c r="AY24" s="42"/>
+      <c r="AZ24" s="33"/>
       <c r="BA24" s="7"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="13"/>
@@ -4378,87 +4432,87 @@
       <c r="BR24" s="15"/>
       <c r="BS24" s="7"/>
       <c r="BV24" s="5"/>
-      <c r="BW24" s="27" t="s">
+      <c r="BW24" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="BX24" s="28"/>
-      <c r="BY24" s="28"/>
-      <c r="BZ24" s="28"/>
-      <c r="CA24" s="28"/>
-      <c r="CB24" s="28"/>
-      <c r="CC24" s="28"/>
-      <c r="CD24" s="28"/>
-      <c r="CE24" s="28"/>
-      <c r="CF24" s="28"/>
-      <c r="CG24" s="28"/>
-      <c r="CH24" s="28"/>
-      <c r="CI24" s="28"/>
-      <c r="CJ24" s="29"/>
+      <c r="BX24" s="42"/>
+      <c r="BY24" s="42"/>
+      <c r="BZ24" s="42"/>
+      <c r="CA24" s="42"/>
+      <c r="CB24" s="42"/>
+      <c r="CC24" s="42"/>
+      <c r="CD24" s="42"/>
+      <c r="CE24" s="42"/>
+      <c r="CF24" s="42"/>
+      <c r="CG24" s="42"/>
+      <c r="CH24" s="42"/>
+      <c r="CI24" s="42"/>
+      <c r="CJ24" s="33"/>
       <c r="CK24" s="7"/>
       <c r="CN24" s="5"/>
-      <c r="CO24" s="33"/>
-      <c r="CP24" s="34"/>
-      <c r="CQ24" s="34"/>
-      <c r="CR24" s="34"/>
-      <c r="CS24" s="34"/>
-      <c r="CT24" s="34"/>
-      <c r="CU24" s="34"/>
-      <c r="CV24" s="34"/>
-      <c r="CW24" s="34"/>
-      <c r="CX24" s="34"/>
-      <c r="CY24" s="34"/>
-      <c r="CZ24" s="34"/>
-      <c r="DA24" s="34"/>
+      <c r="CO24" s="34"/>
+      <c r="CP24" s="43"/>
+      <c r="CQ24" s="43"/>
+      <c r="CR24" s="43"/>
+      <c r="CS24" s="43"/>
+      <c r="CT24" s="43"/>
+      <c r="CU24" s="43"/>
+      <c r="CV24" s="43"/>
+      <c r="CW24" s="43"/>
+      <c r="CX24" s="43"/>
+      <c r="CY24" s="43"/>
+      <c r="CZ24" s="43"/>
+      <c r="DA24" s="43"/>
       <c r="DB24" s="35"/>
       <c r="DC24" s="7"/>
     </row>
     <row r="25" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
       <c r="Q25" s="7"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="27"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="27"/>
-      <c r="Z25" s="29"/>
-      <c r="AA25" s="27"/>
-      <c r="AB25" s="29"/>
-      <c r="AC25" s="27"/>
-      <c r="AD25" s="29"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="29"/>
-      <c r="AG25" s="27"/>
-      <c r="AH25" s="29"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="33"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="33"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="33"/>
       <c r="AI25" s="7"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="33"/>
-      <c r="AN25" s="34"/>
-      <c r="AO25" s="34"/>
-      <c r="AP25" s="34"/>
-      <c r="AQ25" s="34"/>
-      <c r="AR25" s="34"/>
-      <c r="AS25" s="34"/>
-      <c r="AT25" s="34"/>
-      <c r="AU25" s="34"/>
-      <c r="AV25" s="34"/>
-      <c r="AW25" s="34"/>
-      <c r="AX25" s="34"/>
-      <c r="AY25" s="34"/>
+      <c r="AM25" s="34"/>
+      <c r="AN25" s="43"/>
+      <c r="AO25" s="43"/>
+      <c r="AP25" s="43"/>
+      <c r="AQ25" s="43"/>
+      <c r="AR25" s="43"/>
+      <c r="AS25" s="43"/>
+      <c r="AT25" s="43"/>
+      <c r="AU25" s="43"/>
+      <c r="AV25" s="43"/>
+      <c r="AW25" s="43"/>
+      <c r="AX25" s="43"/>
+      <c r="AY25" s="43"/>
       <c r="AZ25" s="35"/>
       <c r="BA25" s="7"/>
       <c r="BD25" s="5"/>
@@ -4478,86 +4532,86 @@
       <c r="BR25" s="15"/>
       <c r="BS25" s="7"/>
       <c r="BV25" s="5"/>
-      <c r="BW25" s="33"/>
-      <c r="BX25" s="34"/>
-      <c r="BY25" s="34"/>
-      <c r="BZ25" s="34"/>
-      <c r="CA25" s="34"/>
-      <c r="CB25" s="34"/>
-      <c r="CC25" s="34"/>
-      <c r="CD25" s="34"/>
-      <c r="CE25" s="34"/>
-      <c r="CF25" s="34"/>
-      <c r="CG25" s="34"/>
-      <c r="CH25" s="34"/>
-      <c r="CI25" s="34"/>
+      <c r="BW25" s="34"/>
+      <c r="BX25" s="43"/>
+      <c r="BY25" s="43"/>
+      <c r="BZ25" s="43"/>
+      <c r="CA25" s="43"/>
+      <c r="CB25" s="43"/>
+      <c r="CC25" s="43"/>
+      <c r="CD25" s="43"/>
+      <c r="CE25" s="43"/>
+      <c r="CF25" s="43"/>
+      <c r="CG25" s="43"/>
+      <c r="CH25" s="43"/>
+      <c r="CI25" s="43"/>
       <c r="CJ25" s="35"/>
       <c r="CK25" s="7"/>
       <c r="CN25" s="5"/>
-      <c r="CO25" s="33"/>
-      <c r="CP25" s="34"/>
-      <c r="CQ25" s="34"/>
-      <c r="CR25" s="34"/>
-      <c r="CS25" s="34"/>
-      <c r="CT25" s="34"/>
-      <c r="CU25" s="34"/>
-      <c r="CV25" s="34"/>
-      <c r="CW25" s="34"/>
-      <c r="CX25" s="34"/>
-      <c r="CY25" s="34"/>
-      <c r="CZ25" s="34"/>
-      <c r="DA25" s="34"/>
+      <c r="CO25" s="34"/>
+      <c r="CP25" s="43"/>
+      <c r="CQ25" s="43"/>
+      <c r="CR25" s="43"/>
+      <c r="CS25" s="43"/>
+      <c r="CT25" s="43"/>
+      <c r="CU25" s="43"/>
+      <c r="CV25" s="43"/>
+      <c r="CW25" s="43"/>
+      <c r="CX25" s="43"/>
+      <c r="CY25" s="43"/>
+      <c r="CZ25" s="43"/>
+      <c r="DA25" s="43"/>
       <c r="DB25" s="35"/>
       <c r="DC25" s="7"/>
     </row>
     <row r="26" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
       <c r="Q26" s="7"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="33"/>
+      <c r="U26" s="34"/>
       <c r="V26" s="35"/>
-      <c r="W26" s="33"/>
+      <c r="W26" s="34"/>
       <c r="X26" s="35"/>
-      <c r="Y26" s="33"/>
+      <c r="Y26" s="34"/>
       <c r="Z26" s="35"/>
-      <c r="AA26" s="33"/>
+      <c r="AA26" s="34"/>
       <c r="AB26" s="35"/>
-      <c r="AC26" s="33"/>
+      <c r="AC26" s="34"/>
       <c r="AD26" s="35"/>
-      <c r="AE26" s="33"/>
+      <c r="AE26" s="34"/>
       <c r="AF26" s="35"/>
-      <c r="AG26" s="33"/>
+      <c r="AG26" s="34"/>
       <c r="AH26" s="35"/>
       <c r="AI26" s="7"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="30"/>
-      <c r="AN26" s="31"/>
-      <c r="AO26" s="31"/>
-      <c r="AP26" s="31"/>
-      <c r="AQ26" s="31"/>
-      <c r="AR26" s="31"/>
-      <c r="AS26" s="31"/>
-      <c r="AT26" s="31"/>
-      <c r="AU26" s="31"/>
-      <c r="AV26" s="31"/>
-      <c r="AW26" s="31"/>
-      <c r="AX26" s="31"/>
-      <c r="AY26" s="31"/>
-      <c r="AZ26" s="32"/>
+      <c r="AM26" s="36"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="44"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="37"/>
       <c r="BA26" s="7"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="13"/>
@@ -4576,88 +4630,88 @@
       <c r="BR26" s="15"/>
       <c r="BS26" s="7"/>
       <c r="BV26" s="5"/>
-      <c r="BW26" s="30"/>
-      <c r="BX26" s="31"/>
-      <c r="BY26" s="31"/>
-      <c r="BZ26" s="31"/>
-      <c r="CA26" s="31"/>
-      <c r="CB26" s="31"/>
-      <c r="CC26" s="31"/>
-      <c r="CD26" s="31"/>
-      <c r="CE26" s="31"/>
-      <c r="CF26" s="31"/>
-      <c r="CG26" s="31"/>
-      <c r="CH26" s="31"/>
-      <c r="CI26" s="31"/>
-      <c r="CJ26" s="32"/>
+      <c r="BW26" s="36"/>
+      <c r="BX26" s="44"/>
+      <c r="BY26" s="44"/>
+      <c r="BZ26" s="44"/>
+      <c r="CA26" s="44"/>
+      <c r="CB26" s="44"/>
+      <c r="CC26" s="44"/>
+      <c r="CD26" s="44"/>
+      <c r="CE26" s="44"/>
+      <c r="CF26" s="44"/>
+      <c r="CG26" s="44"/>
+      <c r="CH26" s="44"/>
+      <c r="CI26" s="44"/>
+      <c r="CJ26" s="37"/>
       <c r="CK26" s="7"/>
       <c r="CN26" s="5"/>
-      <c r="CO26" s="33"/>
-      <c r="CP26" s="34"/>
-      <c r="CQ26" s="34"/>
-      <c r="CR26" s="34"/>
-      <c r="CS26" s="34"/>
-      <c r="CT26" s="34"/>
-      <c r="CU26" s="34"/>
-      <c r="CV26" s="34"/>
-      <c r="CW26" s="34"/>
-      <c r="CX26" s="34"/>
-      <c r="CY26" s="34"/>
-      <c r="CZ26" s="34"/>
-      <c r="DA26" s="34"/>
+      <c r="CO26" s="34"/>
+      <c r="CP26" s="43"/>
+      <c r="CQ26" s="43"/>
+      <c r="CR26" s="43"/>
+      <c r="CS26" s="43"/>
+      <c r="CT26" s="43"/>
+      <c r="CU26" s="43"/>
+      <c r="CV26" s="43"/>
+      <c r="CW26" s="43"/>
+      <c r="CX26" s="43"/>
+      <c r="CY26" s="43"/>
+      <c r="CZ26" s="43"/>
+      <c r="DA26" s="43"/>
       <c r="DB26" s="35"/>
       <c r="DC26" s="7"/>
     </row>
     <row r="27" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
       <c r="Q27" s="7"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="30"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="30"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="30"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="30"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="30"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="30"/>
-      <c r="AH27" s="32"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="37"/>
+      <c r="AA27" s="36"/>
+      <c r="AB27" s="37"/>
+      <c r="AC27" s="36"/>
+      <c r="AD27" s="37"/>
+      <c r="AE27" s="36"/>
+      <c r="AF27" s="37"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="37"/>
       <c r="AI27" s="7"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="27" t="s">
+      <c r="AM27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="28"/>
-      <c r="AP27" s="28"/>
-      <c r="AQ27" s="28"/>
-      <c r="AR27" s="28"/>
-      <c r="AS27" s="28"/>
-      <c r="AT27" s="28"/>
-      <c r="AU27" s="28"/>
-      <c r="AV27" s="28"/>
-      <c r="AW27" s="28"/>
-      <c r="AX27" s="28"/>
-      <c r="AY27" s="28"/>
-      <c r="AZ27" s="29"/>
+      <c r="AN27" s="42"/>
+      <c r="AO27" s="42"/>
+      <c r="AP27" s="42"/>
+      <c r="AQ27" s="42"/>
+      <c r="AR27" s="42"/>
+      <c r="AS27" s="42"/>
+      <c r="AT27" s="42"/>
+      <c r="AU27" s="42"/>
+      <c r="AV27" s="42"/>
+      <c r="AW27" s="42"/>
+      <c r="AX27" s="42"/>
+      <c r="AY27" s="42"/>
+      <c r="AZ27" s="33"/>
       <c r="BA27" s="7"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="13"/>
@@ -4676,87 +4730,87 @@
       <c r="BR27" s="15"/>
       <c r="BS27" s="7"/>
       <c r="BV27" s="5"/>
-      <c r="BW27" s="27" t="s">
+      <c r="BW27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="BX27" s="28"/>
-      <c r="BY27" s="28"/>
-      <c r="BZ27" s="28"/>
-      <c r="CA27" s="28"/>
-      <c r="CB27" s="28"/>
-      <c r="CC27" s="28"/>
-      <c r="CD27" s="28"/>
-      <c r="CE27" s="28"/>
-      <c r="CF27" s="28"/>
-      <c r="CG27" s="28"/>
-      <c r="CH27" s="28"/>
-      <c r="CI27" s="28"/>
-      <c r="CJ27" s="29"/>
+      <c r="BX27" s="42"/>
+      <c r="BY27" s="42"/>
+      <c r="BZ27" s="42"/>
+      <c r="CA27" s="42"/>
+      <c r="CB27" s="42"/>
+      <c r="CC27" s="42"/>
+      <c r="CD27" s="42"/>
+      <c r="CE27" s="42"/>
+      <c r="CF27" s="42"/>
+      <c r="CG27" s="42"/>
+      <c r="CH27" s="42"/>
+      <c r="CI27" s="42"/>
+      <c r="CJ27" s="33"/>
       <c r="CK27" s="7"/>
       <c r="CN27" s="5"/>
-      <c r="CO27" s="33"/>
-      <c r="CP27" s="34"/>
-      <c r="CQ27" s="34"/>
-      <c r="CR27" s="34"/>
-      <c r="CS27" s="34"/>
-      <c r="CT27" s="34"/>
-      <c r="CU27" s="34"/>
-      <c r="CV27" s="34"/>
-      <c r="CW27" s="34"/>
-      <c r="CX27" s="34"/>
-      <c r="CY27" s="34"/>
-      <c r="CZ27" s="34"/>
-      <c r="DA27" s="34"/>
+      <c r="CO27" s="34"/>
+      <c r="CP27" s="43"/>
+      <c r="CQ27" s="43"/>
+      <c r="CR27" s="43"/>
+      <c r="CS27" s="43"/>
+      <c r="CT27" s="43"/>
+      <c r="CU27" s="43"/>
+      <c r="CV27" s="43"/>
+      <c r="CW27" s="43"/>
+      <c r="CX27" s="43"/>
+      <c r="CY27" s="43"/>
+      <c r="CZ27" s="43"/>
+      <c r="DA27" s="43"/>
       <c r="DB27" s="35"/>
       <c r="DC27" s="7"/>
     </row>
     <row r="28" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
       <c r="Q28" s="7"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="27"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="27"/>
-      <c r="Z28" s="29"/>
-      <c r="AA28" s="27"/>
-      <c r="AB28" s="29"/>
-      <c r="AC28" s="27"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="27"/>
-      <c r="AF28" s="29"/>
-      <c r="AG28" s="27"/>
-      <c r="AH28" s="29"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="33"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="33"/>
       <c r="AI28" s="7"/>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="34"/>
-      <c r="AY28" s="34"/>
+      <c r="AM28" s="34"/>
+      <c r="AN28" s="43"/>
+      <c r="AO28" s="43"/>
+      <c r="AP28" s="43"/>
+      <c r="AQ28" s="43"/>
+      <c r="AR28" s="43"/>
+      <c r="AS28" s="43"/>
+      <c r="AT28" s="43"/>
+      <c r="AU28" s="43"/>
+      <c r="AV28" s="43"/>
+      <c r="AW28" s="43"/>
+      <c r="AX28" s="43"/>
+      <c r="AY28" s="43"/>
       <c r="AZ28" s="35"/>
       <c r="BA28" s="7"/>
       <c r="BD28" s="5"/>
@@ -4776,86 +4830,86 @@
       <c r="BR28" s="15"/>
       <c r="BS28" s="7"/>
       <c r="BV28" s="5"/>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="34"/>
-      <c r="BY28" s="34"/>
-      <c r="BZ28" s="34"/>
-      <c r="CA28" s="34"/>
-      <c r="CB28" s="34"/>
-      <c r="CC28" s="34"/>
-      <c r="CD28" s="34"/>
-      <c r="CE28" s="34"/>
-      <c r="CF28" s="34"/>
-      <c r="CG28" s="34"/>
-      <c r="CH28" s="34"/>
-      <c r="CI28" s="34"/>
+      <c r="BW28" s="34"/>
+      <c r="BX28" s="43"/>
+      <c r="BY28" s="43"/>
+      <c r="BZ28" s="43"/>
+      <c r="CA28" s="43"/>
+      <c r="CB28" s="43"/>
+      <c r="CC28" s="43"/>
+      <c r="CD28" s="43"/>
+      <c r="CE28" s="43"/>
+      <c r="CF28" s="43"/>
+      <c r="CG28" s="43"/>
+      <c r="CH28" s="43"/>
+      <c r="CI28" s="43"/>
       <c r="CJ28" s="35"/>
       <c r="CK28" s="7"/>
       <c r="CN28" s="5"/>
-      <c r="CO28" s="33"/>
-      <c r="CP28" s="34"/>
-      <c r="CQ28" s="34"/>
-      <c r="CR28" s="34"/>
-      <c r="CS28" s="34"/>
-      <c r="CT28" s="34"/>
-      <c r="CU28" s="34"/>
-      <c r="CV28" s="34"/>
-      <c r="CW28" s="34"/>
-      <c r="CX28" s="34"/>
-      <c r="CY28" s="34"/>
-      <c r="CZ28" s="34"/>
-      <c r="DA28" s="34"/>
+      <c r="CO28" s="34"/>
+      <c r="CP28" s="43"/>
+      <c r="CQ28" s="43"/>
+      <c r="CR28" s="43"/>
+      <c r="CS28" s="43"/>
+      <c r="CT28" s="43"/>
+      <c r="CU28" s="43"/>
+      <c r="CV28" s="43"/>
+      <c r="CW28" s="43"/>
+      <c r="CX28" s="43"/>
+      <c r="CY28" s="43"/>
+      <c r="CZ28" s="43"/>
+      <c r="DA28" s="43"/>
       <c r="DB28" s="35"/>
       <c r="DC28" s="7"/>
     </row>
     <row r="29" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
       <c r="Q29" s="7"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="33"/>
+      <c r="U29" s="34"/>
       <c r="V29" s="35"/>
-      <c r="W29" s="33"/>
+      <c r="W29" s="34"/>
       <c r="X29" s="35"/>
-      <c r="Y29" s="33"/>
+      <c r="Y29" s="34"/>
       <c r="Z29" s="35"/>
-      <c r="AA29" s="33"/>
+      <c r="AA29" s="34"/>
       <c r="AB29" s="35"/>
-      <c r="AC29" s="33"/>
+      <c r="AC29" s="34"/>
       <c r="AD29" s="35"/>
-      <c r="AE29" s="33"/>
+      <c r="AE29" s="34"/>
       <c r="AF29" s="35"/>
-      <c r="AG29" s="33"/>
+      <c r="AG29" s="34"/>
       <c r="AH29" s="35"/>
       <c r="AI29" s="7"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="31"/>
-      <c r="AQ29" s="31"/>
-      <c r="AR29" s="31"/>
-      <c r="AS29" s="31"/>
-      <c r="AT29" s="31"/>
-      <c r="AU29" s="31"/>
-      <c r="AV29" s="31"/>
-      <c r="AW29" s="31"/>
-      <c r="AX29" s="31"/>
-      <c r="AY29" s="31"/>
-      <c r="AZ29" s="32"/>
+      <c r="AM29" s="36"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="37"/>
       <c r="BA29" s="7"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="13"/>
@@ -4874,88 +4928,88 @@
       <c r="BR29" s="15"/>
       <c r="BS29" s="7"/>
       <c r="BV29" s="5"/>
-      <c r="BW29" s="30"/>
-      <c r="BX29" s="31"/>
-      <c r="BY29" s="31"/>
-      <c r="BZ29" s="31"/>
-      <c r="CA29" s="31"/>
-      <c r="CB29" s="31"/>
-      <c r="CC29" s="31"/>
-      <c r="CD29" s="31"/>
-      <c r="CE29" s="31"/>
-      <c r="CF29" s="31"/>
-      <c r="CG29" s="31"/>
-      <c r="CH29" s="31"/>
-      <c r="CI29" s="31"/>
-      <c r="CJ29" s="32"/>
+      <c r="BW29" s="36"/>
+      <c r="BX29" s="44"/>
+      <c r="BY29" s="44"/>
+      <c r="BZ29" s="44"/>
+      <c r="CA29" s="44"/>
+      <c r="CB29" s="44"/>
+      <c r="CC29" s="44"/>
+      <c r="CD29" s="44"/>
+      <c r="CE29" s="44"/>
+      <c r="CF29" s="44"/>
+      <c r="CG29" s="44"/>
+      <c r="CH29" s="44"/>
+      <c r="CI29" s="44"/>
+      <c r="CJ29" s="37"/>
       <c r="CK29" s="7"/>
       <c r="CN29" s="5"/>
-      <c r="CO29" s="33"/>
-      <c r="CP29" s="34"/>
-      <c r="CQ29" s="34"/>
-      <c r="CR29" s="34"/>
-      <c r="CS29" s="34"/>
-      <c r="CT29" s="34"/>
-      <c r="CU29" s="34"/>
-      <c r="CV29" s="34"/>
-      <c r="CW29" s="34"/>
-      <c r="CX29" s="34"/>
-      <c r="CY29" s="34"/>
-      <c r="CZ29" s="34"/>
-      <c r="DA29" s="34"/>
+      <c r="CO29" s="34"/>
+      <c r="CP29" s="43"/>
+      <c r="CQ29" s="43"/>
+      <c r="CR29" s="43"/>
+      <c r="CS29" s="43"/>
+      <c r="CT29" s="43"/>
+      <c r="CU29" s="43"/>
+      <c r="CV29" s="43"/>
+      <c r="CW29" s="43"/>
+      <c r="CX29" s="43"/>
+      <c r="CY29" s="43"/>
+      <c r="CZ29" s="43"/>
+      <c r="DA29" s="43"/>
       <c r="DB29" s="35"/>
       <c r="DC29" s="7"/>
     </row>
     <row r="30" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
       <c r="Q30" s="7"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="30"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="30"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="30"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="30"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="30"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="30"/>
-      <c r="AH30" s="32"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="37"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="37"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="37"/>
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="37"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="37"/>
       <c r="AI30" s="7"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="27" t="s">
+      <c r="AM30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AN30" s="28"/>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28"/>
-      <c r="AQ30" s="28"/>
-      <c r="AR30" s="28"/>
-      <c r="AS30" s="28"/>
-      <c r="AT30" s="28"/>
-      <c r="AU30" s="28"/>
-      <c r="AV30" s="28"/>
-      <c r="AW30" s="28"/>
-      <c r="AX30" s="28"/>
-      <c r="AY30" s="28"/>
-      <c r="AZ30" s="29"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="42"/>
+      <c r="AP30" s="42"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+      <c r="AT30" s="42"/>
+      <c r="AU30" s="42"/>
+      <c r="AV30" s="42"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="33"/>
       <c r="BA30" s="7"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="13"/>
@@ -4974,87 +5028,87 @@
       <c r="BR30" s="15"/>
       <c r="BS30" s="7"/>
       <c r="BV30" s="5"/>
-      <c r="BW30" s="27" t="s">
+      <c r="BW30" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="BX30" s="28"/>
-      <c r="BY30" s="28"/>
-      <c r="BZ30" s="28"/>
-      <c r="CA30" s="28"/>
-      <c r="CB30" s="28"/>
-      <c r="CC30" s="28"/>
-      <c r="CD30" s="28"/>
-      <c r="CE30" s="28"/>
-      <c r="CF30" s="28"/>
-      <c r="CG30" s="28"/>
-      <c r="CH30" s="28"/>
-      <c r="CI30" s="28"/>
-      <c r="CJ30" s="29"/>
+      <c r="BX30" s="42"/>
+      <c r="BY30" s="42"/>
+      <c r="BZ30" s="42"/>
+      <c r="CA30" s="42"/>
+      <c r="CB30" s="42"/>
+      <c r="CC30" s="42"/>
+      <c r="CD30" s="42"/>
+      <c r="CE30" s="42"/>
+      <c r="CF30" s="42"/>
+      <c r="CG30" s="42"/>
+      <c r="CH30" s="42"/>
+      <c r="CI30" s="42"/>
+      <c r="CJ30" s="33"/>
       <c r="CK30" s="7"/>
       <c r="CN30" s="5"/>
-      <c r="CO30" s="33"/>
-      <c r="CP30" s="34"/>
-      <c r="CQ30" s="34"/>
-      <c r="CR30" s="34"/>
-      <c r="CS30" s="34"/>
-      <c r="CT30" s="34"/>
-      <c r="CU30" s="34"/>
-      <c r="CV30" s="34"/>
-      <c r="CW30" s="34"/>
-      <c r="CX30" s="34"/>
-      <c r="CY30" s="34"/>
-      <c r="CZ30" s="34"/>
-      <c r="DA30" s="34"/>
+      <c r="CO30" s="34"/>
+      <c r="CP30" s="43"/>
+      <c r="CQ30" s="43"/>
+      <c r="CR30" s="43"/>
+      <c r="CS30" s="43"/>
+      <c r="CT30" s="43"/>
+      <c r="CU30" s="43"/>
+      <c r="CV30" s="43"/>
+      <c r="CW30" s="43"/>
+      <c r="CX30" s="43"/>
+      <c r="CY30" s="43"/>
+      <c r="CZ30" s="43"/>
+      <c r="DA30" s="43"/>
       <c r="DB30" s="35"/>
       <c r="DC30" s="7"/>
     </row>
     <row r="31" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
       <c r="Q31" s="7"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="29"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="29"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="29"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="29"/>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="29"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="32"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="32"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="32"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="33"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="33"/>
       <c r="AI31" s="7"/>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="33"/>
-      <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
-      <c r="AP31" s="34"/>
-      <c r="AQ31" s="34"/>
-      <c r="AR31" s="34"/>
-      <c r="AS31" s="34"/>
-      <c r="AT31" s="34"/>
-      <c r="AU31" s="34"/>
-      <c r="AV31" s="34"/>
-      <c r="AW31" s="34"/>
-      <c r="AX31" s="34"/>
-      <c r="AY31" s="34"/>
+      <c r="AM31" s="34"/>
+      <c r="AN31" s="43"/>
+      <c r="AO31" s="43"/>
+      <c r="AP31" s="43"/>
+      <c r="AQ31" s="43"/>
+      <c r="AR31" s="43"/>
+      <c r="AS31" s="43"/>
+      <c r="AT31" s="43"/>
+      <c r="AU31" s="43"/>
+      <c r="AV31" s="43"/>
+      <c r="AW31" s="43"/>
+      <c r="AX31" s="43"/>
+      <c r="AY31" s="43"/>
       <c r="AZ31" s="35"/>
       <c r="BA31" s="7"/>
       <c r="BD31" s="5"/>
@@ -5074,86 +5128,86 @@
       <c r="BR31" s="15"/>
       <c r="BS31" s="7"/>
       <c r="BV31" s="5"/>
-      <c r="BW31" s="33"/>
-      <c r="BX31" s="34"/>
-      <c r="BY31" s="34"/>
-      <c r="BZ31" s="34"/>
-      <c r="CA31" s="34"/>
-      <c r="CB31" s="34"/>
-      <c r="CC31" s="34"/>
-      <c r="CD31" s="34"/>
-      <c r="CE31" s="34"/>
-      <c r="CF31" s="34"/>
-      <c r="CG31" s="34"/>
-      <c r="CH31" s="34"/>
-      <c r="CI31" s="34"/>
+      <c r="BW31" s="34"/>
+      <c r="BX31" s="43"/>
+      <c r="BY31" s="43"/>
+      <c r="BZ31" s="43"/>
+      <c r="CA31" s="43"/>
+      <c r="CB31" s="43"/>
+      <c r="CC31" s="43"/>
+      <c r="CD31" s="43"/>
+      <c r="CE31" s="43"/>
+      <c r="CF31" s="43"/>
+      <c r="CG31" s="43"/>
+      <c r="CH31" s="43"/>
+      <c r="CI31" s="43"/>
       <c r="CJ31" s="35"/>
       <c r="CK31" s="7"/>
       <c r="CN31" s="5"/>
-      <c r="CO31" s="33"/>
-      <c r="CP31" s="34"/>
-      <c r="CQ31" s="34"/>
-      <c r="CR31" s="34"/>
-      <c r="CS31" s="34"/>
-      <c r="CT31" s="34"/>
-      <c r="CU31" s="34"/>
-      <c r="CV31" s="34"/>
-      <c r="CW31" s="34"/>
-      <c r="CX31" s="34"/>
-      <c r="CY31" s="34"/>
-      <c r="CZ31" s="34"/>
-      <c r="DA31" s="34"/>
+      <c r="CO31" s="34"/>
+      <c r="CP31" s="43"/>
+      <c r="CQ31" s="43"/>
+      <c r="CR31" s="43"/>
+      <c r="CS31" s="43"/>
+      <c r="CT31" s="43"/>
+      <c r="CU31" s="43"/>
+      <c r="CV31" s="43"/>
+      <c r="CW31" s="43"/>
+      <c r="CX31" s="43"/>
+      <c r="CY31" s="43"/>
+      <c r="CZ31" s="43"/>
+      <c r="DA31" s="43"/>
       <c r="DB31" s="35"/>
       <c r="DC31" s="7"/>
     </row>
     <row r="32" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
       <c r="Q32" s="7"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="33"/>
+      <c r="U32" s="34"/>
       <c r="V32" s="35"/>
-      <c r="W32" s="33"/>
+      <c r="W32" s="34"/>
       <c r="X32" s="35"/>
-      <c r="Y32" s="33"/>
+      <c r="Y32" s="34"/>
       <c r="Z32" s="35"/>
-      <c r="AA32" s="33"/>
+      <c r="AA32" s="34"/>
       <c r="AB32" s="35"/>
-      <c r="AC32" s="33"/>
+      <c r="AC32" s="34"/>
       <c r="AD32" s="35"/>
-      <c r="AE32" s="33"/>
+      <c r="AE32" s="34"/>
       <c r="AF32" s="35"/>
-      <c r="AG32" s="33"/>
+      <c r="AG32" s="34"/>
       <c r="AH32" s="35"/>
       <c r="AI32" s="7"/>
       <c r="AL32" s="5"/>
-      <c r="AM32" s="30"/>
-      <c r="AN32" s="31"/>
-      <c r="AO32" s="31"/>
-      <c r="AP32" s="31"/>
-      <c r="AQ32" s="31"/>
-      <c r="AR32" s="31"/>
-      <c r="AS32" s="31"/>
-      <c r="AT32" s="31"/>
-      <c r="AU32" s="31"/>
-      <c r="AV32" s="31"/>
-      <c r="AW32" s="31"/>
-      <c r="AX32" s="31"/>
-      <c r="AY32" s="31"/>
-      <c r="AZ32" s="32"/>
+      <c r="AM32" s="36"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="37"/>
       <c r="BA32" s="7"/>
       <c r="BD32" s="5"/>
       <c r="BE32" s="16"/>
@@ -5172,88 +5226,88 @@
       <c r="BR32" s="18"/>
       <c r="BS32" s="7"/>
       <c r="BV32" s="5"/>
-      <c r="BW32" s="30"/>
-      <c r="BX32" s="31"/>
-      <c r="BY32" s="31"/>
-      <c r="BZ32" s="31"/>
-      <c r="CA32" s="31"/>
-      <c r="CB32" s="31"/>
-      <c r="CC32" s="31"/>
-      <c r="CD32" s="31"/>
-      <c r="CE32" s="31"/>
-      <c r="CF32" s="31"/>
-      <c r="CG32" s="31"/>
-      <c r="CH32" s="31"/>
-      <c r="CI32" s="31"/>
-      <c r="CJ32" s="32"/>
+      <c r="BW32" s="36"/>
+      <c r="BX32" s="44"/>
+      <c r="BY32" s="44"/>
+      <c r="BZ32" s="44"/>
+      <c r="CA32" s="44"/>
+      <c r="CB32" s="44"/>
+      <c r="CC32" s="44"/>
+      <c r="CD32" s="44"/>
+      <c r="CE32" s="44"/>
+      <c r="CF32" s="44"/>
+      <c r="CG32" s="44"/>
+      <c r="CH32" s="44"/>
+      <c r="CI32" s="44"/>
+      <c r="CJ32" s="37"/>
       <c r="CK32" s="7"/>
       <c r="CN32" s="5"/>
-      <c r="CO32" s="30"/>
-      <c r="CP32" s="31"/>
-      <c r="CQ32" s="31"/>
-      <c r="CR32" s="31"/>
-      <c r="CS32" s="31"/>
-      <c r="CT32" s="31"/>
-      <c r="CU32" s="31"/>
-      <c r="CV32" s="31"/>
-      <c r="CW32" s="31"/>
-      <c r="CX32" s="31"/>
-      <c r="CY32" s="31"/>
-      <c r="CZ32" s="31"/>
-      <c r="DA32" s="31"/>
-      <c r="DB32" s="32"/>
+      <c r="CO32" s="36"/>
+      <c r="CP32" s="44"/>
+      <c r="CQ32" s="44"/>
+      <c r="CR32" s="44"/>
+      <c r="CS32" s="44"/>
+      <c r="CT32" s="44"/>
+      <c r="CU32" s="44"/>
+      <c r="CV32" s="44"/>
+      <c r="CW32" s="44"/>
+      <c r="CX32" s="44"/>
+      <c r="CY32" s="44"/>
+      <c r="CZ32" s="44"/>
+      <c r="DA32" s="44"/>
+      <c r="DB32" s="37"/>
       <c r="DC32" s="7"/>
     </row>
     <row r="33" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
       <c r="Q33" s="7"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="30"/>
-      <c r="AB33" s="32"/>
-      <c r="AC33" s="30"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="30"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="30"/>
-      <c r="AH33" s="32"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="37"/>
+      <c r="AC33" s="36"/>
+      <c r="AD33" s="37"/>
+      <c r="AE33" s="36"/>
+      <c r="AF33" s="37"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="37"/>
       <c r="AI33" s="7"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="27" t="s">
+      <c r="AM33" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AN33" s="28"/>
-      <c r="AO33" s="28"/>
-      <c r="AP33" s="28"/>
-      <c r="AQ33" s="28"/>
-      <c r="AR33" s="28"/>
-      <c r="AS33" s="28"/>
-      <c r="AT33" s="28"/>
-      <c r="AU33" s="28"/>
-      <c r="AV33" s="28"/>
-      <c r="AW33" s="28"/>
-      <c r="AX33" s="28"/>
-      <c r="AY33" s="28"/>
-      <c r="AZ33" s="29"/>
+      <c r="AN33" s="42"/>
+      <c r="AO33" s="42"/>
+      <c r="AP33" s="42"/>
+      <c r="AQ33" s="42"/>
+      <c r="AR33" s="42"/>
+      <c r="AS33" s="42"/>
+      <c r="AT33" s="42"/>
+      <c r="AU33" s="42"/>
+      <c r="AV33" s="42"/>
+      <c r="AW33" s="42"/>
+      <c r="AX33" s="42"/>
+      <c r="AY33" s="42"/>
+      <c r="AZ33" s="33"/>
       <c r="BA33" s="7"/>
       <c r="BD33" s="5"/>
       <c r="BE33" s="6"/>
@@ -5272,22 +5326,22 @@
       <c r="BR33" s="6"/>
       <c r="BS33" s="7"/>
       <c r="BV33" s="5"/>
-      <c r="BW33" s="27" t="s">
+      <c r="BW33" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="BX33" s="28"/>
-      <c r="BY33" s="28"/>
-      <c r="BZ33" s="28"/>
-      <c r="CA33" s="28"/>
-      <c r="CB33" s="28"/>
-      <c r="CC33" s="28"/>
-      <c r="CD33" s="28"/>
-      <c r="CE33" s="28"/>
-      <c r="CF33" s="28"/>
-      <c r="CG33" s="28"/>
-      <c r="CH33" s="28"/>
-      <c r="CI33" s="28"/>
-      <c r="CJ33" s="29"/>
+      <c r="BX33" s="42"/>
+      <c r="BY33" s="42"/>
+      <c r="BZ33" s="42"/>
+      <c r="CA33" s="42"/>
+      <c r="CB33" s="42"/>
+      <c r="CC33" s="42"/>
+      <c r="CD33" s="42"/>
+      <c r="CE33" s="42"/>
+      <c r="CF33" s="42"/>
+      <c r="CG33" s="42"/>
+      <c r="CH33" s="42"/>
+      <c r="CI33" s="42"/>
+      <c r="CJ33" s="33"/>
       <c r="CK33" s="7"/>
       <c r="CN33" s="5"/>
       <c r="CO33" s="14"/>
@@ -5324,96 +5378,96 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="52" t="s">
+      <c r="U34" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52"/>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52"/>
-      <c r="AB34" s="52" t="s">
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+      <c r="AA34" s="41"/>
+      <c r="AB34" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="52"/>
-      <c r="AG34" s="52"/>
-      <c r="AH34" s="52"/>
+      <c r="AC34" s="41"/>
+      <c r="AD34" s="41"/>
+      <c r="AE34" s="41"/>
+      <c r="AF34" s="41"/>
+      <c r="AG34" s="41"/>
+      <c r="AH34" s="41"/>
       <c r="AI34" s="7"/>
       <c r="AL34" s="5"/>
-      <c r="AM34" s="33"/>
-      <c r="AN34" s="34"/>
-      <c r="AO34" s="34"/>
-      <c r="AP34" s="34"/>
-      <c r="AQ34" s="34"/>
-      <c r="AR34" s="34"/>
-      <c r="AS34" s="34"/>
-      <c r="AT34" s="34"/>
-      <c r="AU34" s="34"/>
-      <c r="AV34" s="34"/>
-      <c r="AW34" s="34"/>
-      <c r="AX34" s="34"/>
-      <c r="AY34" s="34"/>
+      <c r="AM34" s="34"/>
+      <c r="AN34" s="43"/>
+      <c r="AO34" s="43"/>
+      <c r="AP34" s="43"/>
+      <c r="AQ34" s="43"/>
+      <c r="AR34" s="43"/>
+      <c r="AS34" s="43"/>
+      <c r="AT34" s="43"/>
+      <c r="AU34" s="43"/>
+      <c r="AV34" s="43"/>
+      <c r="AW34" s="43"/>
+      <c r="AX34" s="43"/>
+      <c r="AY34" s="43"/>
       <c r="AZ34" s="35"/>
       <c r="BA34" s="7"/>
       <c r="BD34" s="5"/>
-      <c r="BE34" s="23" t="s">
+      <c r="BE34" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="BF34" s="24"/>
+      <c r="BF34" s="53"/>
       <c r="BG34" s="14"/>
-      <c r="BH34" s="27" t="s">
+      <c r="BH34" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="BI34" s="28"/>
-      <c r="BJ34" s="28"/>
-      <c r="BK34" s="28"/>
-      <c r="BL34" s="28"/>
-      <c r="BM34" s="28"/>
-      <c r="BN34" s="28"/>
-      <c r="BO34" s="28"/>
-      <c r="BP34" s="28"/>
-      <c r="BQ34" s="28"/>
-      <c r="BR34" s="29"/>
+      <c r="BI34" s="42"/>
+      <c r="BJ34" s="42"/>
+      <c r="BK34" s="42"/>
+      <c r="BL34" s="42"/>
+      <c r="BM34" s="42"/>
+      <c r="BN34" s="42"/>
+      <c r="BO34" s="42"/>
+      <c r="BP34" s="42"/>
+      <c r="BQ34" s="42"/>
+      <c r="BR34" s="33"/>
       <c r="BS34" s="7"/>
       <c r="BV34" s="5"/>
-      <c r="BW34" s="33"/>
-      <c r="BX34" s="34"/>
-      <c r="BY34" s="34"/>
-      <c r="BZ34" s="34"/>
-      <c r="CA34" s="34"/>
-      <c r="CB34" s="34"/>
-      <c r="CC34" s="34"/>
-      <c r="CD34" s="34"/>
-      <c r="CE34" s="34"/>
-      <c r="CF34" s="34"/>
-      <c r="CG34" s="34"/>
-      <c r="CH34" s="34"/>
-      <c r="CI34" s="34"/>
+      <c r="BW34" s="34"/>
+      <c r="BX34" s="43"/>
+      <c r="BY34" s="43"/>
+      <c r="BZ34" s="43"/>
+      <c r="CA34" s="43"/>
+      <c r="CB34" s="43"/>
+      <c r="CC34" s="43"/>
+      <c r="CD34" s="43"/>
+      <c r="CE34" s="43"/>
+      <c r="CF34" s="43"/>
+      <c r="CG34" s="43"/>
+      <c r="CH34" s="43"/>
+      <c r="CI34" s="43"/>
       <c r="CJ34" s="35"/>
       <c r="CK34" s="7"/>
       <c r="CN34" s="5"/>
-      <c r="CO34" s="23" t="s">
+      <c r="CO34" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="CP34" s="24"/>
+      <c r="CP34" s="53"/>
       <c r="CQ34" s="14"/>
-      <c r="CR34" s="45" t="s">
+      <c r="CR34" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="CS34" s="28"/>
-      <c r="CT34" s="28"/>
-      <c r="CU34" s="28"/>
-      <c r="CV34" s="28"/>
-      <c r="CW34" s="28"/>
-      <c r="CX34" s="28"/>
-      <c r="CY34" s="28"/>
-      <c r="CZ34" s="28"/>
-      <c r="DA34" s="28"/>
-      <c r="DB34" s="29"/>
+      <c r="CS34" s="42"/>
+      <c r="CT34" s="42"/>
+      <c r="CU34" s="42"/>
+      <c r="CV34" s="42"/>
+      <c r="CW34" s="42"/>
+      <c r="CX34" s="42"/>
+      <c r="CY34" s="42"/>
+      <c r="CZ34" s="42"/>
+      <c r="DA34" s="42"/>
+      <c r="DB34" s="33"/>
       <c r="DC34" s="7"/>
     </row>
     <row r="35" spans="2:107" x14ac:dyDescent="0.4">
@@ -5434,84 +5488,84 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="52"/>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="52"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="52"/>
-      <c r="AG35" s="52"/>
-      <c r="AH35" s="52"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+      <c r="AA35" s="41"/>
+      <c r="AB35" s="41"/>
+      <c r="AC35" s="41"/>
+      <c r="AD35" s="41"/>
+      <c r="AE35" s="41"/>
+      <c r="AF35" s="41"/>
+      <c r="AG35" s="41"/>
+      <c r="AH35" s="41"/>
       <c r="AI35" s="7"/>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="30"/>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="31"/>
-      <c r="AP35" s="31"/>
-      <c r="AQ35" s="31"/>
-      <c r="AR35" s="31"/>
-      <c r="AS35" s="31"/>
-      <c r="AT35" s="31"/>
-      <c r="AU35" s="31"/>
-      <c r="AV35" s="31"/>
-      <c r="AW35" s="31"/>
-      <c r="AX35" s="31"/>
-      <c r="AY35" s="31"/>
-      <c r="AZ35" s="32"/>
+      <c r="AM35" s="36"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="37"/>
       <c r="BA35" s="7"/>
       <c r="BD35" s="5"/>
-      <c r="BE35" s="25"/>
-      <c r="BF35" s="26"/>
+      <c r="BE35" s="54"/>
+      <c r="BF35" s="55"/>
       <c r="BG35" s="14"/>
-      <c r="BH35" s="30"/>
-      <c r="BI35" s="31"/>
-      <c r="BJ35" s="31"/>
-      <c r="BK35" s="31"/>
-      <c r="BL35" s="31"/>
-      <c r="BM35" s="31"/>
-      <c r="BN35" s="31"/>
-      <c r="BO35" s="31"/>
-      <c r="BP35" s="31"/>
-      <c r="BQ35" s="31"/>
-      <c r="BR35" s="32"/>
+      <c r="BH35" s="36"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
+      <c r="BK35" s="44"/>
+      <c r="BL35" s="44"/>
+      <c r="BM35" s="44"/>
+      <c r="BN35" s="44"/>
+      <c r="BO35" s="44"/>
+      <c r="BP35" s="44"/>
+      <c r="BQ35" s="44"/>
+      <c r="BR35" s="37"/>
       <c r="BS35" s="7"/>
       <c r="BV35" s="5"/>
-      <c r="BW35" s="30"/>
-      <c r="BX35" s="31"/>
-      <c r="BY35" s="31"/>
-      <c r="BZ35" s="31"/>
-      <c r="CA35" s="31"/>
-      <c r="CB35" s="31"/>
-      <c r="CC35" s="31"/>
-      <c r="CD35" s="31"/>
-      <c r="CE35" s="31"/>
-      <c r="CF35" s="31"/>
-      <c r="CG35" s="31"/>
-      <c r="CH35" s="31"/>
-      <c r="CI35" s="31"/>
-      <c r="CJ35" s="32"/>
+      <c r="BW35" s="36"/>
+      <c r="BX35" s="44"/>
+      <c r="BY35" s="44"/>
+      <c r="BZ35" s="44"/>
+      <c r="CA35" s="44"/>
+      <c r="CB35" s="44"/>
+      <c r="CC35" s="44"/>
+      <c r="CD35" s="44"/>
+      <c r="CE35" s="44"/>
+      <c r="CF35" s="44"/>
+      <c r="CG35" s="44"/>
+      <c r="CH35" s="44"/>
+      <c r="CI35" s="44"/>
+      <c r="CJ35" s="37"/>
       <c r="CK35" s="7"/>
       <c r="CN35" s="5"/>
-      <c r="CO35" s="25"/>
-      <c r="CP35" s="26"/>
+      <c r="CO35" s="54"/>
+      <c r="CP35" s="55"/>
       <c r="CQ35" s="14"/>
-      <c r="CR35" s="30"/>
-      <c r="CS35" s="31"/>
-      <c r="CT35" s="31"/>
-      <c r="CU35" s="31"/>
-      <c r="CV35" s="31"/>
-      <c r="CW35" s="31"/>
-      <c r="CX35" s="31"/>
-      <c r="CY35" s="31"/>
-      <c r="CZ35" s="31"/>
-      <c r="DA35" s="31"/>
-      <c r="DB35" s="32"/>
+      <c r="CR35" s="36"/>
+      <c r="CS35" s="44"/>
+      <c r="CT35" s="44"/>
+      <c r="CU35" s="44"/>
+      <c r="CV35" s="44"/>
+      <c r="CW35" s="44"/>
+      <c r="CX35" s="44"/>
+      <c r="CY35" s="44"/>
+      <c r="CZ35" s="44"/>
+      <c r="DA35" s="44"/>
+      <c r="DB35" s="37"/>
       <c r="DC35" s="7"/>
     </row>
     <row r="36" spans="2:107" x14ac:dyDescent="0.4">
@@ -5613,388 +5667,364 @@
       <c r="DC36" s="7"/>
     </row>
     <row r="37" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="36" t="s">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="36" t="s">
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="38"/>
-      <c r="T37" s="36" t="s">
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="25"/>
+      <c r="T37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="37"/>
-      <c r="V37" s="37"/>
-      <c r="W37" s="37"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="36" t="s">
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="37"/>
-      <c r="AA37" s="37"/>
-      <c r="AB37" s="37"/>
-      <c r="AC37" s="37"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="36" t="s">
+      <c r="Z37" s="24"/>
+      <c r="AA37" s="24"/>
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="24"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AF37" s="37"/>
-      <c r="AG37" s="37"/>
-      <c r="AH37" s="37"/>
-      <c r="AI37" s="38"/>
-      <c r="AL37" s="36" t="s">
+      <c r="AF37" s="24"/>
+      <c r="AG37" s="24"/>
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="25"/>
+      <c r="AL37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AM37" s="37"/>
-      <c r="AN37" s="37"/>
-      <c r="AO37" s="37"/>
-      <c r="AP37" s="38"/>
-      <c r="AQ37" s="36" t="s">
+      <c r="AM37" s="24"/>
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="24"/>
+      <c r="AP37" s="25"/>
+      <c r="AQ37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AR37" s="37"/>
-      <c r="AS37" s="37"/>
-      <c r="AT37" s="37"/>
-      <c r="AU37" s="37"/>
-      <c r="AV37" s="38"/>
-      <c r="AW37" s="36" t="s">
+      <c r="AR37" s="24"/>
+      <c r="AS37" s="24"/>
+      <c r="AT37" s="24"/>
+      <c r="AU37" s="24"/>
+      <c r="AV37" s="25"/>
+      <c r="AW37" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="37"/>
-      <c r="AY37" s="37"/>
-      <c r="AZ37" s="37"/>
-      <c r="BA37" s="38"/>
-      <c r="BD37" s="36" t="s">
+      <c r="AX37" s="24"/>
+      <c r="AY37" s="24"/>
+      <c r="AZ37" s="24"/>
+      <c r="BA37" s="25"/>
+      <c r="BD37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="BE37" s="37"/>
-      <c r="BF37" s="37"/>
-      <c r="BG37" s="37"/>
-      <c r="BH37" s="38"/>
-      <c r="BI37" s="36" t="s">
+      <c r="BE37" s="24"/>
+      <c r="BF37" s="24"/>
+      <c r="BG37" s="24"/>
+      <c r="BH37" s="25"/>
+      <c r="BI37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="37"/>
-      <c r="BK37" s="37"/>
-      <c r="BL37" s="37"/>
-      <c r="BM37" s="37"/>
-      <c r="BN37" s="38"/>
-      <c r="BO37" s="36" t="s">
+      <c r="BJ37" s="24"/>
+      <c r="BK37" s="24"/>
+      <c r="BL37" s="24"/>
+      <c r="BM37" s="24"/>
+      <c r="BN37" s="25"/>
+      <c r="BO37" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="BP37" s="37"/>
-      <c r="BQ37" s="37"/>
-      <c r="BR37" s="37"/>
-      <c r="BS37" s="38"/>
-      <c r="BV37" s="36" t="s">
+      <c r="BP37" s="24"/>
+      <c r="BQ37" s="24"/>
+      <c r="BR37" s="24"/>
+      <c r="BS37" s="25"/>
+      <c r="BV37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="BW37" s="37"/>
-      <c r="BX37" s="37"/>
-      <c r="BY37" s="37"/>
-      <c r="BZ37" s="38"/>
-      <c r="CA37" s="36" t="s">
+      <c r="BW37" s="24"/>
+      <c r="BX37" s="24"/>
+      <c r="BY37" s="24"/>
+      <c r="BZ37" s="25"/>
+      <c r="CA37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="CB37" s="37"/>
-      <c r="CC37" s="37"/>
-      <c r="CD37" s="37"/>
-      <c r="CE37" s="37"/>
-      <c r="CF37" s="38"/>
-      <c r="CG37" s="36" t="s">
+      <c r="CB37" s="24"/>
+      <c r="CC37" s="24"/>
+      <c r="CD37" s="24"/>
+      <c r="CE37" s="24"/>
+      <c r="CF37" s="25"/>
+      <c r="CG37" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="CH37" s="37"/>
-      <c r="CI37" s="37"/>
-      <c r="CJ37" s="37"/>
-      <c r="CK37" s="38"/>
-      <c r="CN37" s="36" t="s">
+      <c r="CH37" s="24"/>
+      <c r="CI37" s="24"/>
+      <c r="CJ37" s="24"/>
+      <c r="CK37" s="25"/>
+      <c r="CN37" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="CO37" s="37"/>
-      <c r="CP37" s="37"/>
-      <c r="CQ37" s="37"/>
-      <c r="CR37" s="38"/>
-      <c r="CS37" s="36" t="s">
+      <c r="CO37" s="24"/>
+      <c r="CP37" s="24"/>
+      <c r="CQ37" s="24"/>
+      <c r="CR37" s="25"/>
+      <c r="CS37" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="CT37" s="37"/>
-      <c r="CU37" s="37"/>
-      <c r="CV37" s="37"/>
-      <c r="CW37" s="37"/>
-      <c r="CX37" s="38"/>
-      <c r="CY37" s="36" t="s">
+      <c r="CT37" s="24"/>
+      <c r="CU37" s="24"/>
+      <c r="CV37" s="24"/>
+      <c r="CW37" s="24"/>
+      <c r="CX37" s="25"/>
+      <c r="CY37" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="CZ37" s="37"/>
-      <c r="DA37" s="37"/>
-      <c r="DB37" s="37"/>
-      <c r="DC37" s="38"/>
+      <c r="CZ37" s="24"/>
+      <c r="DA37" s="24"/>
+      <c r="DB37" s="24"/>
+      <c r="DC37" s="25"/>
     </row>
     <row r="38" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B38" s="39"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="41"/>
-      <c r="T38" s="39"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
-      <c r="W38" s="40"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="39"/>
-      <c r="Z38" s="40"/>
-      <c r="AA38" s="40"/>
-      <c r="AB38" s="40"/>
-      <c r="AC38" s="40"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="39"/>
-      <c r="AF38" s="40"/>
-      <c r="AG38" s="40"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="41"/>
-      <c r="AL38" s="39"/>
-      <c r="AM38" s="40"/>
-      <c r="AN38" s="40"/>
-      <c r="AO38" s="40"/>
-      <c r="AP38" s="41"/>
-      <c r="AQ38" s="39"/>
-      <c r="AR38" s="40"/>
-      <c r="AS38" s="40"/>
-      <c r="AT38" s="40"/>
-      <c r="AU38" s="40"/>
-      <c r="AV38" s="41"/>
-      <c r="AW38" s="39"/>
-      <c r="AX38" s="40"/>
-      <c r="AY38" s="40"/>
-      <c r="AZ38" s="40"/>
-      <c r="BA38" s="41"/>
-      <c r="BD38" s="39"/>
-      <c r="BE38" s="40"/>
-      <c r="BF38" s="40"/>
-      <c r="BG38" s="40"/>
-      <c r="BH38" s="41"/>
-      <c r="BI38" s="39"/>
-      <c r="BJ38" s="40"/>
-      <c r="BK38" s="40"/>
-      <c r="BL38" s="40"/>
-      <c r="BM38" s="40"/>
-      <c r="BN38" s="41"/>
-      <c r="BO38" s="39"/>
-      <c r="BP38" s="40"/>
-      <c r="BQ38" s="40"/>
-      <c r="BR38" s="40"/>
-      <c r="BS38" s="41"/>
-      <c r="BV38" s="39"/>
-      <c r="BW38" s="40"/>
-      <c r="BX38" s="40"/>
-      <c r="BY38" s="40"/>
-      <c r="BZ38" s="41"/>
-      <c r="CA38" s="39"/>
-      <c r="CB38" s="40"/>
-      <c r="CC38" s="40"/>
-      <c r="CD38" s="40"/>
-      <c r="CE38" s="40"/>
-      <c r="CF38" s="41"/>
-      <c r="CG38" s="39"/>
-      <c r="CH38" s="40"/>
-      <c r="CI38" s="40"/>
-      <c r="CJ38" s="40"/>
-      <c r="CK38" s="41"/>
-      <c r="CN38" s="39"/>
-      <c r="CO38" s="40"/>
-      <c r="CP38" s="40"/>
-      <c r="CQ38" s="40"/>
-      <c r="CR38" s="41"/>
-      <c r="CS38" s="39"/>
-      <c r="CT38" s="40"/>
-      <c r="CU38" s="40"/>
-      <c r="CV38" s="40"/>
-      <c r="CW38" s="40"/>
-      <c r="CX38" s="41"/>
-      <c r="CY38" s="39"/>
-      <c r="CZ38" s="40"/>
-      <c r="DA38" s="40"/>
-      <c r="DB38" s="40"/>
-      <c r="DC38" s="41"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="28"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="27"/>
+      <c r="AH38" s="27"/>
+      <c r="AI38" s="28"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="27"/>
+      <c r="AN38" s="27"/>
+      <c r="AO38" s="27"/>
+      <c r="AP38" s="28"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="27"/>
+      <c r="AS38" s="27"/>
+      <c r="AT38" s="27"/>
+      <c r="AU38" s="27"/>
+      <c r="AV38" s="28"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="27"/>
+      <c r="AY38" s="27"/>
+      <c r="AZ38" s="27"/>
+      <c r="BA38" s="28"/>
+      <c r="BD38" s="26"/>
+      <c r="BE38" s="27"/>
+      <c r="BF38" s="27"/>
+      <c r="BG38" s="27"/>
+      <c r="BH38" s="28"/>
+      <c r="BI38" s="26"/>
+      <c r="BJ38" s="27"/>
+      <c r="BK38" s="27"/>
+      <c r="BL38" s="27"/>
+      <c r="BM38" s="27"/>
+      <c r="BN38" s="28"/>
+      <c r="BO38" s="26"/>
+      <c r="BP38" s="27"/>
+      <c r="BQ38" s="27"/>
+      <c r="BR38" s="27"/>
+      <c r="BS38" s="28"/>
+      <c r="BV38" s="26"/>
+      <c r="BW38" s="27"/>
+      <c r="BX38" s="27"/>
+      <c r="BY38" s="27"/>
+      <c r="BZ38" s="28"/>
+      <c r="CA38" s="26"/>
+      <c r="CB38" s="27"/>
+      <c r="CC38" s="27"/>
+      <c r="CD38" s="27"/>
+      <c r="CE38" s="27"/>
+      <c r="CF38" s="28"/>
+      <c r="CG38" s="26"/>
+      <c r="CH38" s="27"/>
+      <c r="CI38" s="27"/>
+      <c r="CJ38" s="27"/>
+      <c r="CK38" s="28"/>
+      <c r="CN38" s="26"/>
+      <c r="CO38" s="27"/>
+      <c r="CP38" s="27"/>
+      <c r="CQ38" s="27"/>
+      <c r="CR38" s="28"/>
+      <c r="CS38" s="26"/>
+      <c r="CT38" s="27"/>
+      <c r="CU38" s="27"/>
+      <c r="CV38" s="27"/>
+      <c r="CW38" s="27"/>
+      <c r="CX38" s="28"/>
+      <c r="CY38" s="26"/>
+      <c r="CZ38" s="27"/>
+      <c r="DA38" s="27"/>
+      <c r="DB38" s="27"/>
+      <c r="DC38" s="28"/>
     </row>
     <row r="39" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="44"/>
-      <c r="M39" s="42"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="44"/>
-      <c r="T39" s="42"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="43"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="44"/>
-      <c r="AL39" s="42"/>
-      <c r="AM39" s="43"/>
-      <c r="AN39" s="43"/>
-      <c r="AO39" s="43"/>
-      <c r="AP39" s="44"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="43"/>
-      <c r="AS39" s="43"/>
-      <c r="AT39" s="43"/>
-      <c r="AU39" s="43"/>
-      <c r="AV39" s="44"/>
-      <c r="AW39" s="42"/>
-      <c r="AX39" s="43"/>
-      <c r="AY39" s="43"/>
-      <c r="AZ39" s="43"/>
-      <c r="BA39" s="44"/>
-      <c r="BD39" s="42"/>
-      <c r="BE39" s="43"/>
-      <c r="BF39" s="43"/>
-      <c r="BG39" s="43"/>
-      <c r="BH39" s="44"/>
-      <c r="BI39" s="42"/>
-      <c r="BJ39" s="43"/>
-      <c r="BK39" s="43"/>
-      <c r="BL39" s="43"/>
-      <c r="BM39" s="43"/>
-      <c r="BN39" s="44"/>
-      <c r="BO39" s="42"/>
-      <c r="BP39" s="43"/>
-      <c r="BQ39" s="43"/>
-      <c r="BR39" s="43"/>
-      <c r="BS39" s="44"/>
-      <c r="BV39" s="42"/>
-      <c r="BW39" s="43"/>
-      <c r="BX39" s="43"/>
-      <c r="BY39" s="43"/>
-      <c r="BZ39" s="44"/>
-      <c r="CA39" s="42"/>
-      <c r="CB39" s="43"/>
-      <c r="CC39" s="43"/>
-      <c r="CD39" s="43"/>
-      <c r="CE39" s="43"/>
-      <c r="CF39" s="44"/>
-      <c r="CG39" s="42"/>
-      <c r="CH39" s="43"/>
-      <c r="CI39" s="43"/>
-      <c r="CJ39" s="43"/>
-      <c r="CK39" s="44"/>
-      <c r="CN39" s="42"/>
-      <c r="CO39" s="43"/>
-      <c r="CP39" s="43"/>
-      <c r="CQ39" s="43"/>
-      <c r="CR39" s="44"/>
-      <c r="CS39" s="42"/>
-      <c r="CT39" s="43"/>
-      <c r="CU39" s="43"/>
-      <c r="CV39" s="43"/>
-      <c r="CW39" s="43"/>
-      <c r="CX39" s="44"/>
-      <c r="CY39" s="42"/>
-      <c r="CZ39" s="43"/>
-      <c r="DA39" s="43"/>
-      <c r="DB39" s="43"/>
-      <c r="DC39" s="44"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="30"/>
+      <c r="V39" s="30"/>
+      <c r="W39" s="30"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="30"/>
+      <c r="AG39" s="30"/>
+      <c r="AH39" s="30"/>
+      <c r="AI39" s="31"/>
+      <c r="AL39" s="29"/>
+      <c r="AM39" s="30"/>
+      <c r="AN39" s="30"/>
+      <c r="AO39" s="30"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="29"/>
+      <c r="AR39" s="30"/>
+      <c r="AS39" s="30"/>
+      <c r="AT39" s="30"/>
+      <c r="AU39" s="30"/>
+      <c r="AV39" s="31"/>
+      <c r="AW39" s="29"/>
+      <c r="AX39" s="30"/>
+      <c r="AY39" s="30"/>
+      <c r="AZ39" s="30"/>
+      <c r="BA39" s="31"/>
+      <c r="BD39" s="29"/>
+      <c r="BE39" s="30"/>
+      <c r="BF39" s="30"/>
+      <c r="BG39" s="30"/>
+      <c r="BH39" s="31"/>
+      <c r="BI39" s="29"/>
+      <c r="BJ39" s="30"/>
+      <c r="BK39" s="30"/>
+      <c r="BL39" s="30"/>
+      <c r="BM39" s="30"/>
+      <c r="BN39" s="31"/>
+      <c r="BO39" s="29"/>
+      <c r="BP39" s="30"/>
+      <c r="BQ39" s="30"/>
+      <c r="BR39" s="30"/>
+      <c r="BS39" s="31"/>
+      <c r="BV39" s="29"/>
+      <c r="BW39" s="30"/>
+      <c r="BX39" s="30"/>
+      <c r="BY39" s="30"/>
+      <c r="BZ39" s="31"/>
+      <c r="CA39" s="29"/>
+      <c r="CB39" s="30"/>
+      <c r="CC39" s="30"/>
+      <c r="CD39" s="30"/>
+      <c r="CE39" s="30"/>
+      <c r="CF39" s="31"/>
+      <c r="CG39" s="29"/>
+      <c r="CH39" s="30"/>
+      <c r="CI39" s="30"/>
+      <c r="CJ39" s="30"/>
+      <c r="CK39" s="31"/>
+      <c r="CN39" s="29"/>
+      <c r="CO39" s="30"/>
+      <c r="CP39" s="30"/>
+      <c r="CQ39" s="30"/>
+      <c r="CR39" s="31"/>
+      <c r="CS39" s="29"/>
+      <c r="CT39" s="30"/>
+      <c r="CU39" s="30"/>
+      <c r="CV39" s="30"/>
+      <c r="CW39" s="30"/>
+      <c r="CX39" s="31"/>
+      <c r="CY39" s="29"/>
+      <c r="CZ39" s="30"/>
+      <c r="DA39" s="30"/>
+      <c r="DB39" s="30"/>
+      <c r="DC39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="AE37:AI39"/>
-    <mergeCell ref="G37:L39"/>
-    <mergeCell ref="M37:Q39"/>
-    <mergeCell ref="B37:F39"/>
-    <mergeCell ref="T37:X39"/>
-    <mergeCell ref="Y37:AD39"/>
-    <mergeCell ref="AG16:AH18"/>
-    <mergeCell ref="U19:V21"/>
-    <mergeCell ref="W19:X21"/>
-    <mergeCell ref="Y19:Z21"/>
-    <mergeCell ref="AA19:AB21"/>
-    <mergeCell ref="AC19:AD21"/>
-    <mergeCell ref="AE19:AF21"/>
-    <mergeCell ref="AG19:AH21"/>
-    <mergeCell ref="U16:V18"/>
-    <mergeCell ref="W16:X18"/>
-    <mergeCell ref="Y16:Z18"/>
-    <mergeCell ref="AA16:AB18"/>
-    <mergeCell ref="AC16:AD18"/>
-    <mergeCell ref="AE16:AF18"/>
-    <mergeCell ref="AG22:AH24"/>
-    <mergeCell ref="U25:V27"/>
-    <mergeCell ref="W25:X27"/>
-    <mergeCell ref="Y25:Z27"/>
-    <mergeCell ref="AA25:AB27"/>
-    <mergeCell ref="AC25:AD27"/>
-    <mergeCell ref="AE25:AF27"/>
-    <mergeCell ref="AG25:AH27"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="W22:X24"/>
-    <mergeCell ref="Y22:Z24"/>
-    <mergeCell ref="AA22:AB24"/>
-    <mergeCell ref="AC22:AD24"/>
-    <mergeCell ref="AE22:AF24"/>
-    <mergeCell ref="AE31:AF33"/>
-    <mergeCell ref="AG31:AH33"/>
-    <mergeCell ref="U28:V30"/>
-    <mergeCell ref="W28:X30"/>
-    <mergeCell ref="Y28:Z30"/>
-    <mergeCell ref="AA28:AB30"/>
-    <mergeCell ref="AC28:AD30"/>
-    <mergeCell ref="AE28:AF30"/>
-    <mergeCell ref="C15:P33"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="U31:V33"/>
-    <mergeCell ref="W31:X33"/>
-    <mergeCell ref="Y31:Z33"/>
-    <mergeCell ref="AA31:AB33"/>
+    <mergeCell ref="BE34:BF35"/>
+    <mergeCell ref="BH34:BR35"/>
+    <mergeCell ref="AM33:AZ35"/>
+    <mergeCell ref="CN37:CR39"/>
+    <mergeCell ref="CS37:CX39"/>
+    <mergeCell ref="BV37:BZ39"/>
+    <mergeCell ref="CA37:CF39"/>
+    <mergeCell ref="CG37:CK39"/>
+    <mergeCell ref="AL37:AP39"/>
+    <mergeCell ref="AQ37:AV39"/>
+    <mergeCell ref="AW37:BA39"/>
+    <mergeCell ref="CY37:DC39"/>
+    <mergeCell ref="CO34:CP35"/>
+    <mergeCell ref="CO12:DB32"/>
+    <mergeCell ref="CR34:DB35"/>
+    <mergeCell ref="BD37:BH39"/>
+    <mergeCell ref="BI37:BN39"/>
+    <mergeCell ref="BO37:BS39"/>
+    <mergeCell ref="BW15:CJ17"/>
+    <mergeCell ref="BW18:CJ20"/>
+    <mergeCell ref="BW21:CJ23"/>
+    <mergeCell ref="BW24:CJ26"/>
+    <mergeCell ref="BW27:CJ29"/>
+    <mergeCell ref="BW30:CJ32"/>
+    <mergeCell ref="BW33:CJ35"/>
+    <mergeCell ref="BW12:CG13"/>
+    <mergeCell ref="CI12:CJ13"/>
     <mergeCell ref="AM30:AZ32"/>
     <mergeCell ref="U12:AH13"/>
     <mergeCell ref="AB34:AH35"/>
@@ -6011,33 +6041,57 @@
     <mergeCell ref="AE15:AF15"/>
     <mergeCell ref="AG28:AH30"/>
     <mergeCell ref="AC31:AD33"/>
-    <mergeCell ref="CY37:DC39"/>
-    <mergeCell ref="CO34:CP35"/>
-    <mergeCell ref="CO12:DB32"/>
-    <mergeCell ref="CR34:DB35"/>
-    <mergeCell ref="BD37:BH39"/>
-    <mergeCell ref="BI37:BN39"/>
-    <mergeCell ref="BO37:BS39"/>
-    <mergeCell ref="BW15:CJ17"/>
-    <mergeCell ref="BW18:CJ20"/>
-    <mergeCell ref="BW21:CJ23"/>
-    <mergeCell ref="BW24:CJ26"/>
-    <mergeCell ref="BW27:CJ29"/>
-    <mergeCell ref="BW30:CJ32"/>
-    <mergeCell ref="BW33:CJ35"/>
-    <mergeCell ref="BW12:CG13"/>
-    <mergeCell ref="CI12:CJ13"/>
-    <mergeCell ref="BE34:BF35"/>
-    <mergeCell ref="BH34:BR35"/>
-    <mergeCell ref="AM33:AZ35"/>
-    <mergeCell ref="CN37:CR39"/>
-    <mergeCell ref="CS37:CX39"/>
-    <mergeCell ref="BV37:BZ39"/>
-    <mergeCell ref="CA37:CF39"/>
-    <mergeCell ref="CG37:CK39"/>
-    <mergeCell ref="AL37:AP39"/>
-    <mergeCell ref="AQ37:AV39"/>
-    <mergeCell ref="AW37:BA39"/>
+    <mergeCell ref="C15:P33"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="U31:V33"/>
+    <mergeCell ref="W31:X33"/>
+    <mergeCell ref="Y31:Z33"/>
+    <mergeCell ref="AA31:AB33"/>
+    <mergeCell ref="AE31:AF33"/>
+    <mergeCell ref="AG31:AH33"/>
+    <mergeCell ref="U28:V30"/>
+    <mergeCell ref="W28:X30"/>
+    <mergeCell ref="Y28:Z30"/>
+    <mergeCell ref="AA28:AB30"/>
+    <mergeCell ref="AC28:AD30"/>
+    <mergeCell ref="AE28:AF30"/>
+    <mergeCell ref="AG22:AH24"/>
+    <mergeCell ref="U25:V27"/>
+    <mergeCell ref="W25:X27"/>
+    <mergeCell ref="Y25:Z27"/>
+    <mergeCell ref="AA25:AB27"/>
+    <mergeCell ref="AC25:AD27"/>
+    <mergeCell ref="AE25:AF27"/>
+    <mergeCell ref="AG25:AH27"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="W22:X24"/>
+    <mergeCell ref="Y22:Z24"/>
+    <mergeCell ref="AA22:AB24"/>
+    <mergeCell ref="AC22:AD24"/>
+    <mergeCell ref="AE22:AF24"/>
+    <mergeCell ref="AG16:AH18"/>
+    <mergeCell ref="U19:V21"/>
+    <mergeCell ref="W19:X21"/>
+    <mergeCell ref="Y19:Z21"/>
+    <mergeCell ref="AA19:AB21"/>
+    <mergeCell ref="AC19:AD21"/>
+    <mergeCell ref="AE19:AF21"/>
+    <mergeCell ref="AG19:AH21"/>
+    <mergeCell ref="U16:V18"/>
+    <mergeCell ref="W16:X18"/>
+    <mergeCell ref="Y16:Z18"/>
+    <mergeCell ref="AA16:AB18"/>
+    <mergeCell ref="AC16:AD18"/>
+    <mergeCell ref="AE16:AF18"/>
+    <mergeCell ref="AE37:AI39"/>
+    <mergeCell ref="G37:L39"/>
+    <mergeCell ref="M37:Q39"/>
+    <mergeCell ref="B37:F39"/>
+    <mergeCell ref="T37:X39"/>
+    <mergeCell ref="Y37:AD39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6064,10 +6118,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F11D59-011D-4ADE-9066-A493983EF92C}">
-  <dimension ref="B2:I9"/>
+  <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6086,6 +6140,9 @@
       <c r="D2" t="s">
         <v>67</v>
       </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="20" t="s">
@@ -6104,146 +6161,171 @@
         <v>42</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="20" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="19">
-        <v>20001231</v>
-      </c>
-      <c r="D6" s="19" t="str">
-        <f>"1111"</f>
-        <v>1111</v>
-      </c>
-      <c r="E6" s="19">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="19" t="b">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="19" t="str">
-        <f>"00000101"</f>
-        <v>00000101</v>
+        <v>55</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="19" t="str">
-        <f>"0000"</f>
-        <v>0000</v>
+        <f>"1111"</f>
+        <v>1111</v>
       </c>
       <c r="E7" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="G7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="19" t="str">
+        <f>"0000"</f>
+        <v>0000</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="19" t="str">
-        <f>"99991231"</f>
-        <v>99991231</v>
-      </c>
-      <c r="D8" s="19" t="str">
+      <c r="G8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="19" t="str">
         <f>"2400"</f>
         <v>2400</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E9" s="19">
         <v>7</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
+      <c r="C10" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="F10" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/カレンダー_設計書.xlsx
+++ b/カレンダー_設計書.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagai\AndroidStudioProjects\OriginalCalendar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\AndroidStudioProjects\OriginalCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2AE36D-E6F7-475E-B3FA-C5DA6BEA77B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4934ED2E-DB50-45E6-A25D-C657C9DCA713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4845" yWindow="1950" windowWidth="20760" windowHeight="12435" activeTab="2" xr2:uid="{7518170D-50F7-406D-9384-F6EA5B34F2A6}"/>
+    <workbookView xWindow="8190" yWindow="780" windowWidth="15750" windowHeight="14175" activeTab="3" xr2:uid="{7518170D-50F7-406D-9384-F6EA5B34F2A6}"/>
   </bookViews>
   <sheets>
     <sheet name="デザイン" sheetId="1" r:id="rId1"/>
     <sheet name="画面遷移" sheetId="2" r:id="rId2"/>
     <sheet name="内部データ" sheetId="3" r:id="rId3"/>
+    <sheet name="JSON（内部データ）" sheetId="5" r:id="rId4"/>
+    <sheet name="システム_追加事項" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="110">
   <si>
     <t>&lt;activity_main.xml&gt;</t>
     <phoneticPr fontId="1"/>
@@ -559,18 +561,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JSON(Jackson)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>xml</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>csv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -607,11 +597,215 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0000.01.01</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>9999.12.31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・年月日、曜日の競合を避ける</t>
+    <rPh sb="1" eb="4">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日に対してのメモ（アラーム）と、曜日に対してのメモ（アラーム）が重複すると処理がややこしくなる</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日、曜日のいずれかが決まっている場合は、もう一方を設定できない（排他的な）処理を実装する</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イッポウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ハイタテキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先される要素</t>
+    <rPh sb="0" eb="2">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;JSON&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付、曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date,dayOfWeek</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"MEMO"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLG_ALARM"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLG_REPEAT"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"FLG_NOTIFICATION"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.1.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"10:"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"11:30"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"8:10"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"memo1"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"memo2"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"memo11"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"byTime"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"time"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"2021.12.1"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"day"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"byDay"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←日曜日</t>
+    <rPh sb="1" eb="4">
+      <t>ニチヨウビ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -670,7 +864,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -710,6 +904,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -823,7 +1023,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +1092,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,6 +1215,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3152,96 +3385,96 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="7"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="45" t="s">
+      <c r="U12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="46"/>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AF12" s="46"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="47"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="54"/>
       <c r="AI12" s="7"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="32" t="s">
+      <c r="AM12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="33"/>
+      <c r="AN12" s="49"/>
+      <c r="AO12" s="49"/>
+      <c r="AP12" s="49"/>
+      <c r="AQ12" s="49"/>
+      <c r="AR12" s="49"/>
+      <c r="AS12" s="49"/>
+      <c r="AT12" s="49"/>
+      <c r="AU12" s="49"/>
+      <c r="AV12" s="49"/>
+      <c r="AW12" s="49"/>
+      <c r="AX12" s="49"/>
+      <c r="AY12" s="49"/>
+      <c r="AZ12" s="40"/>
       <c r="BA12" s="7"/>
       <c r="BD12" s="5"/>
-      <c r="BE12" s="32" t="s">
+      <c r="BE12" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-      <c r="BL12" s="42"/>
-      <c r="BM12" s="42"/>
-      <c r="BN12" s="42"/>
-      <c r="BO12" s="42"/>
-      <c r="BP12" s="42"/>
-      <c r="BQ12" s="42"/>
-      <c r="BR12" s="33"/>
+      <c r="BF12" s="49"/>
+      <c r="BG12" s="49"/>
+      <c r="BH12" s="49"/>
+      <c r="BI12" s="49"/>
+      <c r="BJ12" s="49"/>
+      <c r="BK12" s="49"/>
+      <c r="BL12" s="49"/>
+      <c r="BM12" s="49"/>
+      <c r="BN12" s="49"/>
+      <c r="BO12" s="49"/>
+      <c r="BP12" s="49"/>
+      <c r="BQ12" s="49"/>
+      <c r="BR12" s="40"/>
       <c r="BS12" s="7"/>
       <c r="BV12" s="5"/>
-      <c r="BW12" s="32" t="s">
+      <c r="BW12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="BX12" s="42"/>
-      <c r="BY12" s="42"/>
-      <c r="BZ12" s="42"/>
-      <c r="CA12" s="42"/>
-      <c r="CB12" s="42"/>
-      <c r="CC12" s="42"/>
-      <c r="CD12" s="42"/>
-      <c r="CE12" s="42"/>
-      <c r="CF12" s="42"/>
-      <c r="CG12" s="33"/>
+      <c r="BX12" s="49"/>
+      <c r="BY12" s="49"/>
+      <c r="BZ12" s="49"/>
+      <c r="CA12" s="49"/>
+      <c r="CB12" s="49"/>
+      <c r="CC12" s="49"/>
+      <c r="CD12" s="49"/>
+      <c r="CE12" s="49"/>
+      <c r="CF12" s="49"/>
+      <c r="CG12" s="40"/>
       <c r="CH12" s="14"/>
-      <c r="CI12" s="52" t="s">
+      <c r="CI12" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="CJ12" s="53"/>
+      <c r="CJ12" s="60"/>
       <c r="CK12" s="7"/>
       <c r="CN12" s="5"/>
-      <c r="CO12" s="32" t="s">
+      <c r="CO12" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="CP12" s="42"/>
-      <c r="CQ12" s="42"/>
-      <c r="CR12" s="42"/>
-      <c r="CS12" s="42"/>
-      <c r="CT12" s="42"/>
-      <c r="CU12" s="42"/>
-      <c r="CV12" s="42"/>
-      <c r="CW12" s="42"/>
-      <c r="CX12" s="42"/>
-      <c r="CY12" s="42"/>
-      <c r="CZ12" s="42"/>
-      <c r="DA12" s="42"/>
-      <c r="DB12" s="33"/>
+      <c r="CP12" s="49"/>
+      <c r="CQ12" s="49"/>
+      <c r="CR12" s="49"/>
+      <c r="CS12" s="49"/>
+      <c r="CT12" s="49"/>
+      <c r="CU12" s="49"/>
+      <c r="CV12" s="49"/>
+      <c r="CW12" s="49"/>
+      <c r="CX12" s="49"/>
+      <c r="CY12" s="49"/>
+      <c r="CZ12" s="49"/>
+      <c r="DA12" s="49"/>
+      <c r="DB12" s="40"/>
       <c r="DC12" s="7"/>
     </row>
     <row r="13" spans="2:107" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3262,84 +3495,84 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="49"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="49"/>
-      <c r="Y13" s="49"/>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
-      <c r="AB13" s="49"/>
-      <c r="AC13" s="49"/>
-      <c r="AD13" s="49"/>
-      <c r="AE13" s="49"/>
-      <c r="AF13" s="49"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="50"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="57"/>
       <c r="AI13" s="7"/>
       <c r="AL13" s="5"/>
-      <c r="AM13" s="34"/>
-      <c r="AN13" s="43"/>
-      <c r="AO13" s="43"/>
-      <c r="AP13" s="43"/>
-      <c r="AQ13" s="43"/>
-      <c r="AR13" s="43"/>
-      <c r="AS13" s="43"/>
-      <c r="AT13" s="43"/>
-      <c r="AU13" s="43"/>
-      <c r="AV13" s="43"/>
-      <c r="AW13" s="43"/>
-      <c r="AX13" s="43"/>
-      <c r="AY13" s="43"/>
-      <c r="AZ13" s="35"/>
+      <c r="AM13" s="41"/>
+      <c r="AN13" s="50"/>
+      <c r="AO13" s="50"/>
+      <c r="AP13" s="50"/>
+      <c r="AQ13" s="50"/>
+      <c r="AR13" s="50"/>
+      <c r="AS13" s="50"/>
+      <c r="AT13" s="50"/>
+      <c r="AU13" s="50"/>
+      <c r="AV13" s="50"/>
+      <c r="AW13" s="50"/>
+      <c r="AX13" s="50"/>
+      <c r="AY13" s="50"/>
+      <c r="AZ13" s="42"/>
       <c r="BA13" s="7"/>
       <c r="BD13" s="5"/>
-      <c r="BE13" s="36"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="44"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44"/>
-      <c r="BM13" s="44"/>
-      <c r="BN13" s="44"/>
-      <c r="BO13" s="44"/>
-      <c r="BP13" s="44"/>
-      <c r="BQ13" s="44"/>
-      <c r="BR13" s="37"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="51"/>
+      <c r="BG13" s="51"/>
+      <c r="BH13" s="51"/>
+      <c r="BI13" s="51"/>
+      <c r="BJ13" s="51"/>
+      <c r="BK13" s="51"/>
+      <c r="BL13" s="51"/>
+      <c r="BM13" s="51"/>
+      <c r="BN13" s="51"/>
+      <c r="BO13" s="51"/>
+      <c r="BP13" s="51"/>
+      <c r="BQ13" s="51"/>
+      <c r="BR13" s="44"/>
       <c r="BS13" s="7"/>
       <c r="BV13" s="5"/>
-      <c r="BW13" s="36"/>
-      <c r="BX13" s="44"/>
-      <c r="BY13" s="44"/>
-      <c r="BZ13" s="44"/>
-      <c r="CA13" s="44"/>
-      <c r="CB13" s="44"/>
-      <c r="CC13" s="44"/>
-      <c r="CD13" s="44"/>
-      <c r="CE13" s="44"/>
-      <c r="CF13" s="44"/>
-      <c r="CG13" s="37"/>
+      <c r="BW13" s="43"/>
+      <c r="BX13" s="51"/>
+      <c r="BY13" s="51"/>
+      <c r="BZ13" s="51"/>
+      <c r="CA13" s="51"/>
+      <c r="CB13" s="51"/>
+      <c r="CC13" s="51"/>
+      <c r="CD13" s="51"/>
+      <c r="CE13" s="51"/>
+      <c r="CF13" s="51"/>
+      <c r="CG13" s="44"/>
       <c r="CH13" s="14"/>
-      <c r="CI13" s="54"/>
-      <c r="CJ13" s="55"/>
+      <c r="CI13" s="61"/>
+      <c r="CJ13" s="62"/>
       <c r="CK13" s="7"/>
       <c r="CN13" s="5"/>
-      <c r="CO13" s="34"/>
-      <c r="CP13" s="43"/>
-      <c r="CQ13" s="43"/>
-      <c r="CR13" s="43"/>
-      <c r="CS13" s="43"/>
-      <c r="CT13" s="43"/>
-      <c r="CU13" s="43"/>
-      <c r="CV13" s="43"/>
-      <c r="CW13" s="43"/>
-      <c r="CX13" s="43"/>
-      <c r="CY13" s="43"/>
-      <c r="CZ13" s="43"/>
-      <c r="DA13" s="43"/>
-      <c r="DB13" s="35"/>
+      <c r="CO13" s="41"/>
+      <c r="CP13" s="50"/>
+      <c r="CQ13" s="50"/>
+      <c r="CR13" s="50"/>
+      <c r="CS13" s="50"/>
+      <c r="CT13" s="50"/>
+      <c r="CU13" s="50"/>
+      <c r="CV13" s="50"/>
+      <c r="CW13" s="50"/>
+      <c r="CX13" s="50"/>
+      <c r="CY13" s="50"/>
+      <c r="CZ13" s="50"/>
+      <c r="DA13" s="50"/>
+      <c r="DB13" s="42"/>
       <c r="DC13" s="7"/>
     </row>
     <row r="14" spans="2:107" x14ac:dyDescent="0.4">
@@ -3376,20 +3609,20 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="7"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="37"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
+      <c r="AQ14" s="51"/>
+      <c r="AR14" s="51"/>
+      <c r="AS14" s="51"/>
+      <c r="AT14" s="51"/>
+      <c r="AU14" s="51"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="44"/>
       <c r="BA14" s="7"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="8"/>
@@ -3424,88 +3657,88 @@
       <c r="CJ14" s="14"/>
       <c r="CK14" s="7"/>
       <c r="CN14" s="5"/>
-      <c r="CO14" s="34"/>
-      <c r="CP14" s="43"/>
-      <c r="CQ14" s="43"/>
-      <c r="CR14" s="43"/>
-      <c r="CS14" s="43"/>
-      <c r="CT14" s="43"/>
-      <c r="CU14" s="43"/>
-      <c r="CV14" s="43"/>
-      <c r="CW14" s="43"/>
-      <c r="CX14" s="43"/>
-      <c r="CY14" s="43"/>
-      <c r="CZ14" s="43"/>
-      <c r="DA14" s="43"/>
-      <c r="DB14" s="35"/>
+      <c r="CO14" s="41"/>
+      <c r="CP14" s="50"/>
+      <c r="CQ14" s="50"/>
+      <c r="CR14" s="50"/>
+      <c r="CS14" s="50"/>
+      <c r="CT14" s="50"/>
+      <c r="CU14" s="50"/>
+      <c r="CV14" s="50"/>
+      <c r="CW14" s="50"/>
+      <c r="CX14" s="50"/>
+      <c r="CY14" s="50"/>
+      <c r="CZ14" s="50"/>
+      <c r="DA14" s="50"/>
+      <c r="DB14" s="42"/>
       <c r="DC14" s="7"/>
     </row>
     <row r="15" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
       <c r="Q15" s="7"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="40" t="s">
+      <c r="U15" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="40"/>
-      <c r="W15" s="41" t="s">
+      <c r="V15" s="47"/>
+      <c r="W15" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41" t="s">
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41" t="s">
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41" t="s">
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41" t="s">
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="51" t="s">
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="51"/>
+      <c r="AH15" s="58"/>
       <c r="AI15" s="7"/>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="32" t="s">
+      <c r="AM15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="42"/>
-      <c r="AV15" s="42"/>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="42"/>
-      <c r="AY15" s="42"/>
-      <c r="AZ15" s="33"/>
+      <c r="AN15" s="49"/>
+      <c r="AO15" s="49"/>
+      <c r="AP15" s="49"/>
+      <c r="AQ15" s="49"/>
+      <c r="AR15" s="49"/>
+      <c r="AS15" s="49"/>
+      <c r="AT15" s="49"/>
+      <c r="AU15" s="49"/>
+      <c r="AV15" s="49"/>
+      <c r="AW15" s="49"/>
+      <c r="AX15" s="49"/>
+      <c r="AY15" s="49"/>
+      <c r="AZ15" s="40"/>
       <c r="BA15" s="7"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="10"/>
@@ -3524,94 +3757,94 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="7"/>
       <c r="BV15" s="5"/>
-      <c r="BW15" s="32" t="s">
+      <c r="BW15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="BX15" s="42"/>
-      <c r="BY15" s="42"/>
-      <c r="BZ15" s="42"/>
-      <c r="CA15" s="42"/>
-      <c r="CB15" s="42"/>
-      <c r="CC15" s="42"/>
-      <c r="CD15" s="42"/>
-      <c r="CE15" s="42"/>
-      <c r="CF15" s="42"/>
-      <c r="CG15" s="42"/>
-      <c r="CH15" s="42"/>
-      <c r="CI15" s="42"/>
-      <c r="CJ15" s="33"/>
+      <c r="BX15" s="49"/>
+      <c r="BY15" s="49"/>
+      <c r="BZ15" s="49"/>
+      <c r="CA15" s="49"/>
+      <c r="CB15" s="49"/>
+      <c r="CC15" s="49"/>
+      <c r="CD15" s="49"/>
+      <c r="CE15" s="49"/>
+      <c r="CF15" s="49"/>
+      <c r="CG15" s="49"/>
+      <c r="CH15" s="49"/>
+      <c r="CI15" s="49"/>
+      <c r="CJ15" s="40"/>
       <c r="CK15" s="7"/>
       <c r="CN15" s="5"/>
-      <c r="CO15" s="34"/>
-      <c r="CP15" s="43"/>
-      <c r="CQ15" s="43"/>
-      <c r="CR15" s="43"/>
-      <c r="CS15" s="43"/>
-      <c r="CT15" s="43"/>
-      <c r="CU15" s="43"/>
-      <c r="CV15" s="43"/>
-      <c r="CW15" s="43"/>
-      <c r="CX15" s="43"/>
-      <c r="CY15" s="43"/>
-      <c r="CZ15" s="43"/>
-      <c r="DA15" s="43"/>
-      <c r="DB15" s="35"/>
+      <c r="CO15" s="41"/>
+      <c r="CP15" s="50"/>
+      <c r="CQ15" s="50"/>
+      <c r="CR15" s="50"/>
+      <c r="CS15" s="50"/>
+      <c r="CT15" s="50"/>
+      <c r="CU15" s="50"/>
+      <c r="CV15" s="50"/>
+      <c r="CW15" s="50"/>
+      <c r="CX15" s="50"/>
+      <c r="CY15" s="50"/>
+      <c r="CZ15" s="50"/>
+      <c r="DA15" s="50"/>
+      <c r="DB15" s="42"/>
       <c r="DC15" s="7"/>
     </row>
     <row r="16" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
       <c r="Q16" s="7"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="32">
+      <c r="U16" s="39"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="39">
         <v>1</v>
       </c>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="32">
+      <c r="X16" s="40"/>
+      <c r="Y16" s="39">
         <v>2</v>
       </c>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="32" t="s">
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="33"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="33"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="33"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="40"/>
       <c r="AI16" s="7"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="34"/>
-      <c r="AN16" s="43"/>
-      <c r="AO16" s="43"/>
-      <c r="AP16" s="43"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="43"/>
-      <c r="AS16" s="43"/>
-      <c r="AT16" s="43"/>
-      <c r="AU16" s="43"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="43"/>
-      <c r="AX16" s="43"/>
-      <c r="AY16" s="43"/>
-      <c r="AZ16" s="35"/>
+      <c r="AM16" s="41"/>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50"/>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50"/>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="50"/>
+      <c r="AT16" s="50"/>
+      <c r="AU16" s="50"/>
+      <c r="AV16" s="50"/>
+      <c r="AW16" s="50"/>
+      <c r="AX16" s="50"/>
+      <c r="AY16" s="50"/>
+      <c r="AZ16" s="42"/>
       <c r="BA16" s="7"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="13"/>
@@ -3632,86 +3865,86 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="7"/>
       <c r="BV16" s="5"/>
-      <c r="BW16" s="34"/>
-      <c r="BX16" s="43"/>
-      <c r="BY16" s="43"/>
-      <c r="BZ16" s="43"/>
-      <c r="CA16" s="43"/>
-      <c r="CB16" s="43"/>
-      <c r="CC16" s="43"/>
-      <c r="CD16" s="43"/>
-      <c r="CE16" s="43"/>
-      <c r="CF16" s="43"/>
-      <c r="CG16" s="43"/>
-      <c r="CH16" s="43"/>
-      <c r="CI16" s="43"/>
-      <c r="CJ16" s="35"/>
+      <c r="BW16" s="41"/>
+      <c r="BX16" s="50"/>
+      <c r="BY16" s="50"/>
+      <c r="BZ16" s="50"/>
+      <c r="CA16" s="50"/>
+      <c r="CB16" s="50"/>
+      <c r="CC16" s="50"/>
+      <c r="CD16" s="50"/>
+      <c r="CE16" s="50"/>
+      <c r="CF16" s="50"/>
+      <c r="CG16" s="50"/>
+      <c r="CH16" s="50"/>
+      <c r="CI16" s="50"/>
+      <c r="CJ16" s="42"/>
       <c r="CK16" s="7"/>
       <c r="CN16" s="5"/>
-      <c r="CO16" s="34"/>
-      <c r="CP16" s="43"/>
-      <c r="CQ16" s="43"/>
-      <c r="CR16" s="43"/>
-      <c r="CS16" s="43"/>
-      <c r="CT16" s="43"/>
-      <c r="CU16" s="43"/>
-      <c r="CV16" s="43"/>
-      <c r="CW16" s="43"/>
-      <c r="CX16" s="43"/>
-      <c r="CY16" s="43"/>
-      <c r="CZ16" s="43"/>
-      <c r="DA16" s="43"/>
-      <c r="DB16" s="35"/>
+      <c r="CO16" s="41"/>
+      <c r="CP16" s="50"/>
+      <c r="CQ16" s="50"/>
+      <c r="CR16" s="50"/>
+      <c r="CS16" s="50"/>
+      <c r="CT16" s="50"/>
+      <c r="CU16" s="50"/>
+      <c r="CV16" s="50"/>
+      <c r="CW16" s="50"/>
+      <c r="CX16" s="50"/>
+      <c r="CY16" s="50"/>
+      <c r="CZ16" s="50"/>
+      <c r="DA16" s="50"/>
+      <c r="DB16" s="42"/>
       <c r="DC16" s="7"/>
     </row>
     <row r="17" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
       <c r="Q17" s="7"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="34"/>
-      <c r="AD17" s="35"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="35"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="35"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="41"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="42"/>
+      <c r="AG17" s="41"/>
+      <c r="AH17" s="42"/>
       <c r="AI17" s="7"/>
       <c r="AL17" s="5"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="44"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="37"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="51"/>
+      <c r="AO17" s="51"/>
+      <c r="AP17" s="51"/>
+      <c r="AQ17" s="51"/>
+      <c r="AR17" s="51"/>
+      <c r="AS17" s="51"/>
+      <c r="AT17" s="51"/>
+      <c r="AU17" s="51"/>
+      <c r="AV17" s="51"/>
+      <c r="AW17" s="51"/>
+      <c r="AX17" s="51"/>
+      <c r="AY17" s="51"/>
+      <c r="AZ17" s="44"/>
       <c r="BA17" s="7"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="13"/>
@@ -3730,88 +3963,88 @@
       <c r="BR17" s="15"/>
       <c r="BS17" s="7"/>
       <c r="BV17" s="5"/>
-      <c r="BW17" s="36"/>
-      <c r="BX17" s="44"/>
-      <c r="BY17" s="44"/>
-      <c r="BZ17" s="44"/>
-      <c r="CA17" s="44"/>
-      <c r="CB17" s="44"/>
-      <c r="CC17" s="44"/>
-      <c r="CD17" s="44"/>
-      <c r="CE17" s="44"/>
-      <c r="CF17" s="44"/>
-      <c r="CG17" s="44"/>
-      <c r="CH17" s="44"/>
-      <c r="CI17" s="44"/>
-      <c r="CJ17" s="37"/>
+      <c r="BW17" s="43"/>
+      <c r="BX17" s="51"/>
+      <c r="BY17" s="51"/>
+      <c r="BZ17" s="51"/>
+      <c r="CA17" s="51"/>
+      <c r="CB17" s="51"/>
+      <c r="CC17" s="51"/>
+      <c r="CD17" s="51"/>
+      <c r="CE17" s="51"/>
+      <c r="CF17" s="51"/>
+      <c r="CG17" s="51"/>
+      <c r="CH17" s="51"/>
+      <c r="CI17" s="51"/>
+      <c r="CJ17" s="44"/>
       <c r="CK17" s="7"/>
       <c r="CN17" s="5"/>
-      <c r="CO17" s="34"/>
-      <c r="CP17" s="43"/>
-      <c r="CQ17" s="43"/>
-      <c r="CR17" s="43"/>
-      <c r="CS17" s="43"/>
-      <c r="CT17" s="43"/>
-      <c r="CU17" s="43"/>
-      <c r="CV17" s="43"/>
-      <c r="CW17" s="43"/>
-      <c r="CX17" s="43"/>
-      <c r="CY17" s="43"/>
-      <c r="CZ17" s="43"/>
-      <c r="DA17" s="43"/>
-      <c r="DB17" s="35"/>
+      <c r="CO17" s="41"/>
+      <c r="CP17" s="50"/>
+      <c r="CQ17" s="50"/>
+      <c r="CR17" s="50"/>
+      <c r="CS17" s="50"/>
+      <c r="CT17" s="50"/>
+      <c r="CU17" s="50"/>
+      <c r="CV17" s="50"/>
+      <c r="CW17" s="50"/>
+      <c r="CX17" s="50"/>
+      <c r="CY17" s="50"/>
+      <c r="CZ17" s="50"/>
+      <c r="DA17" s="50"/>
+      <c r="DB17" s="42"/>
       <c r="DC17" s="7"/>
     </row>
     <row r="18" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
       <c r="Q18" s="7"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="37"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="44"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="44"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="44"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="44"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="44"/>
       <c r="AI18" s="7"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="32" t="s">
+      <c r="AM18" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AN18" s="42"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="42"/>
-      <c r="AU18" s="42"/>
-      <c r="AV18" s="42"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="33"/>
+      <c r="AN18" s="49"/>
+      <c r="AO18" s="49"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="49"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="49"/>
+      <c r="AZ18" s="40"/>
       <c r="BA18" s="7"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="13"/>
@@ -3832,88 +4065,88 @@
       <c r="BR18" s="15"/>
       <c r="BS18" s="7"/>
       <c r="BV18" s="5"/>
-      <c r="BW18" s="32" t="s">
+      <c r="BW18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="BX18" s="42"/>
-      <c r="BY18" s="42"/>
-      <c r="BZ18" s="42"/>
-      <c r="CA18" s="42"/>
-      <c r="CB18" s="42"/>
-      <c r="CC18" s="42"/>
-      <c r="CD18" s="42"/>
-      <c r="CE18" s="42"/>
-      <c r="CF18" s="42"/>
-      <c r="CG18" s="42"/>
-      <c r="CH18" s="42"/>
-      <c r="CI18" s="42"/>
-      <c r="CJ18" s="33"/>
+      <c r="BX18" s="49"/>
+      <c r="BY18" s="49"/>
+      <c r="BZ18" s="49"/>
+      <c r="CA18" s="49"/>
+      <c r="CB18" s="49"/>
+      <c r="CC18" s="49"/>
+      <c r="CD18" s="49"/>
+      <c r="CE18" s="49"/>
+      <c r="CF18" s="49"/>
+      <c r="CG18" s="49"/>
+      <c r="CH18" s="49"/>
+      <c r="CI18" s="49"/>
+      <c r="CJ18" s="40"/>
       <c r="CK18" s="7"/>
       <c r="CN18" s="5"/>
-      <c r="CO18" s="34"/>
-      <c r="CP18" s="43"/>
-      <c r="CQ18" s="43"/>
-      <c r="CR18" s="43"/>
-      <c r="CS18" s="43"/>
-      <c r="CT18" s="43"/>
-      <c r="CU18" s="43"/>
-      <c r="CV18" s="43"/>
-      <c r="CW18" s="43"/>
-      <c r="CX18" s="43"/>
-      <c r="CY18" s="43"/>
-      <c r="CZ18" s="43"/>
-      <c r="DA18" s="43"/>
-      <c r="DB18" s="35"/>
+      <c r="CO18" s="41"/>
+      <c r="CP18" s="50"/>
+      <c r="CQ18" s="50"/>
+      <c r="CR18" s="50"/>
+      <c r="CS18" s="50"/>
+      <c r="CT18" s="50"/>
+      <c r="CU18" s="50"/>
+      <c r="CV18" s="50"/>
+      <c r="CW18" s="50"/>
+      <c r="CX18" s="50"/>
+      <c r="CY18" s="50"/>
+      <c r="CZ18" s="50"/>
+      <c r="DA18" s="50"/>
+      <c r="DB18" s="42"/>
       <c r="DC18" s="7"/>
     </row>
     <row r="19" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
       <c r="Q19" s="7"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="33"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="33"/>
+      <c r="U19" s="39"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="39"/>
+      <c r="X19" s="40"/>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="40"/>
+      <c r="AA19" s="39"/>
+      <c r="AB19" s="40"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="40"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="40"/>
       <c r="AI19" s="7"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="34"/>
-      <c r="AN19" s="43"/>
-      <c r="AO19" s="43"/>
-      <c r="AP19" s="43"/>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="43"/>
-      <c r="AS19" s="43"/>
-      <c r="AT19" s="43"/>
-      <c r="AU19" s="43"/>
-      <c r="AV19" s="43"/>
-      <c r="AW19" s="43"/>
-      <c r="AX19" s="43"/>
-      <c r="AY19" s="43"/>
-      <c r="AZ19" s="35"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="50"/>
+      <c r="AO19" s="50"/>
+      <c r="AP19" s="50"/>
+      <c r="AQ19" s="50"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="42"/>
       <c r="BA19" s="7"/>
       <c r="BD19" s="5"/>
       <c r="BE19" s="13"/>
@@ -3934,86 +4167,86 @@
       <c r="BR19" s="15"/>
       <c r="BS19" s="7"/>
       <c r="BV19" s="5"/>
-      <c r="BW19" s="34"/>
-      <c r="BX19" s="43"/>
-      <c r="BY19" s="43"/>
-      <c r="BZ19" s="43"/>
-      <c r="CA19" s="43"/>
-      <c r="CB19" s="43"/>
-      <c r="CC19" s="43"/>
-      <c r="CD19" s="43"/>
-      <c r="CE19" s="43"/>
-      <c r="CF19" s="43"/>
-      <c r="CG19" s="43"/>
-      <c r="CH19" s="43"/>
-      <c r="CI19" s="43"/>
-      <c r="CJ19" s="35"/>
+      <c r="BW19" s="41"/>
+      <c r="BX19" s="50"/>
+      <c r="BY19" s="50"/>
+      <c r="BZ19" s="50"/>
+      <c r="CA19" s="50"/>
+      <c r="CB19" s="50"/>
+      <c r="CC19" s="50"/>
+      <c r="CD19" s="50"/>
+      <c r="CE19" s="50"/>
+      <c r="CF19" s="50"/>
+      <c r="CG19" s="50"/>
+      <c r="CH19" s="50"/>
+      <c r="CI19" s="50"/>
+      <c r="CJ19" s="42"/>
       <c r="CK19" s="7"/>
       <c r="CN19" s="5"/>
-      <c r="CO19" s="34"/>
-      <c r="CP19" s="43"/>
-      <c r="CQ19" s="43"/>
-      <c r="CR19" s="43"/>
-      <c r="CS19" s="43"/>
-      <c r="CT19" s="43"/>
-      <c r="CU19" s="43"/>
-      <c r="CV19" s="43"/>
-      <c r="CW19" s="43"/>
-      <c r="CX19" s="43"/>
-      <c r="CY19" s="43"/>
-      <c r="CZ19" s="43"/>
-      <c r="DA19" s="43"/>
-      <c r="DB19" s="35"/>
+      <c r="CO19" s="41"/>
+      <c r="CP19" s="50"/>
+      <c r="CQ19" s="50"/>
+      <c r="CR19" s="50"/>
+      <c r="CS19" s="50"/>
+      <c r="CT19" s="50"/>
+      <c r="CU19" s="50"/>
+      <c r="CV19" s="50"/>
+      <c r="CW19" s="50"/>
+      <c r="CX19" s="50"/>
+      <c r="CY19" s="50"/>
+      <c r="CZ19" s="50"/>
+      <c r="DA19" s="50"/>
+      <c r="DB19" s="42"/>
       <c r="DC19" s="7"/>
     </row>
     <row r="20" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
       <c r="Q20" s="7"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="35"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="35"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="35"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="42"/>
       <c r="AI20" s="7"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="37"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="51"/>
+      <c r="AO20" s="51"/>
+      <c r="AP20" s="51"/>
+      <c r="AQ20" s="51"/>
+      <c r="AR20" s="51"/>
+      <c r="AS20" s="51"/>
+      <c r="AT20" s="51"/>
+      <c r="AU20" s="51"/>
+      <c r="AV20" s="51"/>
+      <c r="AW20" s="51"/>
+      <c r="AX20" s="51"/>
+      <c r="AY20" s="51"/>
+      <c r="AZ20" s="44"/>
       <c r="BA20" s="7"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="13"/>
@@ -4034,88 +4267,88 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="7"/>
       <c r="BV20" s="5"/>
-      <c r="BW20" s="36"/>
-      <c r="BX20" s="44"/>
-      <c r="BY20" s="44"/>
-      <c r="BZ20" s="44"/>
-      <c r="CA20" s="44"/>
-      <c r="CB20" s="44"/>
-      <c r="CC20" s="44"/>
-      <c r="CD20" s="44"/>
-      <c r="CE20" s="44"/>
-      <c r="CF20" s="44"/>
-      <c r="CG20" s="44"/>
-      <c r="CH20" s="44"/>
-      <c r="CI20" s="44"/>
-      <c r="CJ20" s="37"/>
+      <c r="BW20" s="43"/>
+      <c r="BX20" s="51"/>
+      <c r="BY20" s="51"/>
+      <c r="BZ20" s="51"/>
+      <c r="CA20" s="51"/>
+      <c r="CB20" s="51"/>
+      <c r="CC20" s="51"/>
+      <c r="CD20" s="51"/>
+      <c r="CE20" s="51"/>
+      <c r="CF20" s="51"/>
+      <c r="CG20" s="51"/>
+      <c r="CH20" s="51"/>
+      <c r="CI20" s="51"/>
+      <c r="CJ20" s="44"/>
       <c r="CK20" s="7"/>
       <c r="CN20" s="5"/>
-      <c r="CO20" s="34"/>
-      <c r="CP20" s="43"/>
-      <c r="CQ20" s="43"/>
-      <c r="CR20" s="43"/>
-      <c r="CS20" s="43"/>
-      <c r="CT20" s="43"/>
-      <c r="CU20" s="43"/>
-      <c r="CV20" s="43"/>
-      <c r="CW20" s="43"/>
-      <c r="CX20" s="43"/>
-      <c r="CY20" s="43"/>
-      <c r="CZ20" s="43"/>
-      <c r="DA20" s="43"/>
-      <c r="DB20" s="35"/>
+      <c r="CO20" s="41"/>
+      <c r="CP20" s="50"/>
+      <c r="CQ20" s="50"/>
+      <c r="CR20" s="50"/>
+      <c r="CS20" s="50"/>
+      <c r="CT20" s="50"/>
+      <c r="CU20" s="50"/>
+      <c r="CV20" s="50"/>
+      <c r="CW20" s="50"/>
+      <c r="CX20" s="50"/>
+      <c r="CY20" s="50"/>
+      <c r="CZ20" s="50"/>
+      <c r="DA20" s="50"/>
+      <c r="DB20" s="42"/>
       <c r="DC20" s="7"/>
     </row>
     <row r="21" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
       <c r="Q21" s="7"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="37"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="44"/>
       <c r="AI21" s="7"/>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="32" t="s">
+      <c r="AM21" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="42"/>
-      <c r="AT21" s="42"/>
-      <c r="AU21" s="42"/>
-      <c r="AV21" s="42"/>
-      <c r="AW21" s="42"/>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="42"/>
-      <c r="AZ21" s="33"/>
+      <c r="AN21" s="49"/>
+      <c r="AO21" s="49"/>
+      <c r="AP21" s="49"/>
+      <c r="AQ21" s="49"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
+      <c r="AV21" s="49"/>
+      <c r="AW21" s="49"/>
+      <c r="AX21" s="49"/>
+      <c r="AY21" s="49"/>
+      <c r="AZ21" s="40"/>
       <c r="BA21" s="7"/>
       <c r="BD21" s="5"/>
       <c r="BE21" s="13"/>
@@ -4134,88 +4367,88 @@
       <c r="BR21" s="15"/>
       <c r="BS21" s="7"/>
       <c r="BV21" s="5"/>
-      <c r="BW21" s="32" t="s">
+      <c r="BW21" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="BX21" s="42"/>
-      <c r="BY21" s="42"/>
-      <c r="BZ21" s="42"/>
-      <c r="CA21" s="42"/>
-      <c r="CB21" s="42"/>
-      <c r="CC21" s="42"/>
-      <c r="CD21" s="42"/>
-      <c r="CE21" s="42"/>
-      <c r="CF21" s="42"/>
-      <c r="CG21" s="42"/>
-      <c r="CH21" s="42"/>
-      <c r="CI21" s="42"/>
-      <c r="CJ21" s="33"/>
+      <c r="BX21" s="49"/>
+      <c r="BY21" s="49"/>
+      <c r="BZ21" s="49"/>
+      <c r="CA21" s="49"/>
+      <c r="CB21" s="49"/>
+      <c r="CC21" s="49"/>
+      <c r="CD21" s="49"/>
+      <c r="CE21" s="49"/>
+      <c r="CF21" s="49"/>
+      <c r="CG21" s="49"/>
+      <c r="CH21" s="49"/>
+      <c r="CI21" s="49"/>
+      <c r="CJ21" s="40"/>
       <c r="CK21" s="7"/>
       <c r="CN21" s="5"/>
-      <c r="CO21" s="34"/>
-      <c r="CP21" s="43"/>
-      <c r="CQ21" s="43"/>
-      <c r="CR21" s="43"/>
-      <c r="CS21" s="43"/>
-      <c r="CT21" s="43"/>
-      <c r="CU21" s="43"/>
-      <c r="CV21" s="43"/>
-      <c r="CW21" s="43"/>
-      <c r="CX21" s="43"/>
-      <c r="CY21" s="43"/>
-      <c r="CZ21" s="43"/>
-      <c r="DA21" s="43"/>
-      <c r="DB21" s="35"/>
+      <c r="CO21" s="41"/>
+      <c r="CP21" s="50"/>
+      <c r="CQ21" s="50"/>
+      <c r="CR21" s="50"/>
+      <c r="CS21" s="50"/>
+      <c r="CT21" s="50"/>
+      <c r="CU21" s="50"/>
+      <c r="CV21" s="50"/>
+      <c r="CW21" s="50"/>
+      <c r="CX21" s="50"/>
+      <c r="CY21" s="50"/>
+      <c r="CZ21" s="50"/>
+      <c r="DA21" s="50"/>
+      <c r="DB21" s="42"/>
       <c r="DC21" s="7"/>
     </row>
     <row r="22" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
       <c r="Q22" s="7"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="33"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="33"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="39"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="39"/>
+      <c r="Z22" s="40"/>
+      <c r="AA22" s="39"/>
+      <c r="AB22" s="40"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="40"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="40"/>
       <c r="AI22" s="7"/>
       <c r="AL22" s="5"/>
-      <c r="AM22" s="34"/>
-      <c r="AN22" s="43"/>
-      <c r="AO22" s="43"/>
-      <c r="AP22" s="43"/>
-      <c r="AQ22" s="43"/>
-      <c r="AR22" s="43"/>
-      <c r="AS22" s="43"/>
-      <c r="AT22" s="43"/>
-      <c r="AU22" s="43"/>
-      <c r="AV22" s="43"/>
-      <c r="AW22" s="43"/>
-      <c r="AX22" s="43"/>
-      <c r="AY22" s="43"/>
-      <c r="AZ22" s="35"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="50"/>
+      <c r="AO22" s="50"/>
+      <c r="AP22" s="50"/>
+      <c r="AQ22" s="50"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="42"/>
       <c r="BA22" s="7"/>
       <c r="BD22" s="5"/>
       <c r="BE22" s="13"/>
@@ -4234,86 +4467,86 @@
       <c r="BR22" s="15"/>
       <c r="BS22" s="7"/>
       <c r="BV22" s="5"/>
-      <c r="BW22" s="34"/>
-      <c r="BX22" s="43"/>
-      <c r="BY22" s="43"/>
-      <c r="BZ22" s="43"/>
-      <c r="CA22" s="43"/>
-      <c r="CB22" s="43"/>
-      <c r="CC22" s="43"/>
-      <c r="CD22" s="43"/>
-      <c r="CE22" s="43"/>
-      <c r="CF22" s="43"/>
-      <c r="CG22" s="43"/>
-      <c r="CH22" s="43"/>
-      <c r="CI22" s="43"/>
-      <c r="CJ22" s="35"/>
+      <c r="BW22" s="41"/>
+      <c r="BX22" s="50"/>
+      <c r="BY22" s="50"/>
+      <c r="BZ22" s="50"/>
+      <c r="CA22" s="50"/>
+      <c r="CB22" s="50"/>
+      <c r="CC22" s="50"/>
+      <c r="CD22" s="50"/>
+      <c r="CE22" s="50"/>
+      <c r="CF22" s="50"/>
+      <c r="CG22" s="50"/>
+      <c r="CH22" s="50"/>
+      <c r="CI22" s="50"/>
+      <c r="CJ22" s="42"/>
       <c r="CK22" s="7"/>
       <c r="CN22" s="5"/>
-      <c r="CO22" s="34"/>
-      <c r="CP22" s="43"/>
-      <c r="CQ22" s="43"/>
-      <c r="CR22" s="43"/>
-      <c r="CS22" s="43"/>
-      <c r="CT22" s="43"/>
-      <c r="CU22" s="43"/>
-      <c r="CV22" s="43"/>
-      <c r="CW22" s="43"/>
-      <c r="CX22" s="43"/>
-      <c r="CY22" s="43"/>
-      <c r="CZ22" s="43"/>
-      <c r="DA22" s="43"/>
-      <c r="DB22" s="35"/>
+      <c r="CO22" s="41"/>
+      <c r="CP22" s="50"/>
+      <c r="CQ22" s="50"/>
+      <c r="CR22" s="50"/>
+      <c r="CS22" s="50"/>
+      <c r="CT22" s="50"/>
+      <c r="CU22" s="50"/>
+      <c r="CV22" s="50"/>
+      <c r="CW22" s="50"/>
+      <c r="CX22" s="50"/>
+      <c r="CY22" s="50"/>
+      <c r="CZ22" s="50"/>
+      <c r="DA22" s="50"/>
+      <c r="DB22" s="42"/>
       <c r="DC22" s="7"/>
     </row>
     <row r="23" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
       <c r="Q23" s="7"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="35"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="42"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="42"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="42"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="41"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="42"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="42"/>
       <c r="AI23" s="7"/>
       <c r="AL23" s="5"/>
-      <c r="AM23" s="36"/>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="37"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="51"/>
+      <c r="AO23" s="51"/>
+      <c r="AP23" s="51"/>
+      <c r="AQ23" s="51"/>
+      <c r="AR23" s="51"/>
+      <c r="AS23" s="51"/>
+      <c r="AT23" s="51"/>
+      <c r="AU23" s="51"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="44"/>
       <c r="BA23" s="7"/>
       <c r="BD23" s="5"/>
       <c r="BE23" s="13"/>
@@ -4332,88 +4565,88 @@
       <c r="BR23" s="15"/>
       <c r="BS23" s="7"/>
       <c r="BV23" s="5"/>
-      <c r="BW23" s="36"/>
-      <c r="BX23" s="44"/>
-      <c r="BY23" s="44"/>
-      <c r="BZ23" s="44"/>
-      <c r="CA23" s="44"/>
-      <c r="CB23" s="44"/>
-      <c r="CC23" s="44"/>
-      <c r="CD23" s="44"/>
-      <c r="CE23" s="44"/>
-      <c r="CF23" s="44"/>
-      <c r="CG23" s="44"/>
-      <c r="CH23" s="44"/>
-      <c r="CI23" s="44"/>
-      <c r="CJ23" s="37"/>
+      <c r="BW23" s="43"/>
+      <c r="BX23" s="51"/>
+      <c r="BY23" s="51"/>
+      <c r="BZ23" s="51"/>
+      <c r="CA23" s="51"/>
+      <c r="CB23" s="51"/>
+      <c r="CC23" s="51"/>
+      <c r="CD23" s="51"/>
+      <c r="CE23" s="51"/>
+      <c r="CF23" s="51"/>
+      <c r="CG23" s="51"/>
+      <c r="CH23" s="51"/>
+      <c r="CI23" s="51"/>
+      <c r="CJ23" s="44"/>
       <c r="CK23" s="7"/>
       <c r="CN23" s="5"/>
-      <c r="CO23" s="34"/>
-      <c r="CP23" s="43"/>
-      <c r="CQ23" s="43"/>
-      <c r="CR23" s="43"/>
-      <c r="CS23" s="43"/>
-      <c r="CT23" s="43"/>
-      <c r="CU23" s="43"/>
-      <c r="CV23" s="43"/>
-      <c r="CW23" s="43"/>
-      <c r="CX23" s="43"/>
-      <c r="CY23" s="43"/>
-      <c r="CZ23" s="43"/>
-      <c r="DA23" s="43"/>
-      <c r="DB23" s="35"/>
+      <c r="CO23" s="41"/>
+      <c r="CP23" s="50"/>
+      <c r="CQ23" s="50"/>
+      <c r="CR23" s="50"/>
+      <c r="CS23" s="50"/>
+      <c r="CT23" s="50"/>
+      <c r="CU23" s="50"/>
+      <c r="CV23" s="50"/>
+      <c r="CW23" s="50"/>
+      <c r="CX23" s="50"/>
+      <c r="CY23" s="50"/>
+      <c r="CZ23" s="50"/>
+      <c r="DA23" s="50"/>
+      <c r="DB23" s="42"/>
       <c r="DC23" s="7"/>
     </row>
     <row r="24" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
       <c r="Q24" s="7"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="36"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="37"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="37"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="37"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="37"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="44"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="44"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="44"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="44"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="44"/>
       <c r="AI24" s="7"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="32" t="s">
+      <c r="AM24" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AN24" s="42"/>
-      <c r="AO24" s="42"/>
-      <c r="AP24" s="42"/>
-      <c r="AQ24" s="42"/>
-      <c r="AR24" s="42"/>
-      <c r="AS24" s="42"/>
-      <c r="AT24" s="42"/>
-      <c r="AU24" s="42"/>
-      <c r="AV24" s="42"/>
-      <c r="AW24" s="42"/>
-      <c r="AX24" s="42"/>
-      <c r="AY24" s="42"/>
-      <c r="AZ24" s="33"/>
+      <c r="AN24" s="49"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="49"/>
+      <c r="AW24" s="49"/>
+      <c r="AX24" s="49"/>
+      <c r="AY24" s="49"/>
+      <c r="AZ24" s="40"/>
       <c r="BA24" s="7"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="13"/>
@@ -4432,88 +4665,88 @@
       <c r="BR24" s="15"/>
       <c r="BS24" s="7"/>
       <c r="BV24" s="5"/>
-      <c r="BW24" s="32" t="s">
+      <c r="BW24" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="BX24" s="42"/>
-      <c r="BY24" s="42"/>
-      <c r="BZ24" s="42"/>
-      <c r="CA24" s="42"/>
-      <c r="CB24" s="42"/>
-      <c r="CC24" s="42"/>
-      <c r="CD24" s="42"/>
-      <c r="CE24" s="42"/>
-      <c r="CF24" s="42"/>
-      <c r="CG24" s="42"/>
-      <c r="CH24" s="42"/>
-      <c r="CI24" s="42"/>
-      <c r="CJ24" s="33"/>
+      <c r="BX24" s="49"/>
+      <c r="BY24" s="49"/>
+      <c r="BZ24" s="49"/>
+      <c r="CA24" s="49"/>
+      <c r="CB24" s="49"/>
+      <c r="CC24" s="49"/>
+      <c r="CD24" s="49"/>
+      <c r="CE24" s="49"/>
+      <c r="CF24" s="49"/>
+      <c r="CG24" s="49"/>
+      <c r="CH24" s="49"/>
+      <c r="CI24" s="49"/>
+      <c r="CJ24" s="40"/>
       <c r="CK24" s="7"/>
       <c r="CN24" s="5"/>
-      <c r="CO24" s="34"/>
-      <c r="CP24" s="43"/>
-      <c r="CQ24" s="43"/>
-      <c r="CR24" s="43"/>
-      <c r="CS24" s="43"/>
-      <c r="CT24" s="43"/>
-      <c r="CU24" s="43"/>
-      <c r="CV24" s="43"/>
-      <c r="CW24" s="43"/>
-      <c r="CX24" s="43"/>
-      <c r="CY24" s="43"/>
-      <c r="CZ24" s="43"/>
-      <c r="DA24" s="43"/>
-      <c r="DB24" s="35"/>
+      <c r="CO24" s="41"/>
+      <c r="CP24" s="50"/>
+      <c r="CQ24" s="50"/>
+      <c r="CR24" s="50"/>
+      <c r="CS24" s="50"/>
+      <c r="CT24" s="50"/>
+      <c r="CU24" s="50"/>
+      <c r="CV24" s="50"/>
+      <c r="CW24" s="50"/>
+      <c r="CX24" s="50"/>
+      <c r="CY24" s="50"/>
+      <c r="CZ24" s="50"/>
+      <c r="DA24" s="50"/>
+      <c r="DB24" s="42"/>
       <c r="DC24" s="7"/>
     </row>
     <row r="25" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
       <c r="Q25" s="7"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="33"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="33"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="33"/>
+      <c r="U25" s="39"/>
+      <c r="V25" s="40"/>
+      <c r="W25" s="39"/>
+      <c r="X25" s="40"/>
+      <c r="Y25" s="39"/>
+      <c r="Z25" s="40"/>
+      <c r="AA25" s="39"/>
+      <c r="AB25" s="40"/>
+      <c r="AC25" s="39"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="39"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="39"/>
+      <c r="AH25" s="40"/>
       <c r="AI25" s="7"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="34"/>
-      <c r="AN25" s="43"/>
-      <c r="AO25" s="43"/>
-      <c r="AP25" s="43"/>
-      <c r="AQ25" s="43"/>
-      <c r="AR25" s="43"/>
-      <c r="AS25" s="43"/>
-      <c r="AT25" s="43"/>
-      <c r="AU25" s="43"/>
-      <c r="AV25" s="43"/>
-      <c r="AW25" s="43"/>
-      <c r="AX25" s="43"/>
-      <c r="AY25" s="43"/>
-      <c r="AZ25" s="35"/>
+      <c r="AM25" s="41"/>
+      <c r="AN25" s="50"/>
+      <c r="AO25" s="50"/>
+      <c r="AP25" s="50"/>
+      <c r="AQ25" s="50"/>
+      <c r="AR25" s="50"/>
+      <c r="AS25" s="50"/>
+      <c r="AT25" s="50"/>
+      <c r="AU25" s="50"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="42"/>
       <c r="BA25" s="7"/>
       <c r="BD25" s="5"/>
       <c r="BE25" s="13"/>
@@ -4532,86 +4765,86 @@
       <c r="BR25" s="15"/>
       <c r="BS25" s="7"/>
       <c r="BV25" s="5"/>
-      <c r="BW25" s="34"/>
-      <c r="BX25" s="43"/>
-      <c r="BY25" s="43"/>
-      <c r="BZ25" s="43"/>
-      <c r="CA25" s="43"/>
-      <c r="CB25" s="43"/>
-      <c r="CC25" s="43"/>
-      <c r="CD25" s="43"/>
-      <c r="CE25" s="43"/>
-      <c r="CF25" s="43"/>
-      <c r="CG25" s="43"/>
-      <c r="CH25" s="43"/>
-      <c r="CI25" s="43"/>
-      <c r="CJ25" s="35"/>
+      <c r="BW25" s="41"/>
+      <c r="BX25" s="50"/>
+      <c r="BY25" s="50"/>
+      <c r="BZ25" s="50"/>
+      <c r="CA25" s="50"/>
+      <c r="CB25" s="50"/>
+      <c r="CC25" s="50"/>
+      <c r="CD25" s="50"/>
+      <c r="CE25" s="50"/>
+      <c r="CF25" s="50"/>
+      <c r="CG25" s="50"/>
+      <c r="CH25" s="50"/>
+      <c r="CI25" s="50"/>
+      <c r="CJ25" s="42"/>
       <c r="CK25" s="7"/>
       <c r="CN25" s="5"/>
-      <c r="CO25" s="34"/>
-      <c r="CP25" s="43"/>
-      <c r="CQ25" s="43"/>
-      <c r="CR25" s="43"/>
-      <c r="CS25" s="43"/>
-      <c r="CT25" s="43"/>
-      <c r="CU25" s="43"/>
-      <c r="CV25" s="43"/>
-      <c r="CW25" s="43"/>
-      <c r="CX25" s="43"/>
-      <c r="CY25" s="43"/>
-      <c r="CZ25" s="43"/>
-      <c r="DA25" s="43"/>
-      <c r="DB25" s="35"/>
+      <c r="CO25" s="41"/>
+      <c r="CP25" s="50"/>
+      <c r="CQ25" s="50"/>
+      <c r="CR25" s="50"/>
+      <c r="CS25" s="50"/>
+      <c r="CT25" s="50"/>
+      <c r="CU25" s="50"/>
+      <c r="CV25" s="50"/>
+      <c r="CW25" s="50"/>
+      <c r="CX25" s="50"/>
+      <c r="CY25" s="50"/>
+      <c r="CZ25" s="50"/>
+      <c r="DA25" s="50"/>
+      <c r="DB25" s="42"/>
       <c r="DC25" s="7"/>
     </row>
     <row r="26" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="46"/>
       <c r="Q26" s="7"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="35"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="35"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="35"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="42"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="42"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="42"/>
       <c r="AI26" s="7"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="36"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="37"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="51"/>
+      <c r="AO26" s="51"/>
+      <c r="AP26" s="51"/>
+      <c r="AQ26" s="51"/>
+      <c r="AR26" s="51"/>
+      <c r="AS26" s="51"/>
+      <c r="AT26" s="51"/>
+      <c r="AU26" s="51"/>
+      <c r="AV26" s="51"/>
+      <c r="AW26" s="51"/>
+      <c r="AX26" s="51"/>
+      <c r="AY26" s="51"/>
+      <c r="AZ26" s="44"/>
       <c r="BA26" s="7"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="13"/>
@@ -4630,88 +4863,88 @@
       <c r="BR26" s="15"/>
       <c r="BS26" s="7"/>
       <c r="BV26" s="5"/>
-      <c r="BW26" s="36"/>
-      <c r="BX26" s="44"/>
-      <c r="BY26" s="44"/>
-      <c r="BZ26" s="44"/>
-      <c r="CA26" s="44"/>
-      <c r="CB26" s="44"/>
-      <c r="CC26" s="44"/>
-      <c r="CD26" s="44"/>
-      <c r="CE26" s="44"/>
-      <c r="CF26" s="44"/>
-      <c r="CG26" s="44"/>
-      <c r="CH26" s="44"/>
-      <c r="CI26" s="44"/>
-      <c r="CJ26" s="37"/>
+      <c r="BW26" s="43"/>
+      <c r="BX26" s="51"/>
+      <c r="BY26" s="51"/>
+      <c r="BZ26" s="51"/>
+      <c r="CA26" s="51"/>
+      <c r="CB26" s="51"/>
+      <c r="CC26" s="51"/>
+      <c r="CD26" s="51"/>
+      <c r="CE26" s="51"/>
+      <c r="CF26" s="51"/>
+      <c r="CG26" s="51"/>
+      <c r="CH26" s="51"/>
+      <c r="CI26" s="51"/>
+      <c r="CJ26" s="44"/>
       <c r="CK26" s="7"/>
       <c r="CN26" s="5"/>
-      <c r="CO26" s="34"/>
-      <c r="CP26" s="43"/>
-      <c r="CQ26" s="43"/>
-      <c r="CR26" s="43"/>
-      <c r="CS26" s="43"/>
-      <c r="CT26" s="43"/>
-      <c r="CU26" s="43"/>
-      <c r="CV26" s="43"/>
-      <c r="CW26" s="43"/>
-      <c r="CX26" s="43"/>
-      <c r="CY26" s="43"/>
-      <c r="CZ26" s="43"/>
-      <c r="DA26" s="43"/>
-      <c r="DB26" s="35"/>
+      <c r="CO26" s="41"/>
+      <c r="CP26" s="50"/>
+      <c r="CQ26" s="50"/>
+      <c r="CR26" s="50"/>
+      <c r="CS26" s="50"/>
+      <c r="CT26" s="50"/>
+      <c r="CU26" s="50"/>
+      <c r="CV26" s="50"/>
+      <c r="CW26" s="50"/>
+      <c r="CX26" s="50"/>
+      <c r="CY26" s="50"/>
+      <c r="CZ26" s="50"/>
+      <c r="DA26" s="50"/>
+      <c r="DB26" s="42"/>
       <c r="DC26" s="7"/>
     </row>
     <row r="27" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="46"/>
       <c r="Q27" s="7"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="36"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="37"/>
-      <c r="AA27" s="36"/>
-      <c r="AB27" s="37"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="37"/>
-      <c r="AE27" s="36"/>
-      <c r="AF27" s="37"/>
-      <c r="AG27" s="36"/>
-      <c r="AH27" s="37"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="44"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="44"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="44"/>
       <c r="AI27" s="7"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="32" t="s">
+      <c r="AM27" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="42"/>
-      <c r="AU27" s="42"/>
-      <c r="AV27" s="42"/>
-      <c r="AW27" s="42"/>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="42"/>
-      <c r="AZ27" s="33"/>
+      <c r="AN27" s="49"/>
+      <c r="AO27" s="49"/>
+      <c r="AP27" s="49"/>
+      <c r="AQ27" s="49"/>
+      <c r="AR27" s="49"/>
+      <c r="AS27" s="49"/>
+      <c r="AT27" s="49"/>
+      <c r="AU27" s="49"/>
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="49"/>
+      <c r="AX27" s="49"/>
+      <c r="AY27" s="49"/>
+      <c r="AZ27" s="40"/>
       <c r="BA27" s="7"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="13"/>
@@ -4730,88 +4963,88 @@
       <c r="BR27" s="15"/>
       <c r="BS27" s="7"/>
       <c r="BV27" s="5"/>
-      <c r="BW27" s="32" t="s">
+      <c r="BW27" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="BX27" s="42"/>
-      <c r="BY27" s="42"/>
-      <c r="BZ27" s="42"/>
-      <c r="CA27" s="42"/>
-      <c r="CB27" s="42"/>
-      <c r="CC27" s="42"/>
-      <c r="CD27" s="42"/>
-      <c r="CE27" s="42"/>
-      <c r="CF27" s="42"/>
-      <c r="CG27" s="42"/>
-      <c r="CH27" s="42"/>
-      <c r="CI27" s="42"/>
-      <c r="CJ27" s="33"/>
+      <c r="BX27" s="49"/>
+      <c r="BY27" s="49"/>
+      <c r="BZ27" s="49"/>
+      <c r="CA27" s="49"/>
+      <c r="CB27" s="49"/>
+      <c r="CC27" s="49"/>
+      <c r="CD27" s="49"/>
+      <c r="CE27" s="49"/>
+      <c r="CF27" s="49"/>
+      <c r="CG27" s="49"/>
+      <c r="CH27" s="49"/>
+      <c r="CI27" s="49"/>
+      <c r="CJ27" s="40"/>
       <c r="CK27" s="7"/>
       <c r="CN27" s="5"/>
-      <c r="CO27" s="34"/>
-      <c r="CP27" s="43"/>
-      <c r="CQ27" s="43"/>
-      <c r="CR27" s="43"/>
-      <c r="CS27" s="43"/>
-      <c r="CT27" s="43"/>
-      <c r="CU27" s="43"/>
-      <c r="CV27" s="43"/>
-      <c r="CW27" s="43"/>
-      <c r="CX27" s="43"/>
-      <c r="CY27" s="43"/>
-      <c r="CZ27" s="43"/>
-      <c r="DA27" s="43"/>
-      <c r="DB27" s="35"/>
+      <c r="CO27" s="41"/>
+      <c r="CP27" s="50"/>
+      <c r="CQ27" s="50"/>
+      <c r="CR27" s="50"/>
+      <c r="CS27" s="50"/>
+      <c r="CT27" s="50"/>
+      <c r="CU27" s="50"/>
+      <c r="CV27" s="50"/>
+      <c r="CW27" s="50"/>
+      <c r="CX27" s="50"/>
+      <c r="CY27" s="50"/>
+      <c r="CZ27" s="50"/>
+      <c r="DA27" s="50"/>
+      <c r="DB27" s="42"/>
       <c r="DC27" s="7"/>
     </row>
     <row r="28" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
       <c r="Q28" s="7"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="33"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="33"/>
+      <c r="U28" s="39"/>
+      <c r="V28" s="40"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="40"/>
+      <c r="Y28" s="39"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="39"/>
+      <c r="AB28" s="40"/>
+      <c r="AC28" s="39"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="39"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="39"/>
+      <c r="AH28" s="40"/>
       <c r="AI28" s="7"/>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="43"/>
-      <c r="AO28" s="43"/>
-      <c r="AP28" s="43"/>
-      <c r="AQ28" s="43"/>
-      <c r="AR28" s="43"/>
-      <c r="AS28" s="43"/>
-      <c r="AT28" s="43"/>
-      <c r="AU28" s="43"/>
-      <c r="AV28" s="43"/>
-      <c r="AW28" s="43"/>
-      <c r="AX28" s="43"/>
-      <c r="AY28" s="43"/>
-      <c r="AZ28" s="35"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="50"/>
+      <c r="AO28" s="50"/>
+      <c r="AP28" s="50"/>
+      <c r="AQ28" s="50"/>
+      <c r="AR28" s="50"/>
+      <c r="AS28" s="50"/>
+      <c r="AT28" s="50"/>
+      <c r="AU28" s="50"/>
+      <c r="AV28" s="50"/>
+      <c r="AW28" s="50"/>
+      <c r="AX28" s="50"/>
+      <c r="AY28" s="50"/>
+      <c r="AZ28" s="42"/>
       <c r="BA28" s="7"/>
       <c r="BD28" s="5"/>
       <c r="BE28" s="13"/>
@@ -4830,86 +5063,86 @@
       <c r="BR28" s="15"/>
       <c r="BS28" s="7"/>
       <c r="BV28" s="5"/>
-      <c r="BW28" s="34"/>
-      <c r="BX28" s="43"/>
-      <c r="BY28" s="43"/>
-      <c r="BZ28" s="43"/>
-      <c r="CA28" s="43"/>
-      <c r="CB28" s="43"/>
-      <c r="CC28" s="43"/>
-      <c r="CD28" s="43"/>
-      <c r="CE28" s="43"/>
-      <c r="CF28" s="43"/>
-      <c r="CG28" s="43"/>
-      <c r="CH28" s="43"/>
-      <c r="CI28" s="43"/>
-      <c r="CJ28" s="35"/>
+      <c r="BW28" s="41"/>
+      <c r="BX28" s="50"/>
+      <c r="BY28" s="50"/>
+      <c r="BZ28" s="50"/>
+      <c r="CA28" s="50"/>
+      <c r="CB28" s="50"/>
+      <c r="CC28" s="50"/>
+      <c r="CD28" s="50"/>
+      <c r="CE28" s="50"/>
+      <c r="CF28" s="50"/>
+      <c r="CG28" s="50"/>
+      <c r="CH28" s="50"/>
+      <c r="CI28" s="50"/>
+      <c r="CJ28" s="42"/>
       <c r="CK28" s="7"/>
       <c r="CN28" s="5"/>
-      <c r="CO28" s="34"/>
-      <c r="CP28" s="43"/>
-      <c r="CQ28" s="43"/>
-      <c r="CR28" s="43"/>
-      <c r="CS28" s="43"/>
-      <c r="CT28" s="43"/>
-      <c r="CU28" s="43"/>
-      <c r="CV28" s="43"/>
-      <c r="CW28" s="43"/>
-      <c r="CX28" s="43"/>
-      <c r="CY28" s="43"/>
-      <c r="CZ28" s="43"/>
-      <c r="DA28" s="43"/>
-      <c r="DB28" s="35"/>
+      <c r="CO28" s="41"/>
+      <c r="CP28" s="50"/>
+      <c r="CQ28" s="50"/>
+      <c r="CR28" s="50"/>
+      <c r="CS28" s="50"/>
+      <c r="CT28" s="50"/>
+      <c r="CU28" s="50"/>
+      <c r="CV28" s="50"/>
+      <c r="CW28" s="50"/>
+      <c r="CX28" s="50"/>
+      <c r="CY28" s="50"/>
+      <c r="CZ28" s="50"/>
+      <c r="DA28" s="50"/>
+      <c r="DB28" s="42"/>
       <c r="DC28" s="7"/>
     </row>
     <row r="29" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
       <c r="Q29" s="7"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="35"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="42"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="42"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="42"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="42"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="42"/>
       <c r="AI29" s="7"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="36"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="44"/>
-      <c r="AV29" s="44"/>
-      <c r="AW29" s="44"/>
-      <c r="AX29" s="44"/>
-      <c r="AY29" s="44"/>
-      <c r="AZ29" s="37"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="51"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="51"/>
+      <c r="AQ29" s="51"/>
+      <c r="AR29" s="51"/>
+      <c r="AS29" s="51"/>
+      <c r="AT29" s="51"/>
+      <c r="AU29" s="51"/>
+      <c r="AV29" s="51"/>
+      <c r="AW29" s="51"/>
+      <c r="AX29" s="51"/>
+      <c r="AY29" s="51"/>
+      <c r="AZ29" s="44"/>
       <c r="BA29" s="7"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="13"/>
@@ -4928,88 +5161,88 @@
       <c r="BR29" s="15"/>
       <c r="BS29" s="7"/>
       <c r="BV29" s="5"/>
-      <c r="BW29" s="36"/>
-      <c r="BX29" s="44"/>
-      <c r="BY29" s="44"/>
-      <c r="BZ29" s="44"/>
-      <c r="CA29" s="44"/>
-      <c r="CB29" s="44"/>
-      <c r="CC29" s="44"/>
-      <c r="CD29" s="44"/>
-      <c r="CE29" s="44"/>
-      <c r="CF29" s="44"/>
-      <c r="CG29" s="44"/>
-      <c r="CH29" s="44"/>
-      <c r="CI29" s="44"/>
-      <c r="CJ29" s="37"/>
+      <c r="BW29" s="43"/>
+      <c r="BX29" s="51"/>
+      <c r="BY29" s="51"/>
+      <c r="BZ29" s="51"/>
+      <c r="CA29" s="51"/>
+      <c r="CB29" s="51"/>
+      <c r="CC29" s="51"/>
+      <c r="CD29" s="51"/>
+      <c r="CE29" s="51"/>
+      <c r="CF29" s="51"/>
+      <c r="CG29" s="51"/>
+      <c r="CH29" s="51"/>
+      <c r="CI29" s="51"/>
+      <c r="CJ29" s="44"/>
       <c r="CK29" s="7"/>
       <c r="CN29" s="5"/>
-      <c r="CO29" s="34"/>
-      <c r="CP29" s="43"/>
-      <c r="CQ29" s="43"/>
-      <c r="CR29" s="43"/>
-      <c r="CS29" s="43"/>
-      <c r="CT29" s="43"/>
-      <c r="CU29" s="43"/>
-      <c r="CV29" s="43"/>
-      <c r="CW29" s="43"/>
-      <c r="CX29" s="43"/>
-      <c r="CY29" s="43"/>
-      <c r="CZ29" s="43"/>
-      <c r="DA29" s="43"/>
-      <c r="DB29" s="35"/>
+      <c r="CO29" s="41"/>
+      <c r="CP29" s="50"/>
+      <c r="CQ29" s="50"/>
+      <c r="CR29" s="50"/>
+      <c r="CS29" s="50"/>
+      <c r="CT29" s="50"/>
+      <c r="CU29" s="50"/>
+      <c r="CV29" s="50"/>
+      <c r="CW29" s="50"/>
+      <c r="CX29" s="50"/>
+      <c r="CY29" s="50"/>
+      <c r="CZ29" s="50"/>
+      <c r="DA29" s="50"/>
+      <c r="DB29" s="42"/>
       <c r="DC29" s="7"/>
     </row>
     <row r="30" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="39"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
       <c r="Q30" s="7"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="36"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="37"/>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="37"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="37"/>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="37"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="37"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="44"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="44"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="44"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="44"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="44"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="44"/>
       <c r="AI30" s="7"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="32" t="s">
+      <c r="AM30" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AN30" s="42"/>
-      <c r="AO30" s="42"/>
-      <c r="AP30" s="42"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="33"/>
+      <c r="AN30" s="49"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="49"/>
+      <c r="AQ30" s="49"/>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AT30" s="49"/>
+      <c r="AU30" s="49"/>
+      <c r="AV30" s="49"/>
+      <c r="AW30" s="49"/>
+      <c r="AX30" s="49"/>
+      <c r="AY30" s="49"/>
+      <c r="AZ30" s="40"/>
       <c r="BA30" s="7"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="13"/>
@@ -5028,88 +5261,88 @@
       <c r="BR30" s="15"/>
       <c r="BS30" s="7"/>
       <c r="BV30" s="5"/>
-      <c r="BW30" s="32" t="s">
+      <c r="BW30" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="BX30" s="42"/>
-      <c r="BY30" s="42"/>
-      <c r="BZ30" s="42"/>
-      <c r="CA30" s="42"/>
-      <c r="CB30" s="42"/>
-      <c r="CC30" s="42"/>
-      <c r="CD30" s="42"/>
-      <c r="CE30" s="42"/>
-      <c r="CF30" s="42"/>
-      <c r="CG30" s="42"/>
-      <c r="CH30" s="42"/>
-      <c r="CI30" s="42"/>
-      <c r="CJ30" s="33"/>
+      <c r="BX30" s="49"/>
+      <c r="BY30" s="49"/>
+      <c r="BZ30" s="49"/>
+      <c r="CA30" s="49"/>
+      <c r="CB30" s="49"/>
+      <c r="CC30" s="49"/>
+      <c r="CD30" s="49"/>
+      <c r="CE30" s="49"/>
+      <c r="CF30" s="49"/>
+      <c r="CG30" s="49"/>
+      <c r="CH30" s="49"/>
+      <c r="CI30" s="49"/>
+      <c r="CJ30" s="40"/>
       <c r="CK30" s="7"/>
       <c r="CN30" s="5"/>
-      <c r="CO30" s="34"/>
-      <c r="CP30" s="43"/>
-      <c r="CQ30" s="43"/>
-      <c r="CR30" s="43"/>
-      <c r="CS30" s="43"/>
-      <c r="CT30" s="43"/>
-      <c r="CU30" s="43"/>
-      <c r="CV30" s="43"/>
-      <c r="CW30" s="43"/>
-      <c r="CX30" s="43"/>
-      <c r="CY30" s="43"/>
-      <c r="CZ30" s="43"/>
-      <c r="DA30" s="43"/>
-      <c r="DB30" s="35"/>
+      <c r="CO30" s="41"/>
+      <c r="CP30" s="50"/>
+      <c r="CQ30" s="50"/>
+      <c r="CR30" s="50"/>
+      <c r="CS30" s="50"/>
+      <c r="CT30" s="50"/>
+      <c r="CU30" s="50"/>
+      <c r="CV30" s="50"/>
+      <c r="CW30" s="50"/>
+      <c r="CX30" s="50"/>
+      <c r="CY30" s="50"/>
+      <c r="CZ30" s="50"/>
+      <c r="DA30" s="50"/>
+      <c r="DB30" s="42"/>
       <c r="DC30" s="7"/>
     </row>
     <row r="31" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
       <c r="Q31" s="7"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="33"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="33"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="33"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="40"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="40"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="40"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="40"/>
+      <c r="AC31" s="39"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="39"/>
+      <c r="AF31" s="40"/>
+      <c r="AG31" s="39"/>
+      <c r="AH31" s="40"/>
       <c r="AI31" s="7"/>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="43"/>
-      <c r="AO31" s="43"/>
-      <c r="AP31" s="43"/>
-      <c r="AQ31" s="43"/>
-      <c r="AR31" s="43"/>
-      <c r="AS31" s="43"/>
-      <c r="AT31" s="43"/>
-      <c r="AU31" s="43"/>
-      <c r="AV31" s="43"/>
-      <c r="AW31" s="43"/>
-      <c r="AX31" s="43"/>
-      <c r="AY31" s="43"/>
-      <c r="AZ31" s="35"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="50"/>
+      <c r="AO31" s="50"/>
+      <c r="AP31" s="50"/>
+      <c r="AQ31" s="50"/>
+      <c r="AR31" s="50"/>
+      <c r="AS31" s="50"/>
+      <c r="AT31" s="50"/>
+      <c r="AU31" s="50"/>
+      <c r="AV31" s="50"/>
+      <c r="AW31" s="50"/>
+      <c r="AX31" s="50"/>
+      <c r="AY31" s="50"/>
+      <c r="AZ31" s="42"/>
       <c r="BA31" s="7"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="13"/>
@@ -5128,86 +5361,86 @@
       <c r="BR31" s="15"/>
       <c r="BS31" s="7"/>
       <c r="BV31" s="5"/>
-      <c r="BW31" s="34"/>
-      <c r="BX31" s="43"/>
-      <c r="BY31" s="43"/>
-      <c r="BZ31" s="43"/>
-      <c r="CA31" s="43"/>
-      <c r="CB31" s="43"/>
-      <c r="CC31" s="43"/>
-      <c r="CD31" s="43"/>
-      <c r="CE31" s="43"/>
-      <c r="CF31" s="43"/>
-      <c r="CG31" s="43"/>
-      <c r="CH31" s="43"/>
-      <c r="CI31" s="43"/>
-      <c r="CJ31" s="35"/>
+      <c r="BW31" s="41"/>
+      <c r="BX31" s="50"/>
+      <c r="BY31" s="50"/>
+      <c r="BZ31" s="50"/>
+      <c r="CA31" s="50"/>
+      <c r="CB31" s="50"/>
+      <c r="CC31" s="50"/>
+      <c r="CD31" s="50"/>
+      <c r="CE31" s="50"/>
+      <c r="CF31" s="50"/>
+      <c r="CG31" s="50"/>
+      <c r="CH31" s="50"/>
+      <c r="CI31" s="50"/>
+      <c r="CJ31" s="42"/>
       <c r="CK31" s="7"/>
       <c r="CN31" s="5"/>
-      <c r="CO31" s="34"/>
-      <c r="CP31" s="43"/>
-      <c r="CQ31" s="43"/>
-      <c r="CR31" s="43"/>
-      <c r="CS31" s="43"/>
-      <c r="CT31" s="43"/>
-      <c r="CU31" s="43"/>
-      <c r="CV31" s="43"/>
-      <c r="CW31" s="43"/>
-      <c r="CX31" s="43"/>
-      <c r="CY31" s="43"/>
-      <c r="CZ31" s="43"/>
-      <c r="DA31" s="43"/>
-      <c r="DB31" s="35"/>
+      <c r="CO31" s="41"/>
+      <c r="CP31" s="50"/>
+      <c r="CQ31" s="50"/>
+      <c r="CR31" s="50"/>
+      <c r="CS31" s="50"/>
+      <c r="CT31" s="50"/>
+      <c r="CU31" s="50"/>
+      <c r="CV31" s="50"/>
+      <c r="CW31" s="50"/>
+      <c r="CX31" s="50"/>
+      <c r="CY31" s="50"/>
+      <c r="CZ31" s="50"/>
+      <c r="DA31" s="50"/>
+      <c r="DB31" s="42"/>
       <c r="DC31" s="7"/>
     </row>
     <row r="32" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="39"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="39"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
       <c r="Q32" s="7"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="35"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="42"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="42"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="42"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="42"/>
+      <c r="AC32" s="41"/>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="42"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="42"/>
       <c r="AI32" s="7"/>
       <c r="AL32" s="5"/>
-      <c r="AM32" s="36"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="37"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="51"/>
+      <c r="AO32" s="51"/>
+      <c r="AP32" s="51"/>
+      <c r="AQ32" s="51"/>
+      <c r="AR32" s="51"/>
+      <c r="AS32" s="51"/>
+      <c r="AT32" s="51"/>
+      <c r="AU32" s="51"/>
+      <c r="AV32" s="51"/>
+      <c r="AW32" s="51"/>
+      <c r="AX32" s="51"/>
+      <c r="AY32" s="51"/>
+      <c r="AZ32" s="44"/>
       <c r="BA32" s="7"/>
       <c r="BD32" s="5"/>
       <c r="BE32" s="16"/>
@@ -5226,88 +5459,88 @@
       <c r="BR32" s="18"/>
       <c r="BS32" s="7"/>
       <c r="BV32" s="5"/>
-      <c r="BW32" s="36"/>
-      <c r="BX32" s="44"/>
-      <c r="BY32" s="44"/>
-      <c r="BZ32" s="44"/>
-      <c r="CA32" s="44"/>
-      <c r="CB32" s="44"/>
-      <c r="CC32" s="44"/>
-      <c r="CD32" s="44"/>
-      <c r="CE32" s="44"/>
-      <c r="CF32" s="44"/>
-      <c r="CG32" s="44"/>
-      <c r="CH32" s="44"/>
-      <c r="CI32" s="44"/>
-      <c r="CJ32" s="37"/>
+      <c r="BW32" s="43"/>
+      <c r="BX32" s="51"/>
+      <c r="BY32" s="51"/>
+      <c r="BZ32" s="51"/>
+      <c r="CA32" s="51"/>
+      <c r="CB32" s="51"/>
+      <c r="CC32" s="51"/>
+      <c r="CD32" s="51"/>
+      <c r="CE32" s="51"/>
+      <c r="CF32" s="51"/>
+      <c r="CG32" s="51"/>
+      <c r="CH32" s="51"/>
+      <c r="CI32" s="51"/>
+      <c r="CJ32" s="44"/>
       <c r="CK32" s="7"/>
       <c r="CN32" s="5"/>
-      <c r="CO32" s="36"/>
-      <c r="CP32" s="44"/>
-      <c r="CQ32" s="44"/>
-      <c r="CR32" s="44"/>
-      <c r="CS32" s="44"/>
-      <c r="CT32" s="44"/>
-      <c r="CU32" s="44"/>
-      <c r="CV32" s="44"/>
-      <c r="CW32" s="44"/>
-      <c r="CX32" s="44"/>
-      <c r="CY32" s="44"/>
-      <c r="CZ32" s="44"/>
-      <c r="DA32" s="44"/>
-      <c r="DB32" s="37"/>
+      <c r="CO32" s="43"/>
+      <c r="CP32" s="51"/>
+      <c r="CQ32" s="51"/>
+      <c r="CR32" s="51"/>
+      <c r="CS32" s="51"/>
+      <c r="CT32" s="51"/>
+      <c r="CU32" s="51"/>
+      <c r="CV32" s="51"/>
+      <c r="CW32" s="51"/>
+      <c r="CX32" s="51"/>
+      <c r="CY32" s="51"/>
+      <c r="CZ32" s="51"/>
+      <c r="DA32" s="51"/>
+      <c r="DB32" s="44"/>
       <c r="DC32" s="7"/>
     </row>
     <row r="33" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+      <c r="K33" s="46"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
       <c r="Q33" s="7"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="36"/>
-      <c r="AB33" s="37"/>
-      <c r="AC33" s="36"/>
-      <c r="AD33" s="37"/>
-      <c r="AE33" s="36"/>
-      <c r="AF33" s="37"/>
-      <c r="AG33" s="36"/>
-      <c r="AH33" s="37"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="44"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="44"/>
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="44"/>
       <c r="AI33" s="7"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="32" t="s">
+      <c r="AM33" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AN33" s="42"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="42"/>
-      <c r="AU33" s="42"/>
-      <c r="AV33" s="42"/>
-      <c r="AW33" s="42"/>
-      <c r="AX33" s="42"/>
-      <c r="AY33" s="42"/>
-      <c r="AZ33" s="33"/>
+      <c r="AN33" s="49"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="49"/>
+      <c r="AQ33" s="49"/>
+      <c r="AR33" s="49"/>
+      <c r="AS33" s="49"/>
+      <c r="AT33" s="49"/>
+      <c r="AU33" s="49"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="49"/>
+      <c r="AZ33" s="40"/>
       <c r="BA33" s="7"/>
       <c r="BD33" s="5"/>
       <c r="BE33" s="6"/>
@@ -5326,22 +5559,22 @@
       <c r="BR33" s="6"/>
       <c r="BS33" s="7"/>
       <c r="BV33" s="5"/>
-      <c r="BW33" s="32" t="s">
+      <c r="BW33" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="BX33" s="42"/>
-      <c r="BY33" s="42"/>
-      <c r="BZ33" s="42"/>
-      <c r="CA33" s="42"/>
-      <c r="CB33" s="42"/>
-      <c r="CC33" s="42"/>
-      <c r="CD33" s="42"/>
-      <c r="CE33" s="42"/>
-      <c r="CF33" s="42"/>
-      <c r="CG33" s="42"/>
-      <c r="CH33" s="42"/>
-      <c r="CI33" s="42"/>
-      <c r="CJ33" s="33"/>
+      <c r="BX33" s="49"/>
+      <c r="BY33" s="49"/>
+      <c r="BZ33" s="49"/>
+      <c r="CA33" s="49"/>
+      <c r="CB33" s="49"/>
+      <c r="CC33" s="49"/>
+      <c r="CD33" s="49"/>
+      <c r="CE33" s="49"/>
+      <c r="CF33" s="49"/>
+      <c r="CG33" s="49"/>
+      <c r="CH33" s="49"/>
+      <c r="CI33" s="49"/>
+      <c r="CJ33" s="40"/>
       <c r="CK33" s="7"/>
       <c r="CN33" s="5"/>
       <c r="CO33" s="14"/>
@@ -5378,96 +5611,96 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="41" t="s">
+      <c r="U34" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41" t="s">
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="48"/>
+      <c r="AH34" s="48"/>
       <c r="AI34" s="7"/>
       <c r="AL34" s="5"/>
-      <c r="AM34" s="34"/>
-      <c r="AN34" s="43"/>
-      <c r="AO34" s="43"/>
-      <c r="AP34" s="43"/>
-      <c r="AQ34" s="43"/>
-      <c r="AR34" s="43"/>
-      <c r="AS34" s="43"/>
-      <c r="AT34" s="43"/>
-      <c r="AU34" s="43"/>
-      <c r="AV34" s="43"/>
-      <c r="AW34" s="43"/>
-      <c r="AX34" s="43"/>
-      <c r="AY34" s="43"/>
-      <c r="AZ34" s="35"/>
+      <c r="AM34" s="41"/>
+      <c r="AN34" s="50"/>
+      <c r="AO34" s="50"/>
+      <c r="AP34" s="50"/>
+      <c r="AQ34" s="50"/>
+      <c r="AR34" s="50"/>
+      <c r="AS34" s="50"/>
+      <c r="AT34" s="50"/>
+      <c r="AU34" s="50"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="42"/>
       <c r="BA34" s="7"/>
       <c r="BD34" s="5"/>
-      <c r="BE34" s="52" t="s">
+      <c r="BE34" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="BF34" s="53"/>
+      <c r="BF34" s="60"/>
       <c r="BG34" s="14"/>
-      <c r="BH34" s="32" t="s">
+      <c r="BH34" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="BI34" s="42"/>
-      <c r="BJ34" s="42"/>
-      <c r="BK34" s="42"/>
-      <c r="BL34" s="42"/>
-      <c r="BM34" s="42"/>
-      <c r="BN34" s="42"/>
-      <c r="BO34" s="42"/>
-      <c r="BP34" s="42"/>
-      <c r="BQ34" s="42"/>
-      <c r="BR34" s="33"/>
+      <c r="BI34" s="49"/>
+      <c r="BJ34" s="49"/>
+      <c r="BK34" s="49"/>
+      <c r="BL34" s="49"/>
+      <c r="BM34" s="49"/>
+      <c r="BN34" s="49"/>
+      <c r="BO34" s="49"/>
+      <c r="BP34" s="49"/>
+      <c r="BQ34" s="49"/>
+      <c r="BR34" s="40"/>
       <c r="BS34" s="7"/>
       <c r="BV34" s="5"/>
-      <c r="BW34" s="34"/>
-      <c r="BX34" s="43"/>
-      <c r="BY34" s="43"/>
-      <c r="BZ34" s="43"/>
-      <c r="CA34" s="43"/>
-      <c r="CB34" s="43"/>
-      <c r="CC34" s="43"/>
-      <c r="CD34" s="43"/>
-      <c r="CE34" s="43"/>
-      <c r="CF34" s="43"/>
-      <c r="CG34" s="43"/>
-      <c r="CH34" s="43"/>
-      <c r="CI34" s="43"/>
-      <c r="CJ34" s="35"/>
+      <c r="BW34" s="41"/>
+      <c r="BX34" s="50"/>
+      <c r="BY34" s="50"/>
+      <c r="BZ34" s="50"/>
+      <c r="CA34" s="50"/>
+      <c r="CB34" s="50"/>
+      <c r="CC34" s="50"/>
+      <c r="CD34" s="50"/>
+      <c r="CE34" s="50"/>
+      <c r="CF34" s="50"/>
+      <c r="CG34" s="50"/>
+      <c r="CH34" s="50"/>
+      <c r="CI34" s="50"/>
+      <c r="CJ34" s="42"/>
       <c r="CK34" s="7"/>
       <c r="CN34" s="5"/>
-      <c r="CO34" s="52" t="s">
+      <c r="CO34" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="CP34" s="53"/>
+      <c r="CP34" s="60"/>
       <c r="CQ34" s="14"/>
-      <c r="CR34" s="56" t="s">
+      <c r="CR34" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="CS34" s="42"/>
-      <c r="CT34" s="42"/>
-      <c r="CU34" s="42"/>
-      <c r="CV34" s="42"/>
-      <c r="CW34" s="42"/>
-      <c r="CX34" s="42"/>
-      <c r="CY34" s="42"/>
-      <c r="CZ34" s="42"/>
-      <c r="DA34" s="42"/>
-      <c r="DB34" s="33"/>
+      <c r="CS34" s="49"/>
+      <c r="CT34" s="49"/>
+      <c r="CU34" s="49"/>
+      <c r="CV34" s="49"/>
+      <c r="CW34" s="49"/>
+      <c r="CX34" s="49"/>
+      <c r="CY34" s="49"/>
+      <c r="CZ34" s="49"/>
+      <c r="DA34" s="49"/>
+      <c r="DB34" s="40"/>
       <c r="DC34" s="7"/>
     </row>
     <row r="35" spans="2:107" x14ac:dyDescent="0.4">
@@ -5488,84 +5721,84 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="41"/>
-      <c r="V35" s="41"/>
-      <c r="W35" s="41"/>
-      <c r="X35" s="41"/>
-      <c r="Y35" s="41"/>
-      <c r="Z35" s="41"/>
-      <c r="AA35" s="41"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="48"/>
+      <c r="AH35" s="48"/>
       <c r="AI35" s="7"/>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="36"/>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
-      <c r="AU35" s="44"/>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="44"/>
-      <c r="AX35" s="44"/>
-      <c r="AY35" s="44"/>
-      <c r="AZ35" s="37"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="51"/>
+      <c r="AO35" s="51"/>
+      <c r="AP35" s="51"/>
+      <c r="AQ35" s="51"/>
+      <c r="AR35" s="51"/>
+      <c r="AS35" s="51"/>
+      <c r="AT35" s="51"/>
+      <c r="AU35" s="51"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="51"/>
+      <c r="AX35" s="51"/>
+      <c r="AY35" s="51"/>
+      <c r="AZ35" s="44"/>
       <c r="BA35" s="7"/>
       <c r="BD35" s="5"/>
-      <c r="BE35" s="54"/>
-      <c r="BF35" s="55"/>
+      <c r="BE35" s="61"/>
+      <c r="BF35" s="62"/>
       <c r="BG35" s="14"/>
-      <c r="BH35" s="36"/>
-      <c r="BI35" s="44"/>
-      <c r="BJ35" s="44"/>
-      <c r="BK35" s="44"/>
-      <c r="BL35" s="44"/>
-      <c r="BM35" s="44"/>
-      <c r="BN35" s="44"/>
-      <c r="BO35" s="44"/>
-      <c r="BP35" s="44"/>
-      <c r="BQ35" s="44"/>
-      <c r="BR35" s="37"/>
+      <c r="BH35" s="43"/>
+      <c r="BI35" s="51"/>
+      <c r="BJ35" s="51"/>
+      <c r="BK35" s="51"/>
+      <c r="BL35" s="51"/>
+      <c r="BM35" s="51"/>
+      <c r="BN35" s="51"/>
+      <c r="BO35" s="51"/>
+      <c r="BP35" s="51"/>
+      <c r="BQ35" s="51"/>
+      <c r="BR35" s="44"/>
       <c r="BS35" s="7"/>
       <c r="BV35" s="5"/>
-      <c r="BW35" s="36"/>
-      <c r="BX35" s="44"/>
-      <c r="BY35" s="44"/>
-      <c r="BZ35" s="44"/>
-      <c r="CA35" s="44"/>
-      <c r="CB35" s="44"/>
-      <c r="CC35" s="44"/>
-      <c r="CD35" s="44"/>
-      <c r="CE35" s="44"/>
-      <c r="CF35" s="44"/>
-      <c r="CG35" s="44"/>
-      <c r="CH35" s="44"/>
-      <c r="CI35" s="44"/>
-      <c r="CJ35" s="37"/>
+      <c r="BW35" s="43"/>
+      <c r="BX35" s="51"/>
+      <c r="BY35" s="51"/>
+      <c r="BZ35" s="51"/>
+      <c r="CA35" s="51"/>
+      <c r="CB35" s="51"/>
+      <c r="CC35" s="51"/>
+      <c r="CD35" s="51"/>
+      <c r="CE35" s="51"/>
+      <c r="CF35" s="51"/>
+      <c r="CG35" s="51"/>
+      <c r="CH35" s="51"/>
+      <c r="CI35" s="51"/>
+      <c r="CJ35" s="44"/>
       <c r="CK35" s="7"/>
       <c r="CN35" s="5"/>
-      <c r="CO35" s="54"/>
-      <c r="CP35" s="55"/>
+      <c r="CO35" s="61"/>
+      <c r="CP35" s="62"/>
       <c r="CQ35" s="14"/>
-      <c r="CR35" s="36"/>
-      <c r="CS35" s="44"/>
-      <c r="CT35" s="44"/>
-      <c r="CU35" s="44"/>
-      <c r="CV35" s="44"/>
-      <c r="CW35" s="44"/>
-      <c r="CX35" s="44"/>
-      <c r="CY35" s="44"/>
-      <c r="CZ35" s="44"/>
-      <c r="DA35" s="44"/>
-      <c r="DB35" s="37"/>
+      <c r="CR35" s="43"/>
+      <c r="CS35" s="51"/>
+      <c r="CT35" s="51"/>
+      <c r="CU35" s="51"/>
+      <c r="CV35" s="51"/>
+      <c r="CW35" s="51"/>
+      <c r="CX35" s="51"/>
+      <c r="CY35" s="51"/>
+      <c r="CZ35" s="51"/>
+      <c r="DA35" s="51"/>
+      <c r="DB35" s="44"/>
       <c r="DC35" s="7"/>
     </row>
     <row r="36" spans="2:107" x14ac:dyDescent="0.4">
@@ -5667,334 +5900,334 @@
       <c r="DC36" s="7"/>
     </row>
     <row r="37" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="23" t="s">
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="23" t="s">
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="25"/>
-      <c r="T37" s="23" t="s">
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="32"/>
+      <c r="T37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="25"/>
-      <c r="Y37" s="23" t="s">
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="24"/>
-      <c r="AA37" s="24"/>
-      <c r="AB37" s="24"/>
-      <c r="AC37" s="24"/>
-      <c r="AD37" s="25"/>
-      <c r="AE37" s="23" t="s">
+      <c r="Z37" s="31"/>
+      <c r="AA37" s="31"/>
+      <c r="AB37" s="31"/>
+      <c r="AC37" s="31"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AF37" s="24"/>
-      <c r="AG37" s="24"/>
-      <c r="AH37" s="24"/>
-      <c r="AI37" s="25"/>
-      <c r="AL37" s="23" t="s">
+      <c r="AF37" s="31"/>
+      <c r="AG37" s="31"/>
+      <c r="AH37" s="31"/>
+      <c r="AI37" s="32"/>
+      <c r="AL37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="AM37" s="24"/>
-      <c r="AN37" s="24"/>
-      <c r="AO37" s="24"/>
-      <c r="AP37" s="25"/>
-      <c r="AQ37" s="23" t="s">
+      <c r="AM37" s="31"/>
+      <c r="AN37" s="31"/>
+      <c r="AO37" s="31"/>
+      <c r="AP37" s="32"/>
+      <c r="AQ37" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="AR37" s="24"/>
-      <c r="AS37" s="24"/>
-      <c r="AT37" s="24"/>
-      <c r="AU37" s="24"/>
-      <c r="AV37" s="25"/>
-      <c r="AW37" s="23" t="s">
+      <c r="AR37" s="31"/>
+      <c r="AS37" s="31"/>
+      <c r="AT37" s="31"/>
+      <c r="AU37" s="31"/>
+      <c r="AV37" s="32"/>
+      <c r="AW37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="24"/>
-      <c r="AY37" s="24"/>
-      <c r="AZ37" s="24"/>
-      <c r="BA37" s="25"/>
-      <c r="BD37" s="23" t="s">
+      <c r="AX37" s="31"/>
+      <c r="AY37" s="31"/>
+      <c r="AZ37" s="31"/>
+      <c r="BA37" s="32"/>
+      <c r="BD37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="BE37" s="24"/>
-      <c r="BF37" s="24"/>
-      <c r="BG37" s="24"/>
-      <c r="BH37" s="25"/>
-      <c r="BI37" s="23" t="s">
+      <c r="BE37" s="31"/>
+      <c r="BF37" s="31"/>
+      <c r="BG37" s="31"/>
+      <c r="BH37" s="32"/>
+      <c r="BI37" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="24"/>
-      <c r="BK37" s="24"/>
-      <c r="BL37" s="24"/>
-      <c r="BM37" s="24"/>
-      <c r="BN37" s="25"/>
-      <c r="BO37" s="23" t="s">
+      <c r="BJ37" s="31"/>
+      <c r="BK37" s="31"/>
+      <c r="BL37" s="31"/>
+      <c r="BM37" s="31"/>
+      <c r="BN37" s="32"/>
+      <c r="BO37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="BP37" s="24"/>
-      <c r="BQ37" s="24"/>
-      <c r="BR37" s="24"/>
-      <c r="BS37" s="25"/>
-      <c r="BV37" s="23" t="s">
+      <c r="BP37" s="31"/>
+      <c r="BQ37" s="31"/>
+      <c r="BR37" s="31"/>
+      <c r="BS37" s="32"/>
+      <c r="BV37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="BW37" s="24"/>
-      <c r="BX37" s="24"/>
-      <c r="BY37" s="24"/>
-      <c r="BZ37" s="25"/>
-      <c r="CA37" s="23" t="s">
+      <c r="BW37" s="31"/>
+      <c r="BX37" s="31"/>
+      <c r="BY37" s="31"/>
+      <c r="BZ37" s="32"/>
+      <c r="CA37" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CB37" s="24"/>
-      <c r="CC37" s="24"/>
-      <c r="CD37" s="24"/>
-      <c r="CE37" s="24"/>
-      <c r="CF37" s="25"/>
-      <c r="CG37" s="23" t="s">
+      <c r="CB37" s="31"/>
+      <c r="CC37" s="31"/>
+      <c r="CD37" s="31"/>
+      <c r="CE37" s="31"/>
+      <c r="CF37" s="32"/>
+      <c r="CG37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CH37" s="24"/>
-      <c r="CI37" s="24"/>
-      <c r="CJ37" s="24"/>
-      <c r="CK37" s="25"/>
-      <c r="CN37" s="23" t="s">
+      <c r="CH37" s="31"/>
+      <c r="CI37" s="31"/>
+      <c r="CJ37" s="31"/>
+      <c r="CK37" s="32"/>
+      <c r="CN37" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="CO37" s="24"/>
-      <c r="CP37" s="24"/>
-      <c r="CQ37" s="24"/>
-      <c r="CR37" s="25"/>
-      <c r="CS37" s="23" t="s">
+      <c r="CO37" s="31"/>
+      <c r="CP37" s="31"/>
+      <c r="CQ37" s="31"/>
+      <c r="CR37" s="32"/>
+      <c r="CS37" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="CT37" s="24"/>
-      <c r="CU37" s="24"/>
-      <c r="CV37" s="24"/>
-      <c r="CW37" s="24"/>
-      <c r="CX37" s="25"/>
-      <c r="CY37" s="23" t="s">
+      <c r="CT37" s="31"/>
+      <c r="CU37" s="31"/>
+      <c r="CV37" s="31"/>
+      <c r="CW37" s="31"/>
+      <c r="CX37" s="32"/>
+      <c r="CY37" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="CZ37" s="24"/>
-      <c r="DA37" s="24"/>
-      <c r="DB37" s="24"/>
-      <c r="DC37" s="25"/>
+      <c r="CZ37" s="31"/>
+      <c r="DA37" s="31"/>
+      <c r="DB37" s="31"/>
+      <c r="DC37" s="32"/>
     </row>
     <row r="38" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B38" s="26"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="28"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="27"/>
-      <c r="V38" s="27"/>
-      <c r="W38" s="27"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="26"/>
-      <c r="Z38" s="27"/>
-      <c r="AA38" s="27"/>
-      <c r="AB38" s="27"/>
-      <c r="AC38" s="27"/>
-      <c r="AD38" s="28"/>
-      <c r="AE38" s="26"/>
-      <c r="AF38" s="27"/>
-      <c r="AG38" s="27"/>
-      <c r="AH38" s="27"/>
-      <c r="AI38" s="28"/>
-      <c r="AL38" s="26"/>
-      <c r="AM38" s="27"/>
-      <c r="AN38" s="27"/>
-      <c r="AO38" s="27"/>
-      <c r="AP38" s="28"/>
-      <c r="AQ38" s="26"/>
-      <c r="AR38" s="27"/>
-      <c r="AS38" s="27"/>
-      <c r="AT38" s="27"/>
-      <c r="AU38" s="27"/>
-      <c r="AV38" s="28"/>
-      <c r="AW38" s="26"/>
-      <c r="AX38" s="27"/>
-      <c r="AY38" s="27"/>
-      <c r="AZ38" s="27"/>
-      <c r="BA38" s="28"/>
-      <c r="BD38" s="26"/>
-      <c r="BE38" s="27"/>
-      <c r="BF38" s="27"/>
-      <c r="BG38" s="27"/>
-      <c r="BH38" s="28"/>
-      <c r="BI38" s="26"/>
-      <c r="BJ38" s="27"/>
-      <c r="BK38" s="27"/>
-      <c r="BL38" s="27"/>
-      <c r="BM38" s="27"/>
-      <c r="BN38" s="28"/>
-      <c r="BO38" s="26"/>
-      <c r="BP38" s="27"/>
-      <c r="BQ38" s="27"/>
-      <c r="BR38" s="27"/>
-      <c r="BS38" s="28"/>
-      <c r="BV38" s="26"/>
-      <c r="BW38" s="27"/>
-      <c r="BX38" s="27"/>
-      <c r="BY38" s="27"/>
-      <c r="BZ38" s="28"/>
-      <c r="CA38" s="26"/>
-      <c r="CB38" s="27"/>
-      <c r="CC38" s="27"/>
-      <c r="CD38" s="27"/>
-      <c r="CE38" s="27"/>
-      <c r="CF38" s="28"/>
-      <c r="CG38" s="26"/>
-      <c r="CH38" s="27"/>
-      <c r="CI38" s="27"/>
-      <c r="CJ38" s="27"/>
-      <c r="CK38" s="28"/>
-      <c r="CN38" s="26"/>
-      <c r="CO38" s="27"/>
-      <c r="CP38" s="27"/>
-      <c r="CQ38" s="27"/>
-      <c r="CR38" s="28"/>
-      <c r="CS38" s="26"/>
-      <c r="CT38" s="27"/>
-      <c r="CU38" s="27"/>
-      <c r="CV38" s="27"/>
-      <c r="CW38" s="27"/>
-      <c r="CX38" s="28"/>
-      <c r="CY38" s="26"/>
-      <c r="CZ38" s="27"/>
-      <c r="DA38" s="27"/>
-      <c r="DB38" s="27"/>
-      <c r="DC38" s="28"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="35"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="34"/>
+      <c r="AA38" s="34"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
+      <c r="AD38" s="35"/>
+      <c r="AE38" s="33"/>
+      <c r="AF38" s="34"/>
+      <c r="AG38" s="34"/>
+      <c r="AH38" s="34"/>
+      <c r="AI38" s="35"/>
+      <c r="AL38" s="33"/>
+      <c r="AM38" s="34"/>
+      <c r="AN38" s="34"/>
+      <c r="AO38" s="34"/>
+      <c r="AP38" s="35"/>
+      <c r="AQ38" s="33"/>
+      <c r="AR38" s="34"/>
+      <c r="AS38" s="34"/>
+      <c r="AT38" s="34"/>
+      <c r="AU38" s="34"/>
+      <c r="AV38" s="35"/>
+      <c r="AW38" s="33"/>
+      <c r="AX38" s="34"/>
+      <c r="AY38" s="34"/>
+      <c r="AZ38" s="34"/>
+      <c r="BA38" s="35"/>
+      <c r="BD38" s="33"/>
+      <c r="BE38" s="34"/>
+      <c r="BF38" s="34"/>
+      <c r="BG38" s="34"/>
+      <c r="BH38" s="35"/>
+      <c r="BI38" s="33"/>
+      <c r="BJ38" s="34"/>
+      <c r="BK38" s="34"/>
+      <c r="BL38" s="34"/>
+      <c r="BM38" s="34"/>
+      <c r="BN38" s="35"/>
+      <c r="BO38" s="33"/>
+      <c r="BP38" s="34"/>
+      <c r="BQ38" s="34"/>
+      <c r="BR38" s="34"/>
+      <c r="BS38" s="35"/>
+      <c r="BV38" s="33"/>
+      <c r="BW38" s="34"/>
+      <c r="BX38" s="34"/>
+      <c r="BY38" s="34"/>
+      <c r="BZ38" s="35"/>
+      <c r="CA38" s="33"/>
+      <c r="CB38" s="34"/>
+      <c r="CC38" s="34"/>
+      <c r="CD38" s="34"/>
+      <c r="CE38" s="34"/>
+      <c r="CF38" s="35"/>
+      <c r="CG38" s="33"/>
+      <c r="CH38" s="34"/>
+      <c r="CI38" s="34"/>
+      <c r="CJ38" s="34"/>
+      <c r="CK38" s="35"/>
+      <c r="CN38" s="33"/>
+      <c r="CO38" s="34"/>
+      <c r="CP38" s="34"/>
+      <c r="CQ38" s="34"/>
+      <c r="CR38" s="35"/>
+      <c r="CS38" s="33"/>
+      <c r="CT38" s="34"/>
+      <c r="CU38" s="34"/>
+      <c r="CV38" s="34"/>
+      <c r="CW38" s="34"/>
+      <c r="CX38" s="35"/>
+      <c r="CY38" s="33"/>
+      <c r="CZ38" s="34"/>
+      <c r="DA38" s="34"/>
+      <c r="DB38" s="34"/>
+      <c r="DC38" s="35"/>
     </row>
     <row r="39" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
-      <c r="Q39" s="31"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="30"/>
-      <c r="V39" s="30"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="30"/>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="30"/>
-      <c r="AG39" s="30"/>
-      <c r="AH39" s="30"/>
-      <c r="AI39" s="31"/>
-      <c r="AL39" s="29"/>
-      <c r="AM39" s="30"/>
-      <c r="AN39" s="30"/>
-      <c r="AO39" s="30"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="29"/>
-      <c r="AR39" s="30"/>
-      <c r="AS39" s="30"/>
-      <c r="AT39" s="30"/>
-      <c r="AU39" s="30"/>
-      <c r="AV39" s="31"/>
-      <c r="AW39" s="29"/>
-      <c r="AX39" s="30"/>
-      <c r="AY39" s="30"/>
-      <c r="AZ39" s="30"/>
-      <c r="BA39" s="31"/>
-      <c r="BD39" s="29"/>
-      <c r="BE39" s="30"/>
-      <c r="BF39" s="30"/>
-      <c r="BG39" s="30"/>
-      <c r="BH39" s="31"/>
-      <c r="BI39" s="29"/>
-      <c r="BJ39" s="30"/>
-      <c r="BK39" s="30"/>
-      <c r="BL39" s="30"/>
-      <c r="BM39" s="30"/>
-      <c r="BN39" s="31"/>
-      <c r="BO39" s="29"/>
-      <c r="BP39" s="30"/>
-      <c r="BQ39" s="30"/>
-      <c r="BR39" s="30"/>
-      <c r="BS39" s="31"/>
-      <c r="BV39" s="29"/>
-      <c r="BW39" s="30"/>
-      <c r="BX39" s="30"/>
-      <c r="BY39" s="30"/>
-      <c r="BZ39" s="31"/>
-      <c r="CA39" s="29"/>
-      <c r="CB39" s="30"/>
-      <c r="CC39" s="30"/>
-      <c r="CD39" s="30"/>
-      <c r="CE39" s="30"/>
-      <c r="CF39" s="31"/>
-      <c r="CG39" s="29"/>
-      <c r="CH39" s="30"/>
-      <c r="CI39" s="30"/>
-      <c r="CJ39" s="30"/>
-      <c r="CK39" s="31"/>
-      <c r="CN39" s="29"/>
-      <c r="CO39" s="30"/>
-      <c r="CP39" s="30"/>
-      <c r="CQ39" s="30"/>
-      <c r="CR39" s="31"/>
-      <c r="CS39" s="29"/>
-      <c r="CT39" s="30"/>
-      <c r="CU39" s="30"/>
-      <c r="CV39" s="30"/>
-      <c r="CW39" s="30"/>
-      <c r="CX39" s="31"/>
-      <c r="CY39" s="29"/>
-      <c r="CZ39" s="30"/>
-      <c r="DA39" s="30"/>
-      <c r="DB39" s="30"/>
-      <c r="DC39" s="31"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="38"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="37"/>
+      <c r="AA39" s="37"/>
+      <c r="AB39" s="37"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="37"/>
+      <c r="AG39" s="37"/>
+      <c r="AH39" s="37"/>
+      <c r="AI39" s="38"/>
+      <c r="AL39" s="36"/>
+      <c r="AM39" s="37"/>
+      <c r="AN39" s="37"/>
+      <c r="AO39" s="37"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="36"/>
+      <c r="AR39" s="37"/>
+      <c r="AS39" s="37"/>
+      <c r="AT39" s="37"/>
+      <c r="AU39" s="37"/>
+      <c r="AV39" s="38"/>
+      <c r="AW39" s="36"/>
+      <c r="AX39" s="37"/>
+      <c r="AY39" s="37"/>
+      <c r="AZ39" s="37"/>
+      <c r="BA39" s="38"/>
+      <c r="BD39" s="36"/>
+      <c r="BE39" s="37"/>
+      <c r="BF39" s="37"/>
+      <c r="BG39" s="37"/>
+      <c r="BH39" s="38"/>
+      <c r="BI39" s="36"/>
+      <c r="BJ39" s="37"/>
+      <c r="BK39" s="37"/>
+      <c r="BL39" s="37"/>
+      <c r="BM39" s="37"/>
+      <c r="BN39" s="38"/>
+      <c r="BO39" s="36"/>
+      <c r="BP39" s="37"/>
+      <c r="BQ39" s="37"/>
+      <c r="BR39" s="37"/>
+      <c r="BS39" s="38"/>
+      <c r="BV39" s="36"/>
+      <c r="BW39" s="37"/>
+      <c r="BX39" s="37"/>
+      <c r="BY39" s="37"/>
+      <c r="BZ39" s="38"/>
+      <c r="CA39" s="36"/>
+      <c r="CB39" s="37"/>
+      <c r="CC39" s="37"/>
+      <c r="CD39" s="37"/>
+      <c r="CE39" s="37"/>
+      <c r="CF39" s="38"/>
+      <c r="CG39" s="36"/>
+      <c r="CH39" s="37"/>
+      <c r="CI39" s="37"/>
+      <c r="CJ39" s="37"/>
+      <c r="CK39" s="38"/>
+      <c r="CN39" s="36"/>
+      <c r="CO39" s="37"/>
+      <c r="CP39" s="37"/>
+      <c r="CQ39" s="37"/>
+      <c r="CR39" s="38"/>
+      <c r="CS39" s="36"/>
+      <c r="CT39" s="37"/>
+      <c r="CU39" s="37"/>
+      <c r="CV39" s="37"/>
+      <c r="CW39" s="37"/>
+      <c r="CX39" s="38"/>
+      <c r="CY39" s="36"/>
+      <c r="CZ39" s="37"/>
+      <c r="DA39" s="37"/>
+      <c r="DB39" s="37"/>
+      <c r="DC39" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -6118,10 +6351,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F11D59-011D-4ADE-9066-A493983EF92C}">
-  <dimension ref="B2:I10"/>
+  <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6135,193 +6368,759 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>57</v>
-      </c>
+      <c r="C4" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>76</v>
+      <c r="C5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="19" t="str">
-        <f>"1111"</f>
-        <v>1111</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19" t="b">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="19" t="str">
-        <f>"0000"</f>
-        <v>0000</v>
-      </c>
-      <c r="E8" s="19">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.46597222222222223</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C11" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="19">
+        <v>7</v>
+      </c>
+      <c r="E11" s="29" t="str">
+        <f>"24:"</f>
+        <v>24:</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5929AD-73A3-455F-9C42-9E7A6E536196}">
+  <dimension ref="B2:O42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.25" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.25" customWidth="1"/>
+    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="D2" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="G8" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="65"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="O12" s="65"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="L13" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="M13" s="65" t="b">
+        <v>1</v>
+      </c>
+      <c r="N13" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="O13" s="65"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="M14" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="O14" s="65"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F16" s="65"/>
+      <c r="G16" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="65"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="F17" s="65"/>
+      <c r="G17" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="65"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="H19" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="K20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" t="s">
+        <v>99</v>
+      </c>
+      <c r="N20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="K21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" t="b">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="K22" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L23" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="G31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="H32" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="H33" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K34" t="s">
+        <v>89</v>
+      </c>
+      <c r="L34" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" t="s">
+        <v>100</v>
+      </c>
+      <c r="N34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K35" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" t="b">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K36" t="s">
+        <v>92</v>
+      </c>
+      <c r="L36" t="s">
+        <v>87</v>
+      </c>
+      <c r="M36" t="b">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="K37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="J38" t="s">
+        <v>93</v>
+      </c>
+      <c r="K38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="G39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="F40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7118865-D3B9-4FFF-9FDE-B78570039695}">
+  <dimension ref="B2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="19" t="str">
-        <f>"2400"</f>
-        <v>2400</v>
-      </c>
-      <c r="E9" s="19">
-        <v>7</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B10" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/カレンダー_設計書.xlsx
+++ b/カレンダー_設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\AndroidStudioProjects\OriginalCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4934ED2E-DB50-45E6-A25D-C657C9DCA713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E48638-BBC1-4325-8E35-7EC1146B4A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="780" windowWidth="15750" windowHeight="14175" activeTab="3" xr2:uid="{7518170D-50F7-406D-9384-F6EA5B34F2A6}"/>
+    <workbookView xWindow="12090" yWindow="705" windowWidth="15750" windowHeight="14175" activeTab="2" xr2:uid="{7518170D-50F7-406D-9384-F6EA5B34F2A6}"/>
   </bookViews>
   <sheets>
     <sheet name="デザイン" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
   <si>
     <t>&lt;activity_main.xml&gt;</t>
     <phoneticPr fontId="1"/>
@@ -805,6 +805,16 @@
     <t>←日曜日</t>
     <rPh sb="1" eb="4">
       <t>ニチヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSONObject ではなく、jacksonを使用すること（classとして使用できるため）</t>
+    <rPh sb="24" eb="26">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1114,6 +1124,54 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1142,43 +1200,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,35 +1220,23 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3385,96 +3395,96 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="7"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="52" t="s">
+      <c r="U12" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="53"/>
-      <c r="AB12" s="53"/>
-      <c r="AC12" s="53"/>
-      <c r="AD12" s="53"/>
-      <c r="AE12" s="53"/>
-      <c r="AF12" s="53"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="54"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="58"/>
       <c r="AI12" s="7"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="39" t="s">
+      <c r="AM12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AN12" s="49"/>
-      <c r="AO12" s="49"/>
-      <c r="AP12" s="49"/>
-      <c r="AQ12" s="49"/>
-      <c r="AR12" s="49"/>
-      <c r="AS12" s="49"/>
-      <c r="AT12" s="49"/>
-      <c r="AU12" s="49"/>
-      <c r="AV12" s="49"/>
-      <c r="AW12" s="49"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="40"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
+      <c r="AP12" s="38"/>
+      <c r="AQ12" s="38"/>
+      <c r="AR12" s="38"/>
+      <c r="AS12" s="38"/>
+      <c r="AT12" s="38"/>
+      <c r="AU12" s="38"/>
+      <c r="AV12" s="38"/>
+      <c r="AW12" s="38"/>
+      <c r="AX12" s="38"/>
+      <c r="AY12" s="38"/>
+      <c r="AZ12" s="39"/>
       <c r="BA12" s="7"/>
       <c r="BD12" s="5"/>
-      <c r="BE12" s="39" t="s">
+      <c r="BE12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="BF12" s="49"/>
-      <c r="BG12" s="49"/>
-      <c r="BH12" s="49"/>
-      <c r="BI12" s="49"/>
-      <c r="BJ12" s="49"/>
-      <c r="BK12" s="49"/>
-      <c r="BL12" s="49"/>
-      <c r="BM12" s="49"/>
-      <c r="BN12" s="49"/>
-      <c r="BO12" s="49"/>
-      <c r="BP12" s="49"/>
-      <c r="BQ12" s="49"/>
-      <c r="BR12" s="40"/>
+      <c r="BF12" s="38"/>
+      <c r="BG12" s="38"/>
+      <c r="BH12" s="38"/>
+      <c r="BI12" s="38"/>
+      <c r="BJ12" s="38"/>
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="38"/>
+      <c r="BM12" s="38"/>
+      <c r="BN12" s="38"/>
+      <c r="BO12" s="38"/>
+      <c r="BP12" s="38"/>
+      <c r="BQ12" s="38"/>
+      <c r="BR12" s="39"/>
       <c r="BS12" s="7"/>
       <c r="BV12" s="5"/>
-      <c r="BW12" s="39" t="s">
+      <c r="BW12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="BX12" s="49"/>
-      <c r="BY12" s="49"/>
-      <c r="BZ12" s="49"/>
-      <c r="CA12" s="49"/>
-      <c r="CB12" s="49"/>
-      <c r="CC12" s="49"/>
-      <c r="CD12" s="49"/>
-      <c r="CE12" s="49"/>
-      <c r="CF12" s="49"/>
-      <c r="CG12" s="40"/>
+      <c r="BX12" s="38"/>
+      <c r="BY12" s="38"/>
+      <c r="BZ12" s="38"/>
+      <c r="CA12" s="38"/>
+      <c r="CB12" s="38"/>
+      <c r="CC12" s="38"/>
+      <c r="CD12" s="38"/>
+      <c r="CE12" s="38"/>
+      <c r="CF12" s="38"/>
+      <c r="CG12" s="39"/>
       <c r="CH12" s="14"/>
-      <c r="CI12" s="59" t="s">
+      <c r="CI12" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="CJ12" s="60"/>
+      <c r="CJ12" s="34"/>
       <c r="CK12" s="7"/>
       <c r="CN12" s="5"/>
-      <c r="CO12" s="39" t="s">
+      <c r="CO12" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="CP12" s="49"/>
-      <c r="CQ12" s="49"/>
-      <c r="CR12" s="49"/>
-      <c r="CS12" s="49"/>
-      <c r="CT12" s="49"/>
-      <c r="CU12" s="49"/>
-      <c r="CV12" s="49"/>
-      <c r="CW12" s="49"/>
-      <c r="CX12" s="49"/>
-      <c r="CY12" s="49"/>
-      <c r="CZ12" s="49"/>
-      <c r="DA12" s="49"/>
-      <c r="DB12" s="40"/>
+      <c r="CP12" s="38"/>
+      <c r="CQ12" s="38"/>
+      <c r="CR12" s="38"/>
+      <c r="CS12" s="38"/>
+      <c r="CT12" s="38"/>
+      <c r="CU12" s="38"/>
+      <c r="CV12" s="38"/>
+      <c r="CW12" s="38"/>
+      <c r="CX12" s="38"/>
+      <c r="CY12" s="38"/>
+      <c r="CZ12" s="38"/>
+      <c r="DA12" s="38"/>
+      <c r="DB12" s="39"/>
       <c r="DC12" s="7"/>
     </row>
     <row r="13" spans="2:107" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3495,84 +3505,84 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="56"/>
-      <c r="AF13" s="56"/>
-      <c r="AG13" s="56"/>
-      <c r="AH13" s="57"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
+      <c r="AB13" s="60"/>
+      <c r="AC13" s="60"/>
+      <c r="AD13" s="60"/>
+      <c r="AE13" s="60"/>
+      <c r="AF13" s="60"/>
+      <c r="AG13" s="60"/>
+      <c r="AH13" s="61"/>
       <c r="AI13" s="7"/>
       <c r="AL13" s="5"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
-      <c r="AU13" s="50"/>
-      <c r="AV13" s="50"/>
-      <c r="AW13" s="50"/>
-      <c r="AX13" s="50"/>
-      <c r="AY13" s="50"/>
-      <c r="AZ13" s="42"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="45"/>
       <c r="BA13" s="7"/>
       <c r="BD13" s="5"/>
-      <c r="BE13" s="43"/>
-      <c r="BF13" s="51"/>
-      <c r="BG13" s="51"/>
-      <c r="BH13" s="51"/>
-      <c r="BI13" s="51"/>
-      <c r="BJ13" s="51"/>
-      <c r="BK13" s="51"/>
-      <c r="BL13" s="51"/>
-      <c r="BM13" s="51"/>
-      <c r="BN13" s="51"/>
-      <c r="BO13" s="51"/>
-      <c r="BP13" s="51"/>
-      <c r="BQ13" s="51"/>
-      <c r="BR13" s="44"/>
+      <c r="BE13" s="40"/>
+      <c r="BF13" s="41"/>
+      <c r="BG13" s="41"/>
+      <c r="BH13" s="41"/>
+      <c r="BI13" s="41"/>
+      <c r="BJ13" s="41"/>
+      <c r="BK13" s="41"/>
+      <c r="BL13" s="41"/>
+      <c r="BM13" s="41"/>
+      <c r="BN13" s="41"/>
+      <c r="BO13" s="41"/>
+      <c r="BP13" s="41"/>
+      <c r="BQ13" s="41"/>
+      <c r="BR13" s="42"/>
       <c r="BS13" s="7"/>
       <c r="BV13" s="5"/>
-      <c r="BW13" s="43"/>
-      <c r="BX13" s="51"/>
-      <c r="BY13" s="51"/>
-      <c r="BZ13" s="51"/>
-      <c r="CA13" s="51"/>
-      <c r="CB13" s="51"/>
-      <c r="CC13" s="51"/>
-      <c r="CD13" s="51"/>
-      <c r="CE13" s="51"/>
-      <c r="CF13" s="51"/>
-      <c r="CG13" s="44"/>
+      <c r="BW13" s="40"/>
+      <c r="BX13" s="41"/>
+      <c r="BY13" s="41"/>
+      <c r="BZ13" s="41"/>
+      <c r="CA13" s="41"/>
+      <c r="CB13" s="41"/>
+      <c r="CC13" s="41"/>
+      <c r="CD13" s="41"/>
+      <c r="CE13" s="41"/>
+      <c r="CF13" s="41"/>
+      <c r="CG13" s="42"/>
       <c r="CH13" s="14"/>
-      <c r="CI13" s="61"/>
-      <c r="CJ13" s="62"/>
+      <c r="CI13" s="35"/>
+      <c r="CJ13" s="36"/>
       <c r="CK13" s="7"/>
       <c r="CN13" s="5"/>
-      <c r="CO13" s="41"/>
-      <c r="CP13" s="50"/>
-      <c r="CQ13" s="50"/>
-      <c r="CR13" s="50"/>
-      <c r="CS13" s="50"/>
-      <c r="CT13" s="50"/>
-      <c r="CU13" s="50"/>
-      <c r="CV13" s="50"/>
-      <c r="CW13" s="50"/>
-      <c r="CX13" s="50"/>
-      <c r="CY13" s="50"/>
-      <c r="CZ13" s="50"/>
-      <c r="DA13" s="50"/>
-      <c r="DB13" s="42"/>
+      <c r="CO13" s="43"/>
+      <c r="CP13" s="44"/>
+      <c r="CQ13" s="44"/>
+      <c r="CR13" s="44"/>
+      <c r="CS13" s="44"/>
+      <c r="CT13" s="44"/>
+      <c r="CU13" s="44"/>
+      <c r="CV13" s="44"/>
+      <c r="CW13" s="44"/>
+      <c r="CX13" s="44"/>
+      <c r="CY13" s="44"/>
+      <c r="CZ13" s="44"/>
+      <c r="DA13" s="44"/>
+      <c r="DB13" s="45"/>
       <c r="DC13" s="7"/>
     </row>
     <row r="14" spans="2:107" x14ac:dyDescent="0.4">
@@ -3609,20 +3619,20 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="7"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
-      <c r="AQ14" s="51"/>
-      <c r="AR14" s="51"/>
-      <c r="AS14" s="51"/>
-      <c r="AT14" s="51"/>
-      <c r="AU14" s="51"/>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="44"/>
+      <c r="AM14" s="40"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+      <c r="AP14" s="41"/>
+      <c r="AQ14" s="41"/>
+      <c r="AR14" s="41"/>
+      <c r="AS14" s="41"/>
+      <c r="AT14" s="41"/>
+      <c r="AU14" s="41"/>
+      <c r="AV14" s="41"/>
+      <c r="AW14" s="41"/>
+      <c r="AX14" s="41"/>
+      <c r="AY14" s="41"/>
+      <c r="AZ14" s="42"/>
       <c r="BA14" s="7"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="8"/>
@@ -3657,88 +3667,88 @@
       <c r="CJ14" s="14"/>
       <c r="CK14" s="7"/>
       <c r="CN14" s="5"/>
-      <c r="CO14" s="41"/>
-      <c r="CP14" s="50"/>
-      <c r="CQ14" s="50"/>
-      <c r="CR14" s="50"/>
-      <c r="CS14" s="50"/>
-      <c r="CT14" s="50"/>
-      <c r="CU14" s="50"/>
-      <c r="CV14" s="50"/>
-      <c r="CW14" s="50"/>
-      <c r="CX14" s="50"/>
-      <c r="CY14" s="50"/>
-      <c r="CZ14" s="50"/>
-      <c r="DA14" s="50"/>
-      <c r="DB14" s="42"/>
+      <c r="CO14" s="43"/>
+      <c r="CP14" s="44"/>
+      <c r="CQ14" s="44"/>
+      <c r="CR14" s="44"/>
+      <c r="CS14" s="44"/>
+      <c r="CT14" s="44"/>
+      <c r="CU14" s="44"/>
+      <c r="CV14" s="44"/>
+      <c r="CW14" s="44"/>
+      <c r="CX14" s="44"/>
+      <c r="CY14" s="44"/>
+      <c r="CZ14" s="44"/>
+      <c r="DA14" s="44"/>
+      <c r="DB14" s="45"/>
       <c r="DC14" s="7"/>
     </row>
     <row r="15" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
       <c r="Q15" s="7"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="47" t="s">
+      <c r="U15" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="47"/>
-      <c r="W15" s="48" t="s">
+      <c r="V15" s="66"/>
+      <c r="W15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48" t="s">
+      <c r="X15" s="62"/>
+      <c r="Y15" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48" t="s">
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48" t="s">
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48" t="s">
+      <c r="AD15" s="62"/>
+      <c r="AE15" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="58" t="s">
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="58"/>
+      <c r="AH15" s="63"/>
       <c r="AI15" s="7"/>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="39" t="s">
+      <c r="AM15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AN15" s="49"/>
-      <c r="AO15" s="49"/>
-      <c r="AP15" s="49"/>
-      <c r="AQ15" s="49"/>
-      <c r="AR15" s="49"/>
-      <c r="AS15" s="49"/>
-      <c r="AT15" s="49"/>
-      <c r="AU15" s="49"/>
-      <c r="AV15" s="49"/>
-      <c r="AW15" s="49"/>
-      <c r="AX15" s="49"/>
-      <c r="AY15" s="49"/>
-      <c r="AZ15" s="40"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="38"/>
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="39"/>
       <c r="BA15" s="7"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="10"/>
@@ -3757,94 +3767,94 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="7"/>
       <c r="BV15" s="5"/>
-      <c r="BW15" s="39" t="s">
+      <c r="BW15" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="BX15" s="49"/>
-      <c r="BY15" s="49"/>
-      <c r="BZ15" s="49"/>
-      <c r="CA15" s="49"/>
-      <c r="CB15" s="49"/>
-      <c r="CC15" s="49"/>
-      <c r="CD15" s="49"/>
-      <c r="CE15" s="49"/>
-      <c r="CF15" s="49"/>
-      <c r="CG15" s="49"/>
-      <c r="CH15" s="49"/>
-      <c r="CI15" s="49"/>
-      <c r="CJ15" s="40"/>
+      <c r="BX15" s="38"/>
+      <c r="BY15" s="38"/>
+      <c r="BZ15" s="38"/>
+      <c r="CA15" s="38"/>
+      <c r="CB15" s="38"/>
+      <c r="CC15" s="38"/>
+      <c r="CD15" s="38"/>
+      <c r="CE15" s="38"/>
+      <c r="CF15" s="38"/>
+      <c r="CG15" s="38"/>
+      <c r="CH15" s="38"/>
+      <c r="CI15" s="38"/>
+      <c r="CJ15" s="39"/>
       <c r="CK15" s="7"/>
       <c r="CN15" s="5"/>
-      <c r="CO15" s="41"/>
-      <c r="CP15" s="50"/>
-      <c r="CQ15" s="50"/>
-      <c r="CR15" s="50"/>
-      <c r="CS15" s="50"/>
-      <c r="CT15" s="50"/>
-      <c r="CU15" s="50"/>
-      <c r="CV15" s="50"/>
-      <c r="CW15" s="50"/>
-      <c r="CX15" s="50"/>
-      <c r="CY15" s="50"/>
-      <c r="CZ15" s="50"/>
-      <c r="DA15" s="50"/>
-      <c r="DB15" s="42"/>
+      <c r="CO15" s="43"/>
+      <c r="CP15" s="44"/>
+      <c r="CQ15" s="44"/>
+      <c r="CR15" s="44"/>
+      <c r="CS15" s="44"/>
+      <c r="CT15" s="44"/>
+      <c r="CU15" s="44"/>
+      <c r="CV15" s="44"/>
+      <c r="CW15" s="44"/>
+      <c r="CX15" s="44"/>
+      <c r="CY15" s="44"/>
+      <c r="CZ15" s="44"/>
+      <c r="DA15" s="44"/>
+      <c r="DB15" s="45"/>
       <c r="DC15" s="7"/>
     </row>
     <row r="16" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
       <c r="Q16" s="7"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="39">
+      <c r="U16" s="37"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="37">
         <v>1</v>
       </c>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="39">
+      <c r="X16" s="39"/>
+      <c r="Y16" s="37">
         <v>2</v>
       </c>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="39" t="s">
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="40"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="39"/>
       <c r="AI16" s="7"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="50"/>
-      <c r="AU16" s="50"/>
-      <c r="AV16" s="50"/>
-      <c r="AW16" s="50"/>
-      <c r="AX16" s="50"/>
-      <c r="AY16" s="50"/>
-      <c r="AZ16" s="42"/>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="44"/>
+      <c r="AO16" s="44"/>
+      <c r="AP16" s="44"/>
+      <c r="AQ16" s="44"/>
+      <c r="AR16" s="44"/>
+      <c r="AS16" s="44"/>
+      <c r="AT16" s="44"/>
+      <c r="AU16" s="44"/>
+      <c r="AV16" s="44"/>
+      <c r="AW16" s="44"/>
+      <c r="AX16" s="44"/>
+      <c r="AY16" s="44"/>
+      <c r="AZ16" s="45"/>
       <c r="BA16" s="7"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="13"/>
@@ -3865,86 +3875,86 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="7"/>
       <c r="BV16" s="5"/>
-      <c r="BW16" s="41"/>
-      <c r="BX16" s="50"/>
-      <c r="BY16" s="50"/>
-      <c r="BZ16" s="50"/>
-      <c r="CA16" s="50"/>
-      <c r="CB16" s="50"/>
-      <c r="CC16" s="50"/>
-      <c r="CD16" s="50"/>
-      <c r="CE16" s="50"/>
-      <c r="CF16" s="50"/>
-      <c r="CG16" s="50"/>
-      <c r="CH16" s="50"/>
-      <c r="CI16" s="50"/>
-      <c r="CJ16" s="42"/>
+      <c r="BW16" s="43"/>
+      <c r="BX16" s="44"/>
+      <c r="BY16" s="44"/>
+      <c r="BZ16" s="44"/>
+      <c r="CA16" s="44"/>
+      <c r="CB16" s="44"/>
+      <c r="CC16" s="44"/>
+      <c r="CD16" s="44"/>
+      <c r="CE16" s="44"/>
+      <c r="CF16" s="44"/>
+      <c r="CG16" s="44"/>
+      <c r="CH16" s="44"/>
+      <c r="CI16" s="44"/>
+      <c r="CJ16" s="45"/>
       <c r="CK16" s="7"/>
       <c r="CN16" s="5"/>
-      <c r="CO16" s="41"/>
-      <c r="CP16" s="50"/>
-      <c r="CQ16" s="50"/>
-      <c r="CR16" s="50"/>
-      <c r="CS16" s="50"/>
-      <c r="CT16" s="50"/>
-      <c r="CU16" s="50"/>
-      <c r="CV16" s="50"/>
-      <c r="CW16" s="50"/>
-      <c r="CX16" s="50"/>
-      <c r="CY16" s="50"/>
-      <c r="CZ16" s="50"/>
-      <c r="DA16" s="50"/>
-      <c r="DB16" s="42"/>
+      <c r="CO16" s="43"/>
+      <c r="CP16" s="44"/>
+      <c r="CQ16" s="44"/>
+      <c r="CR16" s="44"/>
+      <c r="CS16" s="44"/>
+      <c r="CT16" s="44"/>
+      <c r="CU16" s="44"/>
+      <c r="CV16" s="44"/>
+      <c r="CW16" s="44"/>
+      <c r="CX16" s="44"/>
+      <c r="CY16" s="44"/>
+      <c r="CZ16" s="44"/>
+      <c r="DA16" s="44"/>
+      <c r="DB16" s="45"/>
       <c r="DC16" s="7"/>
     </row>
     <row r="17" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="P17" s="46"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
       <c r="Q17" s="7"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="42"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="43"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="43"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="43"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="43"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="43"/>
+      <c r="AH17" s="45"/>
       <c r="AI17" s="7"/>
       <c r="AL17" s="5"/>
-      <c r="AM17" s="43"/>
-      <c r="AN17" s="51"/>
-      <c r="AO17" s="51"/>
-      <c r="AP17" s="51"/>
-      <c r="AQ17" s="51"/>
-      <c r="AR17" s="51"/>
-      <c r="AS17" s="51"/>
-      <c r="AT17" s="51"/>
-      <c r="AU17" s="51"/>
-      <c r="AV17" s="51"/>
-      <c r="AW17" s="51"/>
-      <c r="AX17" s="51"/>
-      <c r="AY17" s="51"/>
-      <c r="AZ17" s="44"/>
+      <c r="AM17" s="40"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+      <c r="AP17" s="41"/>
+      <c r="AQ17" s="41"/>
+      <c r="AR17" s="41"/>
+      <c r="AS17" s="41"/>
+      <c r="AT17" s="41"/>
+      <c r="AU17" s="41"/>
+      <c r="AV17" s="41"/>
+      <c r="AW17" s="41"/>
+      <c r="AX17" s="41"/>
+      <c r="AY17" s="41"/>
+      <c r="AZ17" s="42"/>
       <c r="BA17" s="7"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="13"/>
@@ -3963,88 +3973,88 @@
       <c r="BR17" s="15"/>
       <c r="BS17" s="7"/>
       <c r="BV17" s="5"/>
-      <c r="BW17" s="43"/>
-      <c r="BX17" s="51"/>
-      <c r="BY17" s="51"/>
-      <c r="BZ17" s="51"/>
-      <c r="CA17" s="51"/>
-      <c r="CB17" s="51"/>
-      <c r="CC17" s="51"/>
-      <c r="CD17" s="51"/>
-      <c r="CE17" s="51"/>
-      <c r="CF17" s="51"/>
-      <c r="CG17" s="51"/>
-      <c r="CH17" s="51"/>
-      <c r="CI17" s="51"/>
-      <c r="CJ17" s="44"/>
+      <c r="BW17" s="40"/>
+      <c r="BX17" s="41"/>
+      <c r="BY17" s="41"/>
+      <c r="BZ17" s="41"/>
+      <c r="CA17" s="41"/>
+      <c r="CB17" s="41"/>
+      <c r="CC17" s="41"/>
+      <c r="CD17" s="41"/>
+      <c r="CE17" s="41"/>
+      <c r="CF17" s="41"/>
+      <c r="CG17" s="41"/>
+      <c r="CH17" s="41"/>
+      <c r="CI17" s="41"/>
+      <c r="CJ17" s="42"/>
       <c r="CK17" s="7"/>
       <c r="CN17" s="5"/>
-      <c r="CO17" s="41"/>
-      <c r="CP17" s="50"/>
-      <c r="CQ17" s="50"/>
-      <c r="CR17" s="50"/>
-      <c r="CS17" s="50"/>
-      <c r="CT17" s="50"/>
-      <c r="CU17" s="50"/>
-      <c r="CV17" s="50"/>
-      <c r="CW17" s="50"/>
-      <c r="CX17" s="50"/>
-      <c r="CY17" s="50"/>
-      <c r="CZ17" s="50"/>
-      <c r="DA17" s="50"/>
-      <c r="DB17" s="42"/>
+      <c r="CO17" s="43"/>
+      <c r="CP17" s="44"/>
+      <c r="CQ17" s="44"/>
+      <c r="CR17" s="44"/>
+      <c r="CS17" s="44"/>
+      <c r="CT17" s="44"/>
+      <c r="CU17" s="44"/>
+      <c r="CV17" s="44"/>
+      <c r="CW17" s="44"/>
+      <c r="CX17" s="44"/>
+      <c r="CY17" s="44"/>
+      <c r="CZ17" s="44"/>
+      <c r="DA17" s="44"/>
+      <c r="DB17" s="45"/>
       <c r="DC17" s="7"/>
     </row>
     <row r="18" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
       <c r="Q18" s="7"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="44"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="44"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="44"/>
-      <c r="AG18" s="43"/>
-      <c r="AH18" s="44"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="40"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="40"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="40"/>
+      <c r="AH18" s="42"/>
       <c r="AI18" s="7"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="39" t="s">
+      <c r="AM18" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AN18" s="49"/>
-      <c r="AO18" s="49"/>
-      <c r="AP18" s="49"/>
-      <c r="AQ18" s="49"/>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="49"/>
-      <c r="AX18" s="49"/>
-      <c r="AY18" s="49"/>
-      <c r="AZ18" s="40"/>
+      <c r="AN18" s="38"/>
+      <c r="AO18" s="38"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="39"/>
       <c r="BA18" s="7"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="13"/>
@@ -4065,88 +4075,88 @@
       <c r="BR18" s="15"/>
       <c r="BS18" s="7"/>
       <c r="BV18" s="5"/>
-      <c r="BW18" s="39" t="s">
+      <c r="BW18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="BX18" s="49"/>
-      <c r="BY18" s="49"/>
-      <c r="BZ18" s="49"/>
-      <c r="CA18" s="49"/>
-      <c r="CB18" s="49"/>
-      <c r="CC18" s="49"/>
-      <c r="CD18" s="49"/>
-      <c r="CE18" s="49"/>
-      <c r="CF18" s="49"/>
-      <c r="CG18" s="49"/>
-      <c r="CH18" s="49"/>
-      <c r="CI18" s="49"/>
-      <c r="CJ18" s="40"/>
+      <c r="BX18" s="38"/>
+      <c r="BY18" s="38"/>
+      <c r="BZ18" s="38"/>
+      <c r="CA18" s="38"/>
+      <c r="CB18" s="38"/>
+      <c r="CC18" s="38"/>
+      <c r="CD18" s="38"/>
+      <c r="CE18" s="38"/>
+      <c r="CF18" s="38"/>
+      <c r="CG18" s="38"/>
+      <c r="CH18" s="38"/>
+      <c r="CI18" s="38"/>
+      <c r="CJ18" s="39"/>
       <c r="CK18" s="7"/>
       <c r="CN18" s="5"/>
-      <c r="CO18" s="41"/>
-      <c r="CP18" s="50"/>
-      <c r="CQ18" s="50"/>
-      <c r="CR18" s="50"/>
-      <c r="CS18" s="50"/>
-      <c r="CT18" s="50"/>
-      <c r="CU18" s="50"/>
-      <c r="CV18" s="50"/>
-      <c r="CW18" s="50"/>
-      <c r="CX18" s="50"/>
-      <c r="CY18" s="50"/>
-      <c r="CZ18" s="50"/>
-      <c r="DA18" s="50"/>
-      <c r="DB18" s="42"/>
+      <c r="CO18" s="43"/>
+      <c r="CP18" s="44"/>
+      <c r="CQ18" s="44"/>
+      <c r="CR18" s="44"/>
+      <c r="CS18" s="44"/>
+      <c r="CT18" s="44"/>
+      <c r="CU18" s="44"/>
+      <c r="CV18" s="44"/>
+      <c r="CW18" s="44"/>
+      <c r="CX18" s="44"/>
+      <c r="CY18" s="44"/>
+      <c r="CZ18" s="44"/>
+      <c r="DA18" s="44"/>
+      <c r="DB18" s="45"/>
       <c r="DC18" s="7"/>
     </row>
     <row r="19" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
       <c r="Q19" s="7"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="40"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="40"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="39"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="39"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="39"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="37"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="37"/>
+      <c r="AH19" s="39"/>
       <c r="AI19" s="7"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="50"/>
-      <c r="AZ19" s="42"/>
+      <c r="AM19" s="43"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="45"/>
       <c r="BA19" s="7"/>
       <c r="BD19" s="5"/>
       <c r="BE19" s="13"/>
@@ -4167,86 +4177,86 @@
       <c r="BR19" s="15"/>
       <c r="BS19" s="7"/>
       <c r="BV19" s="5"/>
-      <c r="BW19" s="41"/>
-      <c r="BX19" s="50"/>
-      <c r="BY19" s="50"/>
-      <c r="BZ19" s="50"/>
-      <c r="CA19" s="50"/>
-      <c r="CB19" s="50"/>
-      <c r="CC19" s="50"/>
-      <c r="CD19" s="50"/>
-      <c r="CE19" s="50"/>
-      <c r="CF19" s="50"/>
-      <c r="CG19" s="50"/>
-      <c r="CH19" s="50"/>
-      <c r="CI19" s="50"/>
-      <c r="CJ19" s="42"/>
+      <c r="BW19" s="43"/>
+      <c r="BX19" s="44"/>
+      <c r="BY19" s="44"/>
+      <c r="BZ19" s="44"/>
+      <c r="CA19" s="44"/>
+      <c r="CB19" s="44"/>
+      <c r="CC19" s="44"/>
+      <c r="CD19" s="44"/>
+      <c r="CE19" s="44"/>
+      <c r="CF19" s="44"/>
+      <c r="CG19" s="44"/>
+      <c r="CH19" s="44"/>
+      <c r="CI19" s="44"/>
+      <c r="CJ19" s="45"/>
       <c r="CK19" s="7"/>
       <c r="CN19" s="5"/>
-      <c r="CO19" s="41"/>
-      <c r="CP19" s="50"/>
-      <c r="CQ19" s="50"/>
-      <c r="CR19" s="50"/>
-      <c r="CS19" s="50"/>
-      <c r="CT19" s="50"/>
-      <c r="CU19" s="50"/>
-      <c r="CV19" s="50"/>
-      <c r="CW19" s="50"/>
-      <c r="CX19" s="50"/>
-      <c r="CY19" s="50"/>
-      <c r="CZ19" s="50"/>
-      <c r="DA19" s="50"/>
-      <c r="DB19" s="42"/>
+      <c r="CO19" s="43"/>
+      <c r="CP19" s="44"/>
+      <c r="CQ19" s="44"/>
+      <c r="CR19" s="44"/>
+      <c r="CS19" s="44"/>
+      <c r="CT19" s="44"/>
+      <c r="CU19" s="44"/>
+      <c r="CV19" s="44"/>
+      <c r="CW19" s="44"/>
+      <c r="CX19" s="44"/>
+      <c r="CY19" s="44"/>
+      <c r="CZ19" s="44"/>
+      <c r="DA19" s="44"/>
+      <c r="DB19" s="45"/>
       <c r="DC19" s="7"/>
     </row>
     <row r="20" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
       <c r="Q20" s="7"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="42"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="43"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="43"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="43"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="43"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="43"/>
+      <c r="AH20" s="45"/>
       <c r="AI20" s="7"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="51"/>
-      <c r="AO20" s="51"/>
-      <c r="AP20" s="51"/>
-      <c r="AQ20" s="51"/>
-      <c r="AR20" s="51"/>
-      <c r="AS20" s="51"/>
-      <c r="AT20" s="51"/>
-      <c r="AU20" s="51"/>
-      <c r="AV20" s="51"/>
-      <c r="AW20" s="51"/>
-      <c r="AX20" s="51"/>
-      <c r="AY20" s="51"/>
-      <c r="AZ20" s="44"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="41"/>
+      <c r="AY20" s="41"/>
+      <c r="AZ20" s="42"/>
       <c r="BA20" s="7"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="13"/>
@@ -4267,88 +4277,88 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="7"/>
       <c r="BV20" s="5"/>
-      <c r="BW20" s="43"/>
-      <c r="BX20" s="51"/>
-      <c r="BY20" s="51"/>
-      <c r="BZ20" s="51"/>
-      <c r="CA20" s="51"/>
-      <c r="CB20" s="51"/>
-      <c r="CC20" s="51"/>
-      <c r="CD20" s="51"/>
-      <c r="CE20" s="51"/>
-      <c r="CF20" s="51"/>
-      <c r="CG20" s="51"/>
-      <c r="CH20" s="51"/>
-      <c r="CI20" s="51"/>
-      <c r="CJ20" s="44"/>
+      <c r="BW20" s="40"/>
+      <c r="BX20" s="41"/>
+      <c r="BY20" s="41"/>
+      <c r="BZ20" s="41"/>
+      <c r="CA20" s="41"/>
+      <c r="CB20" s="41"/>
+      <c r="CC20" s="41"/>
+      <c r="CD20" s="41"/>
+      <c r="CE20" s="41"/>
+      <c r="CF20" s="41"/>
+      <c r="CG20" s="41"/>
+      <c r="CH20" s="41"/>
+      <c r="CI20" s="41"/>
+      <c r="CJ20" s="42"/>
       <c r="CK20" s="7"/>
       <c r="CN20" s="5"/>
-      <c r="CO20" s="41"/>
-      <c r="CP20" s="50"/>
-      <c r="CQ20" s="50"/>
-      <c r="CR20" s="50"/>
-      <c r="CS20" s="50"/>
-      <c r="CT20" s="50"/>
-      <c r="CU20" s="50"/>
-      <c r="CV20" s="50"/>
-      <c r="CW20" s="50"/>
-      <c r="CX20" s="50"/>
-      <c r="CY20" s="50"/>
-      <c r="CZ20" s="50"/>
-      <c r="DA20" s="50"/>
-      <c r="DB20" s="42"/>
+      <c r="CO20" s="43"/>
+      <c r="CP20" s="44"/>
+      <c r="CQ20" s="44"/>
+      <c r="CR20" s="44"/>
+      <c r="CS20" s="44"/>
+      <c r="CT20" s="44"/>
+      <c r="CU20" s="44"/>
+      <c r="CV20" s="44"/>
+      <c r="CW20" s="44"/>
+      <c r="CX20" s="44"/>
+      <c r="CY20" s="44"/>
+      <c r="CZ20" s="44"/>
+      <c r="DA20" s="44"/>
+      <c r="DB20" s="45"/>
       <c r="DC20" s="7"/>
     </row>
     <row r="21" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="46"/>
-      <c r="P21" s="46"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
       <c r="Q21" s="7"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="44"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="40"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="40"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="40"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="40"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="40"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="40"/>
+      <c r="AH21" s="42"/>
       <c r="AI21" s="7"/>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="39" t="s">
+      <c r="AM21" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AN21" s="49"/>
-      <c r="AO21" s="49"/>
-      <c r="AP21" s="49"/>
-      <c r="AQ21" s="49"/>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="49"/>
-      <c r="AU21" s="49"/>
-      <c r="AV21" s="49"/>
-      <c r="AW21" s="49"/>
-      <c r="AX21" s="49"/>
-      <c r="AY21" s="49"/>
-      <c r="AZ21" s="40"/>
+      <c r="AN21" s="38"/>
+      <c r="AO21" s="38"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="39"/>
       <c r="BA21" s="7"/>
       <c r="BD21" s="5"/>
       <c r="BE21" s="13"/>
@@ -4367,88 +4377,88 @@
       <c r="BR21" s="15"/>
       <c r="BS21" s="7"/>
       <c r="BV21" s="5"/>
-      <c r="BW21" s="39" t="s">
+      <c r="BW21" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="BX21" s="49"/>
-      <c r="BY21" s="49"/>
-      <c r="BZ21" s="49"/>
-      <c r="CA21" s="49"/>
-      <c r="CB21" s="49"/>
-      <c r="CC21" s="49"/>
-      <c r="CD21" s="49"/>
-      <c r="CE21" s="49"/>
-      <c r="CF21" s="49"/>
-      <c r="CG21" s="49"/>
-      <c r="CH21" s="49"/>
-      <c r="CI21" s="49"/>
-      <c r="CJ21" s="40"/>
+      <c r="BX21" s="38"/>
+      <c r="BY21" s="38"/>
+      <c r="BZ21" s="38"/>
+      <c r="CA21" s="38"/>
+      <c r="CB21" s="38"/>
+      <c r="CC21" s="38"/>
+      <c r="CD21" s="38"/>
+      <c r="CE21" s="38"/>
+      <c r="CF21" s="38"/>
+      <c r="CG21" s="38"/>
+      <c r="CH21" s="38"/>
+      <c r="CI21" s="38"/>
+      <c r="CJ21" s="39"/>
       <c r="CK21" s="7"/>
       <c r="CN21" s="5"/>
-      <c r="CO21" s="41"/>
-      <c r="CP21" s="50"/>
-      <c r="CQ21" s="50"/>
-      <c r="CR21" s="50"/>
-      <c r="CS21" s="50"/>
-      <c r="CT21" s="50"/>
-      <c r="CU21" s="50"/>
-      <c r="CV21" s="50"/>
-      <c r="CW21" s="50"/>
-      <c r="CX21" s="50"/>
-      <c r="CY21" s="50"/>
-      <c r="CZ21" s="50"/>
-      <c r="DA21" s="50"/>
-      <c r="DB21" s="42"/>
+      <c r="CO21" s="43"/>
+      <c r="CP21" s="44"/>
+      <c r="CQ21" s="44"/>
+      <c r="CR21" s="44"/>
+      <c r="CS21" s="44"/>
+      <c r="CT21" s="44"/>
+      <c r="CU21" s="44"/>
+      <c r="CV21" s="44"/>
+      <c r="CW21" s="44"/>
+      <c r="CX21" s="44"/>
+      <c r="CY21" s="44"/>
+      <c r="CZ21" s="44"/>
+      <c r="DA21" s="44"/>
+      <c r="DB21" s="45"/>
       <c r="DC21" s="7"/>
     </row>
     <row r="22" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
       <c r="Q22" s="7"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="40"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="40"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="40"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="40"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="40"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="39"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="39"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="37"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="37"/>
+      <c r="AH22" s="39"/>
       <c r="AI22" s="7"/>
       <c r="AL22" s="5"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="50"/>
-      <c r="AO22" s="50"/>
-      <c r="AP22" s="50"/>
-      <c r="AQ22" s="50"/>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="50"/>
-      <c r="AZ22" s="42"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="44"/>
+      <c r="AP22" s="44"/>
+      <c r="AQ22" s="44"/>
+      <c r="AR22" s="44"/>
+      <c r="AS22" s="44"/>
+      <c r="AT22" s="44"/>
+      <c r="AU22" s="44"/>
+      <c r="AV22" s="44"/>
+      <c r="AW22" s="44"/>
+      <c r="AX22" s="44"/>
+      <c r="AY22" s="44"/>
+      <c r="AZ22" s="45"/>
       <c r="BA22" s="7"/>
       <c r="BD22" s="5"/>
       <c r="BE22" s="13"/>
@@ -4467,86 +4477,86 @@
       <c r="BR22" s="15"/>
       <c r="BS22" s="7"/>
       <c r="BV22" s="5"/>
-      <c r="BW22" s="41"/>
-      <c r="BX22" s="50"/>
-      <c r="BY22" s="50"/>
-      <c r="BZ22" s="50"/>
-      <c r="CA22" s="50"/>
-      <c r="CB22" s="50"/>
-      <c r="CC22" s="50"/>
-      <c r="CD22" s="50"/>
-      <c r="CE22" s="50"/>
-      <c r="CF22" s="50"/>
-      <c r="CG22" s="50"/>
-      <c r="CH22" s="50"/>
-      <c r="CI22" s="50"/>
-      <c r="CJ22" s="42"/>
+      <c r="BW22" s="43"/>
+      <c r="BX22" s="44"/>
+      <c r="BY22" s="44"/>
+      <c r="BZ22" s="44"/>
+      <c r="CA22" s="44"/>
+      <c r="CB22" s="44"/>
+      <c r="CC22" s="44"/>
+      <c r="CD22" s="44"/>
+      <c r="CE22" s="44"/>
+      <c r="CF22" s="44"/>
+      <c r="CG22" s="44"/>
+      <c r="CH22" s="44"/>
+      <c r="CI22" s="44"/>
+      <c r="CJ22" s="45"/>
       <c r="CK22" s="7"/>
       <c r="CN22" s="5"/>
-      <c r="CO22" s="41"/>
-      <c r="CP22" s="50"/>
-      <c r="CQ22" s="50"/>
-      <c r="CR22" s="50"/>
-      <c r="CS22" s="50"/>
-      <c r="CT22" s="50"/>
-      <c r="CU22" s="50"/>
-      <c r="CV22" s="50"/>
-      <c r="CW22" s="50"/>
-      <c r="CX22" s="50"/>
-      <c r="CY22" s="50"/>
-      <c r="CZ22" s="50"/>
-      <c r="DA22" s="50"/>
-      <c r="DB22" s="42"/>
+      <c r="CO22" s="43"/>
+      <c r="CP22" s="44"/>
+      <c r="CQ22" s="44"/>
+      <c r="CR22" s="44"/>
+      <c r="CS22" s="44"/>
+      <c r="CT22" s="44"/>
+      <c r="CU22" s="44"/>
+      <c r="CV22" s="44"/>
+      <c r="CW22" s="44"/>
+      <c r="CX22" s="44"/>
+      <c r="CY22" s="44"/>
+      <c r="CZ22" s="44"/>
+      <c r="DA22" s="44"/>
+      <c r="DB22" s="45"/>
       <c r="DC22" s="7"/>
     </row>
     <row r="23" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="46"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
       <c r="Q23" s="7"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="41"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="41"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="42"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="43"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="43"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="43"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="43"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="43"/>
+      <c r="AH23" s="45"/>
       <c r="AI23" s="7"/>
       <c r="AL23" s="5"/>
-      <c r="AM23" s="43"/>
-      <c r="AN23" s="51"/>
-      <c r="AO23" s="51"/>
-      <c r="AP23" s="51"/>
-      <c r="AQ23" s="51"/>
-      <c r="AR23" s="51"/>
-      <c r="AS23" s="51"/>
-      <c r="AT23" s="51"/>
-      <c r="AU23" s="51"/>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="44"/>
+      <c r="AM23" s="40"/>
+      <c r="AN23" s="41"/>
+      <c r="AO23" s="41"/>
+      <c r="AP23" s="41"/>
+      <c r="AQ23" s="41"/>
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="42"/>
       <c r="BA23" s="7"/>
       <c r="BD23" s="5"/>
       <c r="BE23" s="13"/>
@@ -4565,88 +4575,88 @@
       <c r="BR23" s="15"/>
       <c r="BS23" s="7"/>
       <c r="BV23" s="5"/>
-      <c r="BW23" s="43"/>
-      <c r="BX23" s="51"/>
-      <c r="BY23" s="51"/>
-      <c r="BZ23" s="51"/>
-      <c r="CA23" s="51"/>
-      <c r="CB23" s="51"/>
-      <c r="CC23" s="51"/>
-      <c r="CD23" s="51"/>
-      <c r="CE23" s="51"/>
-      <c r="CF23" s="51"/>
-      <c r="CG23" s="51"/>
-      <c r="CH23" s="51"/>
-      <c r="CI23" s="51"/>
-      <c r="CJ23" s="44"/>
+      <c r="BW23" s="40"/>
+      <c r="BX23" s="41"/>
+      <c r="BY23" s="41"/>
+      <c r="BZ23" s="41"/>
+      <c r="CA23" s="41"/>
+      <c r="CB23" s="41"/>
+      <c r="CC23" s="41"/>
+      <c r="CD23" s="41"/>
+      <c r="CE23" s="41"/>
+      <c r="CF23" s="41"/>
+      <c r="CG23" s="41"/>
+      <c r="CH23" s="41"/>
+      <c r="CI23" s="41"/>
+      <c r="CJ23" s="42"/>
       <c r="CK23" s="7"/>
       <c r="CN23" s="5"/>
-      <c r="CO23" s="41"/>
-      <c r="CP23" s="50"/>
-      <c r="CQ23" s="50"/>
-      <c r="CR23" s="50"/>
-      <c r="CS23" s="50"/>
-      <c r="CT23" s="50"/>
-      <c r="CU23" s="50"/>
-      <c r="CV23" s="50"/>
-      <c r="CW23" s="50"/>
-      <c r="CX23" s="50"/>
-      <c r="CY23" s="50"/>
-      <c r="CZ23" s="50"/>
-      <c r="DA23" s="50"/>
-      <c r="DB23" s="42"/>
+      <c r="CO23" s="43"/>
+      <c r="CP23" s="44"/>
+      <c r="CQ23" s="44"/>
+      <c r="CR23" s="44"/>
+      <c r="CS23" s="44"/>
+      <c r="CT23" s="44"/>
+      <c r="CU23" s="44"/>
+      <c r="CV23" s="44"/>
+      <c r="CW23" s="44"/>
+      <c r="CX23" s="44"/>
+      <c r="CY23" s="44"/>
+      <c r="CZ23" s="44"/>
+      <c r="DA23" s="44"/>
+      <c r="DB23" s="45"/>
       <c r="DC23" s="7"/>
     </row>
     <row r="24" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
       <c r="Q24" s="7"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="44"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="44"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="44"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="44"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="44"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="42"/>
+      <c r="W24" s="40"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="40"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="40"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="40"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="40"/>
+      <c r="AF24" s="42"/>
+      <c r="AG24" s="40"/>
+      <c r="AH24" s="42"/>
       <c r="AI24" s="7"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="39" t="s">
+      <c r="AM24" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AN24" s="49"/>
-      <c r="AO24" s="49"/>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="49"/>
-      <c r="AR24" s="49"/>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="49"/>
-      <c r="AU24" s="49"/>
-      <c r="AV24" s="49"/>
-      <c r="AW24" s="49"/>
-      <c r="AX24" s="49"/>
-      <c r="AY24" s="49"/>
-      <c r="AZ24" s="40"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="38"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="39"/>
       <c r="BA24" s="7"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="13"/>
@@ -4665,88 +4675,88 @@
       <c r="BR24" s="15"/>
       <c r="BS24" s="7"/>
       <c r="BV24" s="5"/>
-      <c r="BW24" s="39" t="s">
+      <c r="BW24" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="BX24" s="49"/>
-      <c r="BY24" s="49"/>
-      <c r="BZ24" s="49"/>
-      <c r="CA24" s="49"/>
-      <c r="CB24" s="49"/>
-      <c r="CC24" s="49"/>
-      <c r="CD24" s="49"/>
-      <c r="CE24" s="49"/>
-      <c r="CF24" s="49"/>
-      <c r="CG24" s="49"/>
-      <c r="CH24" s="49"/>
-      <c r="CI24" s="49"/>
-      <c r="CJ24" s="40"/>
+      <c r="BX24" s="38"/>
+      <c r="BY24" s="38"/>
+      <c r="BZ24" s="38"/>
+      <c r="CA24" s="38"/>
+      <c r="CB24" s="38"/>
+      <c r="CC24" s="38"/>
+      <c r="CD24" s="38"/>
+      <c r="CE24" s="38"/>
+      <c r="CF24" s="38"/>
+      <c r="CG24" s="38"/>
+      <c r="CH24" s="38"/>
+      <c r="CI24" s="38"/>
+      <c r="CJ24" s="39"/>
       <c r="CK24" s="7"/>
       <c r="CN24" s="5"/>
-      <c r="CO24" s="41"/>
-      <c r="CP24" s="50"/>
-      <c r="CQ24" s="50"/>
-      <c r="CR24" s="50"/>
-      <c r="CS24" s="50"/>
-      <c r="CT24" s="50"/>
-      <c r="CU24" s="50"/>
-      <c r="CV24" s="50"/>
-      <c r="CW24" s="50"/>
-      <c r="CX24" s="50"/>
-      <c r="CY24" s="50"/>
-      <c r="CZ24" s="50"/>
-      <c r="DA24" s="50"/>
-      <c r="DB24" s="42"/>
+      <c r="CO24" s="43"/>
+      <c r="CP24" s="44"/>
+      <c r="CQ24" s="44"/>
+      <c r="CR24" s="44"/>
+      <c r="CS24" s="44"/>
+      <c r="CT24" s="44"/>
+      <c r="CU24" s="44"/>
+      <c r="CV24" s="44"/>
+      <c r="CW24" s="44"/>
+      <c r="CX24" s="44"/>
+      <c r="CY24" s="44"/>
+      <c r="CZ24" s="44"/>
+      <c r="DA24" s="44"/>
+      <c r="DB24" s="45"/>
       <c r="DC24" s="7"/>
     </row>
     <row r="25" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
       <c r="Q25" s="7"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="39"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="39"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="39"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="39"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="39"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="39"/>
-      <c r="AH25" s="40"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="39"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="39"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="39"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="39"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="39"/>
+      <c r="AE25" s="37"/>
+      <c r="AF25" s="39"/>
+      <c r="AG25" s="37"/>
+      <c r="AH25" s="39"/>
       <c r="AI25" s="7"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="50"/>
-      <c r="AO25" s="50"/>
-      <c r="AP25" s="50"/>
-      <c r="AQ25" s="50"/>
-      <c r="AR25" s="50"/>
-      <c r="AS25" s="50"/>
-      <c r="AT25" s="50"/>
-      <c r="AU25" s="50"/>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="42"/>
+      <c r="AM25" s="43"/>
+      <c r="AN25" s="44"/>
+      <c r="AO25" s="44"/>
+      <c r="AP25" s="44"/>
+      <c r="AQ25" s="44"/>
+      <c r="AR25" s="44"/>
+      <c r="AS25" s="44"/>
+      <c r="AT25" s="44"/>
+      <c r="AU25" s="44"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="45"/>
       <c r="BA25" s="7"/>
       <c r="BD25" s="5"/>
       <c r="BE25" s="13"/>
@@ -4765,86 +4775,86 @@
       <c r="BR25" s="15"/>
       <c r="BS25" s="7"/>
       <c r="BV25" s="5"/>
-      <c r="BW25" s="41"/>
-      <c r="BX25" s="50"/>
-      <c r="BY25" s="50"/>
-      <c r="BZ25" s="50"/>
-      <c r="CA25" s="50"/>
-      <c r="CB25" s="50"/>
-      <c r="CC25" s="50"/>
-      <c r="CD25" s="50"/>
-      <c r="CE25" s="50"/>
-      <c r="CF25" s="50"/>
-      <c r="CG25" s="50"/>
-      <c r="CH25" s="50"/>
-      <c r="CI25" s="50"/>
-      <c r="CJ25" s="42"/>
+      <c r="BW25" s="43"/>
+      <c r="BX25" s="44"/>
+      <c r="BY25" s="44"/>
+      <c r="BZ25" s="44"/>
+      <c r="CA25" s="44"/>
+      <c r="CB25" s="44"/>
+      <c r="CC25" s="44"/>
+      <c r="CD25" s="44"/>
+      <c r="CE25" s="44"/>
+      <c r="CF25" s="44"/>
+      <c r="CG25" s="44"/>
+      <c r="CH25" s="44"/>
+      <c r="CI25" s="44"/>
+      <c r="CJ25" s="45"/>
       <c r="CK25" s="7"/>
       <c r="CN25" s="5"/>
-      <c r="CO25" s="41"/>
-      <c r="CP25" s="50"/>
-      <c r="CQ25" s="50"/>
-      <c r="CR25" s="50"/>
-      <c r="CS25" s="50"/>
-      <c r="CT25" s="50"/>
-      <c r="CU25" s="50"/>
-      <c r="CV25" s="50"/>
-      <c r="CW25" s="50"/>
-      <c r="CX25" s="50"/>
-      <c r="CY25" s="50"/>
-      <c r="CZ25" s="50"/>
-      <c r="DA25" s="50"/>
-      <c r="DB25" s="42"/>
+      <c r="CO25" s="43"/>
+      <c r="CP25" s="44"/>
+      <c r="CQ25" s="44"/>
+      <c r="CR25" s="44"/>
+      <c r="CS25" s="44"/>
+      <c r="CT25" s="44"/>
+      <c r="CU25" s="44"/>
+      <c r="CV25" s="44"/>
+      <c r="CW25" s="44"/>
+      <c r="CX25" s="44"/>
+      <c r="CY25" s="44"/>
+      <c r="CZ25" s="44"/>
+      <c r="DA25" s="44"/>
+      <c r="DB25" s="45"/>
       <c r="DC25" s="7"/>
     </row>
     <row r="26" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46"/>
-      <c r="N26" s="46"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
       <c r="Q26" s="7"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="41"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="41"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="41"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="42"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="43"/>
+      <c r="X26" s="45"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="45"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="45"/>
       <c r="AI26" s="7"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="51"/>
-      <c r="AO26" s="51"/>
-      <c r="AP26" s="51"/>
-      <c r="AQ26" s="51"/>
-      <c r="AR26" s="51"/>
-      <c r="AS26" s="51"/>
-      <c r="AT26" s="51"/>
-      <c r="AU26" s="51"/>
-      <c r="AV26" s="51"/>
-      <c r="AW26" s="51"/>
-      <c r="AX26" s="51"/>
-      <c r="AY26" s="51"/>
-      <c r="AZ26" s="44"/>
+      <c r="AM26" s="40"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+      <c r="AP26" s="41"/>
+      <c r="AQ26" s="41"/>
+      <c r="AR26" s="41"/>
+      <c r="AS26" s="41"/>
+      <c r="AT26" s="41"/>
+      <c r="AU26" s="41"/>
+      <c r="AV26" s="41"/>
+      <c r="AW26" s="41"/>
+      <c r="AX26" s="41"/>
+      <c r="AY26" s="41"/>
+      <c r="AZ26" s="42"/>
       <c r="BA26" s="7"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="13"/>
@@ -4863,88 +4873,88 @@
       <c r="BR26" s="15"/>
       <c r="BS26" s="7"/>
       <c r="BV26" s="5"/>
-      <c r="BW26" s="43"/>
-      <c r="BX26" s="51"/>
-      <c r="BY26" s="51"/>
-      <c r="BZ26" s="51"/>
-      <c r="CA26" s="51"/>
-      <c r="CB26" s="51"/>
-      <c r="CC26" s="51"/>
-      <c r="CD26" s="51"/>
-      <c r="CE26" s="51"/>
-      <c r="CF26" s="51"/>
-      <c r="CG26" s="51"/>
-      <c r="CH26" s="51"/>
-      <c r="CI26" s="51"/>
-      <c r="CJ26" s="44"/>
+      <c r="BW26" s="40"/>
+      <c r="BX26" s="41"/>
+      <c r="BY26" s="41"/>
+      <c r="BZ26" s="41"/>
+      <c r="CA26" s="41"/>
+      <c r="CB26" s="41"/>
+      <c r="CC26" s="41"/>
+      <c r="CD26" s="41"/>
+      <c r="CE26" s="41"/>
+      <c r="CF26" s="41"/>
+      <c r="CG26" s="41"/>
+      <c r="CH26" s="41"/>
+      <c r="CI26" s="41"/>
+      <c r="CJ26" s="42"/>
       <c r="CK26" s="7"/>
       <c r="CN26" s="5"/>
-      <c r="CO26" s="41"/>
-      <c r="CP26" s="50"/>
-      <c r="CQ26" s="50"/>
-      <c r="CR26" s="50"/>
-      <c r="CS26" s="50"/>
-      <c r="CT26" s="50"/>
-      <c r="CU26" s="50"/>
-      <c r="CV26" s="50"/>
-      <c r="CW26" s="50"/>
-      <c r="CX26" s="50"/>
-      <c r="CY26" s="50"/>
-      <c r="CZ26" s="50"/>
-      <c r="DA26" s="50"/>
-      <c r="DB26" s="42"/>
+      <c r="CO26" s="43"/>
+      <c r="CP26" s="44"/>
+      <c r="CQ26" s="44"/>
+      <c r="CR26" s="44"/>
+      <c r="CS26" s="44"/>
+      <c r="CT26" s="44"/>
+      <c r="CU26" s="44"/>
+      <c r="CV26" s="44"/>
+      <c r="CW26" s="44"/>
+      <c r="CX26" s="44"/>
+      <c r="CY26" s="44"/>
+      <c r="CZ26" s="44"/>
+      <c r="DA26" s="44"/>
+      <c r="DB26" s="45"/>
       <c r="DC26" s="7"/>
     </row>
     <row r="27" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
       <c r="Q27" s="7"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="44"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="42"/>
+      <c r="W27" s="40"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="40"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="40"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="40"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="40"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="40"/>
+      <c r="AH27" s="42"/>
       <c r="AI27" s="7"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="39" t="s">
+      <c r="AM27" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AN27" s="49"/>
-      <c r="AO27" s="49"/>
-      <c r="AP27" s="49"/>
-      <c r="AQ27" s="49"/>
-      <c r="AR27" s="49"/>
-      <c r="AS27" s="49"/>
-      <c r="AT27" s="49"/>
-      <c r="AU27" s="49"/>
-      <c r="AV27" s="49"/>
-      <c r="AW27" s="49"/>
-      <c r="AX27" s="49"/>
-      <c r="AY27" s="49"/>
-      <c r="AZ27" s="40"/>
+      <c r="AN27" s="38"/>
+      <c r="AO27" s="38"/>
+      <c r="AP27" s="38"/>
+      <c r="AQ27" s="38"/>
+      <c r="AR27" s="38"/>
+      <c r="AS27" s="38"/>
+      <c r="AT27" s="38"/>
+      <c r="AU27" s="38"/>
+      <c r="AV27" s="38"/>
+      <c r="AW27" s="38"/>
+      <c r="AX27" s="38"/>
+      <c r="AY27" s="38"/>
+      <c r="AZ27" s="39"/>
       <c r="BA27" s="7"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="13"/>
@@ -4963,88 +4973,88 @@
       <c r="BR27" s="15"/>
       <c r="BS27" s="7"/>
       <c r="BV27" s="5"/>
-      <c r="BW27" s="39" t="s">
+      <c r="BW27" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="BX27" s="49"/>
-      <c r="BY27" s="49"/>
-      <c r="BZ27" s="49"/>
-      <c r="CA27" s="49"/>
-      <c r="CB27" s="49"/>
-      <c r="CC27" s="49"/>
-      <c r="CD27" s="49"/>
-      <c r="CE27" s="49"/>
-      <c r="CF27" s="49"/>
-      <c r="CG27" s="49"/>
-      <c r="CH27" s="49"/>
-      <c r="CI27" s="49"/>
-      <c r="CJ27" s="40"/>
+      <c r="BX27" s="38"/>
+      <c r="BY27" s="38"/>
+      <c r="BZ27" s="38"/>
+      <c r="CA27" s="38"/>
+      <c r="CB27" s="38"/>
+      <c r="CC27" s="38"/>
+      <c r="CD27" s="38"/>
+      <c r="CE27" s="38"/>
+      <c r="CF27" s="38"/>
+      <c r="CG27" s="38"/>
+      <c r="CH27" s="38"/>
+      <c r="CI27" s="38"/>
+      <c r="CJ27" s="39"/>
       <c r="CK27" s="7"/>
       <c r="CN27" s="5"/>
-      <c r="CO27" s="41"/>
-      <c r="CP27" s="50"/>
-      <c r="CQ27" s="50"/>
-      <c r="CR27" s="50"/>
-      <c r="CS27" s="50"/>
-      <c r="CT27" s="50"/>
-      <c r="CU27" s="50"/>
-      <c r="CV27" s="50"/>
-      <c r="CW27" s="50"/>
-      <c r="CX27" s="50"/>
-      <c r="CY27" s="50"/>
-      <c r="CZ27" s="50"/>
-      <c r="DA27" s="50"/>
-      <c r="DB27" s="42"/>
+      <c r="CO27" s="43"/>
+      <c r="CP27" s="44"/>
+      <c r="CQ27" s="44"/>
+      <c r="CR27" s="44"/>
+      <c r="CS27" s="44"/>
+      <c r="CT27" s="44"/>
+      <c r="CU27" s="44"/>
+      <c r="CV27" s="44"/>
+      <c r="CW27" s="44"/>
+      <c r="CX27" s="44"/>
+      <c r="CY27" s="44"/>
+      <c r="CZ27" s="44"/>
+      <c r="DA27" s="44"/>
+      <c r="DB27" s="45"/>
       <c r="DC27" s="7"/>
     </row>
     <row r="28" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
       <c r="Q28" s="7"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="40"/>
-      <c r="W28" s="39"/>
-      <c r="X28" s="40"/>
-      <c r="Y28" s="39"/>
-      <c r="Z28" s="40"/>
-      <c r="AA28" s="39"/>
-      <c r="AB28" s="40"/>
-      <c r="AC28" s="39"/>
-      <c r="AD28" s="40"/>
-      <c r="AE28" s="39"/>
-      <c r="AF28" s="40"/>
-      <c r="AG28" s="39"/>
-      <c r="AH28" s="40"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="39"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="39"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="39"/>
+      <c r="AE28" s="37"/>
+      <c r="AF28" s="39"/>
+      <c r="AG28" s="37"/>
+      <c r="AH28" s="39"/>
       <c r="AI28" s="7"/>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="50"/>
-      <c r="AO28" s="50"/>
-      <c r="AP28" s="50"/>
-      <c r="AQ28" s="50"/>
-      <c r="AR28" s="50"/>
-      <c r="AS28" s="50"/>
-      <c r="AT28" s="50"/>
-      <c r="AU28" s="50"/>
-      <c r="AV28" s="50"/>
-      <c r="AW28" s="50"/>
-      <c r="AX28" s="50"/>
-      <c r="AY28" s="50"/>
-      <c r="AZ28" s="42"/>
+      <c r="AM28" s="43"/>
+      <c r="AN28" s="44"/>
+      <c r="AO28" s="44"/>
+      <c r="AP28" s="44"/>
+      <c r="AQ28" s="44"/>
+      <c r="AR28" s="44"/>
+      <c r="AS28" s="44"/>
+      <c r="AT28" s="44"/>
+      <c r="AU28" s="44"/>
+      <c r="AV28" s="44"/>
+      <c r="AW28" s="44"/>
+      <c r="AX28" s="44"/>
+      <c r="AY28" s="44"/>
+      <c r="AZ28" s="45"/>
       <c r="BA28" s="7"/>
       <c r="BD28" s="5"/>
       <c r="BE28" s="13"/>
@@ -5063,86 +5073,86 @@
       <c r="BR28" s="15"/>
       <c r="BS28" s="7"/>
       <c r="BV28" s="5"/>
-      <c r="BW28" s="41"/>
-      <c r="BX28" s="50"/>
-      <c r="BY28" s="50"/>
-      <c r="BZ28" s="50"/>
-      <c r="CA28" s="50"/>
-      <c r="CB28" s="50"/>
-      <c r="CC28" s="50"/>
-      <c r="CD28" s="50"/>
-      <c r="CE28" s="50"/>
-      <c r="CF28" s="50"/>
-      <c r="CG28" s="50"/>
-      <c r="CH28" s="50"/>
-      <c r="CI28" s="50"/>
-      <c r="CJ28" s="42"/>
+      <c r="BW28" s="43"/>
+      <c r="BX28" s="44"/>
+      <c r="BY28" s="44"/>
+      <c r="BZ28" s="44"/>
+      <c r="CA28" s="44"/>
+      <c r="CB28" s="44"/>
+      <c r="CC28" s="44"/>
+      <c r="CD28" s="44"/>
+      <c r="CE28" s="44"/>
+      <c r="CF28" s="44"/>
+      <c r="CG28" s="44"/>
+      <c r="CH28" s="44"/>
+      <c r="CI28" s="44"/>
+      <c r="CJ28" s="45"/>
       <c r="CK28" s="7"/>
       <c r="CN28" s="5"/>
-      <c r="CO28" s="41"/>
-      <c r="CP28" s="50"/>
-      <c r="CQ28" s="50"/>
-      <c r="CR28" s="50"/>
-      <c r="CS28" s="50"/>
-      <c r="CT28" s="50"/>
-      <c r="CU28" s="50"/>
-      <c r="CV28" s="50"/>
-      <c r="CW28" s="50"/>
-      <c r="CX28" s="50"/>
-      <c r="CY28" s="50"/>
-      <c r="CZ28" s="50"/>
-      <c r="DA28" s="50"/>
-      <c r="DB28" s="42"/>
+      <c r="CO28" s="43"/>
+      <c r="CP28" s="44"/>
+      <c r="CQ28" s="44"/>
+      <c r="CR28" s="44"/>
+      <c r="CS28" s="44"/>
+      <c r="CT28" s="44"/>
+      <c r="CU28" s="44"/>
+      <c r="CV28" s="44"/>
+      <c r="CW28" s="44"/>
+      <c r="CX28" s="44"/>
+      <c r="CY28" s="44"/>
+      <c r="CZ28" s="44"/>
+      <c r="DA28" s="44"/>
+      <c r="DB28" s="45"/>
       <c r="DC28" s="7"/>
     </row>
     <row r="29" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="46"/>
-      <c r="P29" s="46"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="7"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="41"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="41"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="41"/>
-      <c r="AB29" s="42"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="42"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="42"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="42"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="45"/>
+      <c r="W29" s="43"/>
+      <c r="X29" s="45"/>
+      <c r="Y29" s="43"/>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="43"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="43"/>
+      <c r="AD29" s="45"/>
+      <c r="AE29" s="43"/>
+      <c r="AF29" s="45"/>
+      <c r="AG29" s="43"/>
+      <c r="AH29" s="45"/>
       <c r="AI29" s="7"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="51"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="51"/>
-      <c r="AQ29" s="51"/>
-      <c r="AR29" s="51"/>
-      <c r="AS29" s="51"/>
-      <c r="AT29" s="51"/>
-      <c r="AU29" s="51"/>
-      <c r="AV29" s="51"/>
-      <c r="AW29" s="51"/>
-      <c r="AX29" s="51"/>
-      <c r="AY29" s="51"/>
-      <c r="AZ29" s="44"/>
+      <c r="AM29" s="40"/>
+      <c r="AN29" s="41"/>
+      <c r="AO29" s="41"/>
+      <c r="AP29" s="41"/>
+      <c r="AQ29" s="41"/>
+      <c r="AR29" s="41"/>
+      <c r="AS29" s="41"/>
+      <c r="AT29" s="41"/>
+      <c r="AU29" s="41"/>
+      <c r="AV29" s="41"/>
+      <c r="AW29" s="41"/>
+      <c r="AX29" s="41"/>
+      <c r="AY29" s="41"/>
+      <c r="AZ29" s="42"/>
       <c r="BA29" s="7"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="13"/>
@@ -5161,88 +5171,88 @@
       <c r="BR29" s="15"/>
       <c r="BS29" s="7"/>
       <c r="BV29" s="5"/>
-      <c r="BW29" s="43"/>
-      <c r="BX29" s="51"/>
-      <c r="BY29" s="51"/>
-      <c r="BZ29" s="51"/>
-      <c r="CA29" s="51"/>
-      <c r="CB29" s="51"/>
-      <c r="CC29" s="51"/>
-      <c r="CD29" s="51"/>
-      <c r="CE29" s="51"/>
-      <c r="CF29" s="51"/>
-      <c r="CG29" s="51"/>
-      <c r="CH29" s="51"/>
-      <c r="CI29" s="51"/>
-      <c r="CJ29" s="44"/>
+      <c r="BW29" s="40"/>
+      <c r="BX29" s="41"/>
+      <c r="BY29" s="41"/>
+      <c r="BZ29" s="41"/>
+      <c r="CA29" s="41"/>
+      <c r="CB29" s="41"/>
+      <c r="CC29" s="41"/>
+      <c r="CD29" s="41"/>
+      <c r="CE29" s="41"/>
+      <c r="CF29" s="41"/>
+      <c r="CG29" s="41"/>
+      <c r="CH29" s="41"/>
+      <c r="CI29" s="41"/>
+      <c r="CJ29" s="42"/>
       <c r="CK29" s="7"/>
       <c r="CN29" s="5"/>
-      <c r="CO29" s="41"/>
-      <c r="CP29" s="50"/>
-      <c r="CQ29" s="50"/>
-      <c r="CR29" s="50"/>
-      <c r="CS29" s="50"/>
-      <c r="CT29" s="50"/>
-      <c r="CU29" s="50"/>
-      <c r="CV29" s="50"/>
-      <c r="CW29" s="50"/>
-      <c r="CX29" s="50"/>
-      <c r="CY29" s="50"/>
-      <c r="CZ29" s="50"/>
-      <c r="DA29" s="50"/>
-      <c r="DB29" s="42"/>
+      <c r="CO29" s="43"/>
+      <c r="CP29" s="44"/>
+      <c r="CQ29" s="44"/>
+      <c r="CR29" s="44"/>
+      <c r="CS29" s="44"/>
+      <c r="CT29" s="44"/>
+      <c r="CU29" s="44"/>
+      <c r="CV29" s="44"/>
+      <c r="CW29" s="44"/>
+      <c r="CX29" s="44"/>
+      <c r="CY29" s="44"/>
+      <c r="CZ29" s="44"/>
+      <c r="DA29" s="44"/>
+      <c r="DB29" s="45"/>
       <c r="DC29" s="7"/>
     </row>
     <row r="30" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
       <c r="Q30" s="7"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="44"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="44"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="44"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="44"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="44"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="44"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="44"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="42"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="42"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="42"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="42"/>
+      <c r="AC30" s="40"/>
+      <c r="AD30" s="42"/>
+      <c r="AE30" s="40"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="40"/>
+      <c r="AH30" s="42"/>
       <c r="AI30" s="7"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="39" t="s">
+      <c r="AM30" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AN30" s="49"/>
-      <c r="AO30" s="49"/>
-      <c r="AP30" s="49"/>
-      <c r="AQ30" s="49"/>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
-      <c r="AT30" s="49"/>
-      <c r="AU30" s="49"/>
-      <c r="AV30" s="49"/>
-      <c r="AW30" s="49"/>
-      <c r="AX30" s="49"/>
-      <c r="AY30" s="49"/>
-      <c r="AZ30" s="40"/>
+      <c r="AN30" s="38"/>
+      <c r="AO30" s="38"/>
+      <c r="AP30" s="38"/>
+      <c r="AQ30" s="38"/>
+      <c r="AR30" s="38"/>
+      <c r="AS30" s="38"/>
+      <c r="AT30" s="38"/>
+      <c r="AU30" s="38"/>
+      <c r="AV30" s="38"/>
+      <c r="AW30" s="38"/>
+      <c r="AX30" s="38"/>
+      <c r="AY30" s="38"/>
+      <c r="AZ30" s="39"/>
       <c r="BA30" s="7"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="13"/>
@@ -5261,88 +5271,88 @@
       <c r="BR30" s="15"/>
       <c r="BS30" s="7"/>
       <c r="BV30" s="5"/>
-      <c r="BW30" s="39" t="s">
+      <c r="BW30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="BX30" s="49"/>
-      <c r="BY30" s="49"/>
-      <c r="BZ30" s="49"/>
-      <c r="CA30" s="49"/>
-      <c r="CB30" s="49"/>
-      <c r="CC30" s="49"/>
-      <c r="CD30" s="49"/>
-      <c r="CE30" s="49"/>
-      <c r="CF30" s="49"/>
-      <c r="CG30" s="49"/>
-      <c r="CH30" s="49"/>
-      <c r="CI30" s="49"/>
-      <c r="CJ30" s="40"/>
+      <c r="BX30" s="38"/>
+      <c r="BY30" s="38"/>
+      <c r="BZ30" s="38"/>
+      <c r="CA30" s="38"/>
+      <c r="CB30" s="38"/>
+      <c r="CC30" s="38"/>
+      <c r="CD30" s="38"/>
+      <c r="CE30" s="38"/>
+      <c r="CF30" s="38"/>
+      <c r="CG30" s="38"/>
+      <c r="CH30" s="38"/>
+      <c r="CI30" s="38"/>
+      <c r="CJ30" s="39"/>
       <c r="CK30" s="7"/>
       <c r="CN30" s="5"/>
-      <c r="CO30" s="41"/>
-      <c r="CP30" s="50"/>
-      <c r="CQ30" s="50"/>
-      <c r="CR30" s="50"/>
-      <c r="CS30" s="50"/>
-      <c r="CT30" s="50"/>
-      <c r="CU30" s="50"/>
-      <c r="CV30" s="50"/>
-      <c r="CW30" s="50"/>
-      <c r="CX30" s="50"/>
-      <c r="CY30" s="50"/>
-      <c r="CZ30" s="50"/>
-      <c r="DA30" s="50"/>
-      <c r="DB30" s="42"/>
+      <c r="CO30" s="43"/>
+      <c r="CP30" s="44"/>
+      <c r="CQ30" s="44"/>
+      <c r="CR30" s="44"/>
+      <c r="CS30" s="44"/>
+      <c r="CT30" s="44"/>
+      <c r="CU30" s="44"/>
+      <c r="CV30" s="44"/>
+      <c r="CW30" s="44"/>
+      <c r="CX30" s="44"/>
+      <c r="CY30" s="44"/>
+      <c r="CZ30" s="44"/>
+      <c r="DA30" s="44"/>
+      <c r="DB30" s="45"/>
       <c r="DC30" s="7"/>
     </row>
     <row r="31" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
       <c r="Q31" s="7"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="39"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="39"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="39"/>
-      <c r="AH31" s="40"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="39"/>
+      <c r="AE31" s="37"/>
+      <c r="AF31" s="39"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="39"/>
       <c r="AI31" s="7"/>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="50"/>
-      <c r="AO31" s="50"/>
-      <c r="AP31" s="50"/>
-      <c r="AQ31" s="50"/>
-      <c r="AR31" s="50"/>
-      <c r="AS31" s="50"/>
-      <c r="AT31" s="50"/>
-      <c r="AU31" s="50"/>
-      <c r="AV31" s="50"/>
-      <c r="AW31" s="50"/>
-      <c r="AX31" s="50"/>
-      <c r="AY31" s="50"/>
-      <c r="AZ31" s="42"/>
+      <c r="AM31" s="43"/>
+      <c r="AN31" s="44"/>
+      <c r="AO31" s="44"/>
+      <c r="AP31" s="44"/>
+      <c r="AQ31" s="44"/>
+      <c r="AR31" s="44"/>
+      <c r="AS31" s="44"/>
+      <c r="AT31" s="44"/>
+      <c r="AU31" s="44"/>
+      <c r="AV31" s="44"/>
+      <c r="AW31" s="44"/>
+      <c r="AX31" s="44"/>
+      <c r="AY31" s="44"/>
+      <c r="AZ31" s="45"/>
       <c r="BA31" s="7"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="13"/>
@@ -5361,86 +5371,86 @@
       <c r="BR31" s="15"/>
       <c r="BS31" s="7"/>
       <c r="BV31" s="5"/>
-      <c r="BW31" s="41"/>
-      <c r="BX31" s="50"/>
-      <c r="BY31" s="50"/>
-      <c r="BZ31" s="50"/>
-      <c r="CA31" s="50"/>
-      <c r="CB31" s="50"/>
-      <c r="CC31" s="50"/>
-      <c r="CD31" s="50"/>
-      <c r="CE31" s="50"/>
-      <c r="CF31" s="50"/>
-      <c r="CG31" s="50"/>
-      <c r="CH31" s="50"/>
-      <c r="CI31" s="50"/>
-      <c r="CJ31" s="42"/>
+      <c r="BW31" s="43"/>
+      <c r="BX31" s="44"/>
+      <c r="BY31" s="44"/>
+      <c r="BZ31" s="44"/>
+      <c r="CA31" s="44"/>
+      <c r="CB31" s="44"/>
+      <c r="CC31" s="44"/>
+      <c r="CD31" s="44"/>
+      <c r="CE31" s="44"/>
+      <c r="CF31" s="44"/>
+      <c r="CG31" s="44"/>
+      <c r="CH31" s="44"/>
+      <c r="CI31" s="44"/>
+      <c r="CJ31" s="45"/>
       <c r="CK31" s="7"/>
       <c r="CN31" s="5"/>
-      <c r="CO31" s="41"/>
-      <c r="CP31" s="50"/>
-      <c r="CQ31" s="50"/>
-      <c r="CR31" s="50"/>
-      <c r="CS31" s="50"/>
-      <c r="CT31" s="50"/>
-      <c r="CU31" s="50"/>
-      <c r="CV31" s="50"/>
-      <c r="CW31" s="50"/>
-      <c r="CX31" s="50"/>
-      <c r="CY31" s="50"/>
-      <c r="CZ31" s="50"/>
-      <c r="DA31" s="50"/>
-      <c r="DB31" s="42"/>
+      <c r="CO31" s="43"/>
+      <c r="CP31" s="44"/>
+      <c r="CQ31" s="44"/>
+      <c r="CR31" s="44"/>
+      <c r="CS31" s="44"/>
+      <c r="CT31" s="44"/>
+      <c r="CU31" s="44"/>
+      <c r="CV31" s="44"/>
+      <c r="CW31" s="44"/>
+      <c r="CX31" s="44"/>
+      <c r="CY31" s="44"/>
+      <c r="CZ31" s="44"/>
+      <c r="DA31" s="44"/>
+      <c r="DB31" s="45"/>
       <c r="DC31" s="7"/>
     </row>
     <row r="32" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
       <c r="Q32" s="7"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="42"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="42"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="42"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="42"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="45"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="45"/>
+      <c r="Y32" s="43"/>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="43"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="43"/>
+      <c r="AD32" s="45"/>
+      <c r="AE32" s="43"/>
+      <c r="AF32" s="45"/>
+      <c r="AG32" s="43"/>
+      <c r="AH32" s="45"/>
       <c r="AI32" s="7"/>
       <c r="AL32" s="5"/>
-      <c r="AM32" s="43"/>
-      <c r="AN32" s="51"/>
-      <c r="AO32" s="51"/>
-      <c r="AP32" s="51"/>
-      <c r="AQ32" s="51"/>
-      <c r="AR32" s="51"/>
-      <c r="AS32" s="51"/>
-      <c r="AT32" s="51"/>
-      <c r="AU32" s="51"/>
-      <c r="AV32" s="51"/>
-      <c r="AW32" s="51"/>
-      <c r="AX32" s="51"/>
-      <c r="AY32" s="51"/>
-      <c r="AZ32" s="44"/>
+      <c r="AM32" s="40"/>
+      <c r="AN32" s="41"/>
+      <c r="AO32" s="41"/>
+      <c r="AP32" s="41"/>
+      <c r="AQ32" s="41"/>
+      <c r="AR32" s="41"/>
+      <c r="AS32" s="41"/>
+      <c r="AT32" s="41"/>
+      <c r="AU32" s="41"/>
+      <c r="AV32" s="41"/>
+      <c r="AW32" s="41"/>
+      <c r="AX32" s="41"/>
+      <c r="AY32" s="41"/>
+      <c r="AZ32" s="42"/>
       <c r="BA32" s="7"/>
       <c r="BD32" s="5"/>
       <c r="BE32" s="16"/>
@@ -5459,88 +5469,88 @@
       <c r="BR32" s="18"/>
       <c r="BS32" s="7"/>
       <c r="BV32" s="5"/>
-      <c r="BW32" s="43"/>
-      <c r="BX32" s="51"/>
-      <c r="BY32" s="51"/>
-      <c r="BZ32" s="51"/>
-      <c r="CA32" s="51"/>
-      <c r="CB32" s="51"/>
-      <c r="CC32" s="51"/>
-      <c r="CD32" s="51"/>
-      <c r="CE32" s="51"/>
-      <c r="CF32" s="51"/>
-      <c r="CG32" s="51"/>
-      <c r="CH32" s="51"/>
-      <c r="CI32" s="51"/>
-      <c r="CJ32" s="44"/>
+      <c r="BW32" s="40"/>
+      <c r="BX32" s="41"/>
+      <c r="BY32" s="41"/>
+      <c r="BZ32" s="41"/>
+      <c r="CA32" s="41"/>
+      <c r="CB32" s="41"/>
+      <c r="CC32" s="41"/>
+      <c r="CD32" s="41"/>
+      <c r="CE32" s="41"/>
+      <c r="CF32" s="41"/>
+      <c r="CG32" s="41"/>
+      <c r="CH32" s="41"/>
+      <c r="CI32" s="41"/>
+      <c r="CJ32" s="42"/>
       <c r="CK32" s="7"/>
       <c r="CN32" s="5"/>
-      <c r="CO32" s="43"/>
-      <c r="CP32" s="51"/>
-      <c r="CQ32" s="51"/>
-      <c r="CR32" s="51"/>
-      <c r="CS32" s="51"/>
-      <c r="CT32" s="51"/>
-      <c r="CU32" s="51"/>
-      <c r="CV32" s="51"/>
-      <c r="CW32" s="51"/>
-      <c r="CX32" s="51"/>
-      <c r="CY32" s="51"/>
-      <c r="CZ32" s="51"/>
-      <c r="DA32" s="51"/>
-      <c r="DB32" s="44"/>
+      <c r="CO32" s="40"/>
+      <c r="CP32" s="41"/>
+      <c r="CQ32" s="41"/>
+      <c r="CR32" s="41"/>
+      <c r="CS32" s="41"/>
+      <c r="CT32" s="41"/>
+      <c r="CU32" s="41"/>
+      <c r="CV32" s="41"/>
+      <c r="CW32" s="41"/>
+      <c r="CX32" s="41"/>
+      <c r="CY32" s="41"/>
+      <c r="CZ32" s="41"/>
+      <c r="DA32" s="41"/>
+      <c r="DB32" s="42"/>
       <c r="DC32" s="7"/>
     </row>
     <row r="33" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
-      <c r="N33" s="46"/>
-      <c r="O33" s="46"/>
-      <c r="P33" s="46"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
       <c r="Q33" s="7"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="44"/>
-      <c r="AG33" s="43"/>
-      <c r="AH33" s="44"/>
+      <c r="U33" s="40"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="40"/>
+      <c r="X33" s="42"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="42"/>
+      <c r="AA33" s="40"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="40"/>
+      <c r="AD33" s="42"/>
+      <c r="AE33" s="40"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="40"/>
+      <c r="AH33" s="42"/>
       <c r="AI33" s="7"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="39" t="s">
+      <c r="AM33" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AN33" s="49"/>
-      <c r="AO33" s="49"/>
-      <c r="AP33" s="49"/>
-      <c r="AQ33" s="49"/>
-      <c r="AR33" s="49"/>
-      <c r="AS33" s="49"/>
-      <c r="AT33" s="49"/>
-      <c r="AU33" s="49"/>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="49"/>
-      <c r="AY33" s="49"/>
-      <c r="AZ33" s="40"/>
+      <c r="AN33" s="38"/>
+      <c r="AO33" s="38"/>
+      <c r="AP33" s="38"/>
+      <c r="AQ33" s="38"/>
+      <c r="AR33" s="38"/>
+      <c r="AS33" s="38"/>
+      <c r="AT33" s="38"/>
+      <c r="AU33" s="38"/>
+      <c r="AV33" s="38"/>
+      <c r="AW33" s="38"/>
+      <c r="AX33" s="38"/>
+      <c r="AY33" s="38"/>
+      <c r="AZ33" s="39"/>
       <c r="BA33" s="7"/>
       <c r="BD33" s="5"/>
       <c r="BE33" s="6"/>
@@ -5559,22 +5569,22 @@
       <c r="BR33" s="6"/>
       <c r="BS33" s="7"/>
       <c r="BV33" s="5"/>
-      <c r="BW33" s="39" t="s">
+      <c r="BW33" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="BX33" s="49"/>
-      <c r="BY33" s="49"/>
-      <c r="BZ33" s="49"/>
-      <c r="CA33" s="49"/>
-      <c r="CB33" s="49"/>
-      <c r="CC33" s="49"/>
-      <c r="CD33" s="49"/>
-      <c r="CE33" s="49"/>
-      <c r="CF33" s="49"/>
-      <c r="CG33" s="49"/>
-      <c r="CH33" s="49"/>
-      <c r="CI33" s="49"/>
-      <c r="CJ33" s="40"/>
+      <c r="BX33" s="38"/>
+      <c r="BY33" s="38"/>
+      <c r="BZ33" s="38"/>
+      <c r="CA33" s="38"/>
+      <c r="CB33" s="38"/>
+      <c r="CC33" s="38"/>
+      <c r="CD33" s="38"/>
+      <c r="CE33" s="38"/>
+      <c r="CF33" s="38"/>
+      <c r="CG33" s="38"/>
+      <c r="CH33" s="38"/>
+      <c r="CI33" s="38"/>
+      <c r="CJ33" s="39"/>
       <c r="CK33" s="7"/>
       <c r="CN33" s="5"/>
       <c r="CO33" s="14"/>
@@ -5611,96 +5621,96 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="48" t="s">
+      <c r="U34" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="V34" s="48"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="48"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
-      <c r="AB34" s="48" t="s">
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="AC34" s="48"/>
-      <c r="AD34" s="48"/>
-      <c r="AE34" s="48"/>
-      <c r="AF34" s="48"/>
-      <c r="AG34" s="48"/>
-      <c r="AH34" s="48"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="62"/>
       <c r="AI34" s="7"/>
       <c r="AL34" s="5"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="50"/>
-      <c r="AO34" s="50"/>
-      <c r="AP34" s="50"/>
-      <c r="AQ34" s="50"/>
-      <c r="AR34" s="50"/>
-      <c r="AS34" s="50"/>
-      <c r="AT34" s="50"/>
-      <c r="AU34" s="50"/>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="42"/>
+      <c r="AM34" s="43"/>
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="44"/>
+      <c r="AP34" s="44"/>
+      <c r="AQ34" s="44"/>
+      <c r="AR34" s="44"/>
+      <c r="AS34" s="44"/>
+      <c r="AT34" s="44"/>
+      <c r="AU34" s="44"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="45"/>
       <c r="BA34" s="7"/>
       <c r="BD34" s="5"/>
-      <c r="BE34" s="59" t="s">
+      <c r="BE34" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="BF34" s="60"/>
+      <c r="BF34" s="34"/>
       <c r="BG34" s="14"/>
-      <c r="BH34" s="39" t="s">
+      <c r="BH34" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="BI34" s="49"/>
-      <c r="BJ34" s="49"/>
-      <c r="BK34" s="49"/>
-      <c r="BL34" s="49"/>
-      <c r="BM34" s="49"/>
-      <c r="BN34" s="49"/>
-      <c r="BO34" s="49"/>
-      <c r="BP34" s="49"/>
-      <c r="BQ34" s="49"/>
-      <c r="BR34" s="40"/>
+      <c r="BI34" s="38"/>
+      <c r="BJ34" s="38"/>
+      <c r="BK34" s="38"/>
+      <c r="BL34" s="38"/>
+      <c r="BM34" s="38"/>
+      <c r="BN34" s="38"/>
+      <c r="BO34" s="38"/>
+      <c r="BP34" s="38"/>
+      <c r="BQ34" s="38"/>
+      <c r="BR34" s="39"/>
       <c r="BS34" s="7"/>
       <c r="BV34" s="5"/>
-      <c r="BW34" s="41"/>
-      <c r="BX34" s="50"/>
-      <c r="BY34" s="50"/>
-      <c r="BZ34" s="50"/>
-      <c r="CA34" s="50"/>
-      <c r="CB34" s="50"/>
-      <c r="CC34" s="50"/>
-      <c r="CD34" s="50"/>
-      <c r="CE34" s="50"/>
-      <c r="CF34" s="50"/>
-      <c r="CG34" s="50"/>
-      <c r="CH34" s="50"/>
-      <c r="CI34" s="50"/>
-      <c r="CJ34" s="42"/>
+      <c r="BW34" s="43"/>
+      <c r="BX34" s="44"/>
+      <c r="BY34" s="44"/>
+      <c r="BZ34" s="44"/>
+      <c r="CA34" s="44"/>
+      <c r="CB34" s="44"/>
+      <c r="CC34" s="44"/>
+      <c r="CD34" s="44"/>
+      <c r="CE34" s="44"/>
+      <c r="CF34" s="44"/>
+      <c r="CG34" s="44"/>
+      <c r="CH34" s="44"/>
+      <c r="CI34" s="44"/>
+      <c r="CJ34" s="45"/>
       <c r="CK34" s="7"/>
       <c r="CN34" s="5"/>
-      <c r="CO34" s="59" t="s">
+      <c r="CO34" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="CP34" s="60"/>
+      <c r="CP34" s="34"/>
       <c r="CQ34" s="14"/>
-      <c r="CR34" s="63" t="s">
+      <c r="CR34" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="CS34" s="49"/>
-      <c r="CT34" s="49"/>
-      <c r="CU34" s="49"/>
-      <c r="CV34" s="49"/>
-      <c r="CW34" s="49"/>
-      <c r="CX34" s="49"/>
-      <c r="CY34" s="49"/>
-      <c r="CZ34" s="49"/>
-      <c r="DA34" s="49"/>
-      <c r="DB34" s="40"/>
+      <c r="CS34" s="38"/>
+      <c r="CT34" s="38"/>
+      <c r="CU34" s="38"/>
+      <c r="CV34" s="38"/>
+      <c r="CW34" s="38"/>
+      <c r="CX34" s="38"/>
+      <c r="CY34" s="38"/>
+      <c r="CZ34" s="38"/>
+      <c r="DA34" s="38"/>
+      <c r="DB34" s="39"/>
       <c r="DC34" s="7"/>
     </row>
     <row r="35" spans="2:107" x14ac:dyDescent="0.4">
@@ -5721,84 +5731,84 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="48"/>
-      <c r="V35" s="48"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
-      <c r="AB35" s="48"/>
-      <c r="AC35" s="48"/>
-      <c r="AD35" s="48"/>
-      <c r="AE35" s="48"/>
-      <c r="AF35" s="48"/>
-      <c r="AG35" s="48"/>
-      <c r="AH35" s="48"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="62"/>
+      <c r="AF35" s="62"/>
+      <c r="AG35" s="62"/>
+      <c r="AH35" s="62"/>
       <c r="AI35" s="7"/>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="43"/>
-      <c r="AN35" s="51"/>
-      <c r="AO35" s="51"/>
-      <c r="AP35" s="51"/>
-      <c r="AQ35" s="51"/>
-      <c r="AR35" s="51"/>
-      <c r="AS35" s="51"/>
-      <c r="AT35" s="51"/>
-      <c r="AU35" s="51"/>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="51"/>
-      <c r="AX35" s="51"/>
-      <c r="AY35" s="51"/>
-      <c r="AZ35" s="44"/>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="41"/>
+      <c r="AO35" s="41"/>
+      <c r="AP35" s="41"/>
+      <c r="AQ35" s="41"/>
+      <c r="AR35" s="41"/>
+      <c r="AS35" s="41"/>
+      <c r="AT35" s="41"/>
+      <c r="AU35" s="41"/>
+      <c r="AV35" s="41"/>
+      <c r="AW35" s="41"/>
+      <c r="AX35" s="41"/>
+      <c r="AY35" s="41"/>
+      <c r="AZ35" s="42"/>
       <c r="BA35" s="7"/>
       <c r="BD35" s="5"/>
-      <c r="BE35" s="61"/>
-      <c r="BF35" s="62"/>
+      <c r="BE35" s="35"/>
+      <c r="BF35" s="36"/>
       <c r="BG35" s="14"/>
-      <c r="BH35" s="43"/>
-      <c r="BI35" s="51"/>
-      <c r="BJ35" s="51"/>
-      <c r="BK35" s="51"/>
-      <c r="BL35" s="51"/>
-      <c r="BM35" s="51"/>
-      <c r="BN35" s="51"/>
-      <c r="BO35" s="51"/>
-      <c r="BP35" s="51"/>
-      <c r="BQ35" s="51"/>
-      <c r="BR35" s="44"/>
+      <c r="BH35" s="40"/>
+      <c r="BI35" s="41"/>
+      <c r="BJ35" s="41"/>
+      <c r="BK35" s="41"/>
+      <c r="BL35" s="41"/>
+      <c r="BM35" s="41"/>
+      <c r="BN35" s="41"/>
+      <c r="BO35" s="41"/>
+      <c r="BP35" s="41"/>
+      <c r="BQ35" s="41"/>
+      <c r="BR35" s="42"/>
       <c r="BS35" s="7"/>
       <c r="BV35" s="5"/>
-      <c r="BW35" s="43"/>
-      <c r="BX35" s="51"/>
-      <c r="BY35" s="51"/>
-      <c r="BZ35" s="51"/>
-      <c r="CA35" s="51"/>
-      <c r="CB35" s="51"/>
-      <c r="CC35" s="51"/>
-      <c r="CD35" s="51"/>
-      <c r="CE35" s="51"/>
-      <c r="CF35" s="51"/>
-      <c r="CG35" s="51"/>
-      <c r="CH35" s="51"/>
-      <c r="CI35" s="51"/>
-      <c r="CJ35" s="44"/>
+      <c r="BW35" s="40"/>
+      <c r="BX35" s="41"/>
+      <c r="BY35" s="41"/>
+      <c r="BZ35" s="41"/>
+      <c r="CA35" s="41"/>
+      <c r="CB35" s="41"/>
+      <c r="CC35" s="41"/>
+      <c r="CD35" s="41"/>
+      <c r="CE35" s="41"/>
+      <c r="CF35" s="41"/>
+      <c r="CG35" s="41"/>
+      <c r="CH35" s="41"/>
+      <c r="CI35" s="41"/>
+      <c r="CJ35" s="42"/>
       <c r="CK35" s="7"/>
       <c r="CN35" s="5"/>
-      <c r="CO35" s="61"/>
-      <c r="CP35" s="62"/>
+      <c r="CO35" s="35"/>
+      <c r="CP35" s="36"/>
       <c r="CQ35" s="14"/>
-      <c r="CR35" s="43"/>
-      <c r="CS35" s="51"/>
-      <c r="CT35" s="51"/>
-      <c r="CU35" s="51"/>
-      <c r="CV35" s="51"/>
-      <c r="CW35" s="51"/>
-      <c r="CX35" s="51"/>
-      <c r="CY35" s="51"/>
-      <c r="CZ35" s="51"/>
-      <c r="DA35" s="51"/>
-      <c r="DB35" s="44"/>
+      <c r="CR35" s="40"/>
+      <c r="CS35" s="41"/>
+      <c r="CT35" s="41"/>
+      <c r="CU35" s="41"/>
+      <c r="CV35" s="41"/>
+      <c r="CW35" s="41"/>
+      <c r="CX35" s="41"/>
+      <c r="CY35" s="41"/>
+      <c r="CZ35" s="41"/>
+      <c r="DA35" s="41"/>
+      <c r="DB35" s="42"/>
       <c r="DC35" s="7"/>
     </row>
     <row r="36" spans="2:107" x14ac:dyDescent="0.4">
@@ -5900,348 +5910,404 @@
       <c r="DC36" s="7"/>
     </row>
     <row r="37" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="30" t="s">
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="30" t="s">
+      <c r="H37" s="47"/>
+      <c r="I37" s="47"/>
+      <c r="J37" s="47"/>
+      <c r="K37" s="47"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="32"/>
-      <c r="T37" s="30" t="s">
+      <c r="N37" s="47"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="48"/>
+      <c r="T37" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="30" t="s">
+      <c r="U37" s="47"/>
+      <c r="V37" s="47"/>
+      <c r="W37" s="47"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="30" t="s">
+      <c r="Z37" s="47"/>
+      <c r="AA37" s="47"/>
+      <c r="AB37" s="47"/>
+      <c r="AC37" s="47"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="32"/>
-      <c r="AL37" s="30" t="s">
+      <c r="AF37" s="47"/>
+      <c r="AG37" s="47"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="48"/>
+      <c r="AL37" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AM37" s="31"/>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="31"/>
-      <c r="AP37" s="32"/>
-      <c r="AQ37" s="30" t="s">
+      <c r="AM37" s="47"/>
+      <c r="AN37" s="47"/>
+      <c r="AO37" s="47"/>
+      <c r="AP37" s="48"/>
+      <c r="AQ37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="AR37" s="31"/>
-      <c r="AS37" s="31"/>
-      <c r="AT37" s="31"/>
-      <c r="AU37" s="31"/>
-      <c r="AV37" s="32"/>
-      <c r="AW37" s="30" t="s">
+      <c r="AR37" s="47"/>
+      <c r="AS37" s="47"/>
+      <c r="AT37" s="47"/>
+      <c r="AU37" s="47"/>
+      <c r="AV37" s="48"/>
+      <c r="AW37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="31"/>
-      <c r="AY37" s="31"/>
-      <c r="AZ37" s="31"/>
-      <c r="BA37" s="32"/>
-      <c r="BD37" s="30" t="s">
+      <c r="AX37" s="47"/>
+      <c r="AY37" s="47"/>
+      <c r="AZ37" s="47"/>
+      <c r="BA37" s="48"/>
+      <c r="BD37" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="BE37" s="31"/>
-      <c r="BF37" s="31"/>
-      <c r="BG37" s="31"/>
-      <c r="BH37" s="32"/>
-      <c r="BI37" s="30" t="s">
+      <c r="BE37" s="47"/>
+      <c r="BF37" s="47"/>
+      <c r="BG37" s="47"/>
+      <c r="BH37" s="48"/>
+      <c r="BI37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="31"/>
-      <c r="BK37" s="31"/>
-      <c r="BL37" s="31"/>
-      <c r="BM37" s="31"/>
-      <c r="BN37" s="32"/>
-      <c r="BO37" s="30" t="s">
+      <c r="BJ37" s="47"/>
+      <c r="BK37" s="47"/>
+      <c r="BL37" s="47"/>
+      <c r="BM37" s="47"/>
+      <c r="BN37" s="48"/>
+      <c r="BO37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="BP37" s="31"/>
-      <c r="BQ37" s="31"/>
-      <c r="BR37" s="31"/>
-      <c r="BS37" s="32"/>
-      <c r="BV37" s="30" t="s">
+      <c r="BP37" s="47"/>
+      <c r="BQ37" s="47"/>
+      <c r="BR37" s="47"/>
+      <c r="BS37" s="48"/>
+      <c r="BV37" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="BW37" s="31"/>
-      <c r="BX37" s="31"/>
-      <c r="BY37" s="31"/>
-      <c r="BZ37" s="32"/>
-      <c r="CA37" s="30" t="s">
+      <c r="BW37" s="47"/>
+      <c r="BX37" s="47"/>
+      <c r="BY37" s="47"/>
+      <c r="BZ37" s="48"/>
+      <c r="CA37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="CB37" s="31"/>
-      <c r="CC37" s="31"/>
-      <c r="CD37" s="31"/>
-      <c r="CE37" s="31"/>
-      <c r="CF37" s="32"/>
-      <c r="CG37" s="30" t="s">
+      <c r="CB37" s="47"/>
+      <c r="CC37" s="47"/>
+      <c r="CD37" s="47"/>
+      <c r="CE37" s="47"/>
+      <c r="CF37" s="48"/>
+      <c r="CG37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="CH37" s="31"/>
-      <c r="CI37" s="31"/>
-      <c r="CJ37" s="31"/>
-      <c r="CK37" s="32"/>
-      <c r="CN37" s="30" t="s">
+      <c r="CH37" s="47"/>
+      <c r="CI37" s="47"/>
+      <c r="CJ37" s="47"/>
+      <c r="CK37" s="48"/>
+      <c r="CN37" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="CO37" s="31"/>
-      <c r="CP37" s="31"/>
-      <c r="CQ37" s="31"/>
-      <c r="CR37" s="32"/>
-      <c r="CS37" s="30" t="s">
+      <c r="CO37" s="47"/>
+      <c r="CP37" s="47"/>
+      <c r="CQ37" s="47"/>
+      <c r="CR37" s="48"/>
+      <c r="CS37" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="CT37" s="31"/>
-      <c r="CU37" s="31"/>
-      <c r="CV37" s="31"/>
-      <c r="CW37" s="31"/>
-      <c r="CX37" s="32"/>
-      <c r="CY37" s="30" t="s">
+      <c r="CT37" s="47"/>
+      <c r="CU37" s="47"/>
+      <c r="CV37" s="47"/>
+      <c r="CW37" s="47"/>
+      <c r="CX37" s="48"/>
+      <c r="CY37" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="CZ37" s="31"/>
-      <c r="DA37" s="31"/>
-      <c r="DB37" s="31"/>
-      <c r="DC37" s="32"/>
+      <c r="CZ37" s="47"/>
+      <c r="DA37" s="47"/>
+      <c r="DB37" s="47"/>
+      <c r="DC37" s="48"/>
     </row>
     <row r="38" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B38" s="33"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="34"/>
-      <c r="O38" s="34"/>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="35"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="34"/>
-      <c r="V38" s="34"/>
-      <c r="W38" s="34"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="34"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="34"/>
-      <c r="AC38" s="34"/>
-      <c r="AD38" s="35"/>
-      <c r="AE38" s="33"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="35"/>
-      <c r="AL38" s="33"/>
-      <c r="AM38" s="34"/>
-      <c r="AN38" s="34"/>
-      <c r="AO38" s="34"/>
-      <c r="AP38" s="35"/>
-      <c r="AQ38" s="33"/>
-      <c r="AR38" s="34"/>
-      <c r="AS38" s="34"/>
-      <c r="AT38" s="34"/>
-      <c r="AU38" s="34"/>
-      <c r="AV38" s="35"/>
-      <c r="AW38" s="33"/>
-      <c r="AX38" s="34"/>
-      <c r="AY38" s="34"/>
-      <c r="AZ38" s="34"/>
-      <c r="BA38" s="35"/>
-      <c r="BD38" s="33"/>
-      <c r="BE38" s="34"/>
-      <c r="BF38" s="34"/>
-      <c r="BG38" s="34"/>
-      <c r="BH38" s="35"/>
-      <c r="BI38" s="33"/>
-      <c r="BJ38" s="34"/>
-      <c r="BK38" s="34"/>
-      <c r="BL38" s="34"/>
-      <c r="BM38" s="34"/>
-      <c r="BN38" s="35"/>
-      <c r="BO38" s="33"/>
-      <c r="BP38" s="34"/>
-      <c r="BQ38" s="34"/>
-      <c r="BR38" s="34"/>
-      <c r="BS38" s="35"/>
-      <c r="BV38" s="33"/>
-      <c r="BW38" s="34"/>
-      <c r="BX38" s="34"/>
-      <c r="BY38" s="34"/>
-      <c r="BZ38" s="35"/>
-      <c r="CA38" s="33"/>
-      <c r="CB38" s="34"/>
-      <c r="CC38" s="34"/>
-      <c r="CD38" s="34"/>
-      <c r="CE38" s="34"/>
-      <c r="CF38" s="35"/>
-      <c r="CG38" s="33"/>
-      <c r="CH38" s="34"/>
-      <c r="CI38" s="34"/>
-      <c r="CJ38" s="34"/>
-      <c r="CK38" s="35"/>
-      <c r="CN38" s="33"/>
-      <c r="CO38" s="34"/>
-      <c r="CP38" s="34"/>
-      <c r="CQ38" s="34"/>
-      <c r="CR38" s="35"/>
-      <c r="CS38" s="33"/>
-      <c r="CT38" s="34"/>
-      <c r="CU38" s="34"/>
-      <c r="CV38" s="34"/>
-      <c r="CW38" s="34"/>
-      <c r="CX38" s="35"/>
-      <c r="CY38" s="33"/>
-      <c r="CZ38" s="34"/>
-      <c r="DA38" s="34"/>
-      <c r="DB38" s="34"/>
-      <c r="DC38" s="35"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="50"/>
+      <c r="O38" s="50"/>
+      <c r="P38" s="50"/>
+      <c r="Q38" s="51"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="50"/>
+      <c r="V38" s="50"/>
+      <c r="W38" s="50"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="50"/>
+      <c r="AA38" s="50"/>
+      <c r="AB38" s="50"/>
+      <c r="AC38" s="50"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="49"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="50"/>
+      <c r="AI38" s="51"/>
+      <c r="AL38" s="49"/>
+      <c r="AM38" s="50"/>
+      <c r="AN38" s="50"/>
+      <c r="AO38" s="50"/>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="49"/>
+      <c r="AR38" s="50"/>
+      <c r="AS38" s="50"/>
+      <c r="AT38" s="50"/>
+      <c r="AU38" s="50"/>
+      <c r="AV38" s="51"/>
+      <c r="AW38" s="49"/>
+      <c r="AX38" s="50"/>
+      <c r="AY38" s="50"/>
+      <c r="AZ38" s="50"/>
+      <c r="BA38" s="51"/>
+      <c r="BD38" s="49"/>
+      <c r="BE38" s="50"/>
+      <c r="BF38" s="50"/>
+      <c r="BG38" s="50"/>
+      <c r="BH38" s="51"/>
+      <c r="BI38" s="49"/>
+      <c r="BJ38" s="50"/>
+      <c r="BK38" s="50"/>
+      <c r="BL38" s="50"/>
+      <c r="BM38" s="50"/>
+      <c r="BN38" s="51"/>
+      <c r="BO38" s="49"/>
+      <c r="BP38" s="50"/>
+      <c r="BQ38" s="50"/>
+      <c r="BR38" s="50"/>
+      <c r="BS38" s="51"/>
+      <c r="BV38" s="49"/>
+      <c r="BW38" s="50"/>
+      <c r="BX38" s="50"/>
+      <c r="BY38" s="50"/>
+      <c r="BZ38" s="51"/>
+      <c r="CA38" s="49"/>
+      <c r="CB38" s="50"/>
+      <c r="CC38" s="50"/>
+      <c r="CD38" s="50"/>
+      <c r="CE38" s="50"/>
+      <c r="CF38" s="51"/>
+      <c r="CG38" s="49"/>
+      <c r="CH38" s="50"/>
+      <c r="CI38" s="50"/>
+      <c r="CJ38" s="50"/>
+      <c r="CK38" s="51"/>
+      <c r="CN38" s="49"/>
+      <c r="CO38" s="50"/>
+      <c r="CP38" s="50"/>
+      <c r="CQ38" s="50"/>
+      <c r="CR38" s="51"/>
+      <c r="CS38" s="49"/>
+      <c r="CT38" s="50"/>
+      <c r="CU38" s="50"/>
+      <c r="CV38" s="50"/>
+      <c r="CW38" s="50"/>
+      <c r="CX38" s="51"/>
+      <c r="CY38" s="49"/>
+      <c r="CZ38" s="50"/>
+      <c r="DA38" s="50"/>
+      <c r="DB38" s="50"/>
+      <c r="DC38" s="51"/>
     </row>
     <row r="39" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="38"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="38"/>
-      <c r="Y39" s="36"/>
-      <c r="Z39" s="37"/>
-      <c r="AA39" s="37"/>
-      <c r="AB39" s="37"/>
-      <c r="AC39" s="37"/>
-      <c r="AD39" s="38"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="37"/>
-      <c r="AG39" s="37"/>
-      <c r="AH39" s="37"/>
-      <c r="AI39" s="38"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="37"/>
-      <c r="AN39" s="37"/>
-      <c r="AO39" s="37"/>
-      <c r="AP39" s="38"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="37"/>
-      <c r="AS39" s="37"/>
-      <c r="AT39" s="37"/>
-      <c r="AU39" s="37"/>
-      <c r="AV39" s="38"/>
-      <c r="AW39" s="36"/>
-      <c r="AX39" s="37"/>
-      <c r="AY39" s="37"/>
-      <c r="AZ39" s="37"/>
-      <c r="BA39" s="38"/>
-      <c r="BD39" s="36"/>
-      <c r="BE39" s="37"/>
-      <c r="BF39" s="37"/>
-      <c r="BG39" s="37"/>
-      <c r="BH39" s="38"/>
-      <c r="BI39" s="36"/>
-      <c r="BJ39" s="37"/>
-      <c r="BK39" s="37"/>
-      <c r="BL39" s="37"/>
-      <c r="BM39" s="37"/>
-      <c r="BN39" s="38"/>
-      <c r="BO39" s="36"/>
-      <c r="BP39" s="37"/>
-      <c r="BQ39" s="37"/>
-      <c r="BR39" s="37"/>
-      <c r="BS39" s="38"/>
-      <c r="BV39" s="36"/>
-      <c r="BW39" s="37"/>
-      <c r="BX39" s="37"/>
-      <c r="BY39" s="37"/>
-      <c r="BZ39" s="38"/>
-      <c r="CA39" s="36"/>
-      <c r="CB39" s="37"/>
-      <c r="CC39" s="37"/>
-      <c r="CD39" s="37"/>
-      <c r="CE39" s="37"/>
-      <c r="CF39" s="38"/>
-      <c r="CG39" s="36"/>
-      <c r="CH39" s="37"/>
-      <c r="CI39" s="37"/>
-      <c r="CJ39" s="37"/>
-      <c r="CK39" s="38"/>
-      <c r="CN39" s="36"/>
-      <c r="CO39" s="37"/>
-      <c r="CP39" s="37"/>
-      <c r="CQ39" s="37"/>
-      <c r="CR39" s="38"/>
-      <c r="CS39" s="36"/>
-      <c r="CT39" s="37"/>
-      <c r="CU39" s="37"/>
-      <c r="CV39" s="37"/>
-      <c r="CW39" s="37"/>
-      <c r="CX39" s="38"/>
-      <c r="CY39" s="36"/>
-      <c r="CZ39" s="37"/>
-      <c r="DA39" s="37"/>
-      <c r="DB39" s="37"/>
-      <c r="DC39" s="38"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="53"/>
+      <c r="J39" s="53"/>
+      <c r="K39" s="53"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="53"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="53"/>
+      <c r="Q39" s="54"/>
+      <c r="T39" s="52"/>
+      <c r="U39" s="53"/>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="52"/>
+      <c r="Z39" s="53"/>
+      <c r="AA39" s="53"/>
+      <c r="AB39" s="53"/>
+      <c r="AC39" s="53"/>
+      <c r="AD39" s="54"/>
+      <c r="AE39" s="52"/>
+      <c r="AF39" s="53"/>
+      <c r="AG39" s="53"/>
+      <c r="AH39" s="53"/>
+      <c r="AI39" s="54"/>
+      <c r="AL39" s="52"/>
+      <c r="AM39" s="53"/>
+      <c r="AN39" s="53"/>
+      <c r="AO39" s="53"/>
+      <c r="AP39" s="54"/>
+      <c r="AQ39" s="52"/>
+      <c r="AR39" s="53"/>
+      <c r="AS39" s="53"/>
+      <c r="AT39" s="53"/>
+      <c r="AU39" s="53"/>
+      <c r="AV39" s="54"/>
+      <c r="AW39" s="52"/>
+      <c r="AX39" s="53"/>
+      <c r="AY39" s="53"/>
+      <c r="AZ39" s="53"/>
+      <c r="BA39" s="54"/>
+      <c r="BD39" s="52"/>
+      <c r="BE39" s="53"/>
+      <c r="BF39" s="53"/>
+      <c r="BG39" s="53"/>
+      <c r="BH39" s="54"/>
+      <c r="BI39" s="52"/>
+      <c r="BJ39" s="53"/>
+      <c r="BK39" s="53"/>
+      <c r="BL39" s="53"/>
+      <c r="BM39" s="53"/>
+      <c r="BN39" s="54"/>
+      <c r="BO39" s="52"/>
+      <c r="BP39" s="53"/>
+      <c r="BQ39" s="53"/>
+      <c r="BR39" s="53"/>
+      <c r="BS39" s="54"/>
+      <c r="BV39" s="52"/>
+      <c r="BW39" s="53"/>
+      <c r="BX39" s="53"/>
+      <c r="BY39" s="53"/>
+      <c r="BZ39" s="54"/>
+      <c r="CA39" s="52"/>
+      <c r="CB39" s="53"/>
+      <c r="CC39" s="53"/>
+      <c r="CD39" s="53"/>
+      <c r="CE39" s="53"/>
+      <c r="CF39" s="54"/>
+      <c r="CG39" s="52"/>
+      <c r="CH39" s="53"/>
+      <c r="CI39" s="53"/>
+      <c r="CJ39" s="53"/>
+      <c r="CK39" s="54"/>
+      <c r="CN39" s="52"/>
+      <c r="CO39" s="53"/>
+      <c r="CP39" s="53"/>
+      <c r="CQ39" s="53"/>
+      <c r="CR39" s="54"/>
+      <c r="CS39" s="52"/>
+      <c r="CT39" s="53"/>
+      <c r="CU39" s="53"/>
+      <c r="CV39" s="53"/>
+      <c r="CW39" s="53"/>
+      <c r="CX39" s="54"/>
+      <c r="CY39" s="52"/>
+      <c r="CZ39" s="53"/>
+      <c r="DA39" s="53"/>
+      <c r="DB39" s="53"/>
+      <c r="DC39" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BE34:BF35"/>
-    <mergeCell ref="BH34:BR35"/>
-    <mergeCell ref="AM33:AZ35"/>
-    <mergeCell ref="CN37:CR39"/>
-    <mergeCell ref="CS37:CX39"/>
-    <mergeCell ref="BV37:BZ39"/>
-    <mergeCell ref="CA37:CF39"/>
-    <mergeCell ref="CG37:CK39"/>
-    <mergeCell ref="AL37:AP39"/>
-    <mergeCell ref="AQ37:AV39"/>
-    <mergeCell ref="AW37:BA39"/>
+    <mergeCell ref="AE37:AI39"/>
+    <mergeCell ref="G37:L39"/>
+    <mergeCell ref="M37:Q39"/>
+    <mergeCell ref="B37:F39"/>
+    <mergeCell ref="T37:X39"/>
+    <mergeCell ref="Y37:AD39"/>
+    <mergeCell ref="AG16:AH18"/>
+    <mergeCell ref="U19:V21"/>
+    <mergeCell ref="W19:X21"/>
+    <mergeCell ref="Y19:Z21"/>
+    <mergeCell ref="AA19:AB21"/>
+    <mergeCell ref="AC19:AD21"/>
+    <mergeCell ref="AE19:AF21"/>
+    <mergeCell ref="AG19:AH21"/>
+    <mergeCell ref="U16:V18"/>
+    <mergeCell ref="W16:X18"/>
+    <mergeCell ref="Y16:Z18"/>
+    <mergeCell ref="AA16:AB18"/>
+    <mergeCell ref="AC16:AD18"/>
+    <mergeCell ref="AE16:AF18"/>
+    <mergeCell ref="AG22:AH24"/>
+    <mergeCell ref="U25:V27"/>
+    <mergeCell ref="W25:X27"/>
+    <mergeCell ref="Y25:Z27"/>
+    <mergeCell ref="AA25:AB27"/>
+    <mergeCell ref="AC25:AD27"/>
+    <mergeCell ref="AE25:AF27"/>
+    <mergeCell ref="AG25:AH27"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="W22:X24"/>
+    <mergeCell ref="Y22:Z24"/>
+    <mergeCell ref="AA22:AB24"/>
+    <mergeCell ref="AC22:AD24"/>
+    <mergeCell ref="AE22:AF24"/>
+    <mergeCell ref="AE31:AF33"/>
+    <mergeCell ref="AG31:AH33"/>
+    <mergeCell ref="U28:V30"/>
+    <mergeCell ref="W28:X30"/>
+    <mergeCell ref="Y28:Z30"/>
+    <mergeCell ref="AA28:AB30"/>
+    <mergeCell ref="AC28:AD30"/>
+    <mergeCell ref="AE28:AF30"/>
+    <mergeCell ref="C15:P33"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="U31:V33"/>
+    <mergeCell ref="W31:X33"/>
+    <mergeCell ref="Y31:Z33"/>
+    <mergeCell ref="AA31:AB33"/>
+    <mergeCell ref="AM30:AZ32"/>
+    <mergeCell ref="U12:AH13"/>
+    <mergeCell ref="AB34:AH35"/>
+    <mergeCell ref="U34:AA35"/>
+    <mergeCell ref="BE12:BR13"/>
+    <mergeCell ref="AM27:AZ29"/>
+    <mergeCell ref="AM12:AZ14"/>
+    <mergeCell ref="AM15:AZ17"/>
+    <mergeCell ref="AM18:AZ20"/>
+    <mergeCell ref="AM21:AZ23"/>
+    <mergeCell ref="AM24:AZ26"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG28:AH30"/>
+    <mergeCell ref="AC31:AD33"/>
     <mergeCell ref="CY37:DC39"/>
     <mergeCell ref="CO34:CP35"/>
     <mergeCell ref="CO12:DB32"/>
@@ -6258,73 +6324,17 @@
     <mergeCell ref="BW33:CJ35"/>
     <mergeCell ref="BW12:CG13"/>
     <mergeCell ref="CI12:CJ13"/>
-    <mergeCell ref="AM30:AZ32"/>
-    <mergeCell ref="U12:AH13"/>
-    <mergeCell ref="AB34:AH35"/>
-    <mergeCell ref="U34:AA35"/>
-    <mergeCell ref="BE12:BR13"/>
-    <mergeCell ref="AM27:AZ29"/>
-    <mergeCell ref="AM12:AZ14"/>
-    <mergeCell ref="AM15:AZ17"/>
-    <mergeCell ref="AM18:AZ20"/>
-    <mergeCell ref="AM21:AZ23"/>
-    <mergeCell ref="AM24:AZ26"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG28:AH30"/>
-    <mergeCell ref="AC31:AD33"/>
-    <mergeCell ref="C15:P33"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="U31:V33"/>
-    <mergeCell ref="W31:X33"/>
-    <mergeCell ref="Y31:Z33"/>
-    <mergeCell ref="AA31:AB33"/>
-    <mergeCell ref="AE31:AF33"/>
-    <mergeCell ref="AG31:AH33"/>
-    <mergeCell ref="U28:V30"/>
-    <mergeCell ref="W28:X30"/>
-    <mergeCell ref="Y28:Z30"/>
-    <mergeCell ref="AA28:AB30"/>
-    <mergeCell ref="AC28:AD30"/>
-    <mergeCell ref="AE28:AF30"/>
-    <mergeCell ref="AG22:AH24"/>
-    <mergeCell ref="U25:V27"/>
-    <mergeCell ref="W25:X27"/>
-    <mergeCell ref="Y25:Z27"/>
-    <mergeCell ref="AA25:AB27"/>
-    <mergeCell ref="AC25:AD27"/>
-    <mergeCell ref="AE25:AF27"/>
-    <mergeCell ref="AG25:AH27"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="W22:X24"/>
-    <mergeCell ref="Y22:Z24"/>
-    <mergeCell ref="AA22:AB24"/>
-    <mergeCell ref="AC22:AD24"/>
-    <mergeCell ref="AE22:AF24"/>
-    <mergeCell ref="AG16:AH18"/>
-    <mergeCell ref="U19:V21"/>
-    <mergeCell ref="W19:X21"/>
-    <mergeCell ref="Y19:Z21"/>
-    <mergeCell ref="AA19:AB21"/>
-    <mergeCell ref="AC19:AD21"/>
-    <mergeCell ref="AE19:AF21"/>
-    <mergeCell ref="AG19:AH21"/>
-    <mergeCell ref="U16:V18"/>
-    <mergeCell ref="W16:X18"/>
-    <mergeCell ref="Y16:Z18"/>
-    <mergeCell ref="AA16:AB18"/>
-    <mergeCell ref="AC16:AD18"/>
-    <mergeCell ref="AE16:AF18"/>
-    <mergeCell ref="AE37:AI39"/>
-    <mergeCell ref="G37:L39"/>
-    <mergeCell ref="M37:Q39"/>
-    <mergeCell ref="B37:F39"/>
-    <mergeCell ref="T37:X39"/>
-    <mergeCell ref="Y37:AD39"/>
+    <mergeCell ref="BE34:BF35"/>
+    <mergeCell ref="BH34:BR35"/>
+    <mergeCell ref="AM33:AZ35"/>
+    <mergeCell ref="CN37:CR39"/>
+    <mergeCell ref="CS37:CX39"/>
+    <mergeCell ref="BV37:BZ39"/>
+    <mergeCell ref="CA37:CF39"/>
+    <mergeCell ref="CG37:CK39"/>
+    <mergeCell ref="AL37:AP39"/>
+    <mergeCell ref="AQ37:AV39"/>
+    <mergeCell ref="AW37:BA39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6353,8 +6363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F11D59-011D-4ADE-9066-A493983EF92C}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6370,12 +6380,15 @@
       <c r="C2" t="s">
         <v>80</v>
       </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="67"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C5" s="24" t="s">
@@ -6576,7 +6589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5929AD-73A3-455F-9C42-9E7A6E536196}">
   <dimension ref="B2:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
@@ -6646,212 +6659,212 @@
       <c r="F7" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66" t="s">
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66" t="s">
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65" t="s">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="65" t="s">
+      <c r="L11" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="65" t="s">
+      <c r="M11" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="65" t="s">
+      <c r="N11" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="O11" s="65"/>
+      <c r="O11" s="30"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65" t="s">
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="L12" s="65" t="s">
+      <c r="L12" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="M12" s="65" t="b">
+      <c r="M12" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="65" t="s">
+      <c r="N12" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="O12" s="65"/>
+      <c r="O12" s="30"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65" t="s">
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="65" t="b">
+      <c r="M13" s="30" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="65" t="s">
+      <c r="N13" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="O13" s="65"/>
+      <c r="O13" s="30"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65" t="s">
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="M14" s="65" t="b">
+      <c r="M14" s="30" t="b">
         <v>0</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="N14" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="O14" s="65"/>
+      <c r="O14" s="30"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65" t="s">
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="65" t="s">
+      <c r="K15" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F16" s="65"/>
-      <c r="G16" s="65" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="65"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
+      <c r="I16" s="30"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="F17" s="65"/>
-      <c r="G17" s="65" t="s">
+      <c r="F17" s="30"/>
+      <c r="G17" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="66"/>
-      <c r="I17" s="65"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="30"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="66" t="s">
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="30" t="s">
         <v>87</v>
       </c>
       <c r="J18" t="s">
         <v>96</v>
       </c>
-      <c r="K18" s="66" t="s">
+      <c r="K18" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="H19" s="66" t="s">
+      <c r="H19" s="31" t="s">
         <v>101</v>
       </c>
       <c r="I19" t="s">
@@ -6955,7 +6968,7 @@
       <c r="F29" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="67" t="s">
+      <c r="G29" s="32" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6976,10 +6989,10 @@
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="I32" s="65" t="s">
+      <c r="I32" s="30" t="s">
         <v>87</v>
       </c>
       <c r="J32" t="s">
@@ -6990,7 +7003,7 @@
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="H33" s="66" t="s">
+      <c r="H33" s="31" t="s">
         <v>101</v>
       </c>
       <c r="I33" t="s">

--- a/カレンダー_設計書.xlsx
+++ b/カレンダー_設計書.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\AndroidStudioProjects\OriginalCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E48638-BBC1-4325-8E35-7EC1146B4A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12C9B3-6BEC-47AA-8111-2387A0E55C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="705" windowWidth="15750" windowHeight="14175" activeTab="2" xr2:uid="{7518170D-50F7-406D-9384-F6EA5B34F2A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7518170D-50F7-406D-9384-F6EA5B34F2A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="デザイン" sheetId="1" r:id="rId1"/>
-    <sheet name="画面遷移" sheetId="2" r:id="rId2"/>
-    <sheet name="内部データ" sheetId="3" r:id="rId3"/>
-    <sheet name="JSON（内部データ）" sheetId="5" r:id="rId4"/>
-    <sheet name="システム_追加事項" sheetId="4" r:id="rId5"/>
+    <sheet name="変更履歴" sheetId="7" r:id="rId1"/>
+    <sheet name="デザイン" sheetId="1" r:id="rId2"/>
+    <sheet name="画面遷移" sheetId="6" r:id="rId3"/>
+    <sheet name="内部データ" sheetId="3" r:id="rId4"/>
+    <sheet name="JSON（内部データ）" sheetId="5" r:id="rId5"/>
+    <sheet name="システム_追加要件" sheetId="4" r:id="rId6"/>
+    <sheet name="bk_11.17_画面遷移" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
   <si>
     <t>&lt;activity_main.xml&gt;</t>
     <phoneticPr fontId="1"/>
@@ -601,22 +603,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・年月日、曜日の競合を避ける</t>
-    <rPh sb="1" eb="4">
-      <t>ネンガッピ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウビ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キョウゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>＞</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -815,6 +801,220 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年月日、曜日の競合を避ける</t>
+    <rPh sb="0" eb="3">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付、曜日、時刻が存在しないメモは、JSONとは別で保存する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keyとなる「年月日」「曜日」「時刻」の情報が存在しないため、JSONに複数のメモが保存できないため</t>
+    <rPh sb="7" eb="10">
+      <t>ネンガッピ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「通知」「アラーム」「リピート」の各設定が必要ないため、無駄な情報を除いて考えられる</t>
+    <rPh sb="1" eb="3">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ムダ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラーム設定時、既存のアラーム時刻との競合を避ける</t>
+    <rPh sb="4" eb="7">
+      <t>セッテイジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョウゴウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今のロジック的に、重複したデータは上書きすることになってしまう。</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ウワガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そもそも、カレンダーからアラームを設定しようとすると、一つの時間に固定されないか？</t>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「カレンダーの日付」押下 → 「メモ編集」ではなく、日付に紐づく「メモ一覧」で表示するべき</t>
+    <rPh sb="7" eb="9">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒモ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更理由</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021.11.17</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「システム_追加要件」の追加
+追加要件に対応して、「画面遷移」を修正</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -823,7 +1023,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,6 +1066,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -1033,7 +1242,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1133,45 +1342,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,7 +1370,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,22 +1426,37 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1663,6 +1884,1339 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23CC82AC-5378-4299-9915-887E9E7EC1E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="871819" y="960343"/>
+          <a:ext cx="2075328" cy="3249707"/>
+          <a:chOff x="1619250" y="1009649"/>
+          <a:chExt cx="2009849" cy="3343276"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34602F6-1ED7-4BAD-86D2-66CA91606A9F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1619250" y="1009649"/>
+            <a:ext cx="2009849" cy="3343276"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>メイン画面</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22F97F3-C06B-404B-B207-5434665ED397}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1970994" y="1425568"/>
+            <a:ext cx="1238250" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>アラートボタン</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0D76C3-C58F-4990-840F-7209D5B61C75}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1813286" y="2263110"/>
+            <a:ext cx="1524000" cy="742949"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>カレンダーボタン</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>押下</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{498493EB-7FF9-4790-A708-C0BAA4FF1839}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1989060" y="3215444"/>
+            <a:ext cx="1238250" cy="704850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>メモボタン</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>押下</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>204507</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>207870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>252132</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>112621</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92FED19-B989-4497-84E7-07C927B37475}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3835213" y="443194"/>
+          <a:ext cx="2165537" cy="1081368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アラート（一覧）画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265579</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>172570</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182095</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>77321</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06CAE54E-FEB3-487C-99D7-C4A75BC37FEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3896285" y="3702423"/>
+          <a:ext cx="2034428" cy="1081369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メモ（一覧）画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>31376</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>232523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76759</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137274</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B08F513-07AF-4503-B7BE-FB53AB2F3B9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7292788" y="467847"/>
+          <a:ext cx="2163295" cy="1081368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>アラート（編集）画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>122705</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>36979</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76761</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B28B7EA3-49E2-49CA-B9BB-D1AB03519472}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7384117" y="3466539"/>
+          <a:ext cx="2032186" cy="1081369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メモ（編集）画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>93142</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>204507</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>59919</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{972F4458-2A1E-4952-A1C0-CA582D56954C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2513613" y="983878"/>
+          <a:ext cx="1321600" cy="723306"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225356</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80404</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>186566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C4809E-2F0E-4C14-B044-66F5062A3C6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2645827" y="2433639"/>
+          <a:ext cx="1194428" cy="106162"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>111797</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>265579</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03BCE700-C810-4F9E-AD36-D74B2302FBDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2532268" y="3446966"/>
+          <a:ext cx="1364017" cy="796142"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>182095</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>122705</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7284</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FCCE890-EB81-4AFF-A9F8-2B8DD567F93D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5930713" y="4007224"/>
+          <a:ext cx="1453404" cy="235884"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>252132</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>31376</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B8FDA1-F0F5-4B7A-AFA4-B659D5342E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000750" y="983878"/>
+          <a:ext cx="1292038" cy="24653"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>205348</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>137274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>231122</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>172010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3393D357-F0D6-46A0-AEFD-48628DFFF649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8374436" y="1549215"/>
+          <a:ext cx="25774" cy="1917324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>36979</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67237</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>76759</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6724</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="コネクタ: 曲線 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D7F9B4-61F5-4CF7-BE3E-81B91F251EA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9416303" y="1008531"/>
+          <a:ext cx="39780" cy="2998693"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 674661"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227DF505-07F4-4DA4-B48E-670C08B2D008}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7216588" y="1938617"/>
+          <a:ext cx="3249706" cy="1084170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ここの相互遷移は、一度のみ可能</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（既に開かれている画面には遷移できない様に設定する）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>126065</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>151842</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="グループ化 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709A32B9-A7EE-44E9-B3C2-4815A4142448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3840255" y="1891554"/>
+          <a:ext cx="2034428" cy="1084170"/>
+          <a:chOff x="3560108" y="1925171"/>
+          <a:chExt cx="2034428" cy="1084170"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B94EACB-83AA-461D-AC62-0A2A075AA31E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3560108" y="1925171"/>
+            <a:ext cx="2034428" cy="1084170"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>カレンダー画面</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A8FC629-40D2-48F1-A298-962C29D8D18E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3899648" y="2353236"/>
+            <a:ext cx="1389528" cy="549087"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>日付 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>押下</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>72558</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>172570</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA41A25-E8A4-4172-90FE-FD506C4820E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="9" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4874559" y="2868706"/>
+          <a:ext cx="38940" cy="833717"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2145,13 +3699,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2166,7 +3720,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4591050" y="3514725"/>
+          <a:off x="4591050" y="3562350"/>
           <a:ext cx="2047875" cy="1095376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2461,7 +4015,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2480,7 +4034,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2984622" y="3508702"/>
-          <a:ext cx="1606428" cy="553711"/>
+          <a:ext cx="1606428" cy="601336"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2520,7 +4074,7 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>61913</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2539,7 +4093,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="6638925" y="3509963"/>
-          <a:ext cx="1238250" cy="552450"/>
+          <a:ext cx="1238250" cy="600075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3215,6 +4769,554 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15344746-DE2F-49A9-A292-E0A26A489EC5}">
+  <dimension ref="B2:Z19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH4" sqref="AH4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B2" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+    </row>
+    <row r="3" spans="2:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.4">
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:Z17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:Z18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:Z19"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:Z14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:Z15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:Z16"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:Z11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:Z12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:Z13"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:Z8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:Z9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:Z10"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:Z5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:Z6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:Z7"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G2:Z2"/>
+    <mergeCell ref="G3:Z3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:Z4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD698707-CAB3-45C5-975A-1AA2EFCAC50B}">
   <dimension ref="B2:DC39"/>
   <sheetViews>
@@ -3395,96 +5497,96 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="7"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="56" t="s">
+      <c r="U12" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="58"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="57"/>
       <c r="AI12" s="7"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="37" t="s">
+      <c r="AM12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="38"/>
-      <c r="AQ12" s="38"/>
-      <c r="AR12" s="38"/>
-      <c r="AS12" s="38"/>
-      <c r="AT12" s="38"/>
-      <c r="AU12" s="38"/>
-      <c r="AV12" s="38"/>
-      <c r="AW12" s="38"/>
-      <c r="AX12" s="38"/>
-      <c r="AY12" s="38"/>
-      <c r="AZ12" s="39"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="52"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="52"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="43"/>
       <c r="BA12" s="7"/>
       <c r="BD12" s="5"/>
-      <c r="BE12" s="37" t="s">
+      <c r="BE12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="BF12" s="38"/>
-      <c r="BG12" s="38"/>
-      <c r="BH12" s="38"/>
-      <c r="BI12" s="38"/>
-      <c r="BJ12" s="38"/>
-      <c r="BK12" s="38"/>
-      <c r="BL12" s="38"/>
-      <c r="BM12" s="38"/>
-      <c r="BN12" s="38"/>
-      <c r="BO12" s="38"/>
-      <c r="BP12" s="38"/>
-      <c r="BQ12" s="38"/>
-      <c r="BR12" s="39"/>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="52"/>
+      <c r="BI12" s="52"/>
+      <c r="BJ12" s="52"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="43"/>
       <c r="BS12" s="7"/>
       <c r="BV12" s="5"/>
-      <c r="BW12" s="37" t="s">
+      <c r="BW12" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="BX12" s="38"/>
-      <c r="BY12" s="38"/>
-      <c r="BZ12" s="38"/>
-      <c r="CA12" s="38"/>
-      <c r="CB12" s="38"/>
-      <c r="CC12" s="38"/>
-      <c r="CD12" s="38"/>
-      <c r="CE12" s="38"/>
-      <c r="CF12" s="38"/>
-      <c r="CG12" s="39"/>
+      <c r="BX12" s="52"/>
+      <c r="BY12" s="52"/>
+      <c r="BZ12" s="52"/>
+      <c r="CA12" s="52"/>
+      <c r="CB12" s="52"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="52"/>
+      <c r="CF12" s="52"/>
+      <c r="CG12" s="43"/>
       <c r="CH12" s="14"/>
-      <c r="CI12" s="33" t="s">
+      <c r="CI12" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="CJ12" s="34"/>
+      <c r="CJ12" s="63"/>
       <c r="CK12" s="7"/>
       <c r="CN12" s="5"/>
-      <c r="CO12" s="37" t="s">
+      <c r="CO12" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="CP12" s="38"/>
-      <c r="CQ12" s="38"/>
-      <c r="CR12" s="38"/>
-      <c r="CS12" s="38"/>
-      <c r="CT12" s="38"/>
-      <c r="CU12" s="38"/>
-      <c r="CV12" s="38"/>
-      <c r="CW12" s="38"/>
-      <c r="CX12" s="38"/>
-      <c r="CY12" s="38"/>
-      <c r="CZ12" s="38"/>
-      <c r="DA12" s="38"/>
-      <c r="DB12" s="39"/>
+      <c r="CP12" s="52"/>
+      <c r="CQ12" s="52"/>
+      <c r="CR12" s="52"/>
+      <c r="CS12" s="52"/>
+      <c r="CT12" s="52"/>
+      <c r="CU12" s="52"/>
+      <c r="CV12" s="52"/>
+      <c r="CW12" s="52"/>
+      <c r="CX12" s="52"/>
+      <c r="CY12" s="52"/>
+      <c r="CZ12" s="52"/>
+      <c r="DA12" s="52"/>
+      <c r="DB12" s="43"/>
       <c r="DC12" s="7"/>
     </row>
     <row r="13" spans="2:107" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3505,83 +5607,83 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="59"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="61"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
+      <c r="AB13" s="59"/>
+      <c r="AC13" s="59"/>
+      <c r="AD13" s="59"/>
+      <c r="AE13" s="59"/>
+      <c r="AF13" s="59"/>
+      <c r="AG13" s="59"/>
+      <c r="AH13" s="60"/>
       <c r="AI13" s="7"/>
       <c r="AL13" s="5"/>
-      <c r="AM13" s="43"/>
-      <c r="AN13" s="44"/>
-      <c r="AO13" s="44"/>
-      <c r="AP13" s="44"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="44"/>
-      <c r="AX13" s="44"/>
-      <c r="AY13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
       <c r="AZ13" s="45"/>
       <c r="BA13" s="7"/>
       <c r="BD13" s="5"/>
-      <c r="BE13" s="40"/>
-      <c r="BF13" s="41"/>
-      <c r="BG13" s="41"/>
-      <c r="BH13" s="41"/>
-      <c r="BI13" s="41"/>
-      <c r="BJ13" s="41"/>
-      <c r="BK13" s="41"/>
-      <c r="BL13" s="41"/>
-      <c r="BM13" s="41"/>
-      <c r="BN13" s="41"/>
-      <c r="BO13" s="41"/>
-      <c r="BP13" s="41"/>
-      <c r="BQ13" s="41"/>
-      <c r="BR13" s="42"/>
+      <c r="BE13" s="46"/>
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="54"/>
+      <c r="BJ13" s="54"/>
+      <c r="BK13" s="54"/>
+      <c r="BL13" s="54"/>
+      <c r="BM13" s="54"/>
+      <c r="BN13" s="54"/>
+      <c r="BO13" s="54"/>
+      <c r="BP13" s="54"/>
+      <c r="BQ13" s="54"/>
+      <c r="BR13" s="47"/>
       <c r="BS13" s="7"/>
       <c r="BV13" s="5"/>
-      <c r="BW13" s="40"/>
-      <c r="BX13" s="41"/>
-      <c r="BY13" s="41"/>
-      <c r="BZ13" s="41"/>
-      <c r="CA13" s="41"/>
-      <c r="CB13" s="41"/>
-      <c r="CC13" s="41"/>
-      <c r="CD13" s="41"/>
-      <c r="CE13" s="41"/>
-      <c r="CF13" s="41"/>
-      <c r="CG13" s="42"/>
+      <c r="BW13" s="46"/>
+      <c r="BX13" s="54"/>
+      <c r="BY13" s="54"/>
+      <c r="BZ13" s="54"/>
+      <c r="CA13" s="54"/>
+      <c r="CB13" s="54"/>
+      <c r="CC13" s="54"/>
+      <c r="CD13" s="54"/>
+      <c r="CE13" s="54"/>
+      <c r="CF13" s="54"/>
+      <c r="CG13" s="47"/>
       <c r="CH13" s="14"/>
-      <c r="CI13" s="35"/>
-      <c r="CJ13" s="36"/>
+      <c r="CI13" s="64"/>
+      <c r="CJ13" s="65"/>
       <c r="CK13" s="7"/>
       <c r="CN13" s="5"/>
-      <c r="CO13" s="43"/>
-      <c r="CP13" s="44"/>
-      <c r="CQ13" s="44"/>
-      <c r="CR13" s="44"/>
-      <c r="CS13" s="44"/>
-      <c r="CT13" s="44"/>
-      <c r="CU13" s="44"/>
-      <c r="CV13" s="44"/>
-      <c r="CW13" s="44"/>
-      <c r="CX13" s="44"/>
-      <c r="CY13" s="44"/>
-      <c r="CZ13" s="44"/>
-      <c r="DA13" s="44"/>
+      <c r="CO13" s="44"/>
+      <c r="CP13" s="53"/>
+      <c r="CQ13" s="53"/>
+      <c r="CR13" s="53"/>
+      <c r="CS13" s="53"/>
+      <c r="CT13" s="53"/>
+      <c r="CU13" s="53"/>
+      <c r="CV13" s="53"/>
+      <c r="CW13" s="53"/>
+      <c r="CX13" s="53"/>
+      <c r="CY13" s="53"/>
+      <c r="CZ13" s="53"/>
+      <c r="DA13" s="53"/>
       <c r="DB13" s="45"/>
       <c r="DC13" s="7"/>
     </row>
@@ -3619,20 +5721,20 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="7"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="40"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="42"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="54"/>
+      <c r="AU14" s="54"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="54"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="47"/>
       <c r="BA14" s="7"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="8"/>
@@ -3667,88 +5769,88 @@
       <c r="CJ14" s="14"/>
       <c r="CK14" s="7"/>
       <c r="CN14" s="5"/>
-      <c r="CO14" s="43"/>
-      <c r="CP14" s="44"/>
-      <c r="CQ14" s="44"/>
-      <c r="CR14" s="44"/>
-      <c r="CS14" s="44"/>
-      <c r="CT14" s="44"/>
-      <c r="CU14" s="44"/>
-      <c r="CV14" s="44"/>
-      <c r="CW14" s="44"/>
-      <c r="CX14" s="44"/>
-      <c r="CY14" s="44"/>
-      <c r="CZ14" s="44"/>
-      <c r="DA14" s="44"/>
+      <c r="CO14" s="44"/>
+      <c r="CP14" s="53"/>
+      <c r="CQ14" s="53"/>
+      <c r="CR14" s="53"/>
+      <c r="CS14" s="53"/>
+      <c r="CT14" s="53"/>
+      <c r="CU14" s="53"/>
+      <c r="CV14" s="53"/>
+      <c r="CW14" s="53"/>
+      <c r="CX14" s="53"/>
+      <c r="CY14" s="53"/>
+      <c r="CZ14" s="53"/>
+      <c r="DA14" s="53"/>
       <c r="DB14" s="45"/>
       <c r="DC14" s="7"/>
     </row>
     <row r="15" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="65"/>
-      <c r="O15" s="65"/>
-      <c r="P15" s="65"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
       <c r="Q15" s="7"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="66" t="s">
+      <c r="U15" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="66"/>
-      <c r="W15" s="62" t="s">
+      <c r="V15" s="50"/>
+      <c r="W15" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62" t="s">
+      <c r="X15" s="51"/>
+      <c r="Y15" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62" t="s">
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62" t="s">
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="62" t="s">
+      <c r="AD15" s="51"/>
+      <c r="AE15" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="63" t="s">
+      <c r="AF15" s="51"/>
+      <c r="AG15" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="63"/>
+      <c r="AH15" s="61"/>
       <c r="AI15" s="7"/>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="37" t="s">
+      <c r="AM15" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="38"/>
-      <c r="AT15" s="38"/>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="38"/>
-      <c r="AX15" s="38"/>
-      <c r="AY15" s="38"/>
-      <c r="AZ15" s="39"/>
+      <c r="AN15" s="52"/>
+      <c r="AO15" s="52"/>
+      <c r="AP15" s="52"/>
+      <c r="AQ15" s="52"/>
+      <c r="AR15" s="52"/>
+      <c r="AS15" s="52"/>
+      <c r="AT15" s="52"/>
+      <c r="AU15" s="52"/>
+      <c r="AV15" s="52"/>
+      <c r="AW15" s="52"/>
+      <c r="AX15" s="52"/>
+      <c r="AY15" s="52"/>
+      <c r="AZ15" s="43"/>
       <c r="BA15" s="7"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="10"/>
@@ -3767,93 +5869,93 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="7"/>
       <c r="BV15" s="5"/>
-      <c r="BW15" s="37" t="s">
+      <c r="BW15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="BX15" s="38"/>
-      <c r="BY15" s="38"/>
-      <c r="BZ15" s="38"/>
-      <c r="CA15" s="38"/>
-      <c r="CB15" s="38"/>
-      <c r="CC15" s="38"/>
-      <c r="CD15" s="38"/>
-      <c r="CE15" s="38"/>
-      <c r="CF15" s="38"/>
-      <c r="CG15" s="38"/>
-      <c r="CH15" s="38"/>
-      <c r="CI15" s="38"/>
-      <c r="CJ15" s="39"/>
+      <c r="BX15" s="52"/>
+      <c r="BY15" s="52"/>
+      <c r="BZ15" s="52"/>
+      <c r="CA15" s="52"/>
+      <c r="CB15" s="52"/>
+      <c r="CC15" s="52"/>
+      <c r="CD15" s="52"/>
+      <c r="CE15" s="52"/>
+      <c r="CF15" s="52"/>
+      <c r="CG15" s="52"/>
+      <c r="CH15" s="52"/>
+      <c r="CI15" s="52"/>
+      <c r="CJ15" s="43"/>
       <c r="CK15" s="7"/>
       <c r="CN15" s="5"/>
-      <c r="CO15" s="43"/>
-      <c r="CP15" s="44"/>
-      <c r="CQ15" s="44"/>
-      <c r="CR15" s="44"/>
-      <c r="CS15" s="44"/>
-      <c r="CT15" s="44"/>
-      <c r="CU15" s="44"/>
-      <c r="CV15" s="44"/>
-      <c r="CW15" s="44"/>
-      <c r="CX15" s="44"/>
-      <c r="CY15" s="44"/>
-      <c r="CZ15" s="44"/>
-      <c r="DA15" s="44"/>
+      <c r="CO15" s="44"/>
+      <c r="CP15" s="53"/>
+      <c r="CQ15" s="53"/>
+      <c r="CR15" s="53"/>
+      <c r="CS15" s="53"/>
+      <c r="CT15" s="53"/>
+      <c r="CU15" s="53"/>
+      <c r="CV15" s="53"/>
+      <c r="CW15" s="53"/>
+      <c r="CX15" s="53"/>
+      <c r="CY15" s="53"/>
+      <c r="CZ15" s="53"/>
+      <c r="DA15" s="53"/>
       <c r="DB15" s="45"/>
       <c r="DC15" s="7"/>
     </row>
     <row r="16" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="65"/>
-      <c r="O16" s="65"/>
-      <c r="P16" s="65"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
       <c r="Q16" s="7"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="37">
+      <c r="U16" s="42"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="42">
         <v>1</v>
       </c>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="37">
+      <c r="X16" s="43"/>
+      <c r="Y16" s="42">
         <v>2</v>
       </c>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="37" t="s">
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="39"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="43"/>
       <c r="AI16" s="7"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="43"/>
-      <c r="AN16" s="44"/>
-      <c r="AO16" s="44"/>
-      <c r="AP16" s="44"/>
-      <c r="AQ16" s="44"/>
-      <c r="AR16" s="44"/>
-      <c r="AS16" s="44"/>
-      <c r="AT16" s="44"/>
-      <c r="AU16" s="44"/>
-      <c r="AV16" s="44"/>
-      <c r="AW16" s="44"/>
-      <c r="AX16" s="44"/>
-      <c r="AY16" s="44"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="53"/>
+      <c r="AP16" s="53"/>
+      <c r="AQ16" s="53"/>
+      <c r="AR16" s="53"/>
+      <c r="AS16" s="53"/>
+      <c r="AT16" s="53"/>
+      <c r="AU16" s="53"/>
+      <c r="AV16" s="53"/>
+      <c r="AW16" s="53"/>
+      <c r="AX16" s="53"/>
+      <c r="AY16" s="53"/>
       <c r="AZ16" s="45"/>
       <c r="BA16" s="7"/>
       <c r="BD16" s="5"/>
@@ -3875,86 +5977,86 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="7"/>
       <c r="BV16" s="5"/>
-      <c r="BW16" s="43"/>
-      <c r="BX16" s="44"/>
-      <c r="BY16" s="44"/>
-      <c r="BZ16" s="44"/>
-      <c r="CA16" s="44"/>
-      <c r="CB16" s="44"/>
-      <c r="CC16" s="44"/>
-      <c r="CD16" s="44"/>
-      <c r="CE16" s="44"/>
-      <c r="CF16" s="44"/>
-      <c r="CG16" s="44"/>
-      <c r="CH16" s="44"/>
-      <c r="CI16" s="44"/>
+      <c r="BW16" s="44"/>
+      <c r="BX16" s="53"/>
+      <c r="BY16" s="53"/>
+      <c r="BZ16" s="53"/>
+      <c r="CA16" s="53"/>
+      <c r="CB16" s="53"/>
+      <c r="CC16" s="53"/>
+      <c r="CD16" s="53"/>
+      <c r="CE16" s="53"/>
+      <c r="CF16" s="53"/>
+      <c r="CG16" s="53"/>
+      <c r="CH16" s="53"/>
+      <c r="CI16" s="53"/>
       <c r="CJ16" s="45"/>
       <c r="CK16" s="7"/>
       <c r="CN16" s="5"/>
-      <c r="CO16" s="43"/>
-      <c r="CP16" s="44"/>
-      <c r="CQ16" s="44"/>
-      <c r="CR16" s="44"/>
-      <c r="CS16" s="44"/>
-      <c r="CT16" s="44"/>
-      <c r="CU16" s="44"/>
-      <c r="CV16" s="44"/>
-      <c r="CW16" s="44"/>
-      <c r="CX16" s="44"/>
-      <c r="CY16" s="44"/>
-      <c r="CZ16" s="44"/>
-      <c r="DA16" s="44"/>
+      <c r="CO16" s="44"/>
+      <c r="CP16" s="53"/>
+      <c r="CQ16" s="53"/>
+      <c r="CR16" s="53"/>
+      <c r="CS16" s="53"/>
+      <c r="CT16" s="53"/>
+      <c r="CU16" s="53"/>
+      <c r="CV16" s="53"/>
+      <c r="CW16" s="53"/>
+      <c r="CX16" s="53"/>
+      <c r="CY16" s="53"/>
+      <c r="CZ16" s="53"/>
+      <c r="DA16" s="53"/>
       <c r="DB16" s="45"/>
       <c r="DC16" s="7"/>
     </row>
     <row r="17" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="65"/>
-      <c r="P17" s="65"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
       <c r="Q17" s="7"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="43"/>
+      <c r="U17" s="44"/>
       <c r="V17" s="45"/>
-      <c r="W17" s="43"/>
+      <c r="W17" s="44"/>
       <c r="X17" s="45"/>
-      <c r="Y17" s="43"/>
+      <c r="Y17" s="44"/>
       <c r="Z17" s="45"/>
-      <c r="AA17" s="43"/>
+      <c r="AA17" s="44"/>
       <c r="AB17" s="45"/>
-      <c r="AC17" s="43"/>
+      <c r="AC17" s="44"/>
       <c r="AD17" s="45"/>
-      <c r="AE17" s="43"/>
+      <c r="AE17" s="44"/>
       <c r="AF17" s="45"/>
-      <c r="AG17" s="43"/>
+      <c r="AG17" s="44"/>
       <c r="AH17" s="45"/>
       <c r="AI17" s="7"/>
       <c r="AL17" s="5"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="42"/>
+      <c r="AM17" s="46"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="47"/>
       <c r="BA17" s="7"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="13"/>
@@ -3973,88 +6075,88 @@
       <c r="BR17" s="15"/>
       <c r="BS17" s="7"/>
       <c r="BV17" s="5"/>
-      <c r="BW17" s="40"/>
-      <c r="BX17" s="41"/>
-      <c r="BY17" s="41"/>
-      <c r="BZ17" s="41"/>
-      <c r="CA17" s="41"/>
-      <c r="CB17" s="41"/>
-      <c r="CC17" s="41"/>
-      <c r="CD17" s="41"/>
-      <c r="CE17" s="41"/>
-      <c r="CF17" s="41"/>
-      <c r="CG17" s="41"/>
-      <c r="CH17" s="41"/>
-      <c r="CI17" s="41"/>
-      <c r="CJ17" s="42"/>
+      <c r="BW17" s="46"/>
+      <c r="BX17" s="54"/>
+      <c r="BY17" s="54"/>
+      <c r="BZ17" s="54"/>
+      <c r="CA17" s="54"/>
+      <c r="CB17" s="54"/>
+      <c r="CC17" s="54"/>
+      <c r="CD17" s="54"/>
+      <c r="CE17" s="54"/>
+      <c r="CF17" s="54"/>
+      <c r="CG17" s="54"/>
+      <c r="CH17" s="54"/>
+      <c r="CI17" s="54"/>
+      <c r="CJ17" s="47"/>
       <c r="CK17" s="7"/>
       <c r="CN17" s="5"/>
-      <c r="CO17" s="43"/>
-      <c r="CP17" s="44"/>
-      <c r="CQ17" s="44"/>
-      <c r="CR17" s="44"/>
-      <c r="CS17" s="44"/>
-      <c r="CT17" s="44"/>
-      <c r="CU17" s="44"/>
-      <c r="CV17" s="44"/>
-      <c r="CW17" s="44"/>
-      <c r="CX17" s="44"/>
-      <c r="CY17" s="44"/>
-      <c r="CZ17" s="44"/>
-      <c r="DA17" s="44"/>
+      <c r="CO17" s="44"/>
+      <c r="CP17" s="53"/>
+      <c r="CQ17" s="53"/>
+      <c r="CR17" s="53"/>
+      <c r="CS17" s="53"/>
+      <c r="CT17" s="53"/>
+      <c r="CU17" s="53"/>
+      <c r="CV17" s="53"/>
+      <c r="CW17" s="53"/>
+      <c r="CX17" s="53"/>
+      <c r="CY17" s="53"/>
+      <c r="CZ17" s="53"/>
+      <c r="DA17" s="53"/>
       <c r="DB17" s="45"/>
       <c r="DC17" s="7"/>
     </row>
     <row r="18" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
       <c r="Q18" s="7"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="40"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="42"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="46"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="47"/>
       <c r="AI18" s="7"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="37" t="s">
+      <c r="AM18" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AN18" s="38"/>
-      <c r="AO18" s="38"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="38"/>
-      <c r="AY18" s="38"/>
-      <c r="AZ18" s="39"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="52"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="52"/>
+      <c r="AT18" s="52"/>
+      <c r="AU18" s="52"/>
+      <c r="AV18" s="52"/>
+      <c r="AW18" s="52"/>
+      <c r="AX18" s="52"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="43"/>
       <c r="BA18" s="7"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="13"/>
@@ -4075,87 +6177,87 @@
       <c r="BR18" s="15"/>
       <c r="BS18" s="7"/>
       <c r="BV18" s="5"/>
-      <c r="BW18" s="37" t="s">
+      <c r="BW18" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="BX18" s="38"/>
-      <c r="BY18" s="38"/>
-      <c r="BZ18" s="38"/>
-      <c r="CA18" s="38"/>
-      <c r="CB18" s="38"/>
-      <c r="CC18" s="38"/>
-      <c r="CD18" s="38"/>
-      <c r="CE18" s="38"/>
-      <c r="CF18" s="38"/>
-      <c r="CG18" s="38"/>
-      <c r="CH18" s="38"/>
-      <c r="CI18" s="38"/>
-      <c r="CJ18" s="39"/>
+      <c r="BX18" s="52"/>
+      <c r="BY18" s="52"/>
+      <c r="BZ18" s="52"/>
+      <c r="CA18" s="52"/>
+      <c r="CB18" s="52"/>
+      <c r="CC18" s="52"/>
+      <c r="CD18" s="52"/>
+      <c r="CE18" s="52"/>
+      <c r="CF18" s="52"/>
+      <c r="CG18" s="52"/>
+      <c r="CH18" s="52"/>
+      <c r="CI18" s="52"/>
+      <c r="CJ18" s="43"/>
       <c r="CK18" s="7"/>
       <c r="CN18" s="5"/>
-      <c r="CO18" s="43"/>
-      <c r="CP18" s="44"/>
-      <c r="CQ18" s="44"/>
-      <c r="CR18" s="44"/>
-      <c r="CS18" s="44"/>
-      <c r="CT18" s="44"/>
-      <c r="CU18" s="44"/>
-      <c r="CV18" s="44"/>
-      <c r="CW18" s="44"/>
-      <c r="CX18" s="44"/>
-      <c r="CY18" s="44"/>
-      <c r="CZ18" s="44"/>
-      <c r="DA18" s="44"/>
+      <c r="CO18" s="44"/>
+      <c r="CP18" s="53"/>
+      <c r="CQ18" s="53"/>
+      <c r="CR18" s="53"/>
+      <c r="CS18" s="53"/>
+      <c r="CT18" s="53"/>
+      <c r="CU18" s="53"/>
+      <c r="CV18" s="53"/>
+      <c r="CW18" s="53"/>
+      <c r="CX18" s="53"/>
+      <c r="CY18" s="53"/>
+      <c r="CZ18" s="53"/>
+      <c r="DA18" s="53"/>
       <c r="DB18" s="45"/>
       <c r="DC18" s="7"/>
     </row>
     <row r="19" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
       <c r="Q19" s="7"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="39"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="43"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="43"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="43"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="43"/>
       <c r="AI19" s="7"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="43"/>
-      <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="44"/>
-      <c r="AY19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="53"/>
+      <c r="AO19" s="53"/>
+      <c r="AP19" s="53"/>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="53"/>
+      <c r="AS19" s="53"/>
+      <c r="AT19" s="53"/>
+      <c r="AU19" s="53"/>
+      <c r="AV19" s="53"/>
+      <c r="AW19" s="53"/>
+      <c r="AX19" s="53"/>
+      <c r="AY19" s="53"/>
       <c r="AZ19" s="45"/>
       <c r="BA19" s="7"/>
       <c r="BD19" s="5"/>
@@ -4177,86 +6279,86 @@
       <c r="BR19" s="15"/>
       <c r="BS19" s="7"/>
       <c r="BV19" s="5"/>
-      <c r="BW19" s="43"/>
-      <c r="BX19" s="44"/>
-      <c r="BY19" s="44"/>
-      <c r="BZ19" s="44"/>
-      <c r="CA19" s="44"/>
-      <c r="CB19" s="44"/>
-      <c r="CC19" s="44"/>
-      <c r="CD19" s="44"/>
-      <c r="CE19" s="44"/>
-      <c r="CF19" s="44"/>
-      <c r="CG19" s="44"/>
-      <c r="CH19" s="44"/>
-      <c r="CI19" s="44"/>
+      <c r="BW19" s="44"/>
+      <c r="BX19" s="53"/>
+      <c r="BY19" s="53"/>
+      <c r="BZ19" s="53"/>
+      <c r="CA19" s="53"/>
+      <c r="CB19" s="53"/>
+      <c r="CC19" s="53"/>
+      <c r="CD19" s="53"/>
+      <c r="CE19" s="53"/>
+      <c r="CF19" s="53"/>
+      <c r="CG19" s="53"/>
+      <c r="CH19" s="53"/>
+      <c r="CI19" s="53"/>
       <c r="CJ19" s="45"/>
       <c r="CK19" s="7"/>
       <c r="CN19" s="5"/>
-      <c r="CO19" s="43"/>
-      <c r="CP19" s="44"/>
-      <c r="CQ19" s="44"/>
-      <c r="CR19" s="44"/>
-      <c r="CS19" s="44"/>
-      <c r="CT19" s="44"/>
-      <c r="CU19" s="44"/>
-      <c r="CV19" s="44"/>
-      <c r="CW19" s="44"/>
-      <c r="CX19" s="44"/>
-      <c r="CY19" s="44"/>
-      <c r="CZ19" s="44"/>
-      <c r="DA19" s="44"/>
+      <c r="CO19" s="44"/>
+      <c r="CP19" s="53"/>
+      <c r="CQ19" s="53"/>
+      <c r="CR19" s="53"/>
+      <c r="CS19" s="53"/>
+      <c r="CT19" s="53"/>
+      <c r="CU19" s="53"/>
+      <c r="CV19" s="53"/>
+      <c r="CW19" s="53"/>
+      <c r="CX19" s="53"/>
+      <c r="CY19" s="53"/>
+      <c r="CZ19" s="53"/>
+      <c r="DA19" s="53"/>
       <c r="DB19" s="45"/>
       <c r="DC19" s="7"/>
     </row>
     <row r="20" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
       <c r="Q20" s="7"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="43"/>
+      <c r="U20" s="44"/>
       <c r="V20" s="45"/>
-      <c r="W20" s="43"/>
+      <c r="W20" s="44"/>
       <c r="X20" s="45"/>
-      <c r="Y20" s="43"/>
+      <c r="Y20" s="44"/>
       <c r="Z20" s="45"/>
-      <c r="AA20" s="43"/>
+      <c r="AA20" s="44"/>
       <c r="AB20" s="45"/>
-      <c r="AC20" s="43"/>
+      <c r="AC20" s="44"/>
       <c r="AD20" s="45"/>
-      <c r="AE20" s="43"/>
+      <c r="AE20" s="44"/>
       <c r="AF20" s="45"/>
-      <c r="AG20" s="43"/>
+      <c r="AG20" s="44"/>
       <c r="AH20" s="45"/>
       <c r="AI20" s="7"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="41"/>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="41"/>
-      <c r="AX20" s="41"/>
-      <c r="AY20" s="41"/>
-      <c r="AZ20" s="42"/>
+      <c r="AM20" s="46"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="54"/>
+      <c r="AP20" s="54"/>
+      <c r="AQ20" s="54"/>
+      <c r="AR20" s="54"/>
+      <c r="AS20" s="54"/>
+      <c r="AT20" s="54"/>
+      <c r="AU20" s="54"/>
+      <c r="AV20" s="54"/>
+      <c r="AW20" s="54"/>
+      <c r="AX20" s="54"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="47"/>
       <c r="BA20" s="7"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="13"/>
@@ -4277,88 +6379,88 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="7"/>
       <c r="BV20" s="5"/>
-      <c r="BW20" s="40"/>
-      <c r="BX20" s="41"/>
-      <c r="BY20" s="41"/>
-      <c r="BZ20" s="41"/>
-      <c r="CA20" s="41"/>
-      <c r="CB20" s="41"/>
-      <c r="CC20" s="41"/>
-      <c r="CD20" s="41"/>
-      <c r="CE20" s="41"/>
-      <c r="CF20" s="41"/>
-      <c r="CG20" s="41"/>
-      <c r="CH20" s="41"/>
-      <c r="CI20" s="41"/>
-      <c r="CJ20" s="42"/>
+      <c r="BW20" s="46"/>
+      <c r="BX20" s="54"/>
+      <c r="BY20" s="54"/>
+      <c r="BZ20" s="54"/>
+      <c r="CA20" s="54"/>
+      <c r="CB20" s="54"/>
+      <c r="CC20" s="54"/>
+      <c r="CD20" s="54"/>
+      <c r="CE20" s="54"/>
+      <c r="CF20" s="54"/>
+      <c r="CG20" s="54"/>
+      <c r="CH20" s="54"/>
+      <c r="CI20" s="54"/>
+      <c r="CJ20" s="47"/>
       <c r="CK20" s="7"/>
       <c r="CN20" s="5"/>
-      <c r="CO20" s="43"/>
-      <c r="CP20" s="44"/>
-      <c r="CQ20" s="44"/>
-      <c r="CR20" s="44"/>
-      <c r="CS20" s="44"/>
-      <c r="CT20" s="44"/>
-      <c r="CU20" s="44"/>
-      <c r="CV20" s="44"/>
-      <c r="CW20" s="44"/>
-      <c r="CX20" s="44"/>
-      <c r="CY20" s="44"/>
-      <c r="CZ20" s="44"/>
-      <c r="DA20" s="44"/>
+      <c r="CO20" s="44"/>
+      <c r="CP20" s="53"/>
+      <c r="CQ20" s="53"/>
+      <c r="CR20" s="53"/>
+      <c r="CS20" s="53"/>
+      <c r="CT20" s="53"/>
+      <c r="CU20" s="53"/>
+      <c r="CV20" s="53"/>
+      <c r="CW20" s="53"/>
+      <c r="CX20" s="53"/>
+      <c r="CY20" s="53"/>
+      <c r="CZ20" s="53"/>
+      <c r="DA20" s="53"/>
       <c r="DB20" s="45"/>
       <c r="DC20" s="7"/>
     </row>
     <row r="21" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
       <c r="Q21" s="7"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="40"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="40"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="40"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="40"/>
-      <c r="AH21" s="42"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="46"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="46"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="46"/>
+      <c r="AH21" s="47"/>
       <c r="AI21" s="7"/>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="37" t="s">
+      <c r="AM21" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AN21" s="38"/>
-      <c r="AO21" s="38"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="39"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="52"/>
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="52"/>
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="43"/>
       <c r="BA21" s="7"/>
       <c r="BD21" s="5"/>
       <c r="BE21" s="13"/>
@@ -4377,87 +6479,87 @@
       <c r="BR21" s="15"/>
       <c r="BS21" s="7"/>
       <c r="BV21" s="5"/>
-      <c r="BW21" s="37" t="s">
+      <c r="BW21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="BX21" s="38"/>
-      <c r="BY21" s="38"/>
-      <c r="BZ21" s="38"/>
-      <c r="CA21" s="38"/>
-      <c r="CB21" s="38"/>
-      <c r="CC21" s="38"/>
-      <c r="CD21" s="38"/>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="38"/>
-      <c r="CG21" s="38"/>
-      <c r="CH21" s="38"/>
-      <c r="CI21" s="38"/>
-      <c r="CJ21" s="39"/>
+      <c r="BX21" s="52"/>
+      <c r="BY21" s="52"/>
+      <c r="BZ21" s="52"/>
+      <c r="CA21" s="52"/>
+      <c r="CB21" s="52"/>
+      <c r="CC21" s="52"/>
+      <c r="CD21" s="52"/>
+      <c r="CE21" s="52"/>
+      <c r="CF21" s="52"/>
+      <c r="CG21" s="52"/>
+      <c r="CH21" s="52"/>
+      <c r="CI21" s="52"/>
+      <c r="CJ21" s="43"/>
       <c r="CK21" s="7"/>
       <c r="CN21" s="5"/>
-      <c r="CO21" s="43"/>
-      <c r="CP21" s="44"/>
-      <c r="CQ21" s="44"/>
-      <c r="CR21" s="44"/>
-      <c r="CS21" s="44"/>
-      <c r="CT21" s="44"/>
-      <c r="CU21" s="44"/>
-      <c r="CV21" s="44"/>
-      <c r="CW21" s="44"/>
-      <c r="CX21" s="44"/>
-      <c r="CY21" s="44"/>
-      <c r="CZ21" s="44"/>
-      <c r="DA21" s="44"/>
+      <c r="CO21" s="44"/>
+      <c r="CP21" s="53"/>
+      <c r="CQ21" s="53"/>
+      <c r="CR21" s="53"/>
+      <c r="CS21" s="53"/>
+      <c r="CT21" s="53"/>
+      <c r="CU21" s="53"/>
+      <c r="CV21" s="53"/>
+      <c r="CW21" s="53"/>
+      <c r="CX21" s="53"/>
+      <c r="CY21" s="53"/>
+      <c r="CZ21" s="53"/>
+      <c r="DA21" s="53"/>
       <c r="DB21" s="45"/>
       <c r="DC21" s="7"/>
     </row>
     <row r="22" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
       <c r="Q22" s="7"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="39"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="42"/>
+      <c r="X22" s="43"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="43"/>
+      <c r="AA22" s="42"/>
+      <c r="AB22" s="43"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="43"/>
+      <c r="AE22" s="42"/>
+      <c r="AF22" s="43"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="43"/>
       <c r="AI22" s="7"/>
       <c r="AL22" s="5"/>
-      <c r="AM22" s="43"/>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="44"/>
-      <c r="AP22" s="44"/>
-      <c r="AQ22" s="44"/>
-      <c r="AR22" s="44"/>
-      <c r="AS22" s="44"/>
-      <c r="AT22" s="44"/>
-      <c r="AU22" s="44"/>
-      <c r="AV22" s="44"/>
-      <c r="AW22" s="44"/>
-      <c r="AX22" s="44"/>
-      <c r="AY22" s="44"/>
+      <c r="AM22" s="44"/>
+      <c r="AN22" s="53"/>
+      <c r="AO22" s="53"/>
+      <c r="AP22" s="53"/>
+      <c r="AQ22" s="53"/>
+      <c r="AR22" s="53"/>
+      <c r="AS22" s="53"/>
+      <c r="AT22" s="53"/>
+      <c r="AU22" s="53"/>
+      <c r="AV22" s="53"/>
+      <c r="AW22" s="53"/>
+      <c r="AX22" s="53"/>
+      <c r="AY22" s="53"/>
       <c r="AZ22" s="45"/>
       <c r="BA22" s="7"/>
       <c r="BD22" s="5"/>
@@ -4477,86 +6579,86 @@
       <c r="BR22" s="15"/>
       <c r="BS22" s="7"/>
       <c r="BV22" s="5"/>
-      <c r="BW22" s="43"/>
-      <c r="BX22" s="44"/>
-      <c r="BY22" s="44"/>
-      <c r="BZ22" s="44"/>
-      <c r="CA22" s="44"/>
-      <c r="CB22" s="44"/>
-      <c r="CC22" s="44"/>
-      <c r="CD22" s="44"/>
-      <c r="CE22" s="44"/>
-      <c r="CF22" s="44"/>
-      <c r="CG22" s="44"/>
-      <c r="CH22" s="44"/>
-      <c r="CI22" s="44"/>
+      <c r="BW22" s="44"/>
+      <c r="BX22" s="53"/>
+      <c r="BY22" s="53"/>
+      <c r="BZ22" s="53"/>
+      <c r="CA22" s="53"/>
+      <c r="CB22" s="53"/>
+      <c r="CC22" s="53"/>
+      <c r="CD22" s="53"/>
+      <c r="CE22" s="53"/>
+      <c r="CF22" s="53"/>
+      <c r="CG22" s="53"/>
+      <c r="CH22" s="53"/>
+      <c r="CI22" s="53"/>
       <c r="CJ22" s="45"/>
       <c r="CK22" s="7"/>
       <c r="CN22" s="5"/>
-      <c r="CO22" s="43"/>
-      <c r="CP22" s="44"/>
-      <c r="CQ22" s="44"/>
-      <c r="CR22" s="44"/>
-      <c r="CS22" s="44"/>
-      <c r="CT22" s="44"/>
-      <c r="CU22" s="44"/>
-      <c r="CV22" s="44"/>
-      <c r="CW22" s="44"/>
-      <c r="CX22" s="44"/>
-      <c r="CY22" s="44"/>
-      <c r="CZ22" s="44"/>
-      <c r="DA22" s="44"/>
+      <c r="CO22" s="44"/>
+      <c r="CP22" s="53"/>
+      <c r="CQ22" s="53"/>
+      <c r="CR22" s="53"/>
+      <c r="CS22" s="53"/>
+      <c r="CT22" s="53"/>
+      <c r="CU22" s="53"/>
+      <c r="CV22" s="53"/>
+      <c r="CW22" s="53"/>
+      <c r="CX22" s="53"/>
+      <c r="CY22" s="53"/>
+      <c r="CZ22" s="53"/>
+      <c r="DA22" s="53"/>
       <c r="DB22" s="45"/>
       <c r="DC22" s="7"/>
     </row>
     <row r="23" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
       <c r="Q23" s="7"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="43"/>
+      <c r="U23" s="44"/>
       <c r="V23" s="45"/>
-      <c r="W23" s="43"/>
+      <c r="W23" s="44"/>
       <c r="X23" s="45"/>
-      <c r="Y23" s="43"/>
+      <c r="Y23" s="44"/>
       <c r="Z23" s="45"/>
-      <c r="AA23" s="43"/>
+      <c r="AA23" s="44"/>
       <c r="AB23" s="45"/>
-      <c r="AC23" s="43"/>
+      <c r="AC23" s="44"/>
       <c r="AD23" s="45"/>
-      <c r="AE23" s="43"/>
+      <c r="AE23" s="44"/>
       <c r="AF23" s="45"/>
-      <c r="AG23" s="43"/>
+      <c r="AG23" s="44"/>
       <c r="AH23" s="45"/>
       <c r="AI23" s="7"/>
       <c r="AL23" s="5"/>
-      <c r="AM23" s="40"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="42"/>
+      <c r="AM23" s="46"/>
+      <c r="AN23" s="54"/>
+      <c r="AO23" s="54"/>
+      <c r="AP23" s="54"/>
+      <c r="AQ23" s="54"/>
+      <c r="AR23" s="54"/>
+      <c r="AS23" s="54"/>
+      <c r="AT23" s="54"/>
+      <c r="AU23" s="54"/>
+      <c r="AV23" s="54"/>
+      <c r="AW23" s="54"/>
+      <c r="AX23" s="54"/>
+      <c r="AY23" s="54"/>
+      <c r="AZ23" s="47"/>
       <c r="BA23" s="7"/>
       <c r="BD23" s="5"/>
       <c r="BE23" s="13"/>
@@ -4575,88 +6677,88 @@
       <c r="BR23" s="15"/>
       <c r="BS23" s="7"/>
       <c r="BV23" s="5"/>
-      <c r="BW23" s="40"/>
-      <c r="BX23" s="41"/>
-      <c r="BY23" s="41"/>
-      <c r="BZ23" s="41"/>
-      <c r="CA23" s="41"/>
-      <c r="CB23" s="41"/>
-      <c r="CC23" s="41"/>
-      <c r="CD23" s="41"/>
-      <c r="CE23" s="41"/>
-      <c r="CF23" s="41"/>
-      <c r="CG23" s="41"/>
-      <c r="CH23" s="41"/>
-      <c r="CI23" s="41"/>
-      <c r="CJ23" s="42"/>
+      <c r="BW23" s="46"/>
+      <c r="BX23" s="54"/>
+      <c r="BY23" s="54"/>
+      <c r="BZ23" s="54"/>
+      <c r="CA23" s="54"/>
+      <c r="CB23" s="54"/>
+      <c r="CC23" s="54"/>
+      <c r="CD23" s="54"/>
+      <c r="CE23" s="54"/>
+      <c r="CF23" s="54"/>
+      <c r="CG23" s="54"/>
+      <c r="CH23" s="54"/>
+      <c r="CI23" s="54"/>
+      <c r="CJ23" s="47"/>
       <c r="CK23" s="7"/>
       <c r="CN23" s="5"/>
-      <c r="CO23" s="43"/>
-      <c r="CP23" s="44"/>
-      <c r="CQ23" s="44"/>
-      <c r="CR23" s="44"/>
-      <c r="CS23" s="44"/>
-      <c r="CT23" s="44"/>
-      <c r="CU23" s="44"/>
-      <c r="CV23" s="44"/>
-      <c r="CW23" s="44"/>
-      <c r="CX23" s="44"/>
-      <c r="CY23" s="44"/>
-      <c r="CZ23" s="44"/>
-      <c r="DA23" s="44"/>
+      <c r="CO23" s="44"/>
+      <c r="CP23" s="53"/>
+      <c r="CQ23" s="53"/>
+      <c r="CR23" s="53"/>
+      <c r="CS23" s="53"/>
+      <c r="CT23" s="53"/>
+      <c r="CU23" s="53"/>
+      <c r="CV23" s="53"/>
+      <c r="CW23" s="53"/>
+      <c r="CX23" s="53"/>
+      <c r="CY23" s="53"/>
+      <c r="CZ23" s="53"/>
+      <c r="DA23" s="53"/>
       <c r="DB23" s="45"/>
       <c r="DC23" s="7"/>
     </row>
     <row r="24" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
       <c r="Q24" s="7"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="40"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="40"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="40"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="40"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="40"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="42"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="42"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="46"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="46"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="46"/>
+      <c r="AH24" s="47"/>
       <c r="AI24" s="7"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="37" t="s">
+      <c r="AM24" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AN24" s="38"/>
-      <c r="AO24" s="38"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="38"/>
-      <c r="AS24" s="38"/>
-      <c r="AT24" s="38"/>
-      <c r="AU24" s="38"/>
-      <c r="AV24" s="38"/>
-      <c r="AW24" s="38"/>
-      <c r="AX24" s="38"/>
-      <c r="AY24" s="38"/>
-      <c r="AZ24" s="39"/>
+      <c r="AN24" s="52"/>
+      <c r="AO24" s="52"/>
+      <c r="AP24" s="52"/>
+      <c r="AQ24" s="52"/>
+      <c r="AR24" s="52"/>
+      <c r="AS24" s="52"/>
+      <c r="AT24" s="52"/>
+      <c r="AU24" s="52"/>
+      <c r="AV24" s="52"/>
+      <c r="AW24" s="52"/>
+      <c r="AX24" s="52"/>
+      <c r="AY24" s="52"/>
+      <c r="AZ24" s="43"/>
       <c r="BA24" s="7"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="13"/>
@@ -4675,87 +6777,87 @@
       <c r="BR24" s="15"/>
       <c r="BS24" s="7"/>
       <c r="BV24" s="5"/>
-      <c r="BW24" s="37" t="s">
+      <c r="BW24" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="BX24" s="38"/>
-      <c r="BY24" s="38"/>
-      <c r="BZ24" s="38"/>
-      <c r="CA24" s="38"/>
-      <c r="CB24" s="38"/>
-      <c r="CC24" s="38"/>
-      <c r="CD24" s="38"/>
-      <c r="CE24" s="38"/>
-      <c r="CF24" s="38"/>
-      <c r="CG24" s="38"/>
-      <c r="CH24" s="38"/>
-      <c r="CI24" s="38"/>
-      <c r="CJ24" s="39"/>
+      <c r="BX24" s="52"/>
+      <c r="BY24" s="52"/>
+      <c r="BZ24" s="52"/>
+      <c r="CA24" s="52"/>
+      <c r="CB24" s="52"/>
+      <c r="CC24" s="52"/>
+      <c r="CD24" s="52"/>
+      <c r="CE24" s="52"/>
+      <c r="CF24" s="52"/>
+      <c r="CG24" s="52"/>
+      <c r="CH24" s="52"/>
+      <c r="CI24" s="52"/>
+      <c r="CJ24" s="43"/>
       <c r="CK24" s="7"/>
       <c r="CN24" s="5"/>
-      <c r="CO24" s="43"/>
-      <c r="CP24" s="44"/>
-      <c r="CQ24" s="44"/>
-      <c r="CR24" s="44"/>
-      <c r="CS24" s="44"/>
-      <c r="CT24" s="44"/>
-      <c r="CU24" s="44"/>
-      <c r="CV24" s="44"/>
-      <c r="CW24" s="44"/>
-      <c r="CX24" s="44"/>
-      <c r="CY24" s="44"/>
-      <c r="CZ24" s="44"/>
-      <c r="DA24" s="44"/>
+      <c r="CO24" s="44"/>
+      <c r="CP24" s="53"/>
+      <c r="CQ24" s="53"/>
+      <c r="CR24" s="53"/>
+      <c r="CS24" s="53"/>
+      <c r="CT24" s="53"/>
+      <c r="CU24" s="53"/>
+      <c r="CV24" s="53"/>
+      <c r="CW24" s="53"/>
+      <c r="CX24" s="53"/>
+      <c r="CY24" s="53"/>
+      <c r="CZ24" s="53"/>
+      <c r="DA24" s="53"/>
       <c r="DB24" s="45"/>
       <c r="DC24" s="7"/>
     </row>
     <row r="25" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="65"/>
-      <c r="O25" s="65"/>
-      <c r="P25" s="65"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
       <c r="Q25" s="7"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="39"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="39"/>
-      <c r="AA25" s="37"/>
-      <c r="AB25" s="39"/>
-      <c r="AC25" s="37"/>
-      <c r="AD25" s="39"/>
-      <c r="AE25" s="37"/>
-      <c r="AF25" s="39"/>
-      <c r="AG25" s="37"/>
-      <c r="AH25" s="39"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="43"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="43"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="43"/>
+      <c r="AA25" s="42"/>
+      <c r="AB25" s="43"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="43"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="43"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="43"/>
       <c r="AI25" s="7"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="43"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="44"/>
-      <c r="AS25" s="44"/>
-      <c r="AT25" s="44"/>
-      <c r="AU25" s="44"/>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
+      <c r="AM25" s="44"/>
+      <c r="AN25" s="53"/>
+      <c r="AO25" s="53"/>
+      <c r="AP25" s="53"/>
+      <c r="AQ25" s="53"/>
+      <c r="AR25" s="53"/>
+      <c r="AS25" s="53"/>
+      <c r="AT25" s="53"/>
+      <c r="AU25" s="53"/>
+      <c r="AV25" s="53"/>
+      <c r="AW25" s="53"/>
+      <c r="AX25" s="53"/>
+      <c r="AY25" s="53"/>
       <c r="AZ25" s="45"/>
       <c r="BA25" s="7"/>
       <c r="BD25" s="5"/>
@@ -4775,86 +6877,86 @@
       <c r="BR25" s="15"/>
       <c r="BS25" s="7"/>
       <c r="BV25" s="5"/>
-      <c r="BW25" s="43"/>
-      <c r="BX25" s="44"/>
-      <c r="BY25" s="44"/>
-      <c r="BZ25" s="44"/>
-      <c r="CA25" s="44"/>
-      <c r="CB25" s="44"/>
-      <c r="CC25" s="44"/>
-      <c r="CD25" s="44"/>
-      <c r="CE25" s="44"/>
-      <c r="CF25" s="44"/>
-      <c r="CG25" s="44"/>
-      <c r="CH25" s="44"/>
-      <c r="CI25" s="44"/>
+      <c r="BW25" s="44"/>
+      <c r="BX25" s="53"/>
+      <c r="BY25" s="53"/>
+      <c r="BZ25" s="53"/>
+      <c r="CA25" s="53"/>
+      <c r="CB25" s="53"/>
+      <c r="CC25" s="53"/>
+      <c r="CD25" s="53"/>
+      <c r="CE25" s="53"/>
+      <c r="CF25" s="53"/>
+      <c r="CG25" s="53"/>
+      <c r="CH25" s="53"/>
+      <c r="CI25" s="53"/>
       <c r="CJ25" s="45"/>
       <c r="CK25" s="7"/>
       <c r="CN25" s="5"/>
-      <c r="CO25" s="43"/>
-      <c r="CP25" s="44"/>
-      <c r="CQ25" s="44"/>
-      <c r="CR25" s="44"/>
-      <c r="CS25" s="44"/>
-      <c r="CT25" s="44"/>
-      <c r="CU25" s="44"/>
-      <c r="CV25" s="44"/>
-      <c r="CW25" s="44"/>
-      <c r="CX25" s="44"/>
-      <c r="CY25" s="44"/>
-      <c r="CZ25" s="44"/>
-      <c r="DA25" s="44"/>
+      <c r="CO25" s="44"/>
+      <c r="CP25" s="53"/>
+      <c r="CQ25" s="53"/>
+      <c r="CR25" s="53"/>
+      <c r="CS25" s="53"/>
+      <c r="CT25" s="53"/>
+      <c r="CU25" s="53"/>
+      <c r="CV25" s="53"/>
+      <c r="CW25" s="53"/>
+      <c r="CX25" s="53"/>
+      <c r="CY25" s="53"/>
+      <c r="CZ25" s="53"/>
+      <c r="DA25" s="53"/>
       <c r="DB25" s="45"/>
       <c r="DC25" s="7"/>
     </row>
     <row r="26" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="65"/>
-      <c r="M26" s="65"/>
-      <c r="N26" s="65"/>
-      <c r="O26" s="65"/>
-      <c r="P26" s="65"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
       <c r="Q26" s="7"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="43"/>
+      <c r="U26" s="44"/>
       <c r="V26" s="45"/>
-      <c r="W26" s="43"/>
+      <c r="W26" s="44"/>
       <c r="X26" s="45"/>
-      <c r="Y26" s="43"/>
+      <c r="Y26" s="44"/>
       <c r="Z26" s="45"/>
-      <c r="AA26" s="43"/>
+      <c r="AA26" s="44"/>
       <c r="AB26" s="45"/>
-      <c r="AC26" s="43"/>
+      <c r="AC26" s="44"/>
       <c r="AD26" s="45"/>
-      <c r="AE26" s="43"/>
+      <c r="AE26" s="44"/>
       <c r="AF26" s="45"/>
-      <c r="AG26" s="43"/>
+      <c r="AG26" s="44"/>
       <c r="AH26" s="45"/>
       <c r="AI26" s="7"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="40"/>
-      <c r="AN26" s="41"/>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="41"/>
-      <c r="AQ26" s="41"/>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="41"/>
-      <c r="AT26" s="41"/>
-      <c r="AU26" s="41"/>
-      <c r="AV26" s="41"/>
-      <c r="AW26" s="41"/>
-      <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
-      <c r="AZ26" s="42"/>
+      <c r="AM26" s="46"/>
+      <c r="AN26" s="54"/>
+      <c r="AO26" s="54"/>
+      <c r="AP26" s="54"/>
+      <c r="AQ26" s="54"/>
+      <c r="AR26" s="54"/>
+      <c r="AS26" s="54"/>
+      <c r="AT26" s="54"/>
+      <c r="AU26" s="54"/>
+      <c r="AV26" s="54"/>
+      <c r="AW26" s="54"/>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="47"/>
       <c r="BA26" s="7"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="13"/>
@@ -4873,88 +6975,88 @@
       <c r="BR26" s="15"/>
       <c r="BS26" s="7"/>
       <c r="BV26" s="5"/>
-      <c r="BW26" s="40"/>
-      <c r="BX26" s="41"/>
-      <c r="BY26" s="41"/>
-      <c r="BZ26" s="41"/>
-      <c r="CA26" s="41"/>
-      <c r="CB26" s="41"/>
-      <c r="CC26" s="41"/>
-      <c r="CD26" s="41"/>
-      <c r="CE26" s="41"/>
-      <c r="CF26" s="41"/>
-      <c r="CG26" s="41"/>
-      <c r="CH26" s="41"/>
-      <c r="CI26" s="41"/>
-      <c r="CJ26" s="42"/>
+      <c r="BW26" s="46"/>
+      <c r="BX26" s="54"/>
+      <c r="BY26" s="54"/>
+      <c r="BZ26" s="54"/>
+      <c r="CA26" s="54"/>
+      <c r="CB26" s="54"/>
+      <c r="CC26" s="54"/>
+      <c r="CD26" s="54"/>
+      <c r="CE26" s="54"/>
+      <c r="CF26" s="54"/>
+      <c r="CG26" s="54"/>
+      <c r="CH26" s="54"/>
+      <c r="CI26" s="54"/>
+      <c r="CJ26" s="47"/>
       <c r="CK26" s="7"/>
       <c r="CN26" s="5"/>
-      <c r="CO26" s="43"/>
-      <c r="CP26" s="44"/>
-      <c r="CQ26" s="44"/>
-      <c r="CR26" s="44"/>
-      <c r="CS26" s="44"/>
-      <c r="CT26" s="44"/>
-      <c r="CU26" s="44"/>
-      <c r="CV26" s="44"/>
-      <c r="CW26" s="44"/>
-      <c r="CX26" s="44"/>
-      <c r="CY26" s="44"/>
-      <c r="CZ26" s="44"/>
-      <c r="DA26" s="44"/>
+      <c r="CO26" s="44"/>
+      <c r="CP26" s="53"/>
+      <c r="CQ26" s="53"/>
+      <c r="CR26" s="53"/>
+      <c r="CS26" s="53"/>
+      <c r="CT26" s="53"/>
+      <c r="CU26" s="53"/>
+      <c r="CV26" s="53"/>
+      <c r="CW26" s="53"/>
+      <c r="CX26" s="53"/>
+      <c r="CY26" s="53"/>
+      <c r="CZ26" s="53"/>
+      <c r="DA26" s="53"/>
       <c r="DB26" s="45"/>
       <c r="DC26" s="7"/>
     </row>
     <row r="27" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
       <c r="Q27" s="7"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="40"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="40"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="40"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="40"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="40"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="42"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="46"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="46"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="46"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="46"/>
+      <c r="AH27" s="47"/>
       <c r="AI27" s="7"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="37" t="s">
+      <c r="AM27" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="38"/>
-      <c r="AS27" s="38"/>
-      <c r="AT27" s="38"/>
-      <c r="AU27" s="38"/>
-      <c r="AV27" s="38"/>
-      <c r="AW27" s="38"/>
-      <c r="AX27" s="38"/>
-      <c r="AY27" s="38"/>
-      <c r="AZ27" s="39"/>
+      <c r="AN27" s="52"/>
+      <c r="AO27" s="52"/>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="52"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="43"/>
       <c r="BA27" s="7"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="13"/>
@@ -4973,87 +7075,87 @@
       <c r="BR27" s="15"/>
       <c r="BS27" s="7"/>
       <c r="BV27" s="5"/>
-      <c r="BW27" s="37" t="s">
+      <c r="BW27" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="BX27" s="38"/>
-      <c r="BY27" s="38"/>
-      <c r="BZ27" s="38"/>
-      <c r="CA27" s="38"/>
-      <c r="CB27" s="38"/>
-      <c r="CC27" s="38"/>
-      <c r="CD27" s="38"/>
-      <c r="CE27" s="38"/>
-      <c r="CF27" s="38"/>
-      <c r="CG27" s="38"/>
-      <c r="CH27" s="38"/>
-      <c r="CI27" s="38"/>
-      <c r="CJ27" s="39"/>
+      <c r="BX27" s="52"/>
+      <c r="BY27" s="52"/>
+      <c r="BZ27" s="52"/>
+      <c r="CA27" s="52"/>
+      <c r="CB27" s="52"/>
+      <c r="CC27" s="52"/>
+      <c r="CD27" s="52"/>
+      <c r="CE27" s="52"/>
+      <c r="CF27" s="52"/>
+      <c r="CG27" s="52"/>
+      <c r="CH27" s="52"/>
+      <c r="CI27" s="52"/>
+      <c r="CJ27" s="43"/>
       <c r="CK27" s="7"/>
       <c r="CN27" s="5"/>
-      <c r="CO27" s="43"/>
-      <c r="CP27" s="44"/>
-      <c r="CQ27" s="44"/>
-      <c r="CR27" s="44"/>
-      <c r="CS27" s="44"/>
-      <c r="CT27" s="44"/>
-      <c r="CU27" s="44"/>
-      <c r="CV27" s="44"/>
-      <c r="CW27" s="44"/>
-      <c r="CX27" s="44"/>
-      <c r="CY27" s="44"/>
-      <c r="CZ27" s="44"/>
-      <c r="DA27" s="44"/>
+      <c r="CO27" s="44"/>
+      <c r="CP27" s="53"/>
+      <c r="CQ27" s="53"/>
+      <c r="CR27" s="53"/>
+      <c r="CS27" s="53"/>
+      <c r="CT27" s="53"/>
+      <c r="CU27" s="53"/>
+      <c r="CV27" s="53"/>
+      <c r="CW27" s="53"/>
+      <c r="CX27" s="53"/>
+      <c r="CY27" s="53"/>
+      <c r="CZ27" s="53"/>
+      <c r="DA27" s="53"/>
       <c r="DB27" s="45"/>
       <c r="DC27" s="7"/>
     </row>
     <row r="28" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
-      <c r="P28" s="65"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
       <c r="Q28" s="7"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="39"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="39"/>
-      <c r="Y28" s="37"/>
-      <c r="Z28" s="39"/>
-      <c r="AA28" s="37"/>
-      <c r="AB28" s="39"/>
-      <c r="AC28" s="37"/>
-      <c r="AD28" s="39"/>
-      <c r="AE28" s="37"/>
-      <c r="AF28" s="39"/>
-      <c r="AG28" s="37"/>
-      <c r="AH28" s="39"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="43"/>
+      <c r="W28" s="42"/>
+      <c r="X28" s="43"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="43"/>
+      <c r="AA28" s="42"/>
+      <c r="AB28" s="43"/>
+      <c r="AC28" s="42"/>
+      <c r="AD28" s="43"/>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="43"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="43"/>
       <c r="AI28" s="7"/>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="43"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
-      <c r="AR28" s="44"/>
-      <c r="AS28" s="44"/>
-      <c r="AT28" s="44"/>
-      <c r="AU28" s="44"/>
-      <c r="AV28" s="44"/>
-      <c r="AW28" s="44"/>
-      <c r="AX28" s="44"/>
-      <c r="AY28" s="44"/>
+      <c r="AM28" s="44"/>
+      <c r="AN28" s="53"/>
+      <c r="AO28" s="53"/>
+      <c r="AP28" s="53"/>
+      <c r="AQ28" s="53"/>
+      <c r="AR28" s="53"/>
+      <c r="AS28" s="53"/>
+      <c r="AT28" s="53"/>
+      <c r="AU28" s="53"/>
+      <c r="AV28" s="53"/>
+      <c r="AW28" s="53"/>
+      <c r="AX28" s="53"/>
+      <c r="AY28" s="53"/>
       <c r="AZ28" s="45"/>
       <c r="BA28" s="7"/>
       <c r="BD28" s="5"/>
@@ -5073,86 +7175,86 @@
       <c r="BR28" s="15"/>
       <c r="BS28" s="7"/>
       <c r="BV28" s="5"/>
-      <c r="BW28" s="43"/>
-      <c r="BX28" s="44"/>
-      <c r="BY28" s="44"/>
-      <c r="BZ28" s="44"/>
-      <c r="CA28" s="44"/>
-      <c r="CB28" s="44"/>
-      <c r="CC28" s="44"/>
-      <c r="CD28" s="44"/>
-      <c r="CE28" s="44"/>
-      <c r="CF28" s="44"/>
-      <c r="CG28" s="44"/>
-      <c r="CH28" s="44"/>
-      <c r="CI28" s="44"/>
+      <c r="BW28" s="44"/>
+      <c r="BX28" s="53"/>
+      <c r="BY28" s="53"/>
+      <c r="BZ28" s="53"/>
+      <c r="CA28" s="53"/>
+      <c r="CB28" s="53"/>
+      <c r="CC28" s="53"/>
+      <c r="CD28" s="53"/>
+      <c r="CE28" s="53"/>
+      <c r="CF28" s="53"/>
+      <c r="CG28" s="53"/>
+      <c r="CH28" s="53"/>
+      <c r="CI28" s="53"/>
       <c r="CJ28" s="45"/>
       <c r="CK28" s="7"/>
       <c r="CN28" s="5"/>
-      <c r="CO28" s="43"/>
-      <c r="CP28" s="44"/>
-      <c r="CQ28" s="44"/>
-      <c r="CR28" s="44"/>
-      <c r="CS28" s="44"/>
-      <c r="CT28" s="44"/>
-      <c r="CU28" s="44"/>
-      <c r="CV28" s="44"/>
-      <c r="CW28" s="44"/>
-      <c r="CX28" s="44"/>
-      <c r="CY28" s="44"/>
-      <c r="CZ28" s="44"/>
-      <c r="DA28" s="44"/>
+      <c r="CO28" s="44"/>
+      <c r="CP28" s="53"/>
+      <c r="CQ28" s="53"/>
+      <c r="CR28" s="53"/>
+      <c r="CS28" s="53"/>
+      <c r="CT28" s="53"/>
+      <c r="CU28" s="53"/>
+      <c r="CV28" s="53"/>
+      <c r="CW28" s="53"/>
+      <c r="CX28" s="53"/>
+      <c r="CY28" s="53"/>
+      <c r="CZ28" s="53"/>
+      <c r="DA28" s="53"/>
       <c r="DB28" s="45"/>
       <c r="DC28" s="7"/>
     </row>
     <row r="29" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
       <c r="Q29" s="7"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="43"/>
+      <c r="U29" s="44"/>
       <c r="V29" s="45"/>
-      <c r="W29" s="43"/>
+      <c r="W29" s="44"/>
       <c r="X29" s="45"/>
-      <c r="Y29" s="43"/>
+      <c r="Y29" s="44"/>
       <c r="Z29" s="45"/>
-      <c r="AA29" s="43"/>
+      <c r="AA29" s="44"/>
       <c r="AB29" s="45"/>
-      <c r="AC29" s="43"/>
+      <c r="AC29" s="44"/>
       <c r="AD29" s="45"/>
-      <c r="AE29" s="43"/>
+      <c r="AE29" s="44"/>
       <c r="AF29" s="45"/>
-      <c r="AG29" s="43"/>
+      <c r="AG29" s="44"/>
       <c r="AH29" s="45"/>
       <c r="AI29" s="7"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="40"/>
-      <c r="AN29" s="41"/>
-      <c r="AO29" s="41"/>
-      <c r="AP29" s="41"/>
-      <c r="AQ29" s="41"/>
-      <c r="AR29" s="41"/>
-      <c r="AS29" s="41"/>
-      <c r="AT29" s="41"/>
-      <c r="AU29" s="41"/>
-      <c r="AV29" s="41"/>
-      <c r="AW29" s="41"/>
-      <c r="AX29" s="41"/>
-      <c r="AY29" s="41"/>
-      <c r="AZ29" s="42"/>
+      <c r="AM29" s="46"/>
+      <c r="AN29" s="54"/>
+      <c r="AO29" s="54"/>
+      <c r="AP29" s="54"/>
+      <c r="AQ29" s="54"/>
+      <c r="AR29" s="54"/>
+      <c r="AS29" s="54"/>
+      <c r="AT29" s="54"/>
+      <c r="AU29" s="54"/>
+      <c r="AV29" s="54"/>
+      <c r="AW29" s="54"/>
+      <c r="AX29" s="54"/>
+      <c r="AY29" s="54"/>
+      <c r="AZ29" s="47"/>
       <c r="BA29" s="7"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="13"/>
@@ -5171,88 +7273,88 @@
       <c r="BR29" s="15"/>
       <c r="BS29" s="7"/>
       <c r="BV29" s="5"/>
-      <c r="BW29" s="40"/>
-      <c r="BX29" s="41"/>
-      <c r="BY29" s="41"/>
-      <c r="BZ29" s="41"/>
-      <c r="CA29" s="41"/>
-      <c r="CB29" s="41"/>
-      <c r="CC29" s="41"/>
-      <c r="CD29" s="41"/>
-      <c r="CE29" s="41"/>
-      <c r="CF29" s="41"/>
-      <c r="CG29" s="41"/>
-      <c r="CH29" s="41"/>
-      <c r="CI29" s="41"/>
-      <c r="CJ29" s="42"/>
+      <c r="BW29" s="46"/>
+      <c r="BX29" s="54"/>
+      <c r="BY29" s="54"/>
+      <c r="BZ29" s="54"/>
+      <c r="CA29" s="54"/>
+      <c r="CB29" s="54"/>
+      <c r="CC29" s="54"/>
+      <c r="CD29" s="54"/>
+      <c r="CE29" s="54"/>
+      <c r="CF29" s="54"/>
+      <c r="CG29" s="54"/>
+      <c r="CH29" s="54"/>
+      <c r="CI29" s="54"/>
+      <c r="CJ29" s="47"/>
       <c r="CK29" s="7"/>
       <c r="CN29" s="5"/>
-      <c r="CO29" s="43"/>
-      <c r="CP29" s="44"/>
-      <c r="CQ29" s="44"/>
-      <c r="CR29" s="44"/>
-      <c r="CS29" s="44"/>
-      <c r="CT29" s="44"/>
-      <c r="CU29" s="44"/>
-      <c r="CV29" s="44"/>
-      <c r="CW29" s="44"/>
-      <c r="CX29" s="44"/>
-      <c r="CY29" s="44"/>
-      <c r="CZ29" s="44"/>
-      <c r="DA29" s="44"/>
+      <c r="CO29" s="44"/>
+      <c r="CP29" s="53"/>
+      <c r="CQ29" s="53"/>
+      <c r="CR29" s="53"/>
+      <c r="CS29" s="53"/>
+      <c r="CT29" s="53"/>
+      <c r="CU29" s="53"/>
+      <c r="CV29" s="53"/>
+      <c r="CW29" s="53"/>
+      <c r="CX29" s="53"/>
+      <c r="CY29" s="53"/>
+      <c r="CZ29" s="53"/>
+      <c r="DA29" s="53"/>
       <c r="DB29" s="45"/>
       <c r="DC29" s="7"/>
     </row>
     <row r="30" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="65"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
       <c r="Q30" s="7"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="40"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="40"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="40"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="40"/>
-      <c r="AB30" s="42"/>
-      <c r="AC30" s="40"/>
-      <c r="AD30" s="42"/>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="42"/>
-      <c r="AG30" s="40"/>
-      <c r="AH30" s="42"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="46"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="46"/>
+      <c r="AH30" s="47"/>
       <c r="AI30" s="7"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="37" t="s">
+      <c r="AM30" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AN30" s="38"/>
-      <c r="AO30" s="38"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="38"/>
-      <c r="AR30" s="38"/>
-      <c r="AS30" s="38"/>
-      <c r="AT30" s="38"/>
-      <c r="AU30" s="38"/>
-      <c r="AV30" s="38"/>
-      <c r="AW30" s="38"/>
-      <c r="AX30" s="38"/>
-      <c r="AY30" s="38"/>
-      <c r="AZ30" s="39"/>
+      <c r="AN30" s="52"/>
+      <c r="AO30" s="52"/>
+      <c r="AP30" s="52"/>
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AT30" s="52"/>
+      <c r="AU30" s="52"/>
+      <c r="AV30" s="52"/>
+      <c r="AW30" s="52"/>
+      <c r="AX30" s="52"/>
+      <c r="AY30" s="52"/>
+      <c r="AZ30" s="43"/>
       <c r="BA30" s="7"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="13"/>
@@ -5271,87 +7373,87 @@
       <c r="BR30" s="15"/>
       <c r="BS30" s="7"/>
       <c r="BV30" s="5"/>
-      <c r="BW30" s="37" t="s">
+      <c r="BW30" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="BX30" s="38"/>
-      <c r="BY30" s="38"/>
-      <c r="BZ30" s="38"/>
-      <c r="CA30" s="38"/>
-      <c r="CB30" s="38"/>
-      <c r="CC30" s="38"/>
-      <c r="CD30" s="38"/>
-      <c r="CE30" s="38"/>
-      <c r="CF30" s="38"/>
-      <c r="CG30" s="38"/>
-      <c r="CH30" s="38"/>
-      <c r="CI30" s="38"/>
-      <c r="CJ30" s="39"/>
+      <c r="BX30" s="52"/>
+      <c r="BY30" s="52"/>
+      <c r="BZ30" s="52"/>
+      <c r="CA30" s="52"/>
+      <c r="CB30" s="52"/>
+      <c r="CC30" s="52"/>
+      <c r="CD30" s="52"/>
+      <c r="CE30" s="52"/>
+      <c r="CF30" s="52"/>
+      <c r="CG30" s="52"/>
+      <c r="CH30" s="52"/>
+      <c r="CI30" s="52"/>
+      <c r="CJ30" s="43"/>
       <c r="CK30" s="7"/>
       <c r="CN30" s="5"/>
-      <c r="CO30" s="43"/>
-      <c r="CP30" s="44"/>
-      <c r="CQ30" s="44"/>
-      <c r="CR30" s="44"/>
-      <c r="CS30" s="44"/>
-      <c r="CT30" s="44"/>
-      <c r="CU30" s="44"/>
-      <c r="CV30" s="44"/>
-      <c r="CW30" s="44"/>
-      <c r="CX30" s="44"/>
-      <c r="CY30" s="44"/>
-      <c r="CZ30" s="44"/>
-      <c r="DA30" s="44"/>
+      <c r="CO30" s="44"/>
+      <c r="CP30" s="53"/>
+      <c r="CQ30" s="53"/>
+      <c r="CR30" s="53"/>
+      <c r="CS30" s="53"/>
+      <c r="CT30" s="53"/>
+      <c r="CU30" s="53"/>
+      <c r="CV30" s="53"/>
+      <c r="CW30" s="53"/>
+      <c r="CX30" s="53"/>
+      <c r="CY30" s="53"/>
+      <c r="CZ30" s="53"/>
+      <c r="DA30" s="53"/>
       <c r="DB30" s="45"/>
       <c r="DC30" s="7"/>
     </row>
     <row r="31" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="65"/>
-      <c r="M31" s="65"/>
-      <c r="N31" s="65"/>
-      <c r="O31" s="65"/>
-      <c r="P31" s="65"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
       <c r="Q31" s="7"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="39"/>
-      <c r="AE31" s="37"/>
-      <c r="AF31" s="39"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="39"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="42"/>
+      <c r="AD31" s="43"/>
+      <c r="AE31" s="42"/>
+      <c r="AF31" s="43"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="43"/>
       <c r="AI31" s="7"/>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="43"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="44"/>
-      <c r="AR31" s="44"/>
-      <c r="AS31" s="44"/>
-      <c r="AT31" s="44"/>
-      <c r="AU31" s="44"/>
-      <c r="AV31" s="44"/>
-      <c r="AW31" s="44"/>
-      <c r="AX31" s="44"/>
-      <c r="AY31" s="44"/>
+      <c r="AM31" s="44"/>
+      <c r="AN31" s="53"/>
+      <c r="AO31" s="53"/>
+      <c r="AP31" s="53"/>
+      <c r="AQ31" s="53"/>
+      <c r="AR31" s="53"/>
+      <c r="AS31" s="53"/>
+      <c r="AT31" s="53"/>
+      <c r="AU31" s="53"/>
+      <c r="AV31" s="53"/>
+      <c r="AW31" s="53"/>
+      <c r="AX31" s="53"/>
+      <c r="AY31" s="53"/>
       <c r="AZ31" s="45"/>
       <c r="BA31" s="7"/>
       <c r="BD31" s="5"/>
@@ -5371,86 +7473,86 @@
       <c r="BR31" s="15"/>
       <c r="BS31" s="7"/>
       <c r="BV31" s="5"/>
-      <c r="BW31" s="43"/>
-      <c r="BX31" s="44"/>
-      <c r="BY31" s="44"/>
-      <c r="BZ31" s="44"/>
-      <c r="CA31" s="44"/>
-      <c r="CB31" s="44"/>
-      <c r="CC31" s="44"/>
-      <c r="CD31" s="44"/>
-      <c r="CE31" s="44"/>
-      <c r="CF31" s="44"/>
-      <c r="CG31" s="44"/>
-      <c r="CH31" s="44"/>
-      <c r="CI31" s="44"/>
+      <c r="BW31" s="44"/>
+      <c r="BX31" s="53"/>
+      <c r="BY31" s="53"/>
+      <c r="BZ31" s="53"/>
+      <c r="CA31" s="53"/>
+      <c r="CB31" s="53"/>
+      <c r="CC31" s="53"/>
+      <c r="CD31" s="53"/>
+      <c r="CE31" s="53"/>
+      <c r="CF31" s="53"/>
+      <c r="CG31" s="53"/>
+      <c r="CH31" s="53"/>
+      <c r="CI31" s="53"/>
       <c r="CJ31" s="45"/>
       <c r="CK31" s="7"/>
       <c r="CN31" s="5"/>
-      <c r="CO31" s="43"/>
-      <c r="CP31" s="44"/>
-      <c r="CQ31" s="44"/>
-      <c r="CR31" s="44"/>
-      <c r="CS31" s="44"/>
-      <c r="CT31" s="44"/>
-      <c r="CU31" s="44"/>
-      <c r="CV31" s="44"/>
-      <c r="CW31" s="44"/>
-      <c r="CX31" s="44"/>
-      <c r="CY31" s="44"/>
-      <c r="CZ31" s="44"/>
-      <c r="DA31" s="44"/>
+      <c r="CO31" s="44"/>
+      <c r="CP31" s="53"/>
+      <c r="CQ31" s="53"/>
+      <c r="CR31" s="53"/>
+      <c r="CS31" s="53"/>
+      <c r="CT31" s="53"/>
+      <c r="CU31" s="53"/>
+      <c r="CV31" s="53"/>
+      <c r="CW31" s="53"/>
+      <c r="CX31" s="53"/>
+      <c r="CY31" s="53"/>
+      <c r="CZ31" s="53"/>
+      <c r="DA31" s="53"/>
       <c r="DB31" s="45"/>
       <c r="DC31" s="7"/>
     </row>
     <row r="32" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
       <c r="Q32" s="7"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="43"/>
+      <c r="U32" s="44"/>
       <c r="V32" s="45"/>
-      <c r="W32" s="43"/>
+      <c r="W32" s="44"/>
       <c r="X32" s="45"/>
-      <c r="Y32" s="43"/>
+      <c r="Y32" s="44"/>
       <c r="Z32" s="45"/>
-      <c r="AA32" s="43"/>
+      <c r="AA32" s="44"/>
       <c r="AB32" s="45"/>
-      <c r="AC32" s="43"/>
+      <c r="AC32" s="44"/>
       <c r="AD32" s="45"/>
-      <c r="AE32" s="43"/>
+      <c r="AE32" s="44"/>
       <c r="AF32" s="45"/>
-      <c r="AG32" s="43"/>
+      <c r="AG32" s="44"/>
       <c r="AH32" s="45"/>
       <c r="AI32" s="7"/>
       <c r="AL32" s="5"/>
-      <c r="AM32" s="40"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="41"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="41"/>
-      <c r="AV32" s="41"/>
-      <c r="AW32" s="41"/>
-      <c r="AX32" s="41"/>
-      <c r="AY32" s="41"/>
-      <c r="AZ32" s="42"/>
+      <c r="AM32" s="46"/>
+      <c r="AN32" s="54"/>
+      <c r="AO32" s="54"/>
+      <c r="AP32" s="54"/>
+      <c r="AQ32" s="54"/>
+      <c r="AR32" s="54"/>
+      <c r="AS32" s="54"/>
+      <c r="AT32" s="54"/>
+      <c r="AU32" s="54"/>
+      <c r="AV32" s="54"/>
+      <c r="AW32" s="54"/>
+      <c r="AX32" s="54"/>
+      <c r="AY32" s="54"/>
+      <c r="AZ32" s="47"/>
       <c r="BA32" s="7"/>
       <c r="BD32" s="5"/>
       <c r="BE32" s="16"/>
@@ -5469,88 +7571,88 @@
       <c r="BR32" s="18"/>
       <c r="BS32" s="7"/>
       <c r="BV32" s="5"/>
-      <c r="BW32" s="40"/>
-      <c r="BX32" s="41"/>
-      <c r="BY32" s="41"/>
-      <c r="BZ32" s="41"/>
-      <c r="CA32" s="41"/>
-      <c r="CB32" s="41"/>
-      <c r="CC32" s="41"/>
-      <c r="CD32" s="41"/>
-      <c r="CE32" s="41"/>
-      <c r="CF32" s="41"/>
-      <c r="CG32" s="41"/>
-      <c r="CH32" s="41"/>
-      <c r="CI32" s="41"/>
-      <c r="CJ32" s="42"/>
+      <c r="BW32" s="46"/>
+      <c r="BX32" s="54"/>
+      <c r="BY32" s="54"/>
+      <c r="BZ32" s="54"/>
+      <c r="CA32" s="54"/>
+      <c r="CB32" s="54"/>
+      <c r="CC32" s="54"/>
+      <c r="CD32" s="54"/>
+      <c r="CE32" s="54"/>
+      <c r="CF32" s="54"/>
+      <c r="CG32" s="54"/>
+      <c r="CH32" s="54"/>
+      <c r="CI32" s="54"/>
+      <c r="CJ32" s="47"/>
       <c r="CK32" s="7"/>
       <c r="CN32" s="5"/>
-      <c r="CO32" s="40"/>
-      <c r="CP32" s="41"/>
-      <c r="CQ32" s="41"/>
-      <c r="CR32" s="41"/>
-      <c r="CS32" s="41"/>
-      <c r="CT32" s="41"/>
-      <c r="CU32" s="41"/>
-      <c r="CV32" s="41"/>
-      <c r="CW32" s="41"/>
-      <c r="CX32" s="41"/>
-      <c r="CY32" s="41"/>
-      <c r="CZ32" s="41"/>
-      <c r="DA32" s="41"/>
-      <c r="DB32" s="42"/>
+      <c r="CO32" s="46"/>
+      <c r="CP32" s="54"/>
+      <c r="CQ32" s="54"/>
+      <c r="CR32" s="54"/>
+      <c r="CS32" s="54"/>
+      <c r="CT32" s="54"/>
+      <c r="CU32" s="54"/>
+      <c r="CV32" s="54"/>
+      <c r="CW32" s="54"/>
+      <c r="CX32" s="54"/>
+      <c r="CY32" s="54"/>
+      <c r="CZ32" s="54"/>
+      <c r="DA32" s="54"/>
+      <c r="DB32" s="47"/>
       <c r="DC32" s="7"/>
     </row>
     <row r="33" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
       <c r="Q33" s="7"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="40"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="40"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="40"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="40"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="40"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="40"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="40"/>
-      <c r="AH33" s="42"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="46"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="46"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="46"/>
+      <c r="AH33" s="47"/>
       <c r="AI33" s="7"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="37" t="s">
+      <c r="AM33" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="38"/>
-      <c r="AS33" s="38"/>
-      <c r="AT33" s="38"/>
-      <c r="AU33" s="38"/>
-      <c r="AV33" s="38"/>
-      <c r="AW33" s="38"/>
-      <c r="AX33" s="38"/>
-      <c r="AY33" s="38"/>
-      <c r="AZ33" s="39"/>
+      <c r="AN33" s="52"/>
+      <c r="AO33" s="52"/>
+      <c r="AP33" s="52"/>
+      <c r="AQ33" s="52"/>
+      <c r="AR33" s="52"/>
+      <c r="AS33" s="52"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="43"/>
       <c r="BA33" s="7"/>
       <c r="BD33" s="5"/>
       <c r="BE33" s="6"/>
@@ -5569,22 +7671,22 @@
       <c r="BR33" s="6"/>
       <c r="BS33" s="7"/>
       <c r="BV33" s="5"/>
-      <c r="BW33" s="37" t="s">
+      <c r="BW33" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BX33" s="38"/>
-      <c r="BY33" s="38"/>
-      <c r="BZ33" s="38"/>
-      <c r="CA33" s="38"/>
-      <c r="CB33" s="38"/>
-      <c r="CC33" s="38"/>
-      <c r="CD33" s="38"/>
-      <c r="CE33" s="38"/>
-      <c r="CF33" s="38"/>
-      <c r="CG33" s="38"/>
-      <c r="CH33" s="38"/>
-      <c r="CI33" s="38"/>
-      <c r="CJ33" s="39"/>
+      <c r="BX33" s="52"/>
+      <c r="BY33" s="52"/>
+      <c r="BZ33" s="52"/>
+      <c r="CA33" s="52"/>
+      <c r="CB33" s="52"/>
+      <c r="CC33" s="52"/>
+      <c r="CD33" s="52"/>
+      <c r="CE33" s="52"/>
+      <c r="CF33" s="52"/>
+      <c r="CG33" s="52"/>
+      <c r="CH33" s="52"/>
+      <c r="CI33" s="52"/>
+      <c r="CJ33" s="43"/>
       <c r="CK33" s="7"/>
       <c r="CN33" s="5"/>
       <c r="CO33" s="14"/>
@@ -5621,96 +7723,96 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="62" t="s">
+      <c r="U34" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62" t="s">
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="62"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="51"/>
       <c r="AI34" s="7"/>
       <c r="AL34" s="5"/>
-      <c r="AM34" s="43"/>
-      <c r="AN34" s="44"/>
-      <c r="AO34" s="44"/>
-      <c r="AP34" s="44"/>
-      <c r="AQ34" s="44"/>
-      <c r="AR34" s="44"/>
-      <c r="AS34" s="44"/>
-      <c r="AT34" s="44"/>
-      <c r="AU34" s="44"/>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
+      <c r="AM34" s="44"/>
+      <c r="AN34" s="53"/>
+      <c r="AO34" s="53"/>
+      <c r="AP34" s="53"/>
+      <c r="AQ34" s="53"/>
+      <c r="AR34" s="53"/>
+      <c r="AS34" s="53"/>
+      <c r="AT34" s="53"/>
+      <c r="AU34" s="53"/>
+      <c r="AV34" s="53"/>
+      <c r="AW34" s="53"/>
+      <c r="AX34" s="53"/>
+      <c r="AY34" s="53"/>
       <c r="AZ34" s="45"/>
       <c r="BA34" s="7"/>
       <c r="BD34" s="5"/>
-      <c r="BE34" s="33" t="s">
+      <c r="BE34" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="BF34" s="34"/>
+      <c r="BF34" s="63"/>
       <c r="BG34" s="14"/>
-      <c r="BH34" s="37" t="s">
+      <c r="BH34" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="BI34" s="38"/>
-      <c r="BJ34" s="38"/>
-      <c r="BK34" s="38"/>
-      <c r="BL34" s="38"/>
-      <c r="BM34" s="38"/>
-      <c r="BN34" s="38"/>
-      <c r="BO34" s="38"/>
-      <c r="BP34" s="38"/>
-      <c r="BQ34" s="38"/>
-      <c r="BR34" s="39"/>
+      <c r="BI34" s="52"/>
+      <c r="BJ34" s="52"/>
+      <c r="BK34" s="52"/>
+      <c r="BL34" s="52"/>
+      <c r="BM34" s="52"/>
+      <c r="BN34" s="52"/>
+      <c r="BO34" s="52"/>
+      <c r="BP34" s="52"/>
+      <c r="BQ34" s="52"/>
+      <c r="BR34" s="43"/>
       <c r="BS34" s="7"/>
       <c r="BV34" s="5"/>
-      <c r="BW34" s="43"/>
-      <c r="BX34" s="44"/>
-      <c r="BY34" s="44"/>
-      <c r="BZ34" s="44"/>
-      <c r="CA34" s="44"/>
-      <c r="CB34" s="44"/>
-      <c r="CC34" s="44"/>
-      <c r="CD34" s="44"/>
-      <c r="CE34" s="44"/>
-      <c r="CF34" s="44"/>
-      <c r="CG34" s="44"/>
-      <c r="CH34" s="44"/>
-      <c r="CI34" s="44"/>
+      <c r="BW34" s="44"/>
+      <c r="BX34" s="53"/>
+      <c r="BY34" s="53"/>
+      <c r="BZ34" s="53"/>
+      <c r="CA34" s="53"/>
+      <c r="CB34" s="53"/>
+      <c r="CC34" s="53"/>
+      <c r="CD34" s="53"/>
+      <c r="CE34" s="53"/>
+      <c r="CF34" s="53"/>
+      <c r="CG34" s="53"/>
+      <c r="CH34" s="53"/>
+      <c r="CI34" s="53"/>
       <c r="CJ34" s="45"/>
       <c r="CK34" s="7"/>
       <c r="CN34" s="5"/>
-      <c r="CO34" s="33" t="s">
+      <c r="CO34" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="CP34" s="34"/>
+      <c r="CP34" s="63"/>
       <c r="CQ34" s="14"/>
-      <c r="CR34" s="55" t="s">
+      <c r="CR34" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="CS34" s="38"/>
-      <c r="CT34" s="38"/>
-      <c r="CU34" s="38"/>
-      <c r="CV34" s="38"/>
-      <c r="CW34" s="38"/>
-      <c r="CX34" s="38"/>
-      <c r="CY34" s="38"/>
-      <c r="CZ34" s="38"/>
-      <c r="DA34" s="38"/>
-      <c r="DB34" s="39"/>
+      <c r="CS34" s="52"/>
+      <c r="CT34" s="52"/>
+      <c r="CU34" s="52"/>
+      <c r="CV34" s="52"/>
+      <c r="CW34" s="52"/>
+      <c r="CX34" s="52"/>
+      <c r="CY34" s="52"/>
+      <c r="CZ34" s="52"/>
+      <c r="DA34" s="52"/>
+      <c r="DB34" s="43"/>
       <c r="DC34" s="7"/>
     </row>
     <row r="35" spans="2:107" x14ac:dyDescent="0.4">
@@ -5731,84 +7833,84 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="62"/>
-      <c r="AH35" s="62"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51"/>
       <c r="AI35" s="7"/>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="40"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="42"/>
+      <c r="AM35" s="46"/>
+      <c r="AN35" s="54"/>
+      <c r="AO35" s="54"/>
+      <c r="AP35" s="54"/>
+      <c r="AQ35" s="54"/>
+      <c r="AR35" s="54"/>
+      <c r="AS35" s="54"/>
+      <c r="AT35" s="54"/>
+      <c r="AU35" s="54"/>
+      <c r="AV35" s="54"/>
+      <c r="AW35" s="54"/>
+      <c r="AX35" s="54"/>
+      <c r="AY35" s="54"/>
+      <c r="AZ35" s="47"/>
       <c r="BA35" s="7"/>
       <c r="BD35" s="5"/>
-      <c r="BE35" s="35"/>
-      <c r="BF35" s="36"/>
+      <c r="BE35" s="64"/>
+      <c r="BF35" s="65"/>
       <c r="BG35" s="14"/>
-      <c r="BH35" s="40"/>
-      <c r="BI35" s="41"/>
-      <c r="BJ35" s="41"/>
-      <c r="BK35" s="41"/>
-      <c r="BL35" s="41"/>
-      <c r="BM35" s="41"/>
-      <c r="BN35" s="41"/>
-      <c r="BO35" s="41"/>
-      <c r="BP35" s="41"/>
-      <c r="BQ35" s="41"/>
-      <c r="BR35" s="42"/>
+      <c r="BH35" s="46"/>
+      <c r="BI35" s="54"/>
+      <c r="BJ35" s="54"/>
+      <c r="BK35" s="54"/>
+      <c r="BL35" s="54"/>
+      <c r="BM35" s="54"/>
+      <c r="BN35" s="54"/>
+      <c r="BO35" s="54"/>
+      <c r="BP35" s="54"/>
+      <c r="BQ35" s="54"/>
+      <c r="BR35" s="47"/>
       <c r="BS35" s="7"/>
       <c r="BV35" s="5"/>
-      <c r="BW35" s="40"/>
-      <c r="BX35" s="41"/>
-      <c r="BY35" s="41"/>
-      <c r="BZ35" s="41"/>
-      <c r="CA35" s="41"/>
-      <c r="CB35" s="41"/>
-      <c r="CC35" s="41"/>
-      <c r="CD35" s="41"/>
-      <c r="CE35" s="41"/>
-      <c r="CF35" s="41"/>
-      <c r="CG35" s="41"/>
-      <c r="CH35" s="41"/>
-      <c r="CI35" s="41"/>
-      <c r="CJ35" s="42"/>
+      <c r="BW35" s="46"/>
+      <c r="BX35" s="54"/>
+      <c r="BY35" s="54"/>
+      <c r="BZ35" s="54"/>
+      <c r="CA35" s="54"/>
+      <c r="CB35" s="54"/>
+      <c r="CC35" s="54"/>
+      <c r="CD35" s="54"/>
+      <c r="CE35" s="54"/>
+      <c r="CF35" s="54"/>
+      <c r="CG35" s="54"/>
+      <c r="CH35" s="54"/>
+      <c r="CI35" s="54"/>
+      <c r="CJ35" s="47"/>
       <c r="CK35" s="7"/>
       <c r="CN35" s="5"/>
-      <c r="CO35" s="35"/>
-      <c r="CP35" s="36"/>
+      <c r="CO35" s="64"/>
+      <c r="CP35" s="65"/>
       <c r="CQ35" s="14"/>
-      <c r="CR35" s="40"/>
-      <c r="CS35" s="41"/>
-      <c r="CT35" s="41"/>
-      <c r="CU35" s="41"/>
-      <c r="CV35" s="41"/>
-      <c r="CW35" s="41"/>
-      <c r="CX35" s="41"/>
-      <c r="CY35" s="41"/>
-      <c r="CZ35" s="41"/>
-      <c r="DA35" s="41"/>
-      <c r="DB35" s="42"/>
+      <c r="CR35" s="46"/>
+      <c r="CS35" s="54"/>
+      <c r="CT35" s="54"/>
+      <c r="CU35" s="54"/>
+      <c r="CV35" s="54"/>
+      <c r="CW35" s="54"/>
+      <c r="CX35" s="54"/>
+      <c r="CY35" s="54"/>
+      <c r="CZ35" s="54"/>
+      <c r="DA35" s="54"/>
+      <c r="DB35" s="47"/>
       <c r="DC35" s="7"/>
     </row>
     <row r="36" spans="2:107" x14ac:dyDescent="0.4">
@@ -5910,388 +8012,364 @@
       <c r="DC36" s="7"/>
     </row>
     <row r="37" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="46" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="46" t="s">
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="48"/>
-      <c r="T37" s="46" t="s">
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="35"/>
+      <c r="T37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="46" t="s">
+      <c r="U37" s="34"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="34"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="46" t="s">
+      <c r="Z37" s="34"/>
+      <c r="AA37" s="34"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
+      <c r="AD37" s="35"/>
+      <c r="AE37" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="47"/>
-      <c r="AH37" s="47"/>
-      <c r="AI37" s="48"/>
-      <c r="AL37" s="46" t="s">
+      <c r="AF37" s="34"/>
+      <c r="AG37" s="34"/>
+      <c r="AH37" s="34"/>
+      <c r="AI37" s="35"/>
+      <c r="AL37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="AM37" s="47"/>
-      <c r="AN37" s="47"/>
-      <c r="AO37" s="47"/>
-      <c r="AP37" s="48"/>
-      <c r="AQ37" s="46" t="s">
+      <c r="AM37" s="34"/>
+      <c r="AN37" s="34"/>
+      <c r="AO37" s="34"/>
+      <c r="AP37" s="35"/>
+      <c r="AQ37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="AR37" s="47"/>
-      <c r="AS37" s="47"/>
-      <c r="AT37" s="47"/>
-      <c r="AU37" s="47"/>
-      <c r="AV37" s="48"/>
-      <c r="AW37" s="46" t="s">
+      <c r="AR37" s="34"/>
+      <c r="AS37" s="34"/>
+      <c r="AT37" s="34"/>
+      <c r="AU37" s="34"/>
+      <c r="AV37" s="35"/>
+      <c r="AW37" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="47"/>
-      <c r="AY37" s="47"/>
-      <c r="AZ37" s="47"/>
-      <c r="BA37" s="48"/>
-      <c r="BD37" s="46" t="s">
+      <c r="AX37" s="34"/>
+      <c r="AY37" s="34"/>
+      <c r="AZ37" s="34"/>
+      <c r="BA37" s="35"/>
+      <c r="BD37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="BE37" s="47"/>
-      <c r="BF37" s="47"/>
-      <c r="BG37" s="47"/>
-      <c r="BH37" s="48"/>
-      <c r="BI37" s="46" t="s">
+      <c r="BE37" s="34"/>
+      <c r="BF37" s="34"/>
+      <c r="BG37" s="34"/>
+      <c r="BH37" s="35"/>
+      <c r="BI37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="47"/>
-      <c r="BK37" s="47"/>
-      <c r="BL37" s="47"/>
-      <c r="BM37" s="47"/>
-      <c r="BN37" s="48"/>
-      <c r="BO37" s="46" t="s">
+      <c r="BJ37" s="34"/>
+      <c r="BK37" s="34"/>
+      <c r="BL37" s="34"/>
+      <c r="BM37" s="34"/>
+      <c r="BN37" s="35"/>
+      <c r="BO37" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BP37" s="47"/>
-      <c r="BQ37" s="47"/>
-      <c r="BR37" s="47"/>
-      <c r="BS37" s="48"/>
-      <c r="BV37" s="46" t="s">
+      <c r="BP37" s="34"/>
+      <c r="BQ37" s="34"/>
+      <c r="BR37" s="34"/>
+      <c r="BS37" s="35"/>
+      <c r="BV37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="BW37" s="47"/>
-      <c r="BX37" s="47"/>
-      <c r="BY37" s="47"/>
-      <c r="BZ37" s="48"/>
-      <c r="CA37" s="46" t="s">
+      <c r="BW37" s="34"/>
+      <c r="BX37" s="34"/>
+      <c r="BY37" s="34"/>
+      <c r="BZ37" s="35"/>
+      <c r="CA37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="CB37" s="47"/>
-      <c r="CC37" s="47"/>
-      <c r="CD37" s="47"/>
-      <c r="CE37" s="47"/>
-      <c r="CF37" s="48"/>
-      <c r="CG37" s="46" t="s">
+      <c r="CB37" s="34"/>
+      <c r="CC37" s="34"/>
+      <c r="CD37" s="34"/>
+      <c r="CE37" s="34"/>
+      <c r="CF37" s="35"/>
+      <c r="CG37" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="CH37" s="47"/>
-      <c r="CI37" s="47"/>
-      <c r="CJ37" s="47"/>
-      <c r="CK37" s="48"/>
-      <c r="CN37" s="46" t="s">
+      <c r="CH37" s="34"/>
+      <c r="CI37" s="34"/>
+      <c r="CJ37" s="34"/>
+      <c r="CK37" s="35"/>
+      <c r="CN37" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="CO37" s="47"/>
-      <c r="CP37" s="47"/>
-      <c r="CQ37" s="47"/>
-      <c r="CR37" s="48"/>
-      <c r="CS37" s="46" t="s">
+      <c r="CO37" s="34"/>
+      <c r="CP37" s="34"/>
+      <c r="CQ37" s="34"/>
+      <c r="CR37" s="35"/>
+      <c r="CS37" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="CT37" s="47"/>
-      <c r="CU37" s="47"/>
-      <c r="CV37" s="47"/>
-      <c r="CW37" s="47"/>
-      <c r="CX37" s="48"/>
-      <c r="CY37" s="46" t="s">
+      <c r="CT37" s="34"/>
+      <c r="CU37" s="34"/>
+      <c r="CV37" s="34"/>
+      <c r="CW37" s="34"/>
+      <c r="CX37" s="35"/>
+      <c r="CY37" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="CZ37" s="47"/>
-      <c r="DA37" s="47"/>
-      <c r="DB37" s="47"/>
-      <c r="DC37" s="48"/>
+      <c r="CZ37" s="34"/>
+      <c r="DA37" s="34"/>
+      <c r="DB37" s="34"/>
+      <c r="DC37" s="35"/>
     </row>
     <row r="38" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B38" s="49"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="50"/>
-      <c r="O38" s="50"/>
-      <c r="P38" s="50"/>
-      <c r="Q38" s="51"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="49"/>
-      <c r="Z38" s="50"/>
-      <c r="AA38" s="50"/>
-      <c r="AB38" s="50"/>
-      <c r="AC38" s="50"/>
-      <c r="AD38" s="51"/>
-      <c r="AE38" s="49"/>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
-      <c r="AH38" s="50"/>
-      <c r="AI38" s="51"/>
-      <c r="AL38" s="49"/>
-      <c r="AM38" s="50"/>
-      <c r="AN38" s="50"/>
-      <c r="AO38" s="50"/>
-      <c r="AP38" s="51"/>
-      <c r="AQ38" s="49"/>
-      <c r="AR38" s="50"/>
-      <c r="AS38" s="50"/>
-      <c r="AT38" s="50"/>
-      <c r="AU38" s="50"/>
-      <c r="AV38" s="51"/>
-      <c r="AW38" s="49"/>
-      <c r="AX38" s="50"/>
-      <c r="AY38" s="50"/>
-      <c r="AZ38" s="50"/>
-      <c r="BA38" s="51"/>
-      <c r="BD38" s="49"/>
-      <c r="BE38" s="50"/>
-      <c r="BF38" s="50"/>
-      <c r="BG38" s="50"/>
-      <c r="BH38" s="51"/>
-      <c r="BI38" s="49"/>
-      <c r="BJ38" s="50"/>
-      <c r="BK38" s="50"/>
-      <c r="BL38" s="50"/>
-      <c r="BM38" s="50"/>
-      <c r="BN38" s="51"/>
-      <c r="BO38" s="49"/>
-      <c r="BP38" s="50"/>
-      <c r="BQ38" s="50"/>
-      <c r="BR38" s="50"/>
-      <c r="BS38" s="51"/>
-      <c r="BV38" s="49"/>
-      <c r="BW38" s="50"/>
-      <c r="BX38" s="50"/>
-      <c r="BY38" s="50"/>
-      <c r="BZ38" s="51"/>
-      <c r="CA38" s="49"/>
-      <c r="CB38" s="50"/>
-      <c r="CC38" s="50"/>
-      <c r="CD38" s="50"/>
-      <c r="CE38" s="50"/>
-      <c r="CF38" s="51"/>
-      <c r="CG38" s="49"/>
-      <c r="CH38" s="50"/>
-      <c r="CI38" s="50"/>
-      <c r="CJ38" s="50"/>
-      <c r="CK38" s="51"/>
-      <c r="CN38" s="49"/>
-      <c r="CO38" s="50"/>
-      <c r="CP38" s="50"/>
-      <c r="CQ38" s="50"/>
-      <c r="CR38" s="51"/>
-      <c r="CS38" s="49"/>
-      <c r="CT38" s="50"/>
-      <c r="CU38" s="50"/>
-      <c r="CV38" s="50"/>
-      <c r="CW38" s="50"/>
-      <c r="CX38" s="51"/>
-      <c r="CY38" s="49"/>
-      <c r="CZ38" s="50"/>
-      <c r="DA38" s="50"/>
-      <c r="DB38" s="50"/>
-      <c r="DC38" s="51"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="38"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="37"/>
+      <c r="AA38" s="37"/>
+      <c r="AB38" s="37"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="37"/>
+      <c r="AG38" s="37"/>
+      <c r="AH38" s="37"/>
+      <c r="AI38" s="38"/>
+      <c r="AL38" s="36"/>
+      <c r="AM38" s="37"/>
+      <c r="AN38" s="37"/>
+      <c r="AO38" s="37"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="36"/>
+      <c r="AR38" s="37"/>
+      <c r="AS38" s="37"/>
+      <c r="AT38" s="37"/>
+      <c r="AU38" s="37"/>
+      <c r="AV38" s="38"/>
+      <c r="AW38" s="36"/>
+      <c r="AX38" s="37"/>
+      <c r="AY38" s="37"/>
+      <c r="AZ38" s="37"/>
+      <c r="BA38" s="38"/>
+      <c r="BD38" s="36"/>
+      <c r="BE38" s="37"/>
+      <c r="BF38" s="37"/>
+      <c r="BG38" s="37"/>
+      <c r="BH38" s="38"/>
+      <c r="BI38" s="36"/>
+      <c r="BJ38" s="37"/>
+      <c r="BK38" s="37"/>
+      <c r="BL38" s="37"/>
+      <c r="BM38" s="37"/>
+      <c r="BN38" s="38"/>
+      <c r="BO38" s="36"/>
+      <c r="BP38" s="37"/>
+      <c r="BQ38" s="37"/>
+      <c r="BR38" s="37"/>
+      <c r="BS38" s="38"/>
+      <c r="BV38" s="36"/>
+      <c r="BW38" s="37"/>
+      <c r="BX38" s="37"/>
+      <c r="BY38" s="37"/>
+      <c r="BZ38" s="38"/>
+      <c r="CA38" s="36"/>
+      <c r="CB38" s="37"/>
+      <c r="CC38" s="37"/>
+      <c r="CD38" s="37"/>
+      <c r="CE38" s="37"/>
+      <c r="CF38" s="38"/>
+      <c r="CG38" s="36"/>
+      <c r="CH38" s="37"/>
+      <c r="CI38" s="37"/>
+      <c r="CJ38" s="37"/>
+      <c r="CK38" s="38"/>
+      <c r="CN38" s="36"/>
+      <c r="CO38" s="37"/>
+      <c r="CP38" s="37"/>
+      <c r="CQ38" s="37"/>
+      <c r="CR38" s="38"/>
+      <c r="CS38" s="36"/>
+      <c r="CT38" s="37"/>
+      <c r="CU38" s="37"/>
+      <c r="CV38" s="37"/>
+      <c r="CW38" s="37"/>
+      <c r="CX38" s="38"/>
+      <c r="CY38" s="36"/>
+      <c r="CZ38" s="37"/>
+      <c r="DA38" s="37"/>
+      <c r="DB38" s="37"/>
+      <c r="DC38" s="38"/>
     </row>
     <row r="39" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="52"/>
-      <c r="N39" s="53"/>
-      <c r="O39" s="53"/>
-      <c r="P39" s="53"/>
-      <c r="Q39" s="54"/>
-      <c r="T39" s="52"/>
-      <c r="U39" s="53"/>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53"/>
-      <c r="X39" s="54"/>
-      <c r="Y39" s="52"/>
-      <c r="Z39" s="53"/>
-      <c r="AA39" s="53"/>
-      <c r="AB39" s="53"/>
-      <c r="AC39" s="53"/>
-      <c r="AD39" s="54"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="53"/>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="54"/>
-      <c r="AL39" s="52"/>
-      <c r="AM39" s="53"/>
-      <c r="AN39" s="53"/>
-      <c r="AO39" s="53"/>
-      <c r="AP39" s="54"/>
-      <c r="AQ39" s="52"/>
-      <c r="AR39" s="53"/>
-      <c r="AS39" s="53"/>
-      <c r="AT39" s="53"/>
-      <c r="AU39" s="53"/>
-      <c r="AV39" s="54"/>
-      <c r="AW39" s="52"/>
-      <c r="AX39" s="53"/>
-      <c r="AY39" s="53"/>
-      <c r="AZ39" s="53"/>
-      <c r="BA39" s="54"/>
-      <c r="BD39" s="52"/>
-      <c r="BE39" s="53"/>
-      <c r="BF39" s="53"/>
-      <c r="BG39" s="53"/>
-      <c r="BH39" s="54"/>
-      <c r="BI39" s="52"/>
-      <c r="BJ39" s="53"/>
-      <c r="BK39" s="53"/>
-      <c r="BL39" s="53"/>
-      <c r="BM39" s="53"/>
-      <c r="BN39" s="54"/>
-      <c r="BO39" s="52"/>
-      <c r="BP39" s="53"/>
-      <c r="BQ39" s="53"/>
-      <c r="BR39" s="53"/>
-      <c r="BS39" s="54"/>
-      <c r="BV39" s="52"/>
-      <c r="BW39" s="53"/>
-      <c r="BX39" s="53"/>
-      <c r="BY39" s="53"/>
-      <c r="BZ39" s="54"/>
-      <c r="CA39" s="52"/>
-      <c r="CB39" s="53"/>
-      <c r="CC39" s="53"/>
-      <c r="CD39" s="53"/>
-      <c r="CE39" s="53"/>
-      <c r="CF39" s="54"/>
-      <c r="CG39" s="52"/>
-      <c r="CH39" s="53"/>
-      <c r="CI39" s="53"/>
-      <c r="CJ39" s="53"/>
-      <c r="CK39" s="54"/>
-      <c r="CN39" s="52"/>
-      <c r="CO39" s="53"/>
-      <c r="CP39" s="53"/>
-      <c r="CQ39" s="53"/>
-      <c r="CR39" s="54"/>
-      <c r="CS39" s="52"/>
-      <c r="CT39" s="53"/>
-      <c r="CU39" s="53"/>
-      <c r="CV39" s="53"/>
-      <c r="CW39" s="53"/>
-      <c r="CX39" s="54"/>
-      <c r="CY39" s="52"/>
-      <c r="CZ39" s="53"/>
-      <c r="DA39" s="53"/>
-      <c r="DB39" s="53"/>
-      <c r="DC39" s="54"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="41"/>
+      <c r="T39" s="39"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="39"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="41"/>
+      <c r="AE39" s="39"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="40"/>
+      <c r="AI39" s="41"/>
+      <c r="AL39" s="39"/>
+      <c r="AM39" s="40"/>
+      <c r="AN39" s="40"/>
+      <c r="AO39" s="40"/>
+      <c r="AP39" s="41"/>
+      <c r="AQ39" s="39"/>
+      <c r="AR39" s="40"/>
+      <c r="AS39" s="40"/>
+      <c r="AT39" s="40"/>
+      <c r="AU39" s="40"/>
+      <c r="AV39" s="41"/>
+      <c r="AW39" s="39"/>
+      <c r="AX39" s="40"/>
+      <c r="AY39" s="40"/>
+      <c r="AZ39" s="40"/>
+      <c r="BA39" s="41"/>
+      <c r="BD39" s="39"/>
+      <c r="BE39" s="40"/>
+      <c r="BF39" s="40"/>
+      <c r="BG39" s="40"/>
+      <c r="BH39" s="41"/>
+      <c r="BI39" s="39"/>
+      <c r="BJ39" s="40"/>
+      <c r="BK39" s="40"/>
+      <c r="BL39" s="40"/>
+      <c r="BM39" s="40"/>
+      <c r="BN39" s="41"/>
+      <c r="BO39" s="39"/>
+      <c r="BP39" s="40"/>
+      <c r="BQ39" s="40"/>
+      <c r="BR39" s="40"/>
+      <c r="BS39" s="41"/>
+      <c r="BV39" s="39"/>
+      <c r="BW39" s="40"/>
+      <c r="BX39" s="40"/>
+      <c r="BY39" s="40"/>
+      <c r="BZ39" s="41"/>
+      <c r="CA39" s="39"/>
+      <c r="CB39" s="40"/>
+      <c r="CC39" s="40"/>
+      <c r="CD39" s="40"/>
+      <c r="CE39" s="40"/>
+      <c r="CF39" s="41"/>
+      <c r="CG39" s="39"/>
+      <c r="CH39" s="40"/>
+      <c r="CI39" s="40"/>
+      <c r="CJ39" s="40"/>
+      <c r="CK39" s="41"/>
+      <c r="CN39" s="39"/>
+      <c r="CO39" s="40"/>
+      <c r="CP39" s="40"/>
+      <c r="CQ39" s="40"/>
+      <c r="CR39" s="41"/>
+      <c r="CS39" s="39"/>
+      <c r="CT39" s="40"/>
+      <c r="CU39" s="40"/>
+      <c r="CV39" s="40"/>
+      <c r="CW39" s="40"/>
+      <c r="CX39" s="41"/>
+      <c r="CY39" s="39"/>
+      <c r="CZ39" s="40"/>
+      <c r="DA39" s="40"/>
+      <c r="DB39" s="40"/>
+      <c r="DC39" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="AE37:AI39"/>
-    <mergeCell ref="G37:L39"/>
-    <mergeCell ref="M37:Q39"/>
-    <mergeCell ref="B37:F39"/>
-    <mergeCell ref="T37:X39"/>
-    <mergeCell ref="Y37:AD39"/>
-    <mergeCell ref="AG16:AH18"/>
-    <mergeCell ref="U19:V21"/>
-    <mergeCell ref="W19:X21"/>
-    <mergeCell ref="Y19:Z21"/>
-    <mergeCell ref="AA19:AB21"/>
-    <mergeCell ref="AC19:AD21"/>
-    <mergeCell ref="AE19:AF21"/>
-    <mergeCell ref="AG19:AH21"/>
-    <mergeCell ref="U16:V18"/>
-    <mergeCell ref="W16:X18"/>
-    <mergeCell ref="Y16:Z18"/>
-    <mergeCell ref="AA16:AB18"/>
-    <mergeCell ref="AC16:AD18"/>
-    <mergeCell ref="AE16:AF18"/>
-    <mergeCell ref="AG22:AH24"/>
-    <mergeCell ref="U25:V27"/>
-    <mergeCell ref="W25:X27"/>
-    <mergeCell ref="Y25:Z27"/>
-    <mergeCell ref="AA25:AB27"/>
-    <mergeCell ref="AC25:AD27"/>
-    <mergeCell ref="AE25:AF27"/>
-    <mergeCell ref="AG25:AH27"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="W22:X24"/>
-    <mergeCell ref="Y22:Z24"/>
-    <mergeCell ref="AA22:AB24"/>
-    <mergeCell ref="AC22:AD24"/>
-    <mergeCell ref="AE22:AF24"/>
-    <mergeCell ref="AE31:AF33"/>
-    <mergeCell ref="AG31:AH33"/>
-    <mergeCell ref="U28:V30"/>
-    <mergeCell ref="W28:X30"/>
-    <mergeCell ref="Y28:Z30"/>
-    <mergeCell ref="AA28:AB30"/>
-    <mergeCell ref="AC28:AD30"/>
-    <mergeCell ref="AE28:AF30"/>
-    <mergeCell ref="C15:P33"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="U31:V33"/>
-    <mergeCell ref="W31:X33"/>
-    <mergeCell ref="Y31:Z33"/>
-    <mergeCell ref="AA31:AB33"/>
+    <mergeCell ref="BE34:BF35"/>
+    <mergeCell ref="BH34:BR35"/>
+    <mergeCell ref="AM33:AZ35"/>
+    <mergeCell ref="CN37:CR39"/>
+    <mergeCell ref="CS37:CX39"/>
+    <mergeCell ref="BV37:BZ39"/>
+    <mergeCell ref="CA37:CF39"/>
+    <mergeCell ref="CG37:CK39"/>
+    <mergeCell ref="AL37:AP39"/>
+    <mergeCell ref="AQ37:AV39"/>
+    <mergeCell ref="AW37:BA39"/>
+    <mergeCell ref="CY37:DC39"/>
+    <mergeCell ref="CO34:CP35"/>
+    <mergeCell ref="CO12:DB32"/>
+    <mergeCell ref="CR34:DB35"/>
+    <mergeCell ref="BD37:BH39"/>
+    <mergeCell ref="BI37:BN39"/>
+    <mergeCell ref="BO37:BS39"/>
+    <mergeCell ref="BW15:CJ17"/>
+    <mergeCell ref="BW18:CJ20"/>
+    <mergeCell ref="BW21:CJ23"/>
+    <mergeCell ref="BW24:CJ26"/>
+    <mergeCell ref="BW27:CJ29"/>
+    <mergeCell ref="BW30:CJ32"/>
+    <mergeCell ref="BW33:CJ35"/>
+    <mergeCell ref="BW12:CG13"/>
+    <mergeCell ref="CI12:CJ13"/>
     <mergeCell ref="AM30:AZ32"/>
     <mergeCell ref="U12:AH13"/>
     <mergeCell ref="AB34:AH35"/>
@@ -6308,33 +8386,57 @@
     <mergeCell ref="AE15:AF15"/>
     <mergeCell ref="AG28:AH30"/>
     <mergeCell ref="AC31:AD33"/>
-    <mergeCell ref="CY37:DC39"/>
-    <mergeCell ref="CO34:CP35"/>
-    <mergeCell ref="CO12:DB32"/>
-    <mergeCell ref="CR34:DB35"/>
-    <mergeCell ref="BD37:BH39"/>
-    <mergeCell ref="BI37:BN39"/>
-    <mergeCell ref="BO37:BS39"/>
-    <mergeCell ref="BW15:CJ17"/>
-    <mergeCell ref="BW18:CJ20"/>
-    <mergeCell ref="BW21:CJ23"/>
-    <mergeCell ref="BW24:CJ26"/>
-    <mergeCell ref="BW27:CJ29"/>
-    <mergeCell ref="BW30:CJ32"/>
-    <mergeCell ref="BW33:CJ35"/>
-    <mergeCell ref="BW12:CG13"/>
-    <mergeCell ref="CI12:CJ13"/>
-    <mergeCell ref="BE34:BF35"/>
-    <mergeCell ref="BH34:BR35"/>
-    <mergeCell ref="AM33:AZ35"/>
-    <mergeCell ref="CN37:CR39"/>
-    <mergeCell ref="CS37:CX39"/>
-    <mergeCell ref="BV37:BZ39"/>
-    <mergeCell ref="CA37:CF39"/>
-    <mergeCell ref="CG37:CK39"/>
-    <mergeCell ref="AL37:AP39"/>
-    <mergeCell ref="AQ37:AV39"/>
-    <mergeCell ref="AW37:BA39"/>
+    <mergeCell ref="C15:P33"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="U31:V33"/>
+    <mergeCell ref="W31:X33"/>
+    <mergeCell ref="Y31:Z33"/>
+    <mergeCell ref="AA31:AB33"/>
+    <mergeCell ref="AE31:AF33"/>
+    <mergeCell ref="AG31:AH33"/>
+    <mergeCell ref="U28:V30"/>
+    <mergeCell ref="W28:X30"/>
+    <mergeCell ref="Y28:Z30"/>
+    <mergeCell ref="AA28:AB30"/>
+    <mergeCell ref="AC28:AD30"/>
+    <mergeCell ref="AE28:AF30"/>
+    <mergeCell ref="AG22:AH24"/>
+    <mergeCell ref="U25:V27"/>
+    <mergeCell ref="W25:X27"/>
+    <mergeCell ref="Y25:Z27"/>
+    <mergeCell ref="AA25:AB27"/>
+    <mergeCell ref="AC25:AD27"/>
+    <mergeCell ref="AE25:AF27"/>
+    <mergeCell ref="AG25:AH27"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="W22:X24"/>
+    <mergeCell ref="Y22:Z24"/>
+    <mergeCell ref="AA22:AB24"/>
+    <mergeCell ref="AC22:AD24"/>
+    <mergeCell ref="AE22:AF24"/>
+    <mergeCell ref="AG16:AH18"/>
+    <mergeCell ref="U19:V21"/>
+    <mergeCell ref="W19:X21"/>
+    <mergeCell ref="Y19:Z21"/>
+    <mergeCell ref="AA19:AB21"/>
+    <mergeCell ref="AC19:AD21"/>
+    <mergeCell ref="AE19:AF21"/>
+    <mergeCell ref="AG19:AH21"/>
+    <mergeCell ref="U16:V18"/>
+    <mergeCell ref="W16:X18"/>
+    <mergeCell ref="Y16:Z18"/>
+    <mergeCell ref="AA16:AB18"/>
+    <mergeCell ref="AC16:AD18"/>
+    <mergeCell ref="AE16:AF18"/>
+    <mergeCell ref="AE37:AI39"/>
+    <mergeCell ref="G37:L39"/>
+    <mergeCell ref="M37:Q39"/>
+    <mergeCell ref="B37:F39"/>
+    <mergeCell ref="T37:X39"/>
+    <mergeCell ref="Y37:AD39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6343,12 +8445,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4B474B-1CA9-44FF-A03F-ED77403AD9B8}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D606CD9-E4C5-4ED2-801A-FB5C5F32AED8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP17" sqref="AP17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6359,11 +8461,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F11D59-011D-4ADE-9066-A493983EF92C}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -6378,24 +8480,24 @@
         <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C4" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="67"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C5" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.4">
@@ -6507,13 +8609,13 @@
         <v>58</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="19">
         <v>0</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>60</v>
@@ -6585,7 +8687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5929AD-73A3-455F-9C42-9E7A6E536196}">
   <dimension ref="B2:O42"/>
   <sheetViews>
@@ -6612,52 +8714,52 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
       <c r="D2" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B5" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" t="s">
         <v>87</v>
-      </c>
-      <c r="F6" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -6670,7 +8772,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="G8" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -6685,16 +8787,16 @@
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
       <c r="H9" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="J9" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>88</v>
       </c>
       <c r="L9" s="30"/>
       <c r="M9" s="30"/>
@@ -6705,13 +8807,13 @@
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
       <c r="H10" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I10" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J10" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K10" s="30"/>
       <c r="L10" s="30"/>
@@ -6726,16 +8828,16 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L11" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="M11" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="N11" s="30" t="s">
-        <v>88</v>
       </c>
       <c r="O11" s="30"/>
     </row>
@@ -6746,16 +8848,16 @@
       <c r="I12" s="30"/>
       <c r="J12" s="30"/>
       <c r="K12" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L12" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M12" s="30" t="b">
         <v>1</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O12" s="30"/>
     </row>
@@ -6766,16 +8868,16 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L13" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M13" s="30" t="b">
         <v>1</v>
       </c>
       <c r="N13" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O13" s="30"/>
     </row>
@@ -6786,16 +8888,16 @@
       <c r="I14" s="30"/>
       <c r="J14" s="30"/>
       <c r="K14" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L14" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M14" s="30" t="b">
         <v>0</v>
       </c>
       <c r="N14" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -6805,10 +8907,10 @@
       <c r="H15" s="30"/>
       <c r="I15" s="30"/>
       <c r="J15" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K15" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
@@ -6818,10 +8920,10 @@
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="F16" s="30"/>
       <c r="G16" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="30"/>
       <c r="K16" s="31"/>
@@ -6833,7 +8935,7 @@
     <row r="17" spans="3:15" x14ac:dyDescent="0.4">
       <c r="F17" s="30"/>
       <c r="G17" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="30"/>
@@ -6847,16 +8949,16 @@
       <c r="F18" s="30"/>
       <c r="G18" s="30"/>
       <c r="H18" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="31" t="s">
         <v>87</v>
-      </c>
-      <c r="J18" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="31" t="s">
-        <v>88</v>
       </c>
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
@@ -6865,236 +8967,236 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.4">
       <c r="H19" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M20" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" t="s">
         <v>87</v>
-      </c>
-      <c r="M20" t="s">
-        <v>99</v>
-      </c>
-      <c r="N20" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M22" t="b">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23" t="b">
         <v>0</v>
       </c>
       <c r="N23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.4">
       <c r="J24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.4">
       <c r="F26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" s="32" t="s">
         <v>108</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.4">
       <c r="G31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.4">
       <c r="H32" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" t="s">
+        <v>96</v>
+      </c>
+      <c r="K32" t="s">
         <v>87</v>
-      </c>
-      <c r="J32" t="s">
-        <v>97</v>
-      </c>
-      <c r="K32" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.4">
       <c r="H33" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.4">
       <c r="K34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34" t="s">
         <v>87</v>
-      </c>
-      <c r="M34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.4">
       <c r="K35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M35" t="b">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.4">
       <c r="K36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M36" t="b">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.4">
       <c r="K37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.4">
       <c r="J38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.4">
       <c r="G39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -7104,35 +9206,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7118865-D3B9-4FFF-9FDE-B78570039695}">
-  <dimension ref="B2:D4"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>77</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -7140,4 +9301,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4B474B-1CA9-44FF-A03F-ED77403AD9B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X22" sqref="X22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/カレンダー_設計書.xlsx
+++ b/カレンダー_設計書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\AndroidStudioProjects\OriginalCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F12C9B3-6BEC-47AA-8111-2387A0E55C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE379504-3344-48D6-B13A-04224BECCDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7518170D-50F7-406D-9384-F6EA5B34F2A6}"/>
   </bookViews>
@@ -17,9 +17,10 @@
     <sheet name="デザイン" sheetId="1" r:id="rId2"/>
     <sheet name="画面遷移" sheetId="6" r:id="rId3"/>
     <sheet name="内部データ" sheetId="3" r:id="rId4"/>
-    <sheet name="JSON（内部データ）" sheetId="5" r:id="rId5"/>
-    <sheet name="システム_追加要件" sheetId="4" r:id="rId6"/>
-    <sheet name="bk_11.17_画面遷移" sheetId="2" r:id="rId7"/>
+    <sheet name="カレンダー（日付）に紐づく各値(JSON)" sheetId="5" r:id="rId5"/>
+    <sheet name="時間に紐づかないメモ一覧(JSON)" sheetId="8" r:id="rId6"/>
+    <sheet name="システム_追加要件" sheetId="4" r:id="rId7"/>
+    <sheet name="bk_11.17_画面遷移" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
   <si>
     <t>&lt;activity_main.xml&gt;</t>
     <phoneticPr fontId="1"/>
@@ -756,42 +757,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"byTime"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"time"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>"2021.12.1"</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>"day"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>"byDay"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>"1"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>←日曜日</t>
-    <rPh sb="1" eb="4">
-      <t>ニチヨウビ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1014,6 +984,65 @@
       <t>センイ</t>
     </rPh>
     <rPh sb="32" eb="34">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑日曜日</t>
+    <rPh sb="1" eb="4">
+      <t>ニチヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"ユニークな値 1"</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"メモの内容 1"</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>"ユニークな値 2"</t>
+  </si>
+  <si>
+    <t>"メモの内容 2"</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021.12.11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSONの構造を修正（JavaのMapを使用した形に修正する）</t>
+    <rPh sb="5" eb="7">
+      <t>コウゾウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カタチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
       <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -1242,7 +1271,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1336,11 +1365,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,43 +1447,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,37 +1467,22 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4773,543 +4799,547 @@
   <dimension ref="B2:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH4" sqref="AH4"/>
+      <selection activeCell="G5" sqref="G5:Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="2:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
+      <c r="B3" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
+      <c r="B4" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G2:Z2"/>
+    <mergeCell ref="G3:Z3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G4:Z4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:Z5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:Z6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:Z7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:Z8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:Z9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:Z10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:Z11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:Z12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:Z13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:Z14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:Z15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:Z16"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="G17:Z17"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="G18:Z18"/>
     <mergeCell ref="B19:F19"/>
     <mergeCell ref="G19:Z19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:Z14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:Z15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:Z16"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:Z11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:Z12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:Z13"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:Z8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:Z9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:Z10"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:Z5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:Z6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:Z7"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G2:Z2"/>
-    <mergeCell ref="G3:Z3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5320,7 +5350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD698707-CAB3-45C5-975A-1AA2EFCAC50B}">
   <dimension ref="B2:DC39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="Y46" sqref="Y46"/>
     </sheetView>
   </sheetViews>
@@ -5497,96 +5527,96 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="7"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="55" t="s">
+      <c r="U12" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="56"/>
-      <c r="AF12" s="56"/>
-      <c r="AG12" s="56"/>
-      <c r="AH12" s="57"/>
+      <c r="V12" s="60"/>
+      <c r="W12" s="60"/>
+      <c r="X12" s="60"/>
+      <c r="Y12" s="60"/>
+      <c r="Z12" s="60"/>
+      <c r="AA12" s="60"/>
+      <c r="AB12" s="60"/>
+      <c r="AC12" s="60"/>
+      <c r="AD12" s="60"/>
+      <c r="AE12" s="60"/>
+      <c r="AF12" s="60"/>
+      <c r="AG12" s="60"/>
+      <c r="AH12" s="61"/>
       <c r="AI12" s="7"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="42" t="s">
+      <c r="AM12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AN12" s="52"/>
-      <c r="AO12" s="52"/>
-      <c r="AP12" s="52"/>
-      <c r="AQ12" s="52"/>
-      <c r="AR12" s="52"/>
-      <c r="AS12" s="52"/>
-      <c r="AT12" s="52"/>
-      <c r="AU12" s="52"/>
-      <c r="AV12" s="52"/>
-      <c r="AW12" s="52"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="43"/>
+      <c r="AN12" s="41"/>
+      <c r="AO12" s="41"/>
+      <c r="AP12" s="41"/>
+      <c r="AQ12" s="41"/>
+      <c r="AR12" s="41"/>
+      <c r="AS12" s="41"/>
+      <c r="AT12" s="41"/>
+      <c r="AU12" s="41"/>
+      <c r="AV12" s="41"/>
+      <c r="AW12" s="41"/>
+      <c r="AX12" s="41"/>
+      <c r="AY12" s="41"/>
+      <c r="AZ12" s="42"/>
       <c r="BA12" s="7"/>
       <c r="BD12" s="5"/>
-      <c r="BE12" s="42" t="s">
+      <c r="BE12" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="BF12" s="52"/>
-      <c r="BG12" s="52"/>
-      <c r="BH12" s="52"/>
-      <c r="BI12" s="52"/>
-      <c r="BJ12" s="52"/>
-      <c r="BK12" s="52"/>
-      <c r="BL12" s="52"/>
-      <c r="BM12" s="52"/>
-      <c r="BN12" s="52"/>
-      <c r="BO12" s="52"/>
-      <c r="BP12" s="52"/>
-      <c r="BQ12" s="52"/>
-      <c r="BR12" s="43"/>
+      <c r="BF12" s="41"/>
+      <c r="BG12" s="41"/>
+      <c r="BH12" s="41"/>
+      <c r="BI12" s="41"/>
+      <c r="BJ12" s="41"/>
+      <c r="BK12" s="41"/>
+      <c r="BL12" s="41"/>
+      <c r="BM12" s="41"/>
+      <c r="BN12" s="41"/>
+      <c r="BO12" s="41"/>
+      <c r="BP12" s="41"/>
+      <c r="BQ12" s="41"/>
+      <c r="BR12" s="42"/>
       <c r="BS12" s="7"/>
       <c r="BV12" s="5"/>
-      <c r="BW12" s="42" t="s">
+      <c r="BW12" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="BX12" s="52"/>
-      <c r="BY12" s="52"/>
-      <c r="BZ12" s="52"/>
-      <c r="CA12" s="52"/>
-      <c r="CB12" s="52"/>
-      <c r="CC12" s="52"/>
-      <c r="CD12" s="52"/>
-      <c r="CE12" s="52"/>
-      <c r="CF12" s="52"/>
-      <c r="CG12" s="43"/>
+      <c r="BX12" s="41"/>
+      <c r="BY12" s="41"/>
+      <c r="BZ12" s="41"/>
+      <c r="CA12" s="41"/>
+      <c r="CB12" s="41"/>
+      <c r="CC12" s="41"/>
+      <c r="CD12" s="41"/>
+      <c r="CE12" s="41"/>
+      <c r="CF12" s="41"/>
+      <c r="CG12" s="42"/>
       <c r="CH12" s="14"/>
-      <c r="CI12" s="62" t="s">
+      <c r="CI12" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="CJ12" s="63"/>
+      <c r="CJ12" s="37"/>
       <c r="CK12" s="7"/>
       <c r="CN12" s="5"/>
-      <c r="CO12" s="42" t="s">
+      <c r="CO12" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="CP12" s="52"/>
-      <c r="CQ12" s="52"/>
-      <c r="CR12" s="52"/>
-      <c r="CS12" s="52"/>
-      <c r="CT12" s="52"/>
-      <c r="CU12" s="52"/>
-      <c r="CV12" s="52"/>
-      <c r="CW12" s="52"/>
-      <c r="CX12" s="52"/>
-      <c r="CY12" s="52"/>
-      <c r="CZ12" s="52"/>
-      <c r="DA12" s="52"/>
-      <c r="DB12" s="43"/>
+      <c r="CP12" s="41"/>
+      <c r="CQ12" s="41"/>
+      <c r="CR12" s="41"/>
+      <c r="CS12" s="41"/>
+      <c r="CT12" s="41"/>
+      <c r="CU12" s="41"/>
+      <c r="CV12" s="41"/>
+      <c r="CW12" s="41"/>
+      <c r="CX12" s="41"/>
+      <c r="CY12" s="41"/>
+      <c r="CZ12" s="41"/>
+      <c r="DA12" s="41"/>
+      <c r="DB12" s="42"/>
       <c r="DC12" s="7"/>
     </row>
     <row r="13" spans="2:107" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5607,84 +5637,84 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
-      <c r="Z13" s="59"/>
-      <c r="AA13" s="59"/>
-      <c r="AB13" s="59"/>
-      <c r="AC13" s="59"/>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="60"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="63"/>
+      <c r="AC13" s="63"/>
+      <c r="AD13" s="63"/>
+      <c r="AE13" s="63"/>
+      <c r="AF13" s="63"/>
+      <c r="AG13" s="63"/>
+      <c r="AH13" s="64"/>
       <c r="AI13" s="7"/>
       <c r="AL13" s="5"/>
-      <c r="AM13" s="44"/>
-      <c r="AN13" s="53"/>
-      <c r="AO13" s="53"/>
-      <c r="AP13" s="53"/>
-      <c r="AQ13" s="53"/>
-      <c r="AR13" s="53"/>
-      <c r="AS13" s="53"/>
-      <c r="AT13" s="53"/>
-      <c r="AU13" s="53"/>
-      <c r="AV13" s="53"/>
-      <c r="AW13" s="53"/>
-      <c r="AX13" s="53"/>
-      <c r="AY13" s="53"/>
-      <c r="AZ13" s="45"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="47"/>
+      <c r="AO13" s="47"/>
+      <c r="AP13" s="47"/>
+      <c r="AQ13" s="47"/>
+      <c r="AR13" s="47"/>
+      <c r="AS13" s="47"/>
+      <c r="AT13" s="47"/>
+      <c r="AU13" s="47"/>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="47"/>
+      <c r="AX13" s="47"/>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="48"/>
       <c r="BA13" s="7"/>
       <c r="BD13" s="5"/>
-      <c r="BE13" s="46"/>
-      <c r="BF13" s="54"/>
-      <c r="BG13" s="54"/>
-      <c r="BH13" s="54"/>
-      <c r="BI13" s="54"/>
-      <c r="BJ13" s="54"/>
-      <c r="BK13" s="54"/>
-      <c r="BL13" s="54"/>
-      <c r="BM13" s="54"/>
-      <c r="BN13" s="54"/>
-      <c r="BO13" s="54"/>
-      <c r="BP13" s="54"/>
-      <c r="BQ13" s="54"/>
-      <c r="BR13" s="47"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="44"/>
+      <c r="BG13" s="44"/>
+      <c r="BH13" s="44"/>
+      <c r="BI13" s="44"/>
+      <c r="BJ13" s="44"/>
+      <c r="BK13" s="44"/>
+      <c r="BL13" s="44"/>
+      <c r="BM13" s="44"/>
+      <c r="BN13" s="44"/>
+      <c r="BO13" s="44"/>
+      <c r="BP13" s="44"/>
+      <c r="BQ13" s="44"/>
+      <c r="BR13" s="45"/>
       <c r="BS13" s="7"/>
       <c r="BV13" s="5"/>
-      <c r="BW13" s="46"/>
-      <c r="BX13" s="54"/>
-      <c r="BY13" s="54"/>
-      <c r="BZ13" s="54"/>
-      <c r="CA13" s="54"/>
-      <c r="CB13" s="54"/>
-      <c r="CC13" s="54"/>
-      <c r="CD13" s="54"/>
-      <c r="CE13" s="54"/>
-      <c r="CF13" s="54"/>
-      <c r="CG13" s="47"/>
+      <c r="BW13" s="43"/>
+      <c r="BX13" s="44"/>
+      <c r="BY13" s="44"/>
+      <c r="BZ13" s="44"/>
+      <c r="CA13" s="44"/>
+      <c r="CB13" s="44"/>
+      <c r="CC13" s="44"/>
+      <c r="CD13" s="44"/>
+      <c r="CE13" s="44"/>
+      <c r="CF13" s="44"/>
+      <c r="CG13" s="45"/>
       <c r="CH13" s="14"/>
-      <c r="CI13" s="64"/>
-      <c r="CJ13" s="65"/>
+      <c r="CI13" s="38"/>
+      <c r="CJ13" s="39"/>
       <c r="CK13" s="7"/>
       <c r="CN13" s="5"/>
-      <c r="CO13" s="44"/>
-      <c r="CP13" s="53"/>
-      <c r="CQ13" s="53"/>
-      <c r="CR13" s="53"/>
-      <c r="CS13" s="53"/>
-      <c r="CT13" s="53"/>
-      <c r="CU13" s="53"/>
-      <c r="CV13" s="53"/>
-      <c r="CW13" s="53"/>
-      <c r="CX13" s="53"/>
-      <c r="CY13" s="53"/>
-      <c r="CZ13" s="53"/>
-      <c r="DA13" s="53"/>
-      <c r="DB13" s="45"/>
+      <c r="CO13" s="46"/>
+      <c r="CP13" s="47"/>
+      <c r="CQ13" s="47"/>
+      <c r="CR13" s="47"/>
+      <c r="CS13" s="47"/>
+      <c r="CT13" s="47"/>
+      <c r="CU13" s="47"/>
+      <c r="CV13" s="47"/>
+      <c r="CW13" s="47"/>
+      <c r="CX13" s="47"/>
+      <c r="CY13" s="47"/>
+      <c r="CZ13" s="47"/>
+      <c r="DA13" s="47"/>
+      <c r="DB13" s="48"/>
       <c r="DC13" s="7"/>
     </row>
     <row r="14" spans="2:107" x14ac:dyDescent="0.4">
@@ -5721,20 +5751,20 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="7"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="46"/>
-      <c r="AN14" s="54"/>
-      <c r="AO14" s="54"/>
-      <c r="AP14" s="54"/>
-      <c r="AQ14" s="54"/>
-      <c r="AR14" s="54"/>
-      <c r="AS14" s="54"/>
-      <c r="AT14" s="54"/>
-      <c r="AU14" s="54"/>
-      <c r="AV14" s="54"/>
-      <c r="AW14" s="54"/>
-      <c r="AX14" s="54"/>
-      <c r="AY14" s="54"/>
-      <c r="AZ14" s="47"/>
+      <c r="AM14" s="43"/>
+      <c r="AN14" s="44"/>
+      <c r="AO14" s="44"/>
+      <c r="AP14" s="44"/>
+      <c r="AQ14" s="44"/>
+      <c r="AR14" s="44"/>
+      <c r="AS14" s="44"/>
+      <c r="AT14" s="44"/>
+      <c r="AU14" s="44"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="45"/>
       <c r="BA14" s="7"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="8"/>
@@ -5769,88 +5799,88 @@
       <c r="CJ14" s="14"/>
       <c r="CK14" s="7"/>
       <c r="CN14" s="5"/>
-      <c r="CO14" s="44"/>
-      <c r="CP14" s="53"/>
-      <c r="CQ14" s="53"/>
-      <c r="CR14" s="53"/>
-      <c r="CS14" s="53"/>
-      <c r="CT14" s="53"/>
-      <c r="CU14" s="53"/>
-      <c r="CV14" s="53"/>
-      <c r="CW14" s="53"/>
-      <c r="CX14" s="53"/>
-      <c r="CY14" s="53"/>
-      <c r="CZ14" s="53"/>
-      <c r="DA14" s="53"/>
-      <c r="DB14" s="45"/>
+      <c r="CO14" s="46"/>
+      <c r="CP14" s="47"/>
+      <c r="CQ14" s="47"/>
+      <c r="CR14" s="47"/>
+      <c r="CS14" s="47"/>
+      <c r="CT14" s="47"/>
+      <c r="CU14" s="47"/>
+      <c r="CV14" s="47"/>
+      <c r="CW14" s="47"/>
+      <c r="CX14" s="47"/>
+      <c r="CY14" s="47"/>
+      <c r="CZ14" s="47"/>
+      <c r="DA14" s="47"/>
+      <c r="DB14" s="48"/>
       <c r="DC14" s="7"/>
     </row>
     <row r="15" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
       <c r="Q15" s="7"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="50" t="s">
+      <c r="U15" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="50"/>
-      <c r="W15" s="51" t="s">
+      <c r="V15" s="69"/>
+      <c r="W15" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51" t="s">
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51" t="s">
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51" t="s">
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AD15" s="51"/>
-      <c r="AE15" s="51" t="s">
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="AF15" s="51"/>
-      <c r="AG15" s="61" t="s">
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="61"/>
+      <c r="AH15" s="66"/>
       <c r="AI15" s="7"/>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="42" t="s">
+      <c r="AM15" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AN15" s="52"/>
-      <c r="AO15" s="52"/>
-      <c r="AP15" s="52"/>
-      <c r="AQ15" s="52"/>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="52"/>
-      <c r="AU15" s="52"/>
-      <c r="AV15" s="52"/>
-      <c r="AW15" s="52"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="43"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="42"/>
       <c r="BA15" s="7"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="10"/>
@@ -5869,94 +5899,94 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="7"/>
       <c r="BV15" s="5"/>
-      <c r="BW15" s="42" t="s">
+      <c r="BW15" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="BX15" s="52"/>
-      <c r="BY15" s="52"/>
-      <c r="BZ15" s="52"/>
-      <c r="CA15" s="52"/>
-      <c r="CB15" s="52"/>
-      <c r="CC15" s="52"/>
-      <c r="CD15" s="52"/>
-      <c r="CE15" s="52"/>
-      <c r="CF15" s="52"/>
-      <c r="CG15" s="52"/>
-      <c r="CH15" s="52"/>
-      <c r="CI15" s="52"/>
-      <c r="CJ15" s="43"/>
+      <c r="BX15" s="41"/>
+      <c r="BY15" s="41"/>
+      <c r="BZ15" s="41"/>
+      <c r="CA15" s="41"/>
+      <c r="CB15" s="41"/>
+      <c r="CC15" s="41"/>
+      <c r="CD15" s="41"/>
+      <c r="CE15" s="41"/>
+      <c r="CF15" s="41"/>
+      <c r="CG15" s="41"/>
+      <c r="CH15" s="41"/>
+      <c r="CI15" s="41"/>
+      <c r="CJ15" s="42"/>
       <c r="CK15" s="7"/>
       <c r="CN15" s="5"/>
-      <c r="CO15" s="44"/>
-      <c r="CP15" s="53"/>
-      <c r="CQ15" s="53"/>
-      <c r="CR15" s="53"/>
-      <c r="CS15" s="53"/>
-      <c r="CT15" s="53"/>
-      <c r="CU15" s="53"/>
-      <c r="CV15" s="53"/>
-      <c r="CW15" s="53"/>
-      <c r="CX15" s="53"/>
-      <c r="CY15" s="53"/>
-      <c r="CZ15" s="53"/>
-      <c r="DA15" s="53"/>
-      <c r="DB15" s="45"/>
+      <c r="CO15" s="46"/>
+      <c r="CP15" s="47"/>
+      <c r="CQ15" s="47"/>
+      <c r="CR15" s="47"/>
+      <c r="CS15" s="47"/>
+      <c r="CT15" s="47"/>
+      <c r="CU15" s="47"/>
+      <c r="CV15" s="47"/>
+      <c r="CW15" s="47"/>
+      <c r="CX15" s="47"/>
+      <c r="CY15" s="47"/>
+      <c r="CZ15" s="47"/>
+      <c r="DA15" s="47"/>
+      <c r="DB15" s="48"/>
       <c r="DC15" s="7"/>
     </row>
     <row r="16" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
       <c r="Q16" s="7"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="42">
+      <c r="U16" s="40"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="40">
         <v>1</v>
       </c>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="42">
+      <c r="X16" s="42"/>
+      <c r="Y16" s="40">
         <v>2</v>
       </c>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="42" t="s">
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="43"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="42"/>
       <c r="AI16" s="7"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="53"/>
-      <c r="AO16" s="53"/>
-      <c r="AP16" s="53"/>
-      <c r="AQ16" s="53"/>
-      <c r="AR16" s="53"/>
-      <c r="AS16" s="53"/>
-      <c r="AT16" s="53"/>
-      <c r="AU16" s="53"/>
-      <c r="AV16" s="53"/>
-      <c r="AW16" s="53"/>
-      <c r="AX16" s="53"/>
-      <c r="AY16" s="53"/>
-      <c r="AZ16" s="45"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="47"/>
+      <c r="AO16" s="47"/>
+      <c r="AP16" s="47"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="47"/>
+      <c r="AS16" s="47"/>
+      <c r="AT16" s="47"/>
+      <c r="AU16" s="47"/>
+      <c r="AV16" s="47"/>
+      <c r="AW16" s="47"/>
+      <c r="AX16" s="47"/>
+      <c r="AY16" s="47"/>
+      <c r="AZ16" s="48"/>
       <c r="BA16" s="7"/>
       <c r="BD16" s="5"/>
       <c r="BE16" s="13"/>
@@ -5977,86 +6007,86 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="7"/>
       <c r="BV16" s="5"/>
-      <c r="BW16" s="44"/>
-      <c r="BX16" s="53"/>
-      <c r="BY16" s="53"/>
-      <c r="BZ16" s="53"/>
-      <c r="CA16" s="53"/>
-      <c r="CB16" s="53"/>
-      <c r="CC16" s="53"/>
-      <c r="CD16" s="53"/>
-      <c r="CE16" s="53"/>
-      <c r="CF16" s="53"/>
-      <c r="CG16" s="53"/>
-      <c r="CH16" s="53"/>
-      <c r="CI16" s="53"/>
-      <c r="CJ16" s="45"/>
+      <c r="BW16" s="46"/>
+      <c r="BX16" s="47"/>
+      <c r="BY16" s="47"/>
+      <c r="BZ16" s="47"/>
+      <c r="CA16" s="47"/>
+      <c r="CB16" s="47"/>
+      <c r="CC16" s="47"/>
+      <c r="CD16" s="47"/>
+      <c r="CE16" s="47"/>
+      <c r="CF16" s="47"/>
+      <c r="CG16" s="47"/>
+      <c r="CH16" s="47"/>
+      <c r="CI16" s="47"/>
+      <c r="CJ16" s="48"/>
       <c r="CK16" s="7"/>
       <c r="CN16" s="5"/>
-      <c r="CO16" s="44"/>
-      <c r="CP16" s="53"/>
-      <c r="CQ16" s="53"/>
-      <c r="CR16" s="53"/>
-      <c r="CS16" s="53"/>
-      <c r="CT16" s="53"/>
-      <c r="CU16" s="53"/>
-      <c r="CV16" s="53"/>
-      <c r="CW16" s="53"/>
-      <c r="CX16" s="53"/>
-      <c r="CY16" s="53"/>
-      <c r="CZ16" s="53"/>
-      <c r="DA16" s="53"/>
-      <c r="DB16" s="45"/>
+      <c r="CO16" s="46"/>
+      <c r="CP16" s="47"/>
+      <c r="CQ16" s="47"/>
+      <c r="CR16" s="47"/>
+      <c r="CS16" s="47"/>
+      <c r="CT16" s="47"/>
+      <c r="CU16" s="47"/>
+      <c r="CV16" s="47"/>
+      <c r="CW16" s="47"/>
+      <c r="CX16" s="47"/>
+      <c r="CY16" s="47"/>
+      <c r="CZ16" s="47"/>
+      <c r="DA16" s="47"/>
+      <c r="DB16" s="48"/>
       <c r="DC16" s="7"/>
     </row>
     <row r="17" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
       <c r="Q17" s="7"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="44"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="44"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="44"/>
-      <c r="AH17" s="45"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="48"/>
       <c r="AI17" s="7"/>
       <c r="AL17" s="5"/>
-      <c r="AM17" s="46"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
-      <c r="AV17" s="54"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
-      <c r="AY17" s="54"/>
-      <c r="AZ17" s="47"/>
+      <c r="AM17" s="43"/>
+      <c r="AN17" s="44"/>
+      <c r="AO17" s="44"/>
+      <c r="AP17" s="44"/>
+      <c r="AQ17" s="44"/>
+      <c r="AR17" s="44"/>
+      <c r="AS17" s="44"/>
+      <c r="AT17" s="44"/>
+      <c r="AU17" s="44"/>
+      <c r="AV17" s="44"/>
+      <c r="AW17" s="44"/>
+      <c r="AX17" s="44"/>
+      <c r="AY17" s="44"/>
+      <c r="AZ17" s="45"/>
       <c r="BA17" s="7"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="13"/>
@@ -6075,88 +6105,88 @@
       <c r="BR17" s="15"/>
       <c r="BS17" s="7"/>
       <c r="BV17" s="5"/>
-      <c r="BW17" s="46"/>
-      <c r="BX17" s="54"/>
-      <c r="BY17" s="54"/>
-      <c r="BZ17" s="54"/>
-      <c r="CA17" s="54"/>
-      <c r="CB17" s="54"/>
-      <c r="CC17" s="54"/>
-      <c r="CD17" s="54"/>
-      <c r="CE17" s="54"/>
-      <c r="CF17" s="54"/>
-      <c r="CG17" s="54"/>
-      <c r="CH17" s="54"/>
-      <c r="CI17" s="54"/>
-      <c r="CJ17" s="47"/>
+      <c r="BW17" s="43"/>
+      <c r="BX17" s="44"/>
+      <c r="BY17" s="44"/>
+      <c r="BZ17" s="44"/>
+      <c r="CA17" s="44"/>
+      <c r="CB17" s="44"/>
+      <c r="CC17" s="44"/>
+      <c r="CD17" s="44"/>
+      <c r="CE17" s="44"/>
+      <c r="CF17" s="44"/>
+      <c r="CG17" s="44"/>
+      <c r="CH17" s="44"/>
+      <c r="CI17" s="44"/>
+      <c r="CJ17" s="45"/>
       <c r="CK17" s="7"/>
       <c r="CN17" s="5"/>
-      <c r="CO17" s="44"/>
-      <c r="CP17" s="53"/>
-      <c r="CQ17" s="53"/>
-      <c r="CR17" s="53"/>
-      <c r="CS17" s="53"/>
-      <c r="CT17" s="53"/>
-      <c r="CU17" s="53"/>
-      <c r="CV17" s="53"/>
-      <c r="CW17" s="53"/>
-      <c r="CX17" s="53"/>
-      <c r="CY17" s="53"/>
-      <c r="CZ17" s="53"/>
-      <c r="DA17" s="53"/>
-      <c r="DB17" s="45"/>
+      <c r="CO17" s="46"/>
+      <c r="CP17" s="47"/>
+      <c r="CQ17" s="47"/>
+      <c r="CR17" s="47"/>
+      <c r="CS17" s="47"/>
+      <c r="CT17" s="47"/>
+      <c r="CU17" s="47"/>
+      <c r="CV17" s="47"/>
+      <c r="CW17" s="47"/>
+      <c r="CX17" s="47"/>
+      <c r="CY17" s="47"/>
+      <c r="CZ17" s="47"/>
+      <c r="DA17" s="47"/>
+      <c r="DB17" s="48"/>
       <c r="DC17" s="7"/>
     </row>
     <row r="18" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
       <c r="Q18" s="7"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="46"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="46"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="46"/>
-      <c r="AH18" s="47"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="43"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="43"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="43"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="43"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="43"/>
+      <c r="AH18" s="45"/>
       <c r="AI18" s="7"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="42" t="s">
+      <c r="AM18" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
-      <c r="AV18" s="52"/>
-      <c r="AW18" s="52"/>
-      <c r="AX18" s="52"/>
-      <c r="AY18" s="52"/>
-      <c r="AZ18" s="43"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+      <c r="AP18" s="41"/>
+      <c r="AQ18" s="41"/>
+      <c r="AR18" s="41"/>
+      <c r="AS18" s="41"/>
+      <c r="AT18" s="41"/>
+      <c r="AU18" s="41"/>
+      <c r="AV18" s="41"/>
+      <c r="AW18" s="41"/>
+      <c r="AX18" s="41"/>
+      <c r="AY18" s="41"/>
+      <c r="AZ18" s="42"/>
       <c r="BA18" s="7"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="13"/>
@@ -6177,88 +6207,88 @@
       <c r="BR18" s="15"/>
       <c r="BS18" s="7"/>
       <c r="BV18" s="5"/>
-      <c r="BW18" s="42" t="s">
+      <c r="BW18" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="BX18" s="52"/>
-      <c r="BY18" s="52"/>
-      <c r="BZ18" s="52"/>
-      <c r="CA18" s="52"/>
-      <c r="CB18" s="52"/>
-      <c r="CC18" s="52"/>
-      <c r="CD18" s="52"/>
-      <c r="CE18" s="52"/>
-      <c r="CF18" s="52"/>
-      <c r="CG18" s="52"/>
-      <c r="CH18" s="52"/>
-      <c r="CI18" s="52"/>
-      <c r="CJ18" s="43"/>
+      <c r="BX18" s="41"/>
+      <c r="BY18" s="41"/>
+      <c r="BZ18" s="41"/>
+      <c r="CA18" s="41"/>
+      <c r="CB18" s="41"/>
+      <c r="CC18" s="41"/>
+      <c r="CD18" s="41"/>
+      <c r="CE18" s="41"/>
+      <c r="CF18" s="41"/>
+      <c r="CG18" s="41"/>
+      <c r="CH18" s="41"/>
+      <c r="CI18" s="41"/>
+      <c r="CJ18" s="42"/>
       <c r="CK18" s="7"/>
       <c r="CN18" s="5"/>
-      <c r="CO18" s="44"/>
-      <c r="CP18" s="53"/>
-      <c r="CQ18" s="53"/>
-      <c r="CR18" s="53"/>
-      <c r="CS18" s="53"/>
-      <c r="CT18" s="53"/>
-      <c r="CU18" s="53"/>
-      <c r="CV18" s="53"/>
-      <c r="CW18" s="53"/>
-      <c r="CX18" s="53"/>
-      <c r="CY18" s="53"/>
-      <c r="CZ18" s="53"/>
-      <c r="DA18" s="53"/>
-      <c r="DB18" s="45"/>
+      <c r="CO18" s="46"/>
+      <c r="CP18" s="47"/>
+      <c r="CQ18" s="47"/>
+      <c r="CR18" s="47"/>
+      <c r="CS18" s="47"/>
+      <c r="CT18" s="47"/>
+      <c r="CU18" s="47"/>
+      <c r="CV18" s="47"/>
+      <c r="CW18" s="47"/>
+      <c r="CX18" s="47"/>
+      <c r="CY18" s="47"/>
+      <c r="CZ18" s="47"/>
+      <c r="DA18" s="47"/>
+      <c r="DB18" s="48"/>
       <c r="DC18" s="7"/>
     </row>
     <row r="19" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
       <c r="Q19" s="7"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="42"/>
-      <c r="AH19" s="43"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="40"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="40"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="40"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="40"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="40"/>
+      <c r="AH19" s="42"/>
       <c r="AI19" s="7"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="53"/>
-      <c r="AO19" s="53"/>
-      <c r="AP19" s="53"/>
-      <c r="AQ19" s="53"/>
-      <c r="AR19" s="53"/>
-      <c r="AS19" s="53"/>
-      <c r="AT19" s="53"/>
-      <c r="AU19" s="53"/>
-      <c r="AV19" s="53"/>
-      <c r="AW19" s="53"/>
-      <c r="AX19" s="53"/>
-      <c r="AY19" s="53"/>
-      <c r="AZ19" s="45"/>
+      <c r="AM19" s="46"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+      <c r="AX19" s="47"/>
+      <c r="AY19" s="47"/>
+      <c r="AZ19" s="48"/>
       <c r="BA19" s="7"/>
       <c r="BD19" s="5"/>
       <c r="BE19" s="13"/>
@@ -6279,86 +6309,86 @@
       <c r="BR19" s="15"/>
       <c r="BS19" s="7"/>
       <c r="BV19" s="5"/>
-      <c r="BW19" s="44"/>
-      <c r="BX19" s="53"/>
-      <c r="BY19" s="53"/>
-      <c r="BZ19" s="53"/>
-      <c r="CA19" s="53"/>
-      <c r="CB19" s="53"/>
-      <c r="CC19" s="53"/>
-      <c r="CD19" s="53"/>
-      <c r="CE19" s="53"/>
-      <c r="CF19" s="53"/>
-      <c r="CG19" s="53"/>
-      <c r="CH19" s="53"/>
-      <c r="CI19" s="53"/>
-      <c r="CJ19" s="45"/>
+      <c r="BW19" s="46"/>
+      <c r="BX19" s="47"/>
+      <c r="BY19" s="47"/>
+      <c r="BZ19" s="47"/>
+      <c r="CA19" s="47"/>
+      <c r="CB19" s="47"/>
+      <c r="CC19" s="47"/>
+      <c r="CD19" s="47"/>
+      <c r="CE19" s="47"/>
+      <c r="CF19" s="47"/>
+      <c r="CG19" s="47"/>
+      <c r="CH19" s="47"/>
+      <c r="CI19" s="47"/>
+      <c r="CJ19" s="48"/>
       <c r="CK19" s="7"/>
       <c r="CN19" s="5"/>
-      <c r="CO19" s="44"/>
-      <c r="CP19" s="53"/>
-      <c r="CQ19" s="53"/>
-      <c r="CR19" s="53"/>
-      <c r="CS19" s="53"/>
-      <c r="CT19" s="53"/>
-      <c r="CU19" s="53"/>
-      <c r="CV19" s="53"/>
-      <c r="CW19" s="53"/>
-      <c r="CX19" s="53"/>
-      <c r="CY19" s="53"/>
-      <c r="CZ19" s="53"/>
-      <c r="DA19" s="53"/>
-      <c r="DB19" s="45"/>
+      <c r="CO19" s="46"/>
+      <c r="CP19" s="47"/>
+      <c r="CQ19" s="47"/>
+      <c r="CR19" s="47"/>
+      <c r="CS19" s="47"/>
+      <c r="CT19" s="47"/>
+      <c r="CU19" s="47"/>
+      <c r="CV19" s="47"/>
+      <c r="CW19" s="47"/>
+      <c r="CX19" s="47"/>
+      <c r="CY19" s="47"/>
+      <c r="CZ19" s="47"/>
+      <c r="DA19" s="47"/>
+      <c r="DB19" s="48"/>
       <c r="DC19" s="7"/>
     </row>
     <row r="20" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
       <c r="Q20" s="7"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="44"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="44"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="44"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="44"/>
-      <c r="AH20" s="45"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="48"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="48"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="48"/>
       <c r="AI20" s="7"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="46"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="54"/>
-      <c r="AP20" s="54"/>
-      <c r="AQ20" s="54"/>
-      <c r="AR20" s="54"/>
-      <c r="AS20" s="54"/>
-      <c r="AT20" s="54"/>
-      <c r="AU20" s="54"/>
-      <c r="AV20" s="54"/>
-      <c r="AW20" s="54"/>
-      <c r="AX20" s="54"/>
-      <c r="AY20" s="54"/>
-      <c r="AZ20" s="47"/>
+      <c r="AM20" s="43"/>
+      <c r="AN20" s="44"/>
+      <c r="AO20" s="44"/>
+      <c r="AP20" s="44"/>
+      <c r="AQ20" s="44"/>
+      <c r="AR20" s="44"/>
+      <c r="AS20" s="44"/>
+      <c r="AT20" s="44"/>
+      <c r="AU20" s="44"/>
+      <c r="AV20" s="44"/>
+      <c r="AW20" s="44"/>
+      <c r="AX20" s="44"/>
+      <c r="AY20" s="44"/>
+      <c r="AZ20" s="45"/>
       <c r="BA20" s="7"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="13"/>
@@ -6379,88 +6409,88 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="7"/>
       <c r="BV20" s="5"/>
-      <c r="BW20" s="46"/>
-      <c r="BX20" s="54"/>
-      <c r="BY20" s="54"/>
-      <c r="BZ20" s="54"/>
-      <c r="CA20" s="54"/>
-      <c r="CB20" s="54"/>
-      <c r="CC20" s="54"/>
-      <c r="CD20" s="54"/>
-      <c r="CE20" s="54"/>
-      <c r="CF20" s="54"/>
-      <c r="CG20" s="54"/>
-      <c r="CH20" s="54"/>
-      <c r="CI20" s="54"/>
-      <c r="CJ20" s="47"/>
+      <c r="BW20" s="43"/>
+      <c r="BX20" s="44"/>
+      <c r="BY20" s="44"/>
+      <c r="BZ20" s="44"/>
+      <c r="CA20" s="44"/>
+      <c r="CB20" s="44"/>
+      <c r="CC20" s="44"/>
+      <c r="CD20" s="44"/>
+      <c r="CE20" s="44"/>
+      <c r="CF20" s="44"/>
+      <c r="CG20" s="44"/>
+      <c r="CH20" s="44"/>
+      <c r="CI20" s="44"/>
+      <c r="CJ20" s="45"/>
       <c r="CK20" s="7"/>
       <c r="CN20" s="5"/>
-      <c r="CO20" s="44"/>
-      <c r="CP20" s="53"/>
-      <c r="CQ20" s="53"/>
-      <c r="CR20" s="53"/>
-      <c r="CS20" s="53"/>
-      <c r="CT20" s="53"/>
-      <c r="CU20" s="53"/>
-      <c r="CV20" s="53"/>
-      <c r="CW20" s="53"/>
-      <c r="CX20" s="53"/>
-      <c r="CY20" s="53"/>
-      <c r="CZ20" s="53"/>
-      <c r="DA20" s="53"/>
-      <c r="DB20" s="45"/>
+      <c r="CO20" s="46"/>
+      <c r="CP20" s="47"/>
+      <c r="CQ20" s="47"/>
+      <c r="CR20" s="47"/>
+      <c r="CS20" s="47"/>
+      <c r="CT20" s="47"/>
+      <c r="CU20" s="47"/>
+      <c r="CV20" s="47"/>
+      <c r="CW20" s="47"/>
+      <c r="CX20" s="47"/>
+      <c r="CY20" s="47"/>
+      <c r="CZ20" s="47"/>
+      <c r="DA20" s="47"/>
+      <c r="DB20" s="48"/>
       <c r="DC20" s="7"/>
     </row>
     <row r="21" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
       <c r="Q21" s="7"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="46"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="46"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="46"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="46"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="46"/>
-      <c r="AH21" s="47"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="43"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="43"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="43"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="43"/>
+      <c r="AH21" s="45"/>
       <c r="AI21" s="7"/>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="42" t="s">
+      <c r="AM21" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52"/>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="43"/>
+      <c r="AN21" s="41"/>
+      <c r="AO21" s="41"/>
+      <c r="AP21" s="41"/>
+      <c r="AQ21" s="41"/>
+      <c r="AR21" s="41"/>
+      <c r="AS21" s="41"/>
+      <c r="AT21" s="41"/>
+      <c r="AU21" s="41"/>
+      <c r="AV21" s="41"/>
+      <c r="AW21" s="41"/>
+      <c r="AX21" s="41"/>
+      <c r="AY21" s="41"/>
+      <c r="AZ21" s="42"/>
       <c r="BA21" s="7"/>
       <c r="BD21" s="5"/>
       <c r="BE21" s="13"/>
@@ -6479,88 +6509,88 @@
       <c r="BR21" s="15"/>
       <c r="BS21" s="7"/>
       <c r="BV21" s="5"/>
-      <c r="BW21" s="42" t="s">
+      <c r="BW21" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="BX21" s="52"/>
-      <c r="BY21" s="52"/>
-      <c r="BZ21" s="52"/>
-      <c r="CA21" s="52"/>
-      <c r="CB21" s="52"/>
-      <c r="CC21" s="52"/>
-      <c r="CD21" s="52"/>
-      <c r="CE21" s="52"/>
-      <c r="CF21" s="52"/>
-      <c r="CG21" s="52"/>
-      <c r="CH21" s="52"/>
-      <c r="CI21" s="52"/>
-      <c r="CJ21" s="43"/>
+      <c r="BX21" s="41"/>
+      <c r="BY21" s="41"/>
+      <c r="BZ21" s="41"/>
+      <c r="CA21" s="41"/>
+      <c r="CB21" s="41"/>
+      <c r="CC21" s="41"/>
+      <c r="CD21" s="41"/>
+      <c r="CE21" s="41"/>
+      <c r="CF21" s="41"/>
+      <c r="CG21" s="41"/>
+      <c r="CH21" s="41"/>
+      <c r="CI21" s="41"/>
+      <c r="CJ21" s="42"/>
       <c r="CK21" s="7"/>
       <c r="CN21" s="5"/>
-      <c r="CO21" s="44"/>
-      <c r="CP21" s="53"/>
-      <c r="CQ21" s="53"/>
-      <c r="CR21" s="53"/>
-      <c r="CS21" s="53"/>
-      <c r="CT21" s="53"/>
-      <c r="CU21" s="53"/>
-      <c r="CV21" s="53"/>
-      <c r="CW21" s="53"/>
-      <c r="CX21" s="53"/>
-      <c r="CY21" s="53"/>
-      <c r="CZ21" s="53"/>
-      <c r="DA21" s="53"/>
-      <c r="DB21" s="45"/>
+      <c r="CO21" s="46"/>
+      <c r="CP21" s="47"/>
+      <c r="CQ21" s="47"/>
+      <c r="CR21" s="47"/>
+      <c r="CS21" s="47"/>
+      <c r="CT21" s="47"/>
+      <c r="CU21" s="47"/>
+      <c r="CV21" s="47"/>
+      <c r="CW21" s="47"/>
+      <c r="CX21" s="47"/>
+      <c r="CY21" s="47"/>
+      <c r="CZ21" s="47"/>
+      <c r="DA21" s="47"/>
+      <c r="DB21" s="48"/>
       <c r="DC21" s="7"/>
     </row>
     <row r="22" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
       <c r="Q22" s="7"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="43"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="43"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="43"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="43"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="43"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="42"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="40"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="40"/>
+      <c r="AD22" s="42"/>
+      <c r="AE22" s="40"/>
+      <c r="AF22" s="42"/>
+      <c r="AG22" s="40"/>
+      <c r="AH22" s="42"/>
       <c r="AI22" s="7"/>
       <c r="AL22" s="5"/>
-      <c r="AM22" s="44"/>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53"/>
-      <c r="AP22" s="53"/>
-      <c r="AQ22" s="53"/>
-      <c r="AR22" s="53"/>
-      <c r="AS22" s="53"/>
-      <c r="AT22" s="53"/>
-      <c r="AU22" s="53"/>
-      <c r="AV22" s="53"/>
-      <c r="AW22" s="53"/>
-      <c r="AX22" s="53"/>
-      <c r="AY22" s="53"/>
-      <c r="AZ22" s="45"/>
+      <c r="AM22" s="46"/>
+      <c r="AN22" s="47"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="47"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="47"/>
+      <c r="AS22" s="47"/>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="47"/>
+      <c r="AV22" s="47"/>
+      <c r="AW22" s="47"/>
+      <c r="AX22" s="47"/>
+      <c r="AY22" s="47"/>
+      <c r="AZ22" s="48"/>
       <c r="BA22" s="7"/>
       <c r="BD22" s="5"/>
       <c r="BE22" s="13"/>
@@ -6579,86 +6609,86 @@
       <c r="BR22" s="15"/>
       <c r="BS22" s="7"/>
       <c r="BV22" s="5"/>
-      <c r="BW22" s="44"/>
-      <c r="BX22" s="53"/>
-      <c r="BY22" s="53"/>
-      <c r="BZ22" s="53"/>
-      <c r="CA22" s="53"/>
-      <c r="CB22" s="53"/>
-      <c r="CC22" s="53"/>
-      <c r="CD22" s="53"/>
-      <c r="CE22" s="53"/>
-      <c r="CF22" s="53"/>
-      <c r="CG22" s="53"/>
-      <c r="CH22" s="53"/>
-      <c r="CI22" s="53"/>
-      <c r="CJ22" s="45"/>
+      <c r="BW22" s="46"/>
+      <c r="BX22" s="47"/>
+      <c r="BY22" s="47"/>
+      <c r="BZ22" s="47"/>
+      <c r="CA22" s="47"/>
+      <c r="CB22" s="47"/>
+      <c r="CC22" s="47"/>
+      <c r="CD22" s="47"/>
+      <c r="CE22" s="47"/>
+      <c r="CF22" s="47"/>
+      <c r="CG22" s="47"/>
+      <c r="CH22" s="47"/>
+      <c r="CI22" s="47"/>
+      <c r="CJ22" s="48"/>
       <c r="CK22" s="7"/>
       <c r="CN22" s="5"/>
-      <c r="CO22" s="44"/>
-      <c r="CP22" s="53"/>
-      <c r="CQ22" s="53"/>
-      <c r="CR22" s="53"/>
-      <c r="CS22" s="53"/>
-      <c r="CT22" s="53"/>
-      <c r="CU22" s="53"/>
-      <c r="CV22" s="53"/>
-      <c r="CW22" s="53"/>
-      <c r="CX22" s="53"/>
-      <c r="CY22" s="53"/>
-      <c r="CZ22" s="53"/>
-      <c r="DA22" s="53"/>
-      <c r="DB22" s="45"/>
+      <c r="CO22" s="46"/>
+      <c r="CP22" s="47"/>
+      <c r="CQ22" s="47"/>
+      <c r="CR22" s="47"/>
+      <c r="CS22" s="47"/>
+      <c r="CT22" s="47"/>
+      <c r="CU22" s="47"/>
+      <c r="CV22" s="47"/>
+      <c r="CW22" s="47"/>
+      <c r="CX22" s="47"/>
+      <c r="CY22" s="47"/>
+      <c r="CZ22" s="47"/>
+      <c r="DA22" s="47"/>
+      <c r="DB22" s="48"/>
       <c r="DC22" s="7"/>
     </row>
     <row r="23" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
       <c r="Q23" s="7"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="44"/>
-      <c r="AB23" s="45"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="45"/>
-      <c r="AE23" s="44"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="44"/>
-      <c r="AH23" s="45"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="46"/>
+      <c r="AB23" s="48"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="48"/>
+      <c r="AE23" s="46"/>
+      <c r="AF23" s="48"/>
+      <c r="AG23" s="46"/>
+      <c r="AH23" s="48"/>
       <c r="AI23" s="7"/>
       <c r="AL23" s="5"/>
-      <c r="AM23" s="46"/>
-      <c r="AN23" s="54"/>
-      <c r="AO23" s="54"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="54"/>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="54"/>
-      <c r="AU23" s="54"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="47"/>
+      <c r="AM23" s="43"/>
+      <c r="AN23" s="44"/>
+      <c r="AO23" s="44"/>
+      <c r="AP23" s="44"/>
+      <c r="AQ23" s="44"/>
+      <c r="AR23" s="44"/>
+      <c r="AS23" s="44"/>
+      <c r="AT23" s="44"/>
+      <c r="AU23" s="44"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="45"/>
       <c r="BA23" s="7"/>
       <c r="BD23" s="5"/>
       <c r="BE23" s="13"/>
@@ -6677,88 +6707,88 @@
       <c r="BR23" s="15"/>
       <c r="BS23" s="7"/>
       <c r="BV23" s="5"/>
-      <c r="BW23" s="46"/>
-      <c r="BX23" s="54"/>
-      <c r="BY23" s="54"/>
-      <c r="BZ23" s="54"/>
-      <c r="CA23" s="54"/>
-      <c r="CB23" s="54"/>
-      <c r="CC23" s="54"/>
-      <c r="CD23" s="54"/>
-      <c r="CE23" s="54"/>
-      <c r="CF23" s="54"/>
-      <c r="CG23" s="54"/>
-      <c r="CH23" s="54"/>
-      <c r="CI23" s="54"/>
-      <c r="CJ23" s="47"/>
+      <c r="BW23" s="43"/>
+      <c r="BX23" s="44"/>
+      <c r="BY23" s="44"/>
+      <c r="BZ23" s="44"/>
+      <c r="CA23" s="44"/>
+      <c r="CB23" s="44"/>
+      <c r="CC23" s="44"/>
+      <c r="CD23" s="44"/>
+      <c r="CE23" s="44"/>
+      <c r="CF23" s="44"/>
+      <c r="CG23" s="44"/>
+      <c r="CH23" s="44"/>
+      <c r="CI23" s="44"/>
+      <c r="CJ23" s="45"/>
       <c r="CK23" s="7"/>
       <c r="CN23" s="5"/>
-      <c r="CO23" s="44"/>
-      <c r="CP23" s="53"/>
-      <c r="CQ23" s="53"/>
-      <c r="CR23" s="53"/>
-      <c r="CS23" s="53"/>
-      <c r="CT23" s="53"/>
-      <c r="CU23" s="53"/>
-      <c r="CV23" s="53"/>
-      <c r="CW23" s="53"/>
-      <c r="CX23" s="53"/>
-      <c r="CY23" s="53"/>
-      <c r="CZ23" s="53"/>
-      <c r="DA23" s="53"/>
-      <c r="DB23" s="45"/>
+      <c r="CO23" s="46"/>
+      <c r="CP23" s="47"/>
+      <c r="CQ23" s="47"/>
+      <c r="CR23" s="47"/>
+      <c r="CS23" s="47"/>
+      <c r="CT23" s="47"/>
+      <c r="CU23" s="47"/>
+      <c r="CV23" s="47"/>
+      <c r="CW23" s="47"/>
+      <c r="CX23" s="47"/>
+      <c r="CY23" s="47"/>
+      <c r="CZ23" s="47"/>
+      <c r="DA23" s="47"/>
+      <c r="DB23" s="48"/>
       <c r="DC23" s="7"/>
     </row>
     <row r="24" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
       <c r="Q24" s="7"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="46"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="46"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="46"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="46"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="46"/>
-      <c r="AH24" s="47"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="43"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="43"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="43"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="43"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="43"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="43"/>
+      <c r="AH24" s="45"/>
       <c r="AI24" s="7"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="42" t="s">
+      <c r="AM24" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AN24" s="52"/>
-      <c r="AO24" s="52"/>
-      <c r="AP24" s="52"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="AZ24" s="43"/>
+      <c r="AN24" s="41"/>
+      <c r="AO24" s="41"/>
+      <c r="AP24" s="41"/>
+      <c r="AQ24" s="41"/>
+      <c r="AR24" s="41"/>
+      <c r="AS24" s="41"/>
+      <c r="AT24" s="41"/>
+      <c r="AU24" s="41"/>
+      <c r="AV24" s="41"/>
+      <c r="AW24" s="41"/>
+      <c r="AX24" s="41"/>
+      <c r="AY24" s="41"/>
+      <c r="AZ24" s="42"/>
       <c r="BA24" s="7"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="13"/>
@@ -6777,88 +6807,88 @@
       <c r="BR24" s="15"/>
       <c r="BS24" s="7"/>
       <c r="BV24" s="5"/>
-      <c r="BW24" s="42" t="s">
+      <c r="BW24" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="BX24" s="52"/>
-      <c r="BY24" s="52"/>
-      <c r="BZ24" s="52"/>
-      <c r="CA24" s="52"/>
-      <c r="CB24" s="52"/>
-      <c r="CC24" s="52"/>
-      <c r="CD24" s="52"/>
-      <c r="CE24" s="52"/>
-      <c r="CF24" s="52"/>
-      <c r="CG24" s="52"/>
-      <c r="CH24" s="52"/>
-      <c r="CI24" s="52"/>
-      <c r="CJ24" s="43"/>
+      <c r="BX24" s="41"/>
+      <c r="BY24" s="41"/>
+      <c r="BZ24" s="41"/>
+      <c r="CA24" s="41"/>
+      <c r="CB24" s="41"/>
+      <c r="CC24" s="41"/>
+      <c r="CD24" s="41"/>
+      <c r="CE24" s="41"/>
+      <c r="CF24" s="41"/>
+      <c r="CG24" s="41"/>
+      <c r="CH24" s="41"/>
+      <c r="CI24" s="41"/>
+      <c r="CJ24" s="42"/>
       <c r="CK24" s="7"/>
       <c r="CN24" s="5"/>
-      <c r="CO24" s="44"/>
-      <c r="CP24" s="53"/>
-      <c r="CQ24" s="53"/>
-      <c r="CR24" s="53"/>
-      <c r="CS24" s="53"/>
-      <c r="CT24" s="53"/>
-      <c r="CU24" s="53"/>
-      <c r="CV24" s="53"/>
-      <c r="CW24" s="53"/>
-      <c r="CX24" s="53"/>
-      <c r="CY24" s="53"/>
-      <c r="CZ24" s="53"/>
-      <c r="DA24" s="53"/>
-      <c r="DB24" s="45"/>
+      <c r="CO24" s="46"/>
+      <c r="CP24" s="47"/>
+      <c r="CQ24" s="47"/>
+      <c r="CR24" s="47"/>
+      <c r="CS24" s="47"/>
+      <c r="CT24" s="47"/>
+      <c r="CU24" s="47"/>
+      <c r="CV24" s="47"/>
+      <c r="CW24" s="47"/>
+      <c r="CX24" s="47"/>
+      <c r="CY24" s="47"/>
+      <c r="CZ24" s="47"/>
+      <c r="DA24" s="47"/>
+      <c r="DB24" s="48"/>
       <c r="DC24" s="7"/>
     </row>
     <row r="25" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
       <c r="Q25" s="7"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="43"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="43"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="43"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="43"/>
-      <c r="AE25" s="42"/>
-      <c r="AF25" s="43"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="43"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="40"/>
+      <c r="X25" s="42"/>
+      <c r="Y25" s="40"/>
+      <c r="Z25" s="42"/>
+      <c r="AA25" s="40"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="40"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="40"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="40"/>
+      <c r="AH25" s="42"/>
       <c r="AI25" s="7"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="53"/>
-      <c r="AO25" s="53"/>
-      <c r="AP25" s="53"/>
-      <c r="AQ25" s="53"/>
-      <c r="AR25" s="53"/>
-      <c r="AS25" s="53"/>
-      <c r="AT25" s="53"/>
-      <c r="AU25" s="53"/>
-      <c r="AV25" s="53"/>
-      <c r="AW25" s="53"/>
-      <c r="AX25" s="53"/>
-      <c r="AY25" s="53"/>
-      <c r="AZ25" s="45"/>
+      <c r="AM25" s="46"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+      <c r="AX25" s="47"/>
+      <c r="AY25" s="47"/>
+      <c r="AZ25" s="48"/>
       <c r="BA25" s="7"/>
       <c r="BD25" s="5"/>
       <c r="BE25" s="13"/>
@@ -6877,86 +6907,86 @@
       <c r="BR25" s="15"/>
       <c r="BS25" s="7"/>
       <c r="BV25" s="5"/>
-      <c r="BW25" s="44"/>
-      <c r="BX25" s="53"/>
-      <c r="BY25" s="53"/>
-      <c r="BZ25" s="53"/>
-      <c r="CA25" s="53"/>
-      <c r="CB25" s="53"/>
-      <c r="CC25" s="53"/>
-      <c r="CD25" s="53"/>
-      <c r="CE25" s="53"/>
-      <c r="CF25" s="53"/>
-      <c r="CG25" s="53"/>
-      <c r="CH25" s="53"/>
-      <c r="CI25" s="53"/>
-      <c r="CJ25" s="45"/>
+      <c r="BW25" s="46"/>
+      <c r="BX25" s="47"/>
+      <c r="BY25" s="47"/>
+      <c r="BZ25" s="47"/>
+      <c r="CA25" s="47"/>
+      <c r="CB25" s="47"/>
+      <c r="CC25" s="47"/>
+      <c r="CD25" s="47"/>
+      <c r="CE25" s="47"/>
+      <c r="CF25" s="47"/>
+      <c r="CG25" s="47"/>
+      <c r="CH25" s="47"/>
+      <c r="CI25" s="47"/>
+      <c r="CJ25" s="48"/>
       <c r="CK25" s="7"/>
       <c r="CN25" s="5"/>
-      <c r="CO25" s="44"/>
-      <c r="CP25" s="53"/>
-      <c r="CQ25" s="53"/>
-      <c r="CR25" s="53"/>
-      <c r="CS25" s="53"/>
-      <c r="CT25" s="53"/>
-      <c r="CU25" s="53"/>
-      <c r="CV25" s="53"/>
-      <c r="CW25" s="53"/>
-      <c r="CX25" s="53"/>
-      <c r="CY25" s="53"/>
-      <c r="CZ25" s="53"/>
-      <c r="DA25" s="53"/>
-      <c r="DB25" s="45"/>
+      <c r="CO25" s="46"/>
+      <c r="CP25" s="47"/>
+      <c r="CQ25" s="47"/>
+      <c r="CR25" s="47"/>
+      <c r="CS25" s="47"/>
+      <c r="CT25" s="47"/>
+      <c r="CU25" s="47"/>
+      <c r="CV25" s="47"/>
+      <c r="CW25" s="47"/>
+      <c r="CX25" s="47"/>
+      <c r="CY25" s="47"/>
+      <c r="CZ25" s="47"/>
+      <c r="DA25" s="47"/>
+      <c r="DB25" s="48"/>
       <c r="DC25" s="7"/>
     </row>
     <row r="26" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
       <c r="Q26" s="7"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="44"/>
-      <c r="AD26" s="45"/>
-      <c r="AE26" s="44"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="44"/>
-      <c r="AH26" s="45"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="48"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="48"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="48"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="48"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="48"/>
       <c r="AI26" s="7"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="46"/>
-      <c r="AN26" s="54"/>
-      <c r="AO26" s="54"/>
-      <c r="AP26" s="54"/>
-      <c r="AQ26" s="54"/>
-      <c r="AR26" s="54"/>
-      <c r="AS26" s="54"/>
-      <c r="AT26" s="54"/>
-      <c r="AU26" s="54"/>
-      <c r="AV26" s="54"/>
-      <c r="AW26" s="54"/>
-      <c r="AX26" s="54"/>
-      <c r="AY26" s="54"/>
-      <c r="AZ26" s="47"/>
+      <c r="AM26" s="43"/>
+      <c r="AN26" s="44"/>
+      <c r="AO26" s="44"/>
+      <c r="AP26" s="44"/>
+      <c r="AQ26" s="44"/>
+      <c r="AR26" s="44"/>
+      <c r="AS26" s="44"/>
+      <c r="AT26" s="44"/>
+      <c r="AU26" s="44"/>
+      <c r="AV26" s="44"/>
+      <c r="AW26" s="44"/>
+      <c r="AX26" s="44"/>
+      <c r="AY26" s="44"/>
+      <c r="AZ26" s="45"/>
       <c r="BA26" s="7"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="13"/>
@@ -6975,88 +7005,88 @@
       <c r="BR26" s="15"/>
       <c r="BS26" s="7"/>
       <c r="BV26" s="5"/>
-      <c r="BW26" s="46"/>
-      <c r="BX26" s="54"/>
-      <c r="BY26" s="54"/>
-      <c r="BZ26" s="54"/>
-      <c r="CA26" s="54"/>
-      <c r="CB26" s="54"/>
-      <c r="CC26" s="54"/>
-      <c r="CD26" s="54"/>
-      <c r="CE26" s="54"/>
-      <c r="CF26" s="54"/>
-      <c r="CG26" s="54"/>
-      <c r="CH26" s="54"/>
-      <c r="CI26" s="54"/>
-      <c r="CJ26" s="47"/>
+      <c r="BW26" s="43"/>
+      <c r="BX26" s="44"/>
+      <c r="BY26" s="44"/>
+      <c r="BZ26" s="44"/>
+      <c r="CA26" s="44"/>
+      <c r="CB26" s="44"/>
+      <c r="CC26" s="44"/>
+      <c r="CD26" s="44"/>
+      <c r="CE26" s="44"/>
+      <c r="CF26" s="44"/>
+      <c r="CG26" s="44"/>
+      <c r="CH26" s="44"/>
+      <c r="CI26" s="44"/>
+      <c r="CJ26" s="45"/>
       <c r="CK26" s="7"/>
       <c r="CN26" s="5"/>
-      <c r="CO26" s="44"/>
-      <c r="CP26" s="53"/>
-      <c r="CQ26" s="53"/>
-      <c r="CR26" s="53"/>
-      <c r="CS26" s="53"/>
-      <c r="CT26" s="53"/>
-      <c r="CU26" s="53"/>
-      <c r="CV26" s="53"/>
-      <c r="CW26" s="53"/>
-      <c r="CX26" s="53"/>
-      <c r="CY26" s="53"/>
-      <c r="CZ26" s="53"/>
-      <c r="DA26" s="53"/>
-      <c r="DB26" s="45"/>
+      <c r="CO26" s="46"/>
+      <c r="CP26" s="47"/>
+      <c r="CQ26" s="47"/>
+      <c r="CR26" s="47"/>
+      <c r="CS26" s="47"/>
+      <c r="CT26" s="47"/>
+      <c r="CU26" s="47"/>
+      <c r="CV26" s="47"/>
+      <c r="CW26" s="47"/>
+      <c r="CX26" s="47"/>
+      <c r="CY26" s="47"/>
+      <c r="CZ26" s="47"/>
+      <c r="DA26" s="47"/>
+      <c r="DB26" s="48"/>
       <c r="DC26" s="7"/>
     </row>
     <row r="27" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
       <c r="Q27" s="7"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="46"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="46"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="46"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="46"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="46"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="46"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="46"/>
-      <c r="AH27" s="47"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="43"/>
+      <c r="X27" s="45"/>
+      <c r="Y27" s="43"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="43"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="45"/>
+      <c r="AE27" s="43"/>
+      <c r="AF27" s="45"/>
+      <c r="AG27" s="43"/>
+      <c r="AH27" s="45"/>
       <c r="AI27" s="7"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="42" t="s">
+      <c r="AM27" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AN27" s="52"/>
-      <c r="AO27" s="52"/>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="52"/>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="AZ27" s="43"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="42"/>
       <c r="BA27" s="7"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="13"/>
@@ -7075,88 +7105,88 @@
       <c r="BR27" s="15"/>
       <c r="BS27" s="7"/>
       <c r="BV27" s="5"/>
-      <c r="BW27" s="42" t="s">
+      <c r="BW27" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BX27" s="52"/>
-      <c r="BY27" s="52"/>
-      <c r="BZ27" s="52"/>
-      <c r="CA27" s="52"/>
-      <c r="CB27" s="52"/>
-      <c r="CC27" s="52"/>
-      <c r="CD27" s="52"/>
-      <c r="CE27" s="52"/>
-      <c r="CF27" s="52"/>
-      <c r="CG27" s="52"/>
-      <c r="CH27" s="52"/>
-      <c r="CI27" s="52"/>
-      <c r="CJ27" s="43"/>
+      <c r="BX27" s="41"/>
+      <c r="BY27" s="41"/>
+      <c r="BZ27" s="41"/>
+      <c r="CA27" s="41"/>
+      <c r="CB27" s="41"/>
+      <c r="CC27" s="41"/>
+      <c r="CD27" s="41"/>
+      <c r="CE27" s="41"/>
+      <c r="CF27" s="41"/>
+      <c r="CG27" s="41"/>
+      <c r="CH27" s="41"/>
+      <c r="CI27" s="41"/>
+      <c r="CJ27" s="42"/>
       <c r="CK27" s="7"/>
       <c r="CN27" s="5"/>
-      <c r="CO27" s="44"/>
-      <c r="CP27" s="53"/>
-      <c r="CQ27" s="53"/>
-      <c r="CR27" s="53"/>
-      <c r="CS27" s="53"/>
-      <c r="CT27" s="53"/>
-      <c r="CU27" s="53"/>
-      <c r="CV27" s="53"/>
-      <c r="CW27" s="53"/>
-      <c r="CX27" s="53"/>
-      <c r="CY27" s="53"/>
-      <c r="CZ27" s="53"/>
-      <c r="DA27" s="53"/>
-      <c r="DB27" s="45"/>
+      <c r="CO27" s="46"/>
+      <c r="CP27" s="47"/>
+      <c r="CQ27" s="47"/>
+      <c r="CR27" s="47"/>
+      <c r="CS27" s="47"/>
+      <c r="CT27" s="47"/>
+      <c r="CU27" s="47"/>
+      <c r="CV27" s="47"/>
+      <c r="CW27" s="47"/>
+      <c r="CX27" s="47"/>
+      <c r="CY27" s="47"/>
+      <c r="CZ27" s="47"/>
+      <c r="DA27" s="47"/>
+      <c r="DB27" s="48"/>
       <c r="DC27" s="7"/>
     </row>
     <row r="28" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
       <c r="Q28" s="7"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="43"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="43"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="43"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="43"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="43"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="40"/>
+      <c r="X28" s="42"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="42"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="42"/>
+      <c r="AC28" s="40"/>
+      <c r="AD28" s="42"/>
+      <c r="AE28" s="40"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="42"/>
       <c r="AI28" s="7"/>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="53"/>
-      <c r="AO28" s="53"/>
-      <c r="AP28" s="53"/>
-      <c r="AQ28" s="53"/>
-      <c r="AR28" s="53"/>
-      <c r="AS28" s="53"/>
-      <c r="AT28" s="53"/>
-      <c r="AU28" s="53"/>
-      <c r="AV28" s="53"/>
-      <c r="AW28" s="53"/>
-      <c r="AX28" s="53"/>
-      <c r="AY28" s="53"/>
-      <c r="AZ28" s="45"/>
+      <c r="AM28" s="46"/>
+      <c r="AN28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+      <c r="AX28" s="47"/>
+      <c r="AY28" s="47"/>
+      <c r="AZ28" s="48"/>
       <c r="BA28" s="7"/>
       <c r="BD28" s="5"/>
       <c r="BE28" s="13"/>
@@ -7175,86 +7205,86 @@
       <c r="BR28" s="15"/>
       <c r="BS28" s="7"/>
       <c r="BV28" s="5"/>
-      <c r="BW28" s="44"/>
-      <c r="BX28" s="53"/>
-      <c r="BY28" s="53"/>
-      <c r="BZ28" s="53"/>
-      <c r="CA28" s="53"/>
-      <c r="CB28" s="53"/>
-      <c r="CC28" s="53"/>
-      <c r="CD28" s="53"/>
-      <c r="CE28" s="53"/>
-      <c r="CF28" s="53"/>
-      <c r="CG28" s="53"/>
-      <c r="CH28" s="53"/>
-      <c r="CI28" s="53"/>
-      <c r="CJ28" s="45"/>
+      <c r="BW28" s="46"/>
+      <c r="BX28" s="47"/>
+      <c r="BY28" s="47"/>
+      <c r="BZ28" s="47"/>
+      <c r="CA28" s="47"/>
+      <c r="CB28" s="47"/>
+      <c r="CC28" s="47"/>
+      <c r="CD28" s="47"/>
+      <c r="CE28" s="47"/>
+      <c r="CF28" s="47"/>
+      <c r="CG28" s="47"/>
+      <c r="CH28" s="47"/>
+      <c r="CI28" s="47"/>
+      <c r="CJ28" s="48"/>
       <c r="CK28" s="7"/>
       <c r="CN28" s="5"/>
-      <c r="CO28" s="44"/>
-      <c r="CP28" s="53"/>
-      <c r="CQ28" s="53"/>
-      <c r="CR28" s="53"/>
-      <c r="CS28" s="53"/>
-      <c r="CT28" s="53"/>
-      <c r="CU28" s="53"/>
-      <c r="CV28" s="53"/>
-      <c r="CW28" s="53"/>
-      <c r="CX28" s="53"/>
-      <c r="CY28" s="53"/>
-      <c r="CZ28" s="53"/>
-      <c r="DA28" s="53"/>
-      <c r="DB28" s="45"/>
+      <c r="CO28" s="46"/>
+      <c r="CP28" s="47"/>
+      <c r="CQ28" s="47"/>
+      <c r="CR28" s="47"/>
+      <c r="CS28" s="47"/>
+      <c r="CT28" s="47"/>
+      <c r="CU28" s="47"/>
+      <c r="CV28" s="47"/>
+      <c r="CW28" s="47"/>
+      <c r="CX28" s="47"/>
+      <c r="CY28" s="47"/>
+      <c r="CZ28" s="47"/>
+      <c r="DA28" s="47"/>
+      <c r="DB28" s="48"/>
       <c r="DC28" s="7"/>
     </row>
     <row r="29" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
       <c r="Q29" s="7"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="45"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="45"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="45"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="45"/>
-      <c r="AG29" s="44"/>
-      <c r="AH29" s="45"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="48"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="48"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="48"/>
+      <c r="AE29" s="46"/>
+      <c r="AF29" s="48"/>
+      <c r="AG29" s="46"/>
+      <c r="AH29" s="48"/>
       <c r="AI29" s="7"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="46"/>
-      <c r="AN29" s="54"/>
-      <c r="AO29" s="54"/>
-      <c r="AP29" s="54"/>
-      <c r="AQ29" s="54"/>
-      <c r="AR29" s="54"/>
-      <c r="AS29" s="54"/>
-      <c r="AT29" s="54"/>
-      <c r="AU29" s="54"/>
-      <c r="AV29" s="54"/>
-      <c r="AW29" s="54"/>
-      <c r="AX29" s="54"/>
-      <c r="AY29" s="54"/>
-      <c r="AZ29" s="47"/>
+      <c r="AM29" s="43"/>
+      <c r="AN29" s="44"/>
+      <c r="AO29" s="44"/>
+      <c r="AP29" s="44"/>
+      <c r="AQ29" s="44"/>
+      <c r="AR29" s="44"/>
+      <c r="AS29" s="44"/>
+      <c r="AT29" s="44"/>
+      <c r="AU29" s="44"/>
+      <c r="AV29" s="44"/>
+      <c r="AW29" s="44"/>
+      <c r="AX29" s="44"/>
+      <c r="AY29" s="44"/>
+      <c r="AZ29" s="45"/>
       <c r="BA29" s="7"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="13"/>
@@ -7273,88 +7303,88 @@
       <c r="BR29" s="15"/>
       <c r="BS29" s="7"/>
       <c r="BV29" s="5"/>
-      <c r="BW29" s="46"/>
-      <c r="BX29" s="54"/>
-      <c r="BY29" s="54"/>
-      <c r="BZ29" s="54"/>
-      <c r="CA29" s="54"/>
-      <c r="CB29" s="54"/>
-      <c r="CC29" s="54"/>
-      <c r="CD29" s="54"/>
-      <c r="CE29" s="54"/>
-      <c r="CF29" s="54"/>
-      <c r="CG29" s="54"/>
-      <c r="CH29" s="54"/>
-      <c r="CI29" s="54"/>
-      <c r="CJ29" s="47"/>
+      <c r="BW29" s="43"/>
+      <c r="BX29" s="44"/>
+      <c r="BY29" s="44"/>
+      <c r="BZ29" s="44"/>
+      <c r="CA29" s="44"/>
+      <c r="CB29" s="44"/>
+      <c r="CC29" s="44"/>
+      <c r="CD29" s="44"/>
+      <c r="CE29" s="44"/>
+      <c r="CF29" s="44"/>
+      <c r="CG29" s="44"/>
+      <c r="CH29" s="44"/>
+      <c r="CI29" s="44"/>
+      <c r="CJ29" s="45"/>
       <c r="CK29" s="7"/>
       <c r="CN29" s="5"/>
-      <c r="CO29" s="44"/>
-      <c r="CP29" s="53"/>
-      <c r="CQ29" s="53"/>
-      <c r="CR29" s="53"/>
-      <c r="CS29" s="53"/>
-      <c r="CT29" s="53"/>
-      <c r="CU29" s="53"/>
-      <c r="CV29" s="53"/>
-      <c r="CW29" s="53"/>
-      <c r="CX29" s="53"/>
-      <c r="CY29" s="53"/>
-      <c r="CZ29" s="53"/>
-      <c r="DA29" s="53"/>
-      <c r="DB29" s="45"/>
+      <c r="CO29" s="46"/>
+      <c r="CP29" s="47"/>
+      <c r="CQ29" s="47"/>
+      <c r="CR29" s="47"/>
+      <c r="CS29" s="47"/>
+      <c r="CT29" s="47"/>
+      <c r="CU29" s="47"/>
+      <c r="CV29" s="47"/>
+      <c r="CW29" s="47"/>
+      <c r="CX29" s="47"/>
+      <c r="CY29" s="47"/>
+      <c r="CZ29" s="47"/>
+      <c r="DA29" s="47"/>
+      <c r="DB29" s="48"/>
       <c r="DC29" s="7"/>
     </row>
     <row r="30" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
       <c r="Q30" s="7"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="46"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="46"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="46"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="46"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="46"/>
-      <c r="AH30" s="47"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="45"/>
+      <c r="W30" s="43"/>
+      <c r="X30" s="45"/>
+      <c r="Y30" s="43"/>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="43"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="43"/>
+      <c r="AD30" s="45"/>
+      <c r="AE30" s="43"/>
+      <c r="AF30" s="45"/>
+      <c r="AG30" s="43"/>
+      <c r="AH30" s="45"/>
       <c r="AI30" s="7"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="42" t="s">
+      <c r="AM30" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AN30" s="52"/>
-      <c r="AO30" s="52"/>
-      <c r="AP30" s="52"/>
-      <c r="AQ30" s="52"/>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
-      <c r="AT30" s="52"/>
-      <c r="AU30" s="52"/>
-      <c r="AV30" s="52"/>
-      <c r="AW30" s="52"/>
-      <c r="AX30" s="52"/>
-      <c r="AY30" s="52"/>
-      <c r="AZ30" s="43"/>
+      <c r="AN30" s="41"/>
+      <c r="AO30" s="41"/>
+      <c r="AP30" s="41"/>
+      <c r="AQ30" s="41"/>
+      <c r="AR30" s="41"/>
+      <c r="AS30" s="41"/>
+      <c r="AT30" s="41"/>
+      <c r="AU30" s="41"/>
+      <c r="AV30" s="41"/>
+      <c r="AW30" s="41"/>
+      <c r="AX30" s="41"/>
+      <c r="AY30" s="41"/>
+      <c r="AZ30" s="42"/>
       <c r="BA30" s="7"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="13"/>
@@ -7373,88 +7403,88 @@
       <c r="BR30" s="15"/>
       <c r="BS30" s="7"/>
       <c r="BV30" s="5"/>
-      <c r="BW30" s="42" t="s">
+      <c r="BW30" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="BX30" s="52"/>
-      <c r="BY30" s="52"/>
-      <c r="BZ30" s="52"/>
-      <c r="CA30" s="52"/>
-      <c r="CB30" s="52"/>
-      <c r="CC30" s="52"/>
-      <c r="CD30" s="52"/>
-      <c r="CE30" s="52"/>
-      <c r="CF30" s="52"/>
-      <c r="CG30" s="52"/>
-      <c r="CH30" s="52"/>
-      <c r="CI30" s="52"/>
-      <c r="CJ30" s="43"/>
+      <c r="BX30" s="41"/>
+      <c r="BY30" s="41"/>
+      <c r="BZ30" s="41"/>
+      <c r="CA30" s="41"/>
+      <c r="CB30" s="41"/>
+      <c r="CC30" s="41"/>
+      <c r="CD30" s="41"/>
+      <c r="CE30" s="41"/>
+      <c r="CF30" s="41"/>
+      <c r="CG30" s="41"/>
+      <c r="CH30" s="41"/>
+      <c r="CI30" s="41"/>
+      <c r="CJ30" s="42"/>
       <c r="CK30" s="7"/>
       <c r="CN30" s="5"/>
-      <c r="CO30" s="44"/>
-      <c r="CP30" s="53"/>
-      <c r="CQ30" s="53"/>
-      <c r="CR30" s="53"/>
-      <c r="CS30" s="53"/>
-      <c r="CT30" s="53"/>
-      <c r="CU30" s="53"/>
-      <c r="CV30" s="53"/>
-      <c r="CW30" s="53"/>
-      <c r="CX30" s="53"/>
-      <c r="CY30" s="53"/>
-      <c r="CZ30" s="53"/>
-      <c r="DA30" s="53"/>
-      <c r="DB30" s="45"/>
+      <c r="CO30" s="46"/>
+      <c r="CP30" s="47"/>
+      <c r="CQ30" s="47"/>
+      <c r="CR30" s="47"/>
+      <c r="CS30" s="47"/>
+      <c r="CT30" s="47"/>
+      <c r="CU30" s="47"/>
+      <c r="CV30" s="47"/>
+      <c r="CW30" s="47"/>
+      <c r="CX30" s="47"/>
+      <c r="CY30" s="47"/>
+      <c r="CZ30" s="47"/>
+      <c r="DA30" s="47"/>
+      <c r="DB30" s="48"/>
       <c r="DC30" s="7"/>
     </row>
     <row r="31" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
       <c r="Q31" s="7"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="42"/>
-      <c r="AB31" s="43"/>
-      <c r="AC31" s="42"/>
-      <c r="AD31" s="43"/>
-      <c r="AE31" s="42"/>
-      <c r="AF31" s="43"/>
-      <c r="AG31" s="42"/>
-      <c r="AH31" s="43"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="40"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="40"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="40"/>
+      <c r="AD31" s="42"/>
+      <c r="AE31" s="40"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="40"/>
+      <c r="AH31" s="42"/>
       <c r="AI31" s="7"/>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="53"/>
-      <c r="AO31" s="53"/>
-      <c r="AP31" s="53"/>
-      <c r="AQ31" s="53"/>
-      <c r="AR31" s="53"/>
-      <c r="AS31" s="53"/>
-      <c r="AT31" s="53"/>
-      <c r="AU31" s="53"/>
-      <c r="AV31" s="53"/>
-      <c r="AW31" s="53"/>
-      <c r="AX31" s="53"/>
-      <c r="AY31" s="53"/>
-      <c r="AZ31" s="45"/>
+      <c r="AM31" s="46"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+      <c r="AX31" s="47"/>
+      <c r="AY31" s="47"/>
+      <c r="AZ31" s="48"/>
       <c r="BA31" s="7"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="13"/>
@@ -7473,86 +7503,86 @@
       <c r="BR31" s="15"/>
       <c r="BS31" s="7"/>
       <c r="BV31" s="5"/>
-      <c r="BW31" s="44"/>
-      <c r="BX31" s="53"/>
-      <c r="BY31" s="53"/>
-      <c r="BZ31" s="53"/>
-      <c r="CA31" s="53"/>
-      <c r="CB31" s="53"/>
-      <c r="CC31" s="53"/>
-      <c r="CD31" s="53"/>
-      <c r="CE31" s="53"/>
-      <c r="CF31" s="53"/>
-      <c r="CG31" s="53"/>
-      <c r="CH31" s="53"/>
-      <c r="CI31" s="53"/>
-      <c r="CJ31" s="45"/>
+      <c r="BW31" s="46"/>
+      <c r="BX31" s="47"/>
+      <c r="BY31" s="47"/>
+      <c r="BZ31" s="47"/>
+      <c r="CA31" s="47"/>
+      <c r="CB31" s="47"/>
+      <c r="CC31" s="47"/>
+      <c r="CD31" s="47"/>
+      <c r="CE31" s="47"/>
+      <c r="CF31" s="47"/>
+      <c r="CG31" s="47"/>
+      <c r="CH31" s="47"/>
+      <c r="CI31" s="47"/>
+      <c r="CJ31" s="48"/>
       <c r="CK31" s="7"/>
       <c r="CN31" s="5"/>
-      <c r="CO31" s="44"/>
-      <c r="CP31" s="53"/>
-      <c r="CQ31" s="53"/>
-      <c r="CR31" s="53"/>
-      <c r="CS31" s="53"/>
-      <c r="CT31" s="53"/>
-      <c r="CU31" s="53"/>
-      <c r="CV31" s="53"/>
-      <c r="CW31" s="53"/>
-      <c r="CX31" s="53"/>
-      <c r="CY31" s="53"/>
-      <c r="CZ31" s="53"/>
-      <c r="DA31" s="53"/>
-      <c r="DB31" s="45"/>
+      <c r="CO31" s="46"/>
+      <c r="CP31" s="47"/>
+      <c r="CQ31" s="47"/>
+      <c r="CR31" s="47"/>
+      <c r="CS31" s="47"/>
+      <c r="CT31" s="47"/>
+      <c r="CU31" s="47"/>
+      <c r="CV31" s="47"/>
+      <c r="CW31" s="47"/>
+      <c r="CX31" s="47"/>
+      <c r="CY31" s="47"/>
+      <c r="CZ31" s="47"/>
+      <c r="DA31" s="47"/>
+      <c r="DB31" s="48"/>
       <c r="DC31" s="7"/>
     </row>
     <row r="32" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="68"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
+      <c r="P32" s="68"/>
       <c r="Q32" s="7"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="45"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="45"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="45"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="45"/>
-      <c r="AE32" s="44"/>
-      <c r="AF32" s="45"/>
-      <c r="AG32" s="44"/>
-      <c r="AH32" s="45"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="46"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="46"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="46"/>
+      <c r="AH32" s="48"/>
       <c r="AI32" s="7"/>
       <c r="AL32" s="5"/>
-      <c r="AM32" s="46"/>
-      <c r="AN32" s="54"/>
-      <c r="AO32" s="54"/>
-      <c r="AP32" s="54"/>
-      <c r="AQ32" s="54"/>
-      <c r="AR32" s="54"/>
-      <c r="AS32" s="54"/>
-      <c r="AT32" s="54"/>
-      <c r="AU32" s="54"/>
-      <c r="AV32" s="54"/>
-      <c r="AW32" s="54"/>
-      <c r="AX32" s="54"/>
-      <c r="AY32" s="54"/>
-      <c r="AZ32" s="47"/>
+      <c r="AM32" s="43"/>
+      <c r="AN32" s="44"/>
+      <c r="AO32" s="44"/>
+      <c r="AP32" s="44"/>
+      <c r="AQ32" s="44"/>
+      <c r="AR32" s="44"/>
+      <c r="AS32" s="44"/>
+      <c r="AT32" s="44"/>
+      <c r="AU32" s="44"/>
+      <c r="AV32" s="44"/>
+      <c r="AW32" s="44"/>
+      <c r="AX32" s="44"/>
+      <c r="AY32" s="44"/>
+      <c r="AZ32" s="45"/>
       <c r="BA32" s="7"/>
       <c r="BD32" s="5"/>
       <c r="BE32" s="16"/>
@@ -7571,88 +7601,88 @@
       <c r="BR32" s="18"/>
       <c r="BS32" s="7"/>
       <c r="BV32" s="5"/>
-      <c r="BW32" s="46"/>
-      <c r="BX32" s="54"/>
-      <c r="BY32" s="54"/>
-      <c r="BZ32" s="54"/>
-      <c r="CA32" s="54"/>
-      <c r="CB32" s="54"/>
-      <c r="CC32" s="54"/>
-      <c r="CD32" s="54"/>
-      <c r="CE32" s="54"/>
-      <c r="CF32" s="54"/>
-      <c r="CG32" s="54"/>
-      <c r="CH32" s="54"/>
-      <c r="CI32" s="54"/>
-      <c r="CJ32" s="47"/>
+      <c r="BW32" s="43"/>
+      <c r="BX32" s="44"/>
+      <c r="BY32" s="44"/>
+      <c r="BZ32" s="44"/>
+      <c r="CA32" s="44"/>
+      <c r="CB32" s="44"/>
+      <c r="CC32" s="44"/>
+      <c r="CD32" s="44"/>
+      <c r="CE32" s="44"/>
+      <c r="CF32" s="44"/>
+      <c r="CG32" s="44"/>
+      <c r="CH32" s="44"/>
+      <c r="CI32" s="44"/>
+      <c r="CJ32" s="45"/>
       <c r="CK32" s="7"/>
       <c r="CN32" s="5"/>
-      <c r="CO32" s="46"/>
-      <c r="CP32" s="54"/>
-      <c r="CQ32" s="54"/>
-      <c r="CR32" s="54"/>
-      <c r="CS32" s="54"/>
-      <c r="CT32" s="54"/>
-      <c r="CU32" s="54"/>
-      <c r="CV32" s="54"/>
-      <c r="CW32" s="54"/>
-      <c r="CX32" s="54"/>
-      <c r="CY32" s="54"/>
-      <c r="CZ32" s="54"/>
-      <c r="DA32" s="54"/>
-      <c r="DB32" s="47"/>
+      <c r="CO32" s="43"/>
+      <c r="CP32" s="44"/>
+      <c r="CQ32" s="44"/>
+      <c r="CR32" s="44"/>
+      <c r="CS32" s="44"/>
+      <c r="CT32" s="44"/>
+      <c r="CU32" s="44"/>
+      <c r="CV32" s="44"/>
+      <c r="CW32" s="44"/>
+      <c r="CX32" s="44"/>
+      <c r="CY32" s="44"/>
+      <c r="CZ32" s="44"/>
+      <c r="DA32" s="44"/>
+      <c r="DB32" s="45"/>
       <c r="DC32" s="7"/>
     </row>
     <row r="33" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
       <c r="Q33" s="7"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="46"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="46"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="46"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="46"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="46"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="46"/>
-      <c r="AH33" s="47"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="45"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="45"/>
+      <c r="Y33" s="43"/>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="43"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="43"/>
+      <c r="AD33" s="45"/>
+      <c r="AE33" s="43"/>
+      <c r="AF33" s="45"/>
+      <c r="AG33" s="43"/>
+      <c r="AH33" s="45"/>
       <c r="AI33" s="7"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="42" t="s">
+      <c r="AM33" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="AN33" s="52"/>
-      <c r="AO33" s="52"/>
-      <c r="AP33" s="52"/>
-      <c r="AQ33" s="52"/>
-      <c r="AR33" s="52"/>
-      <c r="AS33" s="52"/>
-      <c r="AT33" s="52"/>
-      <c r="AU33" s="52"/>
-      <c r="AV33" s="52"/>
-      <c r="AW33" s="52"/>
-      <c r="AX33" s="52"/>
-      <c r="AY33" s="52"/>
-      <c r="AZ33" s="43"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="41"/>
+      <c r="AT33" s="41"/>
+      <c r="AU33" s="41"/>
+      <c r="AV33" s="41"/>
+      <c r="AW33" s="41"/>
+      <c r="AX33" s="41"/>
+      <c r="AY33" s="41"/>
+      <c r="AZ33" s="42"/>
       <c r="BA33" s="7"/>
       <c r="BD33" s="5"/>
       <c r="BE33" s="6"/>
@@ -7671,22 +7701,22 @@
       <c r="BR33" s="6"/>
       <c r="BS33" s="7"/>
       <c r="BV33" s="5"/>
-      <c r="BW33" s="42" t="s">
+      <c r="BW33" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="BX33" s="52"/>
-      <c r="BY33" s="52"/>
-      <c r="BZ33" s="52"/>
-      <c r="CA33" s="52"/>
-      <c r="CB33" s="52"/>
-      <c r="CC33" s="52"/>
-      <c r="CD33" s="52"/>
-      <c r="CE33" s="52"/>
-      <c r="CF33" s="52"/>
-      <c r="CG33" s="52"/>
-      <c r="CH33" s="52"/>
-      <c r="CI33" s="52"/>
-      <c r="CJ33" s="43"/>
+      <c r="BX33" s="41"/>
+      <c r="BY33" s="41"/>
+      <c r="BZ33" s="41"/>
+      <c r="CA33" s="41"/>
+      <c r="CB33" s="41"/>
+      <c r="CC33" s="41"/>
+      <c r="CD33" s="41"/>
+      <c r="CE33" s="41"/>
+      <c r="CF33" s="41"/>
+      <c r="CG33" s="41"/>
+      <c r="CH33" s="41"/>
+      <c r="CI33" s="41"/>
+      <c r="CJ33" s="42"/>
       <c r="CK33" s="7"/>
       <c r="CN33" s="5"/>
       <c r="CO33" s="14"/>
@@ -7723,96 +7753,96 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="51" t="s">
+      <c r="U34" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="51" t="s">
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="AC34" s="51"/>
-      <c r="AD34" s="51"/>
-      <c r="AE34" s="51"/>
-      <c r="AF34" s="51"/>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
       <c r="AI34" s="7"/>
       <c r="AL34" s="5"/>
-      <c r="AM34" s="44"/>
-      <c r="AN34" s="53"/>
-      <c r="AO34" s="53"/>
-      <c r="AP34" s="53"/>
-      <c r="AQ34" s="53"/>
-      <c r="AR34" s="53"/>
-      <c r="AS34" s="53"/>
-      <c r="AT34" s="53"/>
-      <c r="AU34" s="53"/>
-      <c r="AV34" s="53"/>
-      <c r="AW34" s="53"/>
-      <c r="AX34" s="53"/>
-      <c r="AY34" s="53"/>
-      <c r="AZ34" s="45"/>
+      <c r="AM34" s="46"/>
+      <c r="AN34" s="47"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="47"/>
+      <c r="AT34" s="47"/>
+      <c r="AU34" s="47"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="47"/>
+      <c r="AX34" s="47"/>
+      <c r="AY34" s="47"/>
+      <c r="AZ34" s="48"/>
       <c r="BA34" s="7"/>
       <c r="BD34" s="5"/>
-      <c r="BE34" s="62" t="s">
+      <c r="BE34" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="BF34" s="63"/>
+      <c r="BF34" s="37"/>
       <c r="BG34" s="14"/>
-      <c r="BH34" s="42" t="s">
+      <c r="BH34" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="BI34" s="52"/>
-      <c r="BJ34" s="52"/>
-      <c r="BK34" s="52"/>
-      <c r="BL34" s="52"/>
-      <c r="BM34" s="52"/>
-      <c r="BN34" s="52"/>
-      <c r="BO34" s="52"/>
-      <c r="BP34" s="52"/>
-      <c r="BQ34" s="52"/>
-      <c r="BR34" s="43"/>
+      <c r="BI34" s="41"/>
+      <c r="BJ34" s="41"/>
+      <c r="BK34" s="41"/>
+      <c r="BL34" s="41"/>
+      <c r="BM34" s="41"/>
+      <c r="BN34" s="41"/>
+      <c r="BO34" s="41"/>
+      <c r="BP34" s="41"/>
+      <c r="BQ34" s="41"/>
+      <c r="BR34" s="42"/>
       <c r="BS34" s="7"/>
       <c r="BV34" s="5"/>
-      <c r="BW34" s="44"/>
-      <c r="BX34" s="53"/>
-      <c r="BY34" s="53"/>
-      <c r="BZ34" s="53"/>
-      <c r="CA34" s="53"/>
-      <c r="CB34" s="53"/>
-      <c r="CC34" s="53"/>
-      <c r="CD34" s="53"/>
-      <c r="CE34" s="53"/>
-      <c r="CF34" s="53"/>
-      <c r="CG34" s="53"/>
-      <c r="CH34" s="53"/>
-      <c r="CI34" s="53"/>
-      <c r="CJ34" s="45"/>
+      <c r="BW34" s="46"/>
+      <c r="BX34" s="47"/>
+      <c r="BY34" s="47"/>
+      <c r="BZ34" s="47"/>
+      <c r="CA34" s="47"/>
+      <c r="CB34" s="47"/>
+      <c r="CC34" s="47"/>
+      <c r="CD34" s="47"/>
+      <c r="CE34" s="47"/>
+      <c r="CF34" s="47"/>
+      <c r="CG34" s="47"/>
+      <c r="CH34" s="47"/>
+      <c r="CI34" s="47"/>
+      <c r="CJ34" s="48"/>
       <c r="CK34" s="7"/>
       <c r="CN34" s="5"/>
-      <c r="CO34" s="62" t="s">
+      <c r="CO34" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="CP34" s="63"/>
+      <c r="CP34" s="37"/>
       <c r="CQ34" s="14"/>
-      <c r="CR34" s="66" t="s">
+      <c r="CR34" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="CS34" s="52"/>
-      <c r="CT34" s="52"/>
-      <c r="CU34" s="52"/>
-      <c r="CV34" s="52"/>
-      <c r="CW34" s="52"/>
-      <c r="CX34" s="52"/>
-      <c r="CY34" s="52"/>
-      <c r="CZ34" s="52"/>
-      <c r="DA34" s="52"/>
-      <c r="DB34" s="43"/>
+      <c r="CS34" s="41"/>
+      <c r="CT34" s="41"/>
+      <c r="CU34" s="41"/>
+      <c r="CV34" s="41"/>
+      <c r="CW34" s="41"/>
+      <c r="CX34" s="41"/>
+      <c r="CY34" s="41"/>
+      <c r="CZ34" s="41"/>
+      <c r="DA34" s="41"/>
+      <c r="DB34" s="42"/>
       <c r="DC34" s="7"/>
     </row>
     <row r="35" spans="2:107" x14ac:dyDescent="0.4">
@@ -7833,84 +7863,84 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="51"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="51"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="65"/>
       <c r="AI35" s="7"/>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="46"/>
-      <c r="AN35" s="54"/>
-      <c r="AO35" s="54"/>
-      <c r="AP35" s="54"/>
-      <c r="AQ35" s="54"/>
-      <c r="AR35" s="54"/>
-      <c r="AS35" s="54"/>
-      <c r="AT35" s="54"/>
-      <c r="AU35" s="54"/>
-      <c r="AV35" s="54"/>
-      <c r="AW35" s="54"/>
-      <c r="AX35" s="54"/>
-      <c r="AY35" s="54"/>
-      <c r="AZ35" s="47"/>
+      <c r="AM35" s="43"/>
+      <c r="AN35" s="44"/>
+      <c r="AO35" s="44"/>
+      <c r="AP35" s="44"/>
+      <c r="AQ35" s="44"/>
+      <c r="AR35" s="44"/>
+      <c r="AS35" s="44"/>
+      <c r="AT35" s="44"/>
+      <c r="AU35" s="44"/>
+      <c r="AV35" s="44"/>
+      <c r="AW35" s="44"/>
+      <c r="AX35" s="44"/>
+      <c r="AY35" s="44"/>
+      <c r="AZ35" s="45"/>
       <c r="BA35" s="7"/>
       <c r="BD35" s="5"/>
-      <c r="BE35" s="64"/>
-      <c r="BF35" s="65"/>
+      <c r="BE35" s="38"/>
+      <c r="BF35" s="39"/>
       <c r="BG35" s="14"/>
-      <c r="BH35" s="46"/>
-      <c r="BI35" s="54"/>
-      <c r="BJ35" s="54"/>
-      <c r="BK35" s="54"/>
-      <c r="BL35" s="54"/>
-      <c r="BM35" s="54"/>
-      <c r="BN35" s="54"/>
-      <c r="BO35" s="54"/>
-      <c r="BP35" s="54"/>
-      <c r="BQ35" s="54"/>
-      <c r="BR35" s="47"/>
+      <c r="BH35" s="43"/>
+      <c r="BI35" s="44"/>
+      <c r="BJ35" s="44"/>
+      <c r="BK35" s="44"/>
+      <c r="BL35" s="44"/>
+      <c r="BM35" s="44"/>
+      <c r="BN35" s="44"/>
+      <c r="BO35" s="44"/>
+      <c r="BP35" s="44"/>
+      <c r="BQ35" s="44"/>
+      <c r="BR35" s="45"/>
       <c r="BS35" s="7"/>
       <c r="BV35" s="5"/>
-      <c r="BW35" s="46"/>
-      <c r="BX35" s="54"/>
-      <c r="BY35" s="54"/>
-      <c r="BZ35" s="54"/>
-      <c r="CA35" s="54"/>
-      <c r="CB35" s="54"/>
-      <c r="CC35" s="54"/>
-      <c r="CD35" s="54"/>
-      <c r="CE35" s="54"/>
-      <c r="CF35" s="54"/>
-      <c r="CG35" s="54"/>
-      <c r="CH35" s="54"/>
-      <c r="CI35" s="54"/>
-      <c r="CJ35" s="47"/>
+      <c r="BW35" s="43"/>
+      <c r="BX35" s="44"/>
+      <c r="BY35" s="44"/>
+      <c r="BZ35" s="44"/>
+      <c r="CA35" s="44"/>
+      <c r="CB35" s="44"/>
+      <c r="CC35" s="44"/>
+      <c r="CD35" s="44"/>
+      <c r="CE35" s="44"/>
+      <c r="CF35" s="44"/>
+      <c r="CG35" s="44"/>
+      <c r="CH35" s="44"/>
+      <c r="CI35" s="44"/>
+      <c r="CJ35" s="45"/>
       <c r="CK35" s="7"/>
       <c r="CN35" s="5"/>
-      <c r="CO35" s="64"/>
-      <c r="CP35" s="65"/>
+      <c r="CO35" s="38"/>
+      <c r="CP35" s="39"/>
       <c r="CQ35" s="14"/>
-      <c r="CR35" s="46"/>
-      <c r="CS35" s="54"/>
-      <c r="CT35" s="54"/>
-      <c r="CU35" s="54"/>
-      <c r="CV35" s="54"/>
-      <c r="CW35" s="54"/>
-      <c r="CX35" s="54"/>
-      <c r="CY35" s="54"/>
-      <c r="CZ35" s="54"/>
-      <c r="DA35" s="54"/>
-      <c r="DB35" s="47"/>
+      <c r="CR35" s="43"/>
+      <c r="CS35" s="44"/>
+      <c r="CT35" s="44"/>
+      <c r="CU35" s="44"/>
+      <c r="CV35" s="44"/>
+      <c r="CW35" s="44"/>
+      <c r="CX35" s="44"/>
+      <c r="CY35" s="44"/>
+      <c r="CZ35" s="44"/>
+      <c r="DA35" s="44"/>
+      <c r="DB35" s="45"/>
       <c r="DC35" s="7"/>
     </row>
     <row r="36" spans="2:107" x14ac:dyDescent="0.4">
@@ -8012,348 +8042,404 @@
       <c r="DC36" s="7"/>
     </row>
     <row r="37" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="33" t="s">
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="33" t="s">
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="35"/>
-      <c r="T37" s="33" t="s">
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="51"/>
+      <c r="T37" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="34"/>
-      <c r="V37" s="34"/>
-      <c r="W37" s="34"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="33" t="s">
+      <c r="U37" s="50"/>
+      <c r="V37" s="50"/>
+      <c r="W37" s="50"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="34"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="34"/>
-      <c r="AC37" s="34"/>
-      <c r="AD37" s="35"/>
-      <c r="AE37" s="33" t="s">
+      <c r="Z37" s="50"/>
+      <c r="AA37" s="50"/>
+      <c r="AB37" s="50"/>
+      <c r="AC37" s="50"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="35"/>
-      <c r="AL37" s="33" t="s">
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="51"/>
+      <c r="AL37" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="AM37" s="34"/>
-      <c r="AN37" s="34"/>
-      <c r="AO37" s="34"/>
-      <c r="AP37" s="35"/>
-      <c r="AQ37" s="33" t="s">
+      <c r="AM37" s="50"/>
+      <c r="AN37" s="50"/>
+      <c r="AO37" s="50"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AR37" s="34"/>
-      <c r="AS37" s="34"/>
-      <c r="AT37" s="34"/>
-      <c r="AU37" s="34"/>
-      <c r="AV37" s="35"/>
-      <c r="AW37" s="33" t="s">
+      <c r="AR37" s="50"/>
+      <c r="AS37" s="50"/>
+      <c r="AT37" s="50"/>
+      <c r="AU37" s="50"/>
+      <c r="AV37" s="51"/>
+      <c r="AW37" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="34"/>
-      <c r="AY37" s="34"/>
-      <c r="AZ37" s="34"/>
-      <c r="BA37" s="35"/>
-      <c r="BD37" s="33" t="s">
+      <c r="AX37" s="50"/>
+      <c r="AY37" s="50"/>
+      <c r="AZ37" s="50"/>
+      <c r="BA37" s="51"/>
+      <c r="BD37" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="BE37" s="34"/>
-      <c r="BF37" s="34"/>
-      <c r="BG37" s="34"/>
-      <c r="BH37" s="35"/>
-      <c r="BI37" s="33" t="s">
+      <c r="BE37" s="50"/>
+      <c r="BF37" s="50"/>
+      <c r="BG37" s="50"/>
+      <c r="BH37" s="51"/>
+      <c r="BI37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="34"/>
-      <c r="BK37" s="34"/>
-      <c r="BL37" s="34"/>
-      <c r="BM37" s="34"/>
-      <c r="BN37" s="35"/>
-      <c r="BO37" s="33" t="s">
+      <c r="BJ37" s="50"/>
+      <c r="BK37" s="50"/>
+      <c r="BL37" s="50"/>
+      <c r="BM37" s="50"/>
+      <c r="BN37" s="51"/>
+      <c r="BO37" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="BP37" s="34"/>
-      <c r="BQ37" s="34"/>
-      <c r="BR37" s="34"/>
-      <c r="BS37" s="35"/>
-      <c r="BV37" s="33" t="s">
+      <c r="BP37" s="50"/>
+      <c r="BQ37" s="50"/>
+      <c r="BR37" s="50"/>
+      <c r="BS37" s="51"/>
+      <c r="BV37" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="BW37" s="34"/>
-      <c r="BX37" s="34"/>
-      <c r="BY37" s="34"/>
-      <c r="BZ37" s="35"/>
-      <c r="CA37" s="33" t="s">
+      <c r="BW37" s="50"/>
+      <c r="BX37" s="50"/>
+      <c r="BY37" s="50"/>
+      <c r="BZ37" s="51"/>
+      <c r="CA37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="CB37" s="34"/>
-      <c r="CC37" s="34"/>
-      <c r="CD37" s="34"/>
-      <c r="CE37" s="34"/>
-      <c r="CF37" s="35"/>
-      <c r="CG37" s="33" t="s">
+      <c r="CB37" s="50"/>
+      <c r="CC37" s="50"/>
+      <c r="CD37" s="50"/>
+      <c r="CE37" s="50"/>
+      <c r="CF37" s="51"/>
+      <c r="CG37" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="CH37" s="34"/>
-      <c r="CI37" s="34"/>
-      <c r="CJ37" s="34"/>
-      <c r="CK37" s="35"/>
-      <c r="CN37" s="33" t="s">
+      <c r="CH37" s="50"/>
+      <c r="CI37" s="50"/>
+      <c r="CJ37" s="50"/>
+      <c r="CK37" s="51"/>
+      <c r="CN37" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="CO37" s="34"/>
-      <c r="CP37" s="34"/>
-      <c r="CQ37" s="34"/>
-      <c r="CR37" s="35"/>
-      <c r="CS37" s="33" t="s">
+      <c r="CO37" s="50"/>
+      <c r="CP37" s="50"/>
+      <c r="CQ37" s="50"/>
+      <c r="CR37" s="51"/>
+      <c r="CS37" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="CT37" s="34"/>
-      <c r="CU37" s="34"/>
-      <c r="CV37" s="34"/>
-      <c r="CW37" s="34"/>
-      <c r="CX37" s="35"/>
-      <c r="CY37" s="33" t="s">
+      <c r="CT37" s="50"/>
+      <c r="CU37" s="50"/>
+      <c r="CV37" s="50"/>
+      <c r="CW37" s="50"/>
+      <c r="CX37" s="51"/>
+      <c r="CY37" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="CZ37" s="34"/>
-      <c r="DA37" s="34"/>
-      <c r="DB37" s="34"/>
-      <c r="DC37" s="35"/>
+      <c r="CZ37" s="50"/>
+      <c r="DA37" s="50"/>
+      <c r="DB37" s="50"/>
+      <c r="DC37" s="51"/>
     </row>
     <row r="38" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B38" s="36"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="38"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="38"/>
-      <c r="Y38" s="36"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="38"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="38"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="37"/>
-      <c r="AN38" s="37"/>
-      <c r="AO38" s="37"/>
-      <c r="AP38" s="38"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="37"/>
-      <c r="AS38" s="37"/>
-      <c r="AT38" s="37"/>
-      <c r="AU38" s="37"/>
-      <c r="AV38" s="38"/>
-      <c r="AW38" s="36"/>
-      <c r="AX38" s="37"/>
-      <c r="AY38" s="37"/>
-      <c r="AZ38" s="37"/>
-      <c r="BA38" s="38"/>
-      <c r="BD38" s="36"/>
-      <c r="BE38" s="37"/>
-      <c r="BF38" s="37"/>
-      <c r="BG38" s="37"/>
-      <c r="BH38" s="38"/>
-      <c r="BI38" s="36"/>
-      <c r="BJ38" s="37"/>
-      <c r="BK38" s="37"/>
-      <c r="BL38" s="37"/>
-      <c r="BM38" s="37"/>
-      <c r="BN38" s="38"/>
-      <c r="BO38" s="36"/>
-      <c r="BP38" s="37"/>
-      <c r="BQ38" s="37"/>
-      <c r="BR38" s="37"/>
-      <c r="BS38" s="38"/>
-      <c r="BV38" s="36"/>
-      <c r="BW38" s="37"/>
-      <c r="BX38" s="37"/>
-      <c r="BY38" s="37"/>
-      <c r="BZ38" s="38"/>
-      <c r="CA38" s="36"/>
-      <c r="CB38" s="37"/>
-      <c r="CC38" s="37"/>
-      <c r="CD38" s="37"/>
-      <c r="CE38" s="37"/>
-      <c r="CF38" s="38"/>
-      <c r="CG38" s="36"/>
-      <c r="CH38" s="37"/>
-      <c r="CI38" s="37"/>
-      <c r="CJ38" s="37"/>
-      <c r="CK38" s="38"/>
-      <c r="CN38" s="36"/>
-      <c r="CO38" s="37"/>
-      <c r="CP38" s="37"/>
-      <c r="CQ38" s="37"/>
-      <c r="CR38" s="38"/>
-      <c r="CS38" s="36"/>
-      <c r="CT38" s="37"/>
-      <c r="CU38" s="37"/>
-      <c r="CV38" s="37"/>
-      <c r="CW38" s="37"/>
-      <c r="CX38" s="38"/>
-      <c r="CY38" s="36"/>
-      <c r="CZ38" s="37"/>
-      <c r="DA38" s="37"/>
-      <c r="DB38" s="37"/>
-      <c r="DC38" s="38"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="53"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
+      <c r="K38" s="53"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="53"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="53"/>
+      <c r="Q38" s="54"/>
+      <c r="T38" s="52"/>
+      <c r="U38" s="53"/>
+      <c r="V38" s="53"/>
+      <c r="W38" s="53"/>
+      <c r="X38" s="54"/>
+      <c r="Y38" s="52"/>
+      <c r="Z38" s="53"/>
+      <c r="AA38" s="53"/>
+      <c r="AB38" s="53"/>
+      <c r="AC38" s="53"/>
+      <c r="AD38" s="54"/>
+      <c r="AE38" s="52"/>
+      <c r="AF38" s="53"/>
+      <c r="AG38" s="53"/>
+      <c r="AH38" s="53"/>
+      <c r="AI38" s="54"/>
+      <c r="AL38" s="52"/>
+      <c r="AM38" s="53"/>
+      <c r="AN38" s="53"/>
+      <c r="AO38" s="53"/>
+      <c r="AP38" s="54"/>
+      <c r="AQ38" s="52"/>
+      <c r="AR38" s="53"/>
+      <c r="AS38" s="53"/>
+      <c r="AT38" s="53"/>
+      <c r="AU38" s="53"/>
+      <c r="AV38" s="54"/>
+      <c r="AW38" s="52"/>
+      <c r="AX38" s="53"/>
+      <c r="AY38" s="53"/>
+      <c r="AZ38" s="53"/>
+      <c r="BA38" s="54"/>
+      <c r="BD38" s="52"/>
+      <c r="BE38" s="53"/>
+      <c r="BF38" s="53"/>
+      <c r="BG38" s="53"/>
+      <c r="BH38" s="54"/>
+      <c r="BI38" s="52"/>
+      <c r="BJ38" s="53"/>
+      <c r="BK38" s="53"/>
+      <c r="BL38" s="53"/>
+      <c r="BM38" s="53"/>
+      <c r="BN38" s="54"/>
+      <c r="BO38" s="52"/>
+      <c r="BP38" s="53"/>
+      <c r="BQ38" s="53"/>
+      <c r="BR38" s="53"/>
+      <c r="BS38" s="54"/>
+      <c r="BV38" s="52"/>
+      <c r="BW38" s="53"/>
+      <c r="BX38" s="53"/>
+      <c r="BY38" s="53"/>
+      <c r="BZ38" s="54"/>
+      <c r="CA38" s="52"/>
+      <c r="CB38" s="53"/>
+      <c r="CC38" s="53"/>
+      <c r="CD38" s="53"/>
+      <c r="CE38" s="53"/>
+      <c r="CF38" s="54"/>
+      <c r="CG38" s="52"/>
+      <c r="CH38" s="53"/>
+      <c r="CI38" s="53"/>
+      <c r="CJ38" s="53"/>
+      <c r="CK38" s="54"/>
+      <c r="CN38" s="52"/>
+      <c r="CO38" s="53"/>
+      <c r="CP38" s="53"/>
+      <c r="CQ38" s="53"/>
+      <c r="CR38" s="54"/>
+      <c r="CS38" s="52"/>
+      <c r="CT38" s="53"/>
+      <c r="CU38" s="53"/>
+      <c r="CV38" s="53"/>
+      <c r="CW38" s="53"/>
+      <c r="CX38" s="54"/>
+      <c r="CY38" s="52"/>
+      <c r="CZ38" s="53"/>
+      <c r="DA38" s="53"/>
+      <c r="DB38" s="53"/>
+      <c r="DC38" s="54"/>
     </row>
     <row r="39" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="41"/>
-      <c r="T39" s="39"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
-      <c r="W39" s="40"/>
-      <c r="X39" s="41"/>
-      <c r="Y39" s="39"/>
-      <c r="Z39" s="40"/>
-      <c r="AA39" s="40"/>
-      <c r="AB39" s="40"/>
-      <c r="AC39" s="40"/>
-      <c r="AD39" s="41"/>
-      <c r="AE39" s="39"/>
-      <c r="AF39" s="40"/>
-      <c r="AG39" s="40"/>
-      <c r="AH39" s="40"/>
-      <c r="AI39" s="41"/>
-      <c r="AL39" s="39"/>
-      <c r="AM39" s="40"/>
-      <c r="AN39" s="40"/>
-      <c r="AO39" s="40"/>
-      <c r="AP39" s="41"/>
-      <c r="AQ39" s="39"/>
-      <c r="AR39" s="40"/>
-      <c r="AS39" s="40"/>
-      <c r="AT39" s="40"/>
-      <c r="AU39" s="40"/>
-      <c r="AV39" s="41"/>
-      <c r="AW39" s="39"/>
-      <c r="AX39" s="40"/>
-      <c r="AY39" s="40"/>
-      <c r="AZ39" s="40"/>
-      <c r="BA39" s="41"/>
-      <c r="BD39" s="39"/>
-      <c r="BE39" s="40"/>
-      <c r="BF39" s="40"/>
-      <c r="BG39" s="40"/>
-      <c r="BH39" s="41"/>
-      <c r="BI39" s="39"/>
-      <c r="BJ39" s="40"/>
-      <c r="BK39" s="40"/>
-      <c r="BL39" s="40"/>
-      <c r="BM39" s="40"/>
-      <c r="BN39" s="41"/>
-      <c r="BO39" s="39"/>
-      <c r="BP39" s="40"/>
-      <c r="BQ39" s="40"/>
-      <c r="BR39" s="40"/>
-      <c r="BS39" s="41"/>
-      <c r="BV39" s="39"/>
-      <c r="BW39" s="40"/>
-      <c r="BX39" s="40"/>
-      <c r="BY39" s="40"/>
-      <c r="BZ39" s="41"/>
-      <c r="CA39" s="39"/>
-      <c r="CB39" s="40"/>
-      <c r="CC39" s="40"/>
-      <c r="CD39" s="40"/>
-      <c r="CE39" s="40"/>
-      <c r="CF39" s="41"/>
-      <c r="CG39" s="39"/>
-      <c r="CH39" s="40"/>
-      <c r="CI39" s="40"/>
-      <c r="CJ39" s="40"/>
-      <c r="CK39" s="41"/>
-      <c r="CN39" s="39"/>
-      <c r="CO39" s="40"/>
-      <c r="CP39" s="40"/>
-      <c r="CQ39" s="40"/>
-      <c r="CR39" s="41"/>
-      <c r="CS39" s="39"/>
-      <c r="CT39" s="40"/>
-      <c r="CU39" s="40"/>
-      <c r="CV39" s="40"/>
-      <c r="CW39" s="40"/>
-      <c r="CX39" s="41"/>
-      <c r="CY39" s="39"/>
-      <c r="CZ39" s="40"/>
-      <c r="DA39" s="40"/>
-      <c r="DB39" s="40"/>
-      <c r="DC39" s="41"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="57"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="57"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="57"/>
+      <c r="AL39" s="55"/>
+      <c r="AM39" s="56"/>
+      <c r="AN39" s="56"/>
+      <c r="AO39" s="56"/>
+      <c r="AP39" s="57"/>
+      <c r="AQ39" s="55"/>
+      <c r="AR39" s="56"/>
+      <c r="AS39" s="56"/>
+      <c r="AT39" s="56"/>
+      <c r="AU39" s="56"/>
+      <c r="AV39" s="57"/>
+      <c r="AW39" s="55"/>
+      <c r="AX39" s="56"/>
+      <c r="AY39" s="56"/>
+      <c r="AZ39" s="56"/>
+      <c r="BA39" s="57"/>
+      <c r="BD39" s="55"/>
+      <c r="BE39" s="56"/>
+      <c r="BF39" s="56"/>
+      <c r="BG39" s="56"/>
+      <c r="BH39" s="57"/>
+      <c r="BI39" s="55"/>
+      <c r="BJ39" s="56"/>
+      <c r="BK39" s="56"/>
+      <c r="BL39" s="56"/>
+      <c r="BM39" s="56"/>
+      <c r="BN39" s="57"/>
+      <c r="BO39" s="55"/>
+      <c r="BP39" s="56"/>
+      <c r="BQ39" s="56"/>
+      <c r="BR39" s="56"/>
+      <c r="BS39" s="57"/>
+      <c r="BV39" s="55"/>
+      <c r="BW39" s="56"/>
+      <c r="BX39" s="56"/>
+      <c r="BY39" s="56"/>
+      <c r="BZ39" s="57"/>
+      <c r="CA39" s="55"/>
+      <c r="CB39" s="56"/>
+      <c r="CC39" s="56"/>
+      <c r="CD39" s="56"/>
+      <c r="CE39" s="56"/>
+      <c r="CF39" s="57"/>
+      <c r="CG39" s="55"/>
+      <c r="CH39" s="56"/>
+      <c r="CI39" s="56"/>
+      <c r="CJ39" s="56"/>
+      <c r="CK39" s="57"/>
+      <c r="CN39" s="55"/>
+      <c r="CO39" s="56"/>
+      <c r="CP39" s="56"/>
+      <c r="CQ39" s="56"/>
+      <c r="CR39" s="57"/>
+      <c r="CS39" s="55"/>
+      <c r="CT39" s="56"/>
+      <c r="CU39" s="56"/>
+      <c r="CV39" s="56"/>
+      <c r="CW39" s="56"/>
+      <c r="CX39" s="57"/>
+      <c r="CY39" s="55"/>
+      <c r="CZ39" s="56"/>
+      <c r="DA39" s="56"/>
+      <c r="DB39" s="56"/>
+      <c r="DC39" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="BE34:BF35"/>
-    <mergeCell ref="BH34:BR35"/>
-    <mergeCell ref="AM33:AZ35"/>
-    <mergeCell ref="CN37:CR39"/>
-    <mergeCell ref="CS37:CX39"/>
-    <mergeCell ref="BV37:BZ39"/>
-    <mergeCell ref="CA37:CF39"/>
-    <mergeCell ref="CG37:CK39"/>
-    <mergeCell ref="AL37:AP39"/>
-    <mergeCell ref="AQ37:AV39"/>
-    <mergeCell ref="AW37:BA39"/>
+    <mergeCell ref="AE37:AI39"/>
+    <mergeCell ref="G37:L39"/>
+    <mergeCell ref="M37:Q39"/>
+    <mergeCell ref="B37:F39"/>
+    <mergeCell ref="T37:X39"/>
+    <mergeCell ref="Y37:AD39"/>
+    <mergeCell ref="AG16:AH18"/>
+    <mergeCell ref="U19:V21"/>
+    <mergeCell ref="W19:X21"/>
+    <mergeCell ref="Y19:Z21"/>
+    <mergeCell ref="AA19:AB21"/>
+    <mergeCell ref="AC19:AD21"/>
+    <mergeCell ref="AE19:AF21"/>
+    <mergeCell ref="AG19:AH21"/>
+    <mergeCell ref="U16:V18"/>
+    <mergeCell ref="W16:X18"/>
+    <mergeCell ref="Y16:Z18"/>
+    <mergeCell ref="AA16:AB18"/>
+    <mergeCell ref="AC16:AD18"/>
+    <mergeCell ref="AE16:AF18"/>
+    <mergeCell ref="AG22:AH24"/>
+    <mergeCell ref="U25:V27"/>
+    <mergeCell ref="W25:X27"/>
+    <mergeCell ref="Y25:Z27"/>
+    <mergeCell ref="AA25:AB27"/>
+    <mergeCell ref="AC25:AD27"/>
+    <mergeCell ref="AE25:AF27"/>
+    <mergeCell ref="AG25:AH27"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="W22:X24"/>
+    <mergeCell ref="Y22:Z24"/>
+    <mergeCell ref="AA22:AB24"/>
+    <mergeCell ref="AC22:AD24"/>
+    <mergeCell ref="AE22:AF24"/>
+    <mergeCell ref="AE31:AF33"/>
+    <mergeCell ref="AG31:AH33"/>
+    <mergeCell ref="U28:V30"/>
+    <mergeCell ref="W28:X30"/>
+    <mergeCell ref="Y28:Z30"/>
+    <mergeCell ref="AA28:AB30"/>
+    <mergeCell ref="AC28:AD30"/>
+    <mergeCell ref="AE28:AF30"/>
+    <mergeCell ref="C15:P33"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="U31:V33"/>
+    <mergeCell ref="W31:X33"/>
+    <mergeCell ref="Y31:Z33"/>
+    <mergeCell ref="AA31:AB33"/>
+    <mergeCell ref="AM30:AZ32"/>
+    <mergeCell ref="U12:AH13"/>
+    <mergeCell ref="AB34:AH35"/>
+    <mergeCell ref="U34:AA35"/>
+    <mergeCell ref="BE12:BR13"/>
+    <mergeCell ref="AM27:AZ29"/>
+    <mergeCell ref="AM12:AZ14"/>
+    <mergeCell ref="AM15:AZ17"/>
+    <mergeCell ref="AM18:AZ20"/>
+    <mergeCell ref="AM21:AZ23"/>
+    <mergeCell ref="AM24:AZ26"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG28:AH30"/>
+    <mergeCell ref="AC31:AD33"/>
     <mergeCell ref="CY37:DC39"/>
     <mergeCell ref="CO34:CP35"/>
     <mergeCell ref="CO12:DB32"/>
@@ -8370,73 +8456,17 @@
     <mergeCell ref="BW33:CJ35"/>
     <mergeCell ref="BW12:CG13"/>
     <mergeCell ref="CI12:CJ13"/>
-    <mergeCell ref="AM30:AZ32"/>
-    <mergeCell ref="U12:AH13"/>
-    <mergeCell ref="AB34:AH35"/>
-    <mergeCell ref="U34:AA35"/>
-    <mergeCell ref="BE12:BR13"/>
-    <mergeCell ref="AM27:AZ29"/>
-    <mergeCell ref="AM12:AZ14"/>
-    <mergeCell ref="AM15:AZ17"/>
-    <mergeCell ref="AM18:AZ20"/>
-    <mergeCell ref="AM21:AZ23"/>
-    <mergeCell ref="AM24:AZ26"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG28:AH30"/>
-    <mergeCell ref="AC31:AD33"/>
-    <mergeCell ref="C15:P33"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="U31:V33"/>
-    <mergeCell ref="W31:X33"/>
-    <mergeCell ref="Y31:Z33"/>
-    <mergeCell ref="AA31:AB33"/>
-    <mergeCell ref="AE31:AF33"/>
-    <mergeCell ref="AG31:AH33"/>
-    <mergeCell ref="U28:V30"/>
-    <mergeCell ref="W28:X30"/>
-    <mergeCell ref="Y28:Z30"/>
-    <mergeCell ref="AA28:AB30"/>
-    <mergeCell ref="AC28:AD30"/>
-    <mergeCell ref="AE28:AF30"/>
-    <mergeCell ref="AG22:AH24"/>
-    <mergeCell ref="U25:V27"/>
-    <mergeCell ref="W25:X27"/>
-    <mergeCell ref="Y25:Z27"/>
-    <mergeCell ref="AA25:AB27"/>
-    <mergeCell ref="AC25:AD27"/>
-    <mergeCell ref="AE25:AF27"/>
-    <mergeCell ref="AG25:AH27"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="W22:X24"/>
-    <mergeCell ref="Y22:Z24"/>
-    <mergeCell ref="AA22:AB24"/>
-    <mergeCell ref="AC22:AD24"/>
-    <mergeCell ref="AE22:AF24"/>
-    <mergeCell ref="AG16:AH18"/>
-    <mergeCell ref="U19:V21"/>
-    <mergeCell ref="W19:X21"/>
-    <mergeCell ref="Y19:Z21"/>
-    <mergeCell ref="AA19:AB21"/>
-    <mergeCell ref="AC19:AD21"/>
-    <mergeCell ref="AE19:AF21"/>
-    <mergeCell ref="AG19:AH21"/>
-    <mergeCell ref="U16:V18"/>
-    <mergeCell ref="W16:X18"/>
-    <mergeCell ref="Y16:Z18"/>
-    <mergeCell ref="AA16:AB18"/>
-    <mergeCell ref="AC16:AD18"/>
-    <mergeCell ref="AE16:AF18"/>
-    <mergeCell ref="AE37:AI39"/>
-    <mergeCell ref="G37:L39"/>
-    <mergeCell ref="M37:Q39"/>
-    <mergeCell ref="B37:F39"/>
-    <mergeCell ref="T37:X39"/>
-    <mergeCell ref="Y37:AD39"/>
+    <mergeCell ref="BE34:BF35"/>
+    <mergeCell ref="BH34:BR35"/>
+    <mergeCell ref="AM33:AZ35"/>
+    <mergeCell ref="CN37:CR39"/>
+    <mergeCell ref="CS37:CX39"/>
+    <mergeCell ref="BV37:BZ39"/>
+    <mergeCell ref="CA37:CF39"/>
+    <mergeCell ref="CG37:CK39"/>
+    <mergeCell ref="AL37:AP39"/>
+    <mergeCell ref="AQ37:AV39"/>
+    <mergeCell ref="AW37:BA39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8466,7 +8496,7 @@
   <dimension ref="B2:I12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8483,14 +8513,14 @@
         <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="70"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="C5" s="24" t="s">
@@ -8689,10 +8719,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5929AD-73A3-455F-9C42-9E7A6E536196}">
-  <dimension ref="B2:O42"/>
+  <dimension ref="B2:N28"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8701,502 +8731,341 @@
     <col min="3" max="3" width="2.25" customWidth="1"/>
     <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.25" customWidth="1"/>
-    <col min="8" max="8" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.25" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D2" s="25" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="26" t="s">
-        <v>102</v>
-      </c>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B5" s="26"/>
       <c r="C5" s="26" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
       </c>
-      <c r="F6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F6" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="F7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
       <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="G8" s="30" t="s">
-        <v>83</v>
-      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
+      <c r="J8" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>87</v>
+      </c>
       <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F9" s="30"/>
       <c r="G9" s="30"/>
-      <c r="H9" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="30" t="s">
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="31" t="s">
+      <c r="L9" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
       <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="30" t="s">
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="J10" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
+      <c r="L10" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>87</v>
+      </c>
       <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F11" s="30"/>
       <c r="G11" s="30"/>
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
+      <c r="J11" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="K11" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="L11" s="30" t="s">
         <v>86</v>
       </c>
+      <c r="L11" s="30" t="b">
+        <v>0</v>
+      </c>
       <c r="M11" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="O11" s="30"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="N11" s="30"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30" t="s">
+      <c r="I12" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="G13" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="J14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="J15" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="30" t="s">
+      <c r="K15" t="s">
         <v>86</v>
       </c>
-      <c r="M12" s="30" t="b">
+      <c r="L15" t="b">
         <v>1</v>
       </c>
-      <c r="N12" s="30" t="s">
+      <c r="M15" t="s">
         <v>87</v>
       </c>
-      <c r="O12" s="30"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30" t="s">
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="J16" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="30" t="s">
+      <c r="K16" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="30" t="b">
+      <c r="L16" t="b">
         <v>1</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="M16" t="s">
         <v>87</v>
       </c>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30" t="s">
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="J17" t="s">
         <v>90</v>
       </c>
-      <c r="L14" s="30" t="s">
+      <c r="K17" t="s">
         <v>86</v>
       </c>
-      <c r="M14" s="30" t="b">
+      <c r="L17" t="b">
         <v>0</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="M17" t="s">
         <v>87</v>
       </c>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30" t="s">
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="I18" t="s">
         <v>92</v>
       </c>
-      <c r="K15" s="30" t="s">
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
         <v>87</v>
       </c>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F16" s="30"/>
-      <c r="G16" s="30" t="s">
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D21" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="J22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="J23" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="J24" t="s">
+        <v>91</v>
+      </c>
+      <c r="K24" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="J25" t="s">
+        <v>90</v>
+      </c>
+      <c r="K25" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="I26" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="J26" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" s="31"/>
-      <c r="I17" s="30"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" t="s">
-        <v>95</v>
-      </c>
-      <c r="K18" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="H19" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="K20" t="s">
-        <v>88</v>
-      </c>
-      <c r="L20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M20" t="s">
-        <v>98</v>
-      </c>
-      <c r="N20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="K21" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" t="s">
-        <v>86</v>
-      </c>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="K22" t="s">
-        <v>91</v>
-      </c>
-      <c r="L22" t="s">
-        <v>86</v>
-      </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="K23" t="s">
-        <v>90</v>
-      </c>
-      <c r="L23" t="s">
-        <v>86</v>
-      </c>
-      <c r="M23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="J24" t="s">
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="F27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="G25" t="s">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="F26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="E29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="D30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="G31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="H32" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="J32" t="s">
-        <v>96</v>
-      </c>
-      <c r="K32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="H33" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="I33" t="s">
-        <v>86</v>
-      </c>
-      <c r="J33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="K34" t="s">
-        <v>88</v>
-      </c>
-      <c r="L34" t="s">
-        <v>86</v>
-      </c>
-      <c r="M34" t="s">
-        <v>99</v>
-      </c>
-      <c r="N34" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="K35" t="s">
-        <v>89</v>
-      </c>
-      <c r="L35" t="s">
-        <v>86</v>
-      </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-      <c r="N35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="K36" t="s">
-        <v>91</v>
-      </c>
-      <c r="L36" t="s">
-        <v>86</v>
-      </c>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-      <c r="N36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="K37" t="s">
-        <v>90</v>
-      </c>
-      <c r="L37" t="s">
-        <v>86</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="J38" t="s">
-        <v>92</v>
-      </c>
-      <c r="K38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="G39" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="F40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -9207,21 +9076,88 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACA9BB3-F110-4D11-AB2F-F31019F0EDA4}">
+  <dimension ref="C2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="2.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7118865-D3B9-4FFF-9FDE-B78570039695}">
   <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="68" t="s">
-        <v>110</v>
+      <c r="B2" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.4">
@@ -9241,11 +9177,11 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="68" t="s">
-        <v>110</v>
+      <c r="B7" s="32" t="s">
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -9253,7 +9189,7 @@
         <v>76</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -9261,15 +9197,15 @@
         <v>76</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -9277,7 +9213,7 @@
         <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -9285,7 +9221,7 @@
         <v>76</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
@@ -9293,7 +9229,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -9303,7 +9239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4B474B-1CA9-44FF-A03F-ED77403AD9B8}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/カレンダー_設計書.xlsx
+++ b/カレンダー_設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user1\AndroidStudioProjects\OriginalCalendar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE379504-3344-48D6-B13A-04224BECCDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE6F2D4-6758-4734-B167-1C6B9A4E7373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7518170D-50F7-406D-9384-F6EA5B34F2A6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="126">
   <si>
     <t>&lt;activity_main.xml&gt;</t>
     <phoneticPr fontId="1"/>
@@ -1044,6 +1044,28 @@
     </rPh>
     <rPh sb="26" eb="28">
       <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021.12.12</t>
+  </si>
+  <si>
+    <t>カレンダーの日付押下後の遷移先画面を変更</t>
+    <rPh sb="6" eb="8">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="12" eb="17">
+      <t>センイサキガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1371,53 +1393,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1447,7 +1430,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1467,20 +1486,23 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2261,16 +2283,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>204507</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>249330</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>207870</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>252132</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>296955</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>112621</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2285,7 +2307,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3835213" y="443194"/>
+          <a:off x="5695389" y="454399"/>
           <a:ext cx="2165537" cy="1081368"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2325,14 +2347,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>265579</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>287991</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>172570</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>182095</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>204507</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>77321</xdr:rowOff>
     </xdr:to>
@@ -2349,7 +2371,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3896285" y="3702423"/>
+          <a:off x="5431491" y="3702423"/>
           <a:ext cx="2034428" cy="1081369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2389,16 +2411,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>31376</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>300318</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>232523</xdr:rowOff>
+      <xdr:rowOff>221317</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>76759</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>43142</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>137274</xdr:rowOff>
+      <xdr:rowOff>126068</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2413,7 +2435,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7292788" y="467847"/>
+          <a:off x="8771965" y="456641"/>
           <a:ext cx="2163295" cy="1081368"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2453,16 +2475,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>122705</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>189941</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>172010</xdr:rowOff>
+      <xdr:rowOff>183216</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>36979</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104215</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>76761</xdr:rowOff>
+      <xdr:rowOff>87967</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2477,7 +2499,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7384117" y="3466539"/>
+          <a:off x="8964147" y="3477745"/>
           <a:ext cx="2032186" cy="1081369"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2520,11 +2542,11 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>93142</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>42584</xdr:rowOff>
+      <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>204507</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>249330</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>59919</xdr:rowOff>
     </xdr:to>
@@ -2544,8 +2566,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2513613" y="983878"/>
-          <a:ext cx="1321600" cy="723306"/>
+          <a:off x="2513613" y="995083"/>
+          <a:ext cx="3181776" cy="712101"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2579,13 +2601,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>225356</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>80404</xdr:rowOff>
+      <xdr:rowOff>186566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>186566</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>187137</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158845</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2602,9 +2624,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2645827" y="2433639"/>
-          <a:ext cx="1194428" cy="106162"/>
+        <a:xfrm>
+          <a:off x="2645827" y="2539801"/>
+          <a:ext cx="869457" cy="207603"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2641,8 +2663,8 @@
       <xdr:rowOff>152437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>265579</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>287991</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>7284</xdr:rowOff>
     </xdr:to>
@@ -2663,7 +2685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2532268" y="3446966"/>
-          <a:ext cx="1364017" cy="796142"/>
+          <a:ext cx="2899223" cy="796142"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2694,14 +2716,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>182095</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>204507</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>6724</xdr:rowOff>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>122705</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>189941</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>7284</xdr:rowOff>
     </xdr:to>
@@ -2721,8 +2743,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5930713" y="4007224"/>
-          <a:ext cx="1453404" cy="235884"/>
+          <a:off x="7465919" y="4018430"/>
+          <a:ext cx="1498228" cy="224678"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2753,16 +2775,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>252132</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>296955</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>42584</xdr:rowOff>
+      <xdr:rowOff>53789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>31376</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>300318</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>67237</xdr:rowOff>
+      <xdr:rowOff>56031</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2780,8 +2802,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6000750" y="983878"/>
-          <a:ext cx="1292038" cy="24653"/>
+          <a:off x="7860926" y="995083"/>
+          <a:ext cx="911039" cy="2242"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2812,16 +2834,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>205348</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>171731</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>137274</xdr:rowOff>
+      <xdr:rowOff>126068</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>231122</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>298358</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>172010</xdr:rowOff>
+      <xdr:rowOff>183216</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2839,8 +2861,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8374436" y="1549215"/>
-          <a:ext cx="25774" cy="1917324"/>
+          <a:off x="9853613" y="1538009"/>
+          <a:ext cx="126627" cy="1939736"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2871,16 +2893,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>36979</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>43142</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>67237</xdr:rowOff>
+      <xdr:rowOff>56031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>76759</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>104215</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>6724</xdr:rowOff>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2897,13 +2919,13 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9416303" y="1008531"/>
-          <a:ext cx="39780" cy="2998693"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10935260" y="997325"/>
+          <a:ext cx="61073" cy="3021105"/>
         </a:xfrm>
         <a:prstGeom prst="curvedConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 674661"/>
+            <a:gd name="adj1" fmla="val -374306"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -3026,16 +3048,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>8966</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>187137</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87407</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>126065</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>151842</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>103653</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>230283</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3050,7 +3072,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3840255" y="1891554"/>
+          <a:off x="3515284" y="2205319"/>
           <a:ext cx="2034428" cy="1084170"/>
           <a:chOff x="3560108" y="1925171"/>
           <a:chExt cx="2034428" cy="1084170"/>
@@ -3182,16 +3204,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>72558</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>172570</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>121864</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>84046</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3203,14 +3225,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="33" idx="2"/>
-          <a:endCxn id="9" idx="0"/>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="8" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4874559" y="2868706"/>
-          <a:ext cx="38940" cy="833717"/>
+        <a:xfrm flipV="1">
+          <a:off x="5244352" y="1535767"/>
+          <a:ext cx="1533806" cy="1372161"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4799,550 +4821,555 @@
   <dimension ref="B2:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:Z5"/>
+      <selection activeCell="G6" sqref="G6:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
     </row>
     <row r="3" spans="2:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
     </row>
     <row r="4" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="34" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
+      <c r="B5" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.4">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="34"/>
-      <c r="R19" s="34"/>
-      <c r="S19" s="34"/>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G17:Z17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:Z18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="G19:Z19"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:Z14"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="G15:Z15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="G16:Z16"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="G11:Z11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:Z12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="G13:Z13"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:Z8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:Z9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="G10:Z10"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:Z5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:Z6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:Z7"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="G2:Z2"/>
     <mergeCell ref="G3:Z3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G4:Z4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:Z5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:Z6"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:Z7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:Z8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:Z9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="G10:Z10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="G11:Z11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:Z12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="G13:Z13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:Z14"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="G15:Z15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="G16:Z16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="G17:Z17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:Z18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="G19:Z19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5527,96 +5554,96 @@
       <c r="P12" s="6"/>
       <c r="Q12" s="7"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="60"/>
-      <c r="AF12" s="60"/>
-      <c r="AG12" s="60"/>
-      <c r="AH12" s="61"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="59"/>
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="59"/>
+      <c r="AC12" s="59"/>
+      <c r="AD12" s="59"/>
+      <c r="AE12" s="59"/>
+      <c r="AF12" s="59"/>
+      <c r="AG12" s="59"/>
+      <c r="AH12" s="60"/>
       <c r="AI12" s="7"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="40" t="s">
+      <c r="AM12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="42"/>
+      <c r="AN12" s="55"/>
+      <c r="AO12" s="55"/>
+      <c r="AP12" s="55"/>
+      <c r="AQ12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
+      <c r="AU12" s="55"/>
+      <c r="AV12" s="55"/>
+      <c r="AW12" s="55"/>
+      <c r="AX12" s="55"/>
+      <c r="AY12" s="55"/>
+      <c r="AZ12" s="46"/>
       <c r="BA12" s="7"/>
       <c r="BD12" s="5"/>
-      <c r="BE12" s="40" t="s">
+      <c r="BE12" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="BF12" s="41"/>
-      <c r="BG12" s="41"/>
-      <c r="BH12" s="41"/>
-      <c r="BI12" s="41"/>
-      <c r="BJ12" s="41"/>
-      <c r="BK12" s="41"/>
-      <c r="BL12" s="41"/>
-      <c r="BM12" s="41"/>
-      <c r="BN12" s="41"/>
-      <c r="BO12" s="41"/>
-      <c r="BP12" s="41"/>
-      <c r="BQ12" s="41"/>
-      <c r="BR12" s="42"/>
+      <c r="BF12" s="55"/>
+      <c r="BG12" s="55"/>
+      <c r="BH12" s="55"/>
+      <c r="BI12" s="55"/>
+      <c r="BJ12" s="55"/>
+      <c r="BK12" s="55"/>
+      <c r="BL12" s="55"/>
+      <c r="BM12" s="55"/>
+      <c r="BN12" s="55"/>
+      <c r="BO12" s="55"/>
+      <c r="BP12" s="55"/>
+      <c r="BQ12" s="55"/>
+      <c r="BR12" s="46"/>
       <c r="BS12" s="7"/>
       <c r="BV12" s="5"/>
-      <c r="BW12" s="40" t="s">
+      <c r="BW12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="BX12" s="41"/>
-      <c r="BY12" s="41"/>
-      <c r="BZ12" s="41"/>
-      <c r="CA12" s="41"/>
-      <c r="CB12" s="41"/>
-      <c r="CC12" s="41"/>
-      <c r="CD12" s="41"/>
-      <c r="CE12" s="41"/>
-      <c r="CF12" s="41"/>
-      <c r="CG12" s="42"/>
+      <c r="BX12" s="55"/>
+      <c r="BY12" s="55"/>
+      <c r="BZ12" s="55"/>
+      <c r="CA12" s="55"/>
+      <c r="CB12" s="55"/>
+      <c r="CC12" s="55"/>
+      <c r="CD12" s="55"/>
+      <c r="CE12" s="55"/>
+      <c r="CF12" s="55"/>
+      <c r="CG12" s="46"/>
       <c r="CH12" s="14"/>
-      <c r="CI12" s="36" t="s">
+      <c r="CI12" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="CJ12" s="37"/>
+      <c r="CJ12" s="66"/>
       <c r="CK12" s="7"/>
       <c r="CN12" s="5"/>
-      <c r="CO12" s="40" t="s">
+      <c r="CO12" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="CP12" s="41"/>
-      <c r="CQ12" s="41"/>
-      <c r="CR12" s="41"/>
-      <c r="CS12" s="41"/>
-      <c r="CT12" s="41"/>
-      <c r="CU12" s="41"/>
-      <c r="CV12" s="41"/>
-      <c r="CW12" s="41"/>
-      <c r="CX12" s="41"/>
-      <c r="CY12" s="41"/>
-      <c r="CZ12" s="41"/>
-      <c r="DA12" s="41"/>
-      <c r="DB12" s="42"/>
+      <c r="CP12" s="55"/>
+      <c r="CQ12" s="55"/>
+      <c r="CR12" s="55"/>
+      <c r="CS12" s="55"/>
+      <c r="CT12" s="55"/>
+      <c r="CU12" s="55"/>
+      <c r="CV12" s="55"/>
+      <c r="CW12" s="55"/>
+      <c r="CX12" s="55"/>
+      <c r="CY12" s="55"/>
+      <c r="CZ12" s="55"/>
+      <c r="DA12" s="55"/>
+      <c r="DB12" s="46"/>
       <c r="DC12" s="7"/>
     </row>
     <row r="13" spans="2:107" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5637,83 +5664,83 @@
       <c r="P13" s="6"/>
       <c r="Q13" s="7"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="62"/>
-      <c r="V13" s="63"/>
-      <c r="W13" s="63"/>
-      <c r="X13" s="63"/>
-      <c r="Y13" s="63"/>
-      <c r="Z13" s="63"/>
-      <c r="AA13" s="63"/>
-      <c r="AB13" s="63"/>
-      <c r="AC13" s="63"/>
-      <c r="AD13" s="63"/>
-      <c r="AE13" s="63"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="63"/>
-      <c r="AH13" s="64"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="62"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="63"/>
       <c r="AI13" s="7"/>
       <c r="AL13" s="5"/>
-      <c r="AM13" s="46"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47"/>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47"/>
-      <c r="AY13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="56"/>
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="56"/>
+      <c r="AW13" s="56"/>
+      <c r="AX13" s="56"/>
+      <c r="AY13" s="56"/>
       <c r="AZ13" s="48"/>
       <c r="BA13" s="7"/>
       <c r="BD13" s="5"/>
-      <c r="BE13" s="43"/>
-      <c r="BF13" s="44"/>
-      <c r="BG13" s="44"/>
-      <c r="BH13" s="44"/>
-      <c r="BI13" s="44"/>
-      <c r="BJ13" s="44"/>
-      <c r="BK13" s="44"/>
-      <c r="BL13" s="44"/>
-      <c r="BM13" s="44"/>
-      <c r="BN13" s="44"/>
-      <c r="BO13" s="44"/>
-      <c r="BP13" s="44"/>
-      <c r="BQ13" s="44"/>
-      <c r="BR13" s="45"/>
+      <c r="BE13" s="49"/>
+      <c r="BF13" s="57"/>
+      <c r="BG13" s="57"/>
+      <c r="BH13" s="57"/>
+      <c r="BI13" s="57"/>
+      <c r="BJ13" s="57"/>
+      <c r="BK13" s="57"/>
+      <c r="BL13" s="57"/>
+      <c r="BM13" s="57"/>
+      <c r="BN13" s="57"/>
+      <c r="BO13" s="57"/>
+      <c r="BP13" s="57"/>
+      <c r="BQ13" s="57"/>
+      <c r="BR13" s="50"/>
       <c r="BS13" s="7"/>
       <c r="BV13" s="5"/>
-      <c r="BW13" s="43"/>
-      <c r="BX13" s="44"/>
-      <c r="BY13" s="44"/>
-      <c r="BZ13" s="44"/>
-      <c r="CA13" s="44"/>
-      <c r="CB13" s="44"/>
-      <c r="CC13" s="44"/>
-      <c r="CD13" s="44"/>
-      <c r="CE13" s="44"/>
-      <c r="CF13" s="44"/>
-      <c r="CG13" s="45"/>
+      <c r="BW13" s="49"/>
+      <c r="BX13" s="57"/>
+      <c r="BY13" s="57"/>
+      <c r="BZ13" s="57"/>
+      <c r="CA13" s="57"/>
+      <c r="CB13" s="57"/>
+      <c r="CC13" s="57"/>
+      <c r="CD13" s="57"/>
+      <c r="CE13" s="57"/>
+      <c r="CF13" s="57"/>
+      <c r="CG13" s="50"/>
       <c r="CH13" s="14"/>
-      <c r="CI13" s="38"/>
-      <c r="CJ13" s="39"/>
+      <c r="CI13" s="67"/>
+      <c r="CJ13" s="68"/>
       <c r="CK13" s="7"/>
       <c r="CN13" s="5"/>
-      <c r="CO13" s="46"/>
-      <c r="CP13" s="47"/>
-      <c r="CQ13" s="47"/>
-      <c r="CR13" s="47"/>
-      <c r="CS13" s="47"/>
-      <c r="CT13" s="47"/>
-      <c r="CU13" s="47"/>
-      <c r="CV13" s="47"/>
-      <c r="CW13" s="47"/>
-      <c r="CX13" s="47"/>
-      <c r="CY13" s="47"/>
-      <c r="CZ13" s="47"/>
-      <c r="DA13" s="47"/>
+      <c r="CO13" s="47"/>
+      <c r="CP13" s="56"/>
+      <c r="CQ13" s="56"/>
+      <c r="CR13" s="56"/>
+      <c r="CS13" s="56"/>
+      <c r="CT13" s="56"/>
+      <c r="CU13" s="56"/>
+      <c r="CV13" s="56"/>
+      <c r="CW13" s="56"/>
+      <c r="CX13" s="56"/>
+      <c r="CY13" s="56"/>
+      <c r="CZ13" s="56"/>
+      <c r="DA13" s="56"/>
       <c r="DB13" s="48"/>
       <c r="DC13" s="7"/>
     </row>
@@ -5751,20 +5778,20 @@
       <c r="AH14" s="3"/>
       <c r="AI14" s="7"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="43"/>
-      <c r="AN14" s="44"/>
-      <c r="AO14" s="44"/>
-      <c r="AP14" s="44"/>
-      <c r="AQ14" s="44"/>
-      <c r="AR14" s="44"/>
-      <c r="AS14" s="44"/>
-      <c r="AT14" s="44"/>
-      <c r="AU14" s="44"/>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="45"/>
+      <c r="AM14" s="49"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="57"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="50"/>
       <c r="BA14" s="7"/>
       <c r="BD14" s="5"/>
       <c r="BE14" s="8"/>
@@ -5799,88 +5826,88 @@
       <c r="CJ14" s="14"/>
       <c r="CK14" s="7"/>
       <c r="CN14" s="5"/>
-      <c r="CO14" s="46"/>
-      <c r="CP14" s="47"/>
-      <c r="CQ14" s="47"/>
-      <c r="CR14" s="47"/>
-      <c r="CS14" s="47"/>
-      <c r="CT14" s="47"/>
-      <c r="CU14" s="47"/>
-      <c r="CV14" s="47"/>
-      <c r="CW14" s="47"/>
-      <c r="CX14" s="47"/>
-      <c r="CY14" s="47"/>
-      <c r="CZ14" s="47"/>
-      <c r="DA14" s="47"/>
+      <c r="CO14" s="47"/>
+      <c r="CP14" s="56"/>
+      <c r="CQ14" s="56"/>
+      <c r="CR14" s="56"/>
+      <c r="CS14" s="56"/>
+      <c r="CT14" s="56"/>
+      <c r="CU14" s="56"/>
+      <c r="CV14" s="56"/>
+      <c r="CW14" s="56"/>
+      <c r="CX14" s="56"/>
+      <c r="CY14" s="56"/>
+      <c r="CZ14" s="56"/>
+      <c r="DA14" s="56"/>
       <c r="DB14" s="48"/>
       <c r="DC14" s="7"/>
     </row>
     <row r="15" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="5"/>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
       <c r="Q15" s="7"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="69" t="s">
+      <c r="U15" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="V15" s="69"/>
-      <c r="W15" s="65" t="s">
+      <c r="V15" s="53"/>
+      <c r="W15" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65" t="s">
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65" t="s">
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AB15" s="65"/>
-      <c r="AC15" s="65" t="s">
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AD15" s="65"/>
-      <c r="AE15" s="65" t="s">
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="66" t="s">
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AH15" s="66"/>
+      <c r="AH15" s="64"/>
       <c r="AI15" s="7"/>
       <c r="AL15" s="5"/>
-      <c r="AM15" s="40" t="s">
+      <c r="AM15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="42"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="55"/>
+      <c r="AP15" s="55"/>
+      <c r="AQ15" s="55"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
+      <c r="AU15" s="55"/>
+      <c r="AV15" s="55"/>
+      <c r="AW15" s="55"/>
+      <c r="AX15" s="55"/>
+      <c r="AY15" s="55"/>
+      <c r="AZ15" s="46"/>
       <c r="BA15" s="7"/>
       <c r="BD15" s="5"/>
       <c r="BE15" s="10"/>
@@ -5899,93 +5926,93 @@
       <c r="BR15" s="12"/>
       <c r="BS15" s="7"/>
       <c r="BV15" s="5"/>
-      <c r="BW15" s="40" t="s">
+      <c r="BW15" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="BX15" s="41"/>
-      <c r="BY15" s="41"/>
-      <c r="BZ15" s="41"/>
-      <c r="CA15" s="41"/>
-      <c r="CB15" s="41"/>
-      <c r="CC15" s="41"/>
-      <c r="CD15" s="41"/>
-      <c r="CE15" s="41"/>
-      <c r="CF15" s="41"/>
-      <c r="CG15" s="41"/>
-      <c r="CH15" s="41"/>
-      <c r="CI15" s="41"/>
-      <c r="CJ15" s="42"/>
+      <c r="BX15" s="55"/>
+      <c r="BY15" s="55"/>
+      <c r="BZ15" s="55"/>
+      <c r="CA15" s="55"/>
+      <c r="CB15" s="55"/>
+      <c r="CC15" s="55"/>
+      <c r="CD15" s="55"/>
+      <c r="CE15" s="55"/>
+      <c r="CF15" s="55"/>
+      <c r="CG15" s="55"/>
+      <c r="CH15" s="55"/>
+      <c r="CI15" s="55"/>
+      <c r="CJ15" s="46"/>
       <c r="CK15" s="7"/>
       <c r="CN15" s="5"/>
-      <c r="CO15" s="46"/>
-      <c r="CP15" s="47"/>
-      <c r="CQ15" s="47"/>
-      <c r="CR15" s="47"/>
-      <c r="CS15" s="47"/>
-      <c r="CT15" s="47"/>
-      <c r="CU15" s="47"/>
-      <c r="CV15" s="47"/>
-      <c r="CW15" s="47"/>
-      <c r="CX15" s="47"/>
-      <c r="CY15" s="47"/>
-      <c r="CZ15" s="47"/>
-      <c r="DA15" s="47"/>
+      <c r="CO15" s="47"/>
+      <c r="CP15" s="56"/>
+      <c r="CQ15" s="56"/>
+      <c r="CR15" s="56"/>
+      <c r="CS15" s="56"/>
+      <c r="CT15" s="56"/>
+      <c r="CU15" s="56"/>
+      <c r="CV15" s="56"/>
+      <c r="CW15" s="56"/>
+      <c r="CX15" s="56"/>
+      <c r="CY15" s="56"/>
+      <c r="CZ15" s="56"/>
+      <c r="DA15" s="56"/>
       <c r="DB15" s="48"/>
       <c r="DC15" s="7"/>
     </row>
     <row r="16" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="5"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
       <c r="Q16" s="7"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="40">
+      <c r="U16" s="45"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="45">
         <v>1</v>
       </c>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="40">
+      <c r="X16" s="46"/>
+      <c r="Y16" s="45">
         <v>2</v>
       </c>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="40" t="s">
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="42"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="46"/>
       <c r="AI16" s="7"/>
       <c r="AL16" s="5"/>
-      <c r="AM16" s="46"/>
-      <c r="AN16" s="47"/>
-      <c r="AO16" s="47"/>
-      <c r="AP16" s="47"/>
-      <c r="AQ16" s="47"/>
-      <c r="AR16" s="47"/>
-      <c r="AS16" s="47"/>
-      <c r="AT16" s="47"/>
-      <c r="AU16" s="47"/>
-      <c r="AV16" s="47"/>
-      <c r="AW16" s="47"/>
-      <c r="AX16" s="47"/>
-      <c r="AY16" s="47"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
       <c r="AZ16" s="48"/>
       <c r="BA16" s="7"/>
       <c r="BD16" s="5"/>
@@ -6007,86 +6034,86 @@
       <c r="BR16" s="15"/>
       <c r="BS16" s="7"/>
       <c r="BV16" s="5"/>
-      <c r="BW16" s="46"/>
-      <c r="BX16" s="47"/>
-      <c r="BY16" s="47"/>
-      <c r="BZ16" s="47"/>
-      <c r="CA16" s="47"/>
-      <c r="CB16" s="47"/>
-      <c r="CC16" s="47"/>
-      <c r="CD16" s="47"/>
-      <c r="CE16" s="47"/>
-      <c r="CF16" s="47"/>
-      <c r="CG16" s="47"/>
-      <c r="CH16" s="47"/>
-      <c r="CI16" s="47"/>
+      <c r="BW16" s="47"/>
+      <c r="BX16" s="56"/>
+      <c r="BY16" s="56"/>
+      <c r="BZ16" s="56"/>
+      <c r="CA16" s="56"/>
+      <c r="CB16" s="56"/>
+      <c r="CC16" s="56"/>
+      <c r="CD16" s="56"/>
+      <c r="CE16" s="56"/>
+      <c r="CF16" s="56"/>
+      <c r="CG16" s="56"/>
+      <c r="CH16" s="56"/>
+      <c r="CI16" s="56"/>
       <c r="CJ16" s="48"/>
       <c r="CK16" s="7"/>
       <c r="CN16" s="5"/>
-      <c r="CO16" s="46"/>
-      <c r="CP16" s="47"/>
-      <c r="CQ16" s="47"/>
-      <c r="CR16" s="47"/>
-      <c r="CS16" s="47"/>
-      <c r="CT16" s="47"/>
-      <c r="CU16" s="47"/>
-      <c r="CV16" s="47"/>
-      <c r="CW16" s="47"/>
-      <c r="CX16" s="47"/>
-      <c r="CY16" s="47"/>
-      <c r="CZ16" s="47"/>
-      <c r="DA16" s="47"/>
+      <c r="CO16" s="47"/>
+      <c r="CP16" s="56"/>
+      <c r="CQ16" s="56"/>
+      <c r="CR16" s="56"/>
+      <c r="CS16" s="56"/>
+      <c r="CT16" s="56"/>
+      <c r="CU16" s="56"/>
+      <c r="CV16" s="56"/>
+      <c r="CW16" s="56"/>
+      <c r="CX16" s="56"/>
+      <c r="CY16" s="56"/>
+      <c r="CZ16" s="56"/>
+      <c r="DA16" s="56"/>
       <c r="DB16" s="48"/>
       <c r="DC16" s="7"/>
     </row>
     <row r="17" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="5"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
       <c r="Q17" s="7"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="46"/>
+      <c r="U17" s="47"/>
       <c r="V17" s="48"/>
-      <c r="W17" s="46"/>
+      <c r="W17" s="47"/>
       <c r="X17" s="48"/>
-      <c r="Y17" s="46"/>
+      <c r="Y17" s="47"/>
       <c r="Z17" s="48"/>
-      <c r="AA17" s="46"/>
+      <c r="AA17" s="47"/>
       <c r="AB17" s="48"/>
-      <c r="AC17" s="46"/>
+      <c r="AC17" s="47"/>
       <c r="AD17" s="48"/>
-      <c r="AE17" s="46"/>
+      <c r="AE17" s="47"/>
       <c r="AF17" s="48"/>
-      <c r="AG17" s="46"/>
+      <c r="AG17" s="47"/>
       <c r="AH17" s="48"/>
       <c r="AI17" s="7"/>
       <c r="AL17" s="5"/>
-      <c r="AM17" s="43"/>
-      <c r="AN17" s="44"/>
-      <c r="AO17" s="44"/>
-      <c r="AP17" s="44"/>
-      <c r="AQ17" s="44"/>
-      <c r="AR17" s="44"/>
-      <c r="AS17" s="44"/>
-      <c r="AT17" s="44"/>
-      <c r="AU17" s="44"/>
-      <c r="AV17" s="44"/>
-      <c r="AW17" s="44"/>
-      <c r="AX17" s="44"/>
-      <c r="AY17" s="44"/>
-      <c r="AZ17" s="45"/>
+      <c r="AM17" s="49"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="57"/>
+      <c r="AX17" s="57"/>
+      <c r="AY17" s="57"/>
+      <c r="AZ17" s="50"/>
       <c r="BA17" s="7"/>
       <c r="BD17" s="5"/>
       <c r="BE17" s="13"/>
@@ -6105,88 +6132,88 @@
       <c r="BR17" s="15"/>
       <c r="BS17" s="7"/>
       <c r="BV17" s="5"/>
-      <c r="BW17" s="43"/>
-      <c r="BX17" s="44"/>
-      <c r="BY17" s="44"/>
-      <c r="BZ17" s="44"/>
-      <c r="CA17" s="44"/>
-      <c r="CB17" s="44"/>
-      <c r="CC17" s="44"/>
-      <c r="CD17" s="44"/>
-      <c r="CE17" s="44"/>
-      <c r="CF17" s="44"/>
-      <c r="CG17" s="44"/>
-      <c r="CH17" s="44"/>
-      <c r="CI17" s="44"/>
-      <c r="CJ17" s="45"/>
+      <c r="BW17" s="49"/>
+      <c r="BX17" s="57"/>
+      <c r="BY17" s="57"/>
+      <c r="BZ17" s="57"/>
+      <c r="CA17" s="57"/>
+      <c r="CB17" s="57"/>
+      <c r="CC17" s="57"/>
+      <c r="CD17" s="57"/>
+      <c r="CE17" s="57"/>
+      <c r="CF17" s="57"/>
+      <c r="CG17" s="57"/>
+      <c r="CH17" s="57"/>
+      <c r="CI17" s="57"/>
+      <c r="CJ17" s="50"/>
       <c r="CK17" s="7"/>
       <c r="CN17" s="5"/>
-      <c r="CO17" s="46"/>
-      <c r="CP17" s="47"/>
-      <c r="CQ17" s="47"/>
-      <c r="CR17" s="47"/>
-      <c r="CS17" s="47"/>
-      <c r="CT17" s="47"/>
-      <c r="CU17" s="47"/>
-      <c r="CV17" s="47"/>
-      <c r="CW17" s="47"/>
-      <c r="CX17" s="47"/>
-      <c r="CY17" s="47"/>
-      <c r="CZ17" s="47"/>
-      <c r="DA17" s="47"/>
+      <c r="CO17" s="47"/>
+      <c r="CP17" s="56"/>
+      <c r="CQ17" s="56"/>
+      <c r="CR17" s="56"/>
+      <c r="CS17" s="56"/>
+      <c r="CT17" s="56"/>
+      <c r="CU17" s="56"/>
+      <c r="CV17" s="56"/>
+      <c r="CW17" s="56"/>
+      <c r="CX17" s="56"/>
+      <c r="CY17" s="56"/>
+      <c r="CZ17" s="56"/>
+      <c r="DA17" s="56"/>
       <c r="DB17" s="48"/>
       <c r="DC17" s="7"/>
     </row>
     <row r="18" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
       <c r="Q18" s="7"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="45"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="45"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="45"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="45"/>
-      <c r="AE18" s="43"/>
-      <c r="AF18" s="45"/>
-      <c r="AG18" s="43"/>
-      <c r="AH18" s="45"/>
+      <c r="U18" s="49"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="49"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="49"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="49"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="49"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="49"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="49"/>
+      <c r="AH18" s="50"/>
       <c r="AI18" s="7"/>
       <c r="AL18" s="5"/>
-      <c r="AM18" s="40" t="s">
+      <c r="AM18" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="41"/>
-      <c r="AX18" s="41"/>
-      <c r="AY18" s="41"/>
-      <c r="AZ18" s="42"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="55"/>
+      <c r="AR18" s="55"/>
+      <c r="AS18" s="55"/>
+      <c r="AT18" s="55"/>
+      <c r="AU18" s="55"/>
+      <c r="AV18" s="55"/>
+      <c r="AW18" s="55"/>
+      <c r="AX18" s="55"/>
+      <c r="AY18" s="55"/>
+      <c r="AZ18" s="46"/>
       <c r="BA18" s="7"/>
       <c r="BD18" s="5"/>
       <c r="BE18" s="13"/>
@@ -6207,87 +6234,87 @@
       <c r="BR18" s="15"/>
       <c r="BS18" s="7"/>
       <c r="BV18" s="5"/>
-      <c r="BW18" s="40" t="s">
+      <c r="BW18" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="BX18" s="41"/>
-      <c r="BY18" s="41"/>
-      <c r="BZ18" s="41"/>
-      <c r="CA18" s="41"/>
-      <c r="CB18" s="41"/>
-      <c r="CC18" s="41"/>
-      <c r="CD18" s="41"/>
-      <c r="CE18" s="41"/>
-      <c r="CF18" s="41"/>
-      <c r="CG18" s="41"/>
-      <c r="CH18" s="41"/>
-      <c r="CI18" s="41"/>
-      <c r="CJ18" s="42"/>
+      <c r="BX18" s="55"/>
+      <c r="BY18" s="55"/>
+      <c r="BZ18" s="55"/>
+      <c r="CA18" s="55"/>
+      <c r="CB18" s="55"/>
+      <c r="CC18" s="55"/>
+      <c r="CD18" s="55"/>
+      <c r="CE18" s="55"/>
+      <c r="CF18" s="55"/>
+      <c r="CG18" s="55"/>
+      <c r="CH18" s="55"/>
+      <c r="CI18" s="55"/>
+      <c r="CJ18" s="46"/>
       <c r="CK18" s="7"/>
       <c r="CN18" s="5"/>
-      <c r="CO18" s="46"/>
-      <c r="CP18" s="47"/>
-      <c r="CQ18" s="47"/>
-      <c r="CR18" s="47"/>
-      <c r="CS18" s="47"/>
-      <c r="CT18" s="47"/>
-      <c r="CU18" s="47"/>
-      <c r="CV18" s="47"/>
-      <c r="CW18" s="47"/>
-      <c r="CX18" s="47"/>
-      <c r="CY18" s="47"/>
-      <c r="CZ18" s="47"/>
-      <c r="DA18" s="47"/>
+      <c r="CO18" s="47"/>
+      <c r="CP18" s="56"/>
+      <c r="CQ18" s="56"/>
+      <c r="CR18" s="56"/>
+      <c r="CS18" s="56"/>
+      <c r="CT18" s="56"/>
+      <c r="CU18" s="56"/>
+      <c r="CV18" s="56"/>
+      <c r="CW18" s="56"/>
+      <c r="CX18" s="56"/>
+      <c r="CY18" s="56"/>
+      <c r="CZ18" s="56"/>
+      <c r="DA18" s="56"/>
       <c r="DB18" s="48"/>
       <c r="DC18" s="7"/>
     </row>
     <row r="19" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="5"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
       <c r="Q19" s="7"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="40"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="40"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="42"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="46"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="46"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="46"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="46"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="46"/>
       <c r="AI19" s="7"/>
       <c r="AL19" s="5"/>
-      <c r="AM19" s="46"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="47"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="47"/>
-      <c r="AV19" s="47"/>
-      <c r="AW19" s="47"/>
-      <c r="AX19" s="47"/>
-      <c r="AY19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="56"/>
+      <c r="AO19" s="56"/>
+      <c r="AP19" s="56"/>
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="56"/>
+      <c r="AS19" s="56"/>
+      <c r="AT19" s="56"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="56"/>
+      <c r="AW19" s="56"/>
+      <c r="AX19" s="56"/>
+      <c r="AY19" s="56"/>
       <c r="AZ19" s="48"/>
       <c r="BA19" s="7"/>
       <c r="BD19" s="5"/>
@@ -6309,86 +6336,86 @@
       <c r="BR19" s="15"/>
       <c r="BS19" s="7"/>
       <c r="BV19" s="5"/>
-      <c r="BW19" s="46"/>
-      <c r="BX19" s="47"/>
-      <c r="BY19" s="47"/>
-      <c r="BZ19" s="47"/>
-      <c r="CA19" s="47"/>
-      <c r="CB19" s="47"/>
-      <c r="CC19" s="47"/>
-      <c r="CD19" s="47"/>
-      <c r="CE19" s="47"/>
-      <c r="CF19" s="47"/>
-      <c r="CG19" s="47"/>
-      <c r="CH19" s="47"/>
-      <c r="CI19" s="47"/>
+      <c r="BW19" s="47"/>
+      <c r="BX19" s="56"/>
+      <c r="BY19" s="56"/>
+      <c r="BZ19" s="56"/>
+      <c r="CA19" s="56"/>
+      <c r="CB19" s="56"/>
+      <c r="CC19" s="56"/>
+      <c r="CD19" s="56"/>
+      <c r="CE19" s="56"/>
+      <c r="CF19" s="56"/>
+      <c r="CG19" s="56"/>
+      <c r="CH19" s="56"/>
+      <c r="CI19" s="56"/>
       <c r="CJ19" s="48"/>
       <c r="CK19" s="7"/>
       <c r="CN19" s="5"/>
-      <c r="CO19" s="46"/>
-      <c r="CP19" s="47"/>
-      <c r="CQ19" s="47"/>
-      <c r="CR19" s="47"/>
-      <c r="CS19" s="47"/>
-      <c r="CT19" s="47"/>
-      <c r="CU19" s="47"/>
-      <c r="CV19" s="47"/>
-      <c r="CW19" s="47"/>
-      <c r="CX19" s="47"/>
-      <c r="CY19" s="47"/>
-      <c r="CZ19" s="47"/>
-      <c r="DA19" s="47"/>
+      <c r="CO19" s="47"/>
+      <c r="CP19" s="56"/>
+      <c r="CQ19" s="56"/>
+      <c r="CR19" s="56"/>
+      <c r="CS19" s="56"/>
+      <c r="CT19" s="56"/>
+      <c r="CU19" s="56"/>
+      <c r="CV19" s="56"/>
+      <c r="CW19" s="56"/>
+      <c r="CX19" s="56"/>
+      <c r="CY19" s="56"/>
+      <c r="CZ19" s="56"/>
+      <c r="DA19" s="56"/>
       <c r="DB19" s="48"/>
       <c r="DC19" s="7"/>
     </row>
     <row r="20" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="5"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
       <c r="Q20" s="7"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="46"/>
+      <c r="U20" s="47"/>
       <c r="V20" s="48"/>
-      <c r="W20" s="46"/>
+      <c r="W20" s="47"/>
       <c r="X20" s="48"/>
-      <c r="Y20" s="46"/>
+      <c r="Y20" s="47"/>
       <c r="Z20" s="48"/>
-      <c r="AA20" s="46"/>
+      <c r="AA20" s="47"/>
       <c r="AB20" s="48"/>
-      <c r="AC20" s="46"/>
+      <c r="AC20" s="47"/>
       <c r="AD20" s="48"/>
-      <c r="AE20" s="46"/>
+      <c r="AE20" s="47"/>
       <c r="AF20" s="48"/>
-      <c r="AG20" s="46"/>
+      <c r="AG20" s="47"/>
       <c r="AH20" s="48"/>
       <c r="AI20" s="7"/>
       <c r="AL20" s="5"/>
-      <c r="AM20" s="43"/>
-      <c r="AN20" s="44"/>
-      <c r="AO20" s="44"/>
-      <c r="AP20" s="44"/>
-      <c r="AQ20" s="44"/>
-      <c r="AR20" s="44"/>
-      <c r="AS20" s="44"/>
-      <c r="AT20" s="44"/>
-      <c r="AU20" s="44"/>
-      <c r="AV20" s="44"/>
-      <c r="AW20" s="44"/>
-      <c r="AX20" s="44"/>
-      <c r="AY20" s="44"/>
-      <c r="AZ20" s="45"/>
+      <c r="AM20" s="49"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="57"/>
+      <c r="AX20" s="57"/>
+      <c r="AY20" s="57"/>
+      <c r="AZ20" s="50"/>
       <c r="BA20" s="7"/>
       <c r="BD20" s="5"/>
       <c r="BE20" s="13"/>
@@ -6409,88 +6436,88 @@
       <c r="BR20" s="15"/>
       <c r="BS20" s="7"/>
       <c r="BV20" s="5"/>
-      <c r="BW20" s="43"/>
-      <c r="BX20" s="44"/>
-      <c r="BY20" s="44"/>
-      <c r="BZ20" s="44"/>
-      <c r="CA20" s="44"/>
-      <c r="CB20" s="44"/>
-      <c r="CC20" s="44"/>
-      <c r="CD20" s="44"/>
-      <c r="CE20" s="44"/>
-      <c r="CF20" s="44"/>
-      <c r="CG20" s="44"/>
-      <c r="CH20" s="44"/>
-      <c r="CI20" s="44"/>
-      <c r="CJ20" s="45"/>
+      <c r="BW20" s="49"/>
+      <c r="BX20" s="57"/>
+      <c r="BY20" s="57"/>
+      <c r="BZ20" s="57"/>
+      <c r="CA20" s="57"/>
+      <c r="CB20" s="57"/>
+      <c r="CC20" s="57"/>
+      <c r="CD20" s="57"/>
+      <c r="CE20" s="57"/>
+      <c r="CF20" s="57"/>
+      <c r="CG20" s="57"/>
+      <c r="CH20" s="57"/>
+      <c r="CI20" s="57"/>
+      <c r="CJ20" s="50"/>
       <c r="CK20" s="7"/>
       <c r="CN20" s="5"/>
-      <c r="CO20" s="46"/>
-      <c r="CP20" s="47"/>
-      <c r="CQ20" s="47"/>
-      <c r="CR20" s="47"/>
-      <c r="CS20" s="47"/>
-      <c r="CT20" s="47"/>
-      <c r="CU20" s="47"/>
-      <c r="CV20" s="47"/>
-      <c r="CW20" s="47"/>
-      <c r="CX20" s="47"/>
-      <c r="CY20" s="47"/>
-      <c r="CZ20" s="47"/>
-      <c r="DA20" s="47"/>
+      <c r="CO20" s="47"/>
+      <c r="CP20" s="56"/>
+      <c r="CQ20" s="56"/>
+      <c r="CR20" s="56"/>
+      <c r="CS20" s="56"/>
+      <c r="CT20" s="56"/>
+      <c r="CU20" s="56"/>
+      <c r="CV20" s="56"/>
+      <c r="CW20" s="56"/>
+      <c r="CX20" s="56"/>
+      <c r="CY20" s="56"/>
+      <c r="CZ20" s="56"/>
+      <c r="DA20" s="56"/>
       <c r="DB20" s="48"/>
       <c r="DC20" s="7"/>
     </row>
     <row r="21" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="5"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
       <c r="Q21" s="7"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="45"/>
-      <c r="AC21" s="43"/>
-      <c r="AD21" s="45"/>
-      <c r="AE21" s="43"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="43"/>
-      <c r="AH21" s="45"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="49"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="49"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="49"/>
+      <c r="AH21" s="50"/>
       <c r="AI21" s="7"/>
       <c r="AL21" s="5"/>
-      <c r="AM21" s="40" t="s">
+      <c r="AM21" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41"/>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="41"/>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="42"/>
+      <c r="AN21" s="55"/>
+      <c r="AO21" s="55"/>
+      <c r="AP21" s="55"/>
+      <c r="AQ21" s="55"/>
+      <c r="AR21" s="55"/>
+      <c r="AS21" s="55"/>
+      <c r="AT21" s="55"/>
+      <c r="AU21" s="55"/>
+      <c r="AV21" s="55"/>
+      <c r="AW21" s="55"/>
+      <c r="AX21" s="55"/>
+      <c r="AY21" s="55"/>
+      <c r="AZ21" s="46"/>
       <c r="BA21" s="7"/>
       <c r="BD21" s="5"/>
       <c r="BE21" s="13"/>
@@ -6509,87 +6536,87 @@
       <c r="BR21" s="15"/>
       <c r="BS21" s="7"/>
       <c r="BV21" s="5"/>
-      <c r="BW21" s="40" t="s">
+      <c r="BW21" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="BX21" s="41"/>
-      <c r="BY21" s="41"/>
-      <c r="BZ21" s="41"/>
-      <c r="CA21" s="41"/>
-      <c r="CB21" s="41"/>
-      <c r="CC21" s="41"/>
-      <c r="CD21" s="41"/>
-      <c r="CE21" s="41"/>
-      <c r="CF21" s="41"/>
-      <c r="CG21" s="41"/>
-      <c r="CH21" s="41"/>
-      <c r="CI21" s="41"/>
-      <c r="CJ21" s="42"/>
+      <c r="BX21" s="55"/>
+      <c r="BY21" s="55"/>
+      <c r="BZ21" s="55"/>
+      <c r="CA21" s="55"/>
+      <c r="CB21" s="55"/>
+      <c r="CC21" s="55"/>
+      <c r="CD21" s="55"/>
+      <c r="CE21" s="55"/>
+      <c r="CF21" s="55"/>
+      <c r="CG21" s="55"/>
+      <c r="CH21" s="55"/>
+      <c r="CI21" s="55"/>
+      <c r="CJ21" s="46"/>
       <c r="CK21" s="7"/>
       <c r="CN21" s="5"/>
-      <c r="CO21" s="46"/>
-      <c r="CP21" s="47"/>
-      <c r="CQ21" s="47"/>
-      <c r="CR21" s="47"/>
-      <c r="CS21" s="47"/>
-      <c r="CT21" s="47"/>
-      <c r="CU21" s="47"/>
-      <c r="CV21" s="47"/>
-      <c r="CW21" s="47"/>
-      <c r="CX21" s="47"/>
-      <c r="CY21" s="47"/>
-      <c r="CZ21" s="47"/>
-      <c r="DA21" s="47"/>
+      <c r="CO21" s="47"/>
+      <c r="CP21" s="56"/>
+      <c r="CQ21" s="56"/>
+      <c r="CR21" s="56"/>
+      <c r="CS21" s="56"/>
+      <c r="CT21" s="56"/>
+      <c r="CU21" s="56"/>
+      <c r="CV21" s="56"/>
+      <c r="CW21" s="56"/>
+      <c r="CX21" s="56"/>
+      <c r="CY21" s="56"/>
+      <c r="CZ21" s="56"/>
+      <c r="DA21" s="56"/>
       <c r="DB21" s="48"/>
       <c r="DC21" s="7"/>
     </row>
     <row r="22" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="5"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
       <c r="Q22" s="7"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="40"/>
-      <c r="V22" s="42"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="40"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="40"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="40"/>
-      <c r="AH22" s="42"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="46"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="46"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="46"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="46"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="46"/>
       <c r="AI22" s="7"/>
       <c r="AL22" s="5"/>
-      <c r="AM22" s="46"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="47"/>
-      <c r="AQ22" s="47"/>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="47"/>
-      <c r="AW22" s="47"/>
-      <c r="AX22" s="47"/>
-      <c r="AY22" s="47"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="56"/>
+      <c r="AP22" s="56"/>
+      <c r="AQ22" s="56"/>
+      <c r="AR22" s="56"/>
+      <c r="AS22" s="56"/>
+      <c r="AT22" s="56"/>
+      <c r="AU22" s="56"/>
+      <c r="AV22" s="56"/>
+      <c r="AW22" s="56"/>
+      <c r="AX22" s="56"/>
+      <c r="AY22" s="56"/>
       <c r="AZ22" s="48"/>
       <c r="BA22" s="7"/>
       <c r="BD22" s="5"/>
@@ -6609,86 +6636,86 @@
       <c r="BR22" s="15"/>
       <c r="BS22" s="7"/>
       <c r="BV22" s="5"/>
-      <c r="BW22" s="46"/>
-      <c r="BX22" s="47"/>
-      <c r="BY22" s="47"/>
-      <c r="BZ22" s="47"/>
-      <c r="CA22" s="47"/>
-      <c r="CB22" s="47"/>
-      <c r="CC22" s="47"/>
-      <c r="CD22" s="47"/>
-      <c r="CE22" s="47"/>
-      <c r="CF22" s="47"/>
-      <c r="CG22" s="47"/>
-      <c r="CH22" s="47"/>
-      <c r="CI22" s="47"/>
+      <c r="BW22" s="47"/>
+      <c r="BX22" s="56"/>
+      <c r="BY22" s="56"/>
+      <c r="BZ22" s="56"/>
+      <c r="CA22" s="56"/>
+      <c r="CB22" s="56"/>
+      <c r="CC22" s="56"/>
+      <c r="CD22" s="56"/>
+      <c r="CE22" s="56"/>
+      <c r="CF22" s="56"/>
+      <c r="CG22" s="56"/>
+      <c r="CH22" s="56"/>
+      <c r="CI22" s="56"/>
       <c r="CJ22" s="48"/>
       <c r="CK22" s="7"/>
       <c r="CN22" s="5"/>
-      <c r="CO22" s="46"/>
-      <c r="CP22" s="47"/>
-      <c r="CQ22" s="47"/>
-      <c r="CR22" s="47"/>
-      <c r="CS22" s="47"/>
-      <c r="CT22" s="47"/>
-      <c r="CU22" s="47"/>
-      <c r="CV22" s="47"/>
-      <c r="CW22" s="47"/>
-      <c r="CX22" s="47"/>
-      <c r="CY22" s="47"/>
-      <c r="CZ22" s="47"/>
-      <c r="DA22" s="47"/>
+      <c r="CO22" s="47"/>
+      <c r="CP22" s="56"/>
+      <c r="CQ22" s="56"/>
+      <c r="CR22" s="56"/>
+      <c r="CS22" s="56"/>
+      <c r="CT22" s="56"/>
+      <c r="CU22" s="56"/>
+      <c r="CV22" s="56"/>
+      <c r="CW22" s="56"/>
+      <c r="CX22" s="56"/>
+      <c r="CY22" s="56"/>
+      <c r="CZ22" s="56"/>
+      <c r="DA22" s="56"/>
       <c r="DB22" s="48"/>
       <c r="DC22" s="7"/>
     </row>
     <row r="23" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="5"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="52"/>
       <c r="Q23" s="7"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="46"/>
+      <c r="U23" s="47"/>
       <c r="V23" s="48"/>
-      <c r="W23" s="46"/>
+      <c r="W23" s="47"/>
       <c r="X23" s="48"/>
-      <c r="Y23" s="46"/>
+      <c r="Y23" s="47"/>
       <c r="Z23" s="48"/>
-      <c r="AA23" s="46"/>
+      <c r="AA23" s="47"/>
       <c r="AB23" s="48"/>
-      <c r="AC23" s="46"/>
+      <c r="AC23" s="47"/>
       <c r="AD23" s="48"/>
-      <c r="AE23" s="46"/>
+      <c r="AE23" s="47"/>
       <c r="AF23" s="48"/>
-      <c r="AG23" s="46"/>
+      <c r="AG23" s="47"/>
       <c r="AH23" s="48"/>
       <c r="AI23" s="7"/>
       <c r="AL23" s="5"/>
-      <c r="AM23" s="43"/>
-      <c r="AN23" s="44"/>
-      <c r="AO23" s="44"/>
-      <c r="AP23" s="44"/>
-      <c r="AQ23" s="44"/>
-      <c r="AR23" s="44"/>
-      <c r="AS23" s="44"/>
-      <c r="AT23" s="44"/>
-      <c r="AU23" s="44"/>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="45"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="57"/>
+      <c r="AO23" s="57"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="57"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="50"/>
       <c r="BA23" s="7"/>
       <c r="BD23" s="5"/>
       <c r="BE23" s="13"/>
@@ -6707,88 +6734,88 @@
       <c r="BR23" s="15"/>
       <c r="BS23" s="7"/>
       <c r="BV23" s="5"/>
-      <c r="BW23" s="43"/>
-      <c r="BX23" s="44"/>
-      <c r="BY23" s="44"/>
-      <c r="BZ23" s="44"/>
-      <c r="CA23" s="44"/>
-      <c r="CB23" s="44"/>
-      <c r="CC23" s="44"/>
-      <c r="CD23" s="44"/>
-      <c r="CE23" s="44"/>
-      <c r="CF23" s="44"/>
-      <c r="CG23" s="44"/>
-      <c r="CH23" s="44"/>
-      <c r="CI23" s="44"/>
-      <c r="CJ23" s="45"/>
+      <c r="BW23" s="49"/>
+      <c r="BX23" s="57"/>
+      <c r="BY23" s="57"/>
+      <c r="BZ23" s="57"/>
+      <c r="CA23" s="57"/>
+      <c r="CB23" s="57"/>
+      <c r="CC23" s="57"/>
+      <c r="CD23" s="57"/>
+      <c r="CE23" s="57"/>
+      <c r="CF23" s="57"/>
+      <c r="CG23" s="57"/>
+      <c r="CH23" s="57"/>
+      <c r="CI23" s="57"/>
+      <c r="CJ23" s="50"/>
       <c r="CK23" s="7"/>
       <c r="CN23" s="5"/>
-      <c r="CO23" s="46"/>
-      <c r="CP23" s="47"/>
-      <c r="CQ23" s="47"/>
-      <c r="CR23" s="47"/>
-      <c r="CS23" s="47"/>
-      <c r="CT23" s="47"/>
-      <c r="CU23" s="47"/>
-      <c r="CV23" s="47"/>
-      <c r="CW23" s="47"/>
-      <c r="CX23" s="47"/>
-      <c r="CY23" s="47"/>
-      <c r="CZ23" s="47"/>
-      <c r="DA23" s="47"/>
+      <c r="CO23" s="47"/>
+      <c r="CP23" s="56"/>
+      <c r="CQ23" s="56"/>
+      <c r="CR23" s="56"/>
+      <c r="CS23" s="56"/>
+      <c r="CT23" s="56"/>
+      <c r="CU23" s="56"/>
+      <c r="CV23" s="56"/>
+      <c r="CW23" s="56"/>
+      <c r="CX23" s="56"/>
+      <c r="CY23" s="56"/>
+      <c r="CZ23" s="56"/>
+      <c r="DA23" s="56"/>
       <c r="DB23" s="48"/>
       <c r="DC23" s="7"/>
     </row>
     <row r="24" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="5"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
       <c r="Q24" s="7"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="45"/>
-      <c r="AC24" s="43"/>
-      <c r="AD24" s="45"/>
-      <c r="AE24" s="43"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="43"/>
-      <c r="AH24" s="45"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="50"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="50"/>
+      <c r="AA24" s="49"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="49"/>
+      <c r="AF24" s="50"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="50"/>
       <c r="AI24" s="7"/>
       <c r="AL24" s="5"/>
-      <c r="AM24" s="40" t="s">
+      <c r="AM24" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="41"/>
-      <c r="AX24" s="41"/>
-      <c r="AY24" s="41"/>
-      <c r="AZ24" s="42"/>
+      <c r="AN24" s="55"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="55"/>
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="46"/>
       <c r="BA24" s="7"/>
       <c r="BD24" s="5"/>
       <c r="BE24" s="13"/>
@@ -6807,87 +6834,87 @@
       <c r="BR24" s="15"/>
       <c r="BS24" s="7"/>
       <c r="BV24" s="5"/>
-      <c r="BW24" s="40" t="s">
+      <c r="BW24" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="BX24" s="41"/>
-      <c r="BY24" s="41"/>
-      <c r="BZ24" s="41"/>
-      <c r="CA24" s="41"/>
-      <c r="CB24" s="41"/>
-      <c r="CC24" s="41"/>
-      <c r="CD24" s="41"/>
-      <c r="CE24" s="41"/>
-      <c r="CF24" s="41"/>
-      <c r="CG24" s="41"/>
-      <c r="CH24" s="41"/>
-      <c r="CI24" s="41"/>
-      <c r="CJ24" s="42"/>
+      <c r="BX24" s="55"/>
+      <c r="BY24" s="55"/>
+      <c r="BZ24" s="55"/>
+      <c r="CA24" s="55"/>
+      <c r="CB24" s="55"/>
+      <c r="CC24" s="55"/>
+      <c r="CD24" s="55"/>
+      <c r="CE24" s="55"/>
+      <c r="CF24" s="55"/>
+      <c r="CG24" s="55"/>
+      <c r="CH24" s="55"/>
+      <c r="CI24" s="55"/>
+      <c r="CJ24" s="46"/>
       <c r="CK24" s="7"/>
       <c r="CN24" s="5"/>
-      <c r="CO24" s="46"/>
-      <c r="CP24" s="47"/>
-      <c r="CQ24" s="47"/>
-      <c r="CR24" s="47"/>
-      <c r="CS24" s="47"/>
-      <c r="CT24" s="47"/>
-      <c r="CU24" s="47"/>
-      <c r="CV24" s="47"/>
-      <c r="CW24" s="47"/>
-      <c r="CX24" s="47"/>
-      <c r="CY24" s="47"/>
-      <c r="CZ24" s="47"/>
-      <c r="DA24" s="47"/>
+      <c r="CO24" s="47"/>
+      <c r="CP24" s="56"/>
+      <c r="CQ24" s="56"/>
+      <c r="CR24" s="56"/>
+      <c r="CS24" s="56"/>
+      <c r="CT24" s="56"/>
+      <c r="CU24" s="56"/>
+      <c r="CV24" s="56"/>
+      <c r="CW24" s="56"/>
+      <c r="CX24" s="56"/>
+      <c r="CY24" s="56"/>
+      <c r="CZ24" s="56"/>
+      <c r="DA24" s="56"/>
       <c r="DB24" s="48"/>
       <c r="DC24" s="7"/>
     </row>
     <row r="25" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="5"/>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="68"/>
-      <c r="K25" s="68"/>
-      <c r="L25" s="68"/>
-      <c r="M25" s="68"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
       <c r="Q25" s="7"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="42"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="42"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="46"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="46"/>
       <c r="AI25" s="7"/>
       <c r="AL25" s="5"/>
-      <c r="AM25" s="46"/>
-      <c r="AN25" s="47"/>
-      <c r="AO25" s="47"/>
-      <c r="AP25" s="47"/>
-      <c r="AQ25" s="47"/>
-      <c r="AR25" s="47"/>
-      <c r="AS25" s="47"/>
-      <c r="AT25" s="47"/>
-      <c r="AU25" s="47"/>
-      <c r="AV25" s="47"/>
-      <c r="AW25" s="47"/>
-      <c r="AX25" s="47"/>
-      <c r="AY25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="56"/>
+      <c r="AO25" s="56"/>
+      <c r="AP25" s="56"/>
+      <c r="AQ25" s="56"/>
+      <c r="AR25" s="56"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
+      <c r="AU25" s="56"/>
+      <c r="AV25" s="56"/>
+      <c r="AW25" s="56"/>
+      <c r="AX25" s="56"/>
+      <c r="AY25" s="56"/>
       <c r="AZ25" s="48"/>
       <c r="BA25" s="7"/>
       <c r="BD25" s="5"/>
@@ -6907,86 +6934,86 @@
       <c r="BR25" s="15"/>
       <c r="BS25" s="7"/>
       <c r="BV25" s="5"/>
-      <c r="BW25" s="46"/>
-      <c r="BX25" s="47"/>
-      <c r="BY25" s="47"/>
-      <c r="BZ25" s="47"/>
-      <c r="CA25" s="47"/>
-      <c r="CB25" s="47"/>
-      <c r="CC25" s="47"/>
-      <c r="CD25" s="47"/>
-      <c r="CE25" s="47"/>
-      <c r="CF25" s="47"/>
-      <c r="CG25" s="47"/>
-      <c r="CH25" s="47"/>
-      <c r="CI25" s="47"/>
+      <c r="BW25" s="47"/>
+      <c r="BX25" s="56"/>
+      <c r="BY25" s="56"/>
+      <c r="BZ25" s="56"/>
+      <c r="CA25" s="56"/>
+      <c r="CB25" s="56"/>
+      <c r="CC25" s="56"/>
+      <c r="CD25" s="56"/>
+      <c r="CE25" s="56"/>
+      <c r="CF25" s="56"/>
+      <c r="CG25" s="56"/>
+      <c r="CH25" s="56"/>
+      <c r="CI25" s="56"/>
       <c r="CJ25" s="48"/>
       <c r="CK25" s="7"/>
       <c r="CN25" s="5"/>
-      <c r="CO25" s="46"/>
-      <c r="CP25" s="47"/>
-      <c r="CQ25" s="47"/>
-      <c r="CR25" s="47"/>
-      <c r="CS25" s="47"/>
-      <c r="CT25" s="47"/>
-      <c r="CU25" s="47"/>
-      <c r="CV25" s="47"/>
-      <c r="CW25" s="47"/>
-      <c r="CX25" s="47"/>
-      <c r="CY25" s="47"/>
-      <c r="CZ25" s="47"/>
-      <c r="DA25" s="47"/>
+      <c r="CO25" s="47"/>
+      <c r="CP25" s="56"/>
+      <c r="CQ25" s="56"/>
+      <c r="CR25" s="56"/>
+      <c r="CS25" s="56"/>
+      <c r="CT25" s="56"/>
+      <c r="CU25" s="56"/>
+      <c r="CV25" s="56"/>
+      <c r="CW25" s="56"/>
+      <c r="CX25" s="56"/>
+      <c r="CY25" s="56"/>
+      <c r="CZ25" s="56"/>
+      <c r="DA25" s="56"/>
       <c r="DB25" s="48"/>
       <c r="DC25" s="7"/>
     </row>
     <row r="26" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="5"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
       <c r="Q26" s="7"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="46"/>
+      <c r="U26" s="47"/>
       <c r="V26" s="48"/>
-      <c r="W26" s="46"/>
+      <c r="W26" s="47"/>
       <c r="X26" s="48"/>
-      <c r="Y26" s="46"/>
+      <c r="Y26" s="47"/>
       <c r="Z26" s="48"/>
-      <c r="AA26" s="46"/>
+      <c r="AA26" s="47"/>
       <c r="AB26" s="48"/>
-      <c r="AC26" s="46"/>
+      <c r="AC26" s="47"/>
       <c r="AD26" s="48"/>
-      <c r="AE26" s="46"/>
+      <c r="AE26" s="47"/>
       <c r="AF26" s="48"/>
-      <c r="AG26" s="46"/>
+      <c r="AG26" s="47"/>
       <c r="AH26" s="48"/>
       <c r="AI26" s="7"/>
       <c r="AL26" s="5"/>
-      <c r="AM26" s="43"/>
-      <c r="AN26" s="44"/>
-      <c r="AO26" s="44"/>
-      <c r="AP26" s="44"/>
-      <c r="AQ26" s="44"/>
-      <c r="AR26" s="44"/>
-      <c r="AS26" s="44"/>
-      <c r="AT26" s="44"/>
-      <c r="AU26" s="44"/>
-      <c r="AV26" s="44"/>
-      <c r="AW26" s="44"/>
-      <c r="AX26" s="44"/>
-      <c r="AY26" s="44"/>
-      <c r="AZ26" s="45"/>
+      <c r="AM26" s="49"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="57"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="50"/>
       <c r="BA26" s="7"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="13"/>
@@ -7005,88 +7032,88 @@
       <c r="BR26" s="15"/>
       <c r="BS26" s="7"/>
       <c r="BV26" s="5"/>
-      <c r="BW26" s="43"/>
-      <c r="BX26" s="44"/>
-      <c r="BY26" s="44"/>
-      <c r="BZ26" s="44"/>
-      <c r="CA26" s="44"/>
-      <c r="CB26" s="44"/>
-      <c r="CC26" s="44"/>
-      <c r="CD26" s="44"/>
-      <c r="CE26" s="44"/>
-      <c r="CF26" s="44"/>
-      <c r="CG26" s="44"/>
-      <c r="CH26" s="44"/>
-      <c r="CI26" s="44"/>
-      <c r="CJ26" s="45"/>
+      <c r="BW26" s="49"/>
+      <c r="BX26" s="57"/>
+      <c r="BY26" s="57"/>
+      <c r="BZ26" s="57"/>
+      <c r="CA26" s="57"/>
+      <c r="CB26" s="57"/>
+      <c r="CC26" s="57"/>
+      <c r="CD26" s="57"/>
+      <c r="CE26" s="57"/>
+      <c r="CF26" s="57"/>
+      <c r="CG26" s="57"/>
+      <c r="CH26" s="57"/>
+      <c r="CI26" s="57"/>
+      <c r="CJ26" s="50"/>
       <c r="CK26" s="7"/>
       <c r="CN26" s="5"/>
-      <c r="CO26" s="46"/>
-      <c r="CP26" s="47"/>
-      <c r="CQ26" s="47"/>
-      <c r="CR26" s="47"/>
-      <c r="CS26" s="47"/>
-      <c r="CT26" s="47"/>
-      <c r="CU26" s="47"/>
-      <c r="CV26" s="47"/>
-      <c r="CW26" s="47"/>
-      <c r="CX26" s="47"/>
-      <c r="CY26" s="47"/>
-      <c r="CZ26" s="47"/>
-      <c r="DA26" s="47"/>
+      <c r="CO26" s="47"/>
+      <c r="CP26" s="56"/>
+      <c r="CQ26" s="56"/>
+      <c r="CR26" s="56"/>
+      <c r="CS26" s="56"/>
+      <c r="CT26" s="56"/>
+      <c r="CU26" s="56"/>
+      <c r="CV26" s="56"/>
+      <c r="CW26" s="56"/>
+      <c r="CX26" s="56"/>
+      <c r="CY26" s="56"/>
+      <c r="CZ26" s="56"/>
+      <c r="DA26" s="56"/>
       <c r="DB26" s="48"/>
       <c r="DC26" s="7"/>
     </row>
     <row r="27" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="5"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
-      <c r="M27" s="68"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="52"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
       <c r="Q27" s="7"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="45"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="45"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="45"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="45"/>
-      <c r="AC27" s="43"/>
-      <c r="AD27" s="45"/>
-      <c r="AE27" s="43"/>
-      <c r="AF27" s="45"/>
-      <c r="AG27" s="43"/>
-      <c r="AH27" s="45"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="49"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="49"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="49"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="49"/>
+      <c r="AH27" s="50"/>
       <c r="AI27" s="7"/>
       <c r="AL27" s="5"/>
-      <c r="AM27" s="40" t="s">
+      <c r="AM27" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="42"/>
+      <c r="AN27" s="55"/>
+      <c r="AO27" s="55"/>
+      <c r="AP27" s="55"/>
+      <c r="AQ27" s="55"/>
+      <c r="AR27" s="55"/>
+      <c r="AS27" s="55"/>
+      <c r="AT27" s="55"/>
+      <c r="AU27" s="55"/>
+      <c r="AV27" s="55"/>
+      <c r="AW27" s="55"/>
+      <c r="AX27" s="55"/>
+      <c r="AY27" s="55"/>
+      <c r="AZ27" s="46"/>
       <c r="BA27" s="7"/>
       <c r="BD27" s="5"/>
       <c r="BE27" s="13"/>
@@ -7105,87 +7132,87 @@
       <c r="BR27" s="15"/>
       <c r="BS27" s="7"/>
       <c r="BV27" s="5"/>
-      <c r="BW27" s="40" t="s">
+      <c r="BW27" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BX27" s="41"/>
-      <c r="BY27" s="41"/>
-      <c r="BZ27" s="41"/>
-      <c r="CA27" s="41"/>
-      <c r="CB27" s="41"/>
-      <c r="CC27" s="41"/>
-      <c r="CD27" s="41"/>
-      <c r="CE27" s="41"/>
-      <c r="CF27" s="41"/>
-      <c r="CG27" s="41"/>
-      <c r="CH27" s="41"/>
-      <c r="CI27" s="41"/>
-      <c r="CJ27" s="42"/>
+      <c r="BX27" s="55"/>
+      <c r="BY27" s="55"/>
+      <c r="BZ27" s="55"/>
+      <c r="CA27" s="55"/>
+      <c r="CB27" s="55"/>
+      <c r="CC27" s="55"/>
+      <c r="CD27" s="55"/>
+      <c r="CE27" s="55"/>
+      <c r="CF27" s="55"/>
+      <c r="CG27" s="55"/>
+      <c r="CH27" s="55"/>
+      <c r="CI27" s="55"/>
+      <c r="CJ27" s="46"/>
       <c r="CK27" s="7"/>
       <c r="CN27" s="5"/>
-      <c r="CO27" s="46"/>
-      <c r="CP27" s="47"/>
-      <c r="CQ27" s="47"/>
-      <c r="CR27" s="47"/>
-      <c r="CS27" s="47"/>
-      <c r="CT27" s="47"/>
-      <c r="CU27" s="47"/>
-      <c r="CV27" s="47"/>
-      <c r="CW27" s="47"/>
-      <c r="CX27" s="47"/>
-      <c r="CY27" s="47"/>
-      <c r="CZ27" s="47"/>
-      <c r="DA27" s="47"/>
+      <c r="CO27" s="47"/>
+      <c r="CP27" s="56"/>
+      <c r="CQ27" s="56"/>
+      <c r="CR27" s="56"/>
+      <c r="CS27" s="56"/>
+      <c r="CT27" s="56"/>
+      <c r="CU27" s="56"/>
+      <c r="CV27" s="56"/>
+      <c r="CW27" s="56"/>
+      <c r="CX27" s="56"/>
+      <c r="CY27" s="56"/>
+      <c r="CZ27" s="56"/>
+      <c r="DA27" s="56"/>
       <c r="DB27" s="48"/>
       <c r="DC27" s="7"/>
     </row>
     <row r="28" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="5"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
       <c r="Q28" s="7"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="40"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="40"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="40"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="40"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="42"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="45"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="45"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="46"/>
+      <c r="AE28" s="45"/>
+      <c r="AF28" s="46"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="46"/>
       <c r="AI28" s="7"/>
       <c r="AL28" s="5"/>
-      <c r="AM28" s="46"/>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="47"/>
-      <c r="AS28" s="47"/>
-      <c r="AT28" s="47"/>
-      <c r="AU28" s="47"/>
-      <c r="AV28" s="47"/>
-      <c r="AW28" s="47"/>
-      <c r="AX28" s="47"/>
-      <c r="AY28" s="47"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
+      <c r="AR28" s="56"/>
+      <c r="AS28" s="56"/>
+      <c r="AT28" s="56"/>
+      <c r="AU28" s="56"/>
+      <c r="AV28" s="56"/>
+      <c r="AW28" s="56"/>
+      <c r="AX28" s="56"/>
+      <c r="AY28" s="56"/>
       <c r="AZ28" s="48"/>
       <c r="BA28" s="7"/>
       <c r="BD28" s="5"/>
@@ -7205,86 +7232,86 @@
       <c r="BR28" s="15"/>
       <c r="BS28" s="7"/>
       <c r="BV28" s="5"/>
-      <c r="BW28" s="46"/>
-      <c r="BX28" s="47"/>
-      <c r="BY28" s="47"/>
-      <c r="BZ28" s="47"/>
-      <c r="CA28" s="47"/>
-      <c r="CB28" s="47"/>
-      <c r="CC28" s="47"/>
-      <c r="CD28" s="47"/>
-      <c r="CE28" s="47"/>
-      <c r="CF28" s="47"/>
-      <c r="CG28" s="47"/>
-      <c r="CH28" s="47"/>
-      <c r="CI28" s="47"/>
+      <c r="BW28" s="47"/>
+      <c r="BX28" s="56"/>
+      <c r="BY28" s="56"/>
+      <c r="BZ28" s="56"/>
+      <c r="CA28" s="56"/>
+      <c r="CB28" s="56"/>
+      <c r="CC28" s="56"/>
+      <c r="CD28" s="56"/>
+      <c r="CE28" s="56"/>
+      <c r="CF28" s="56"/>
+      <c r="CG28" s="56"/>
+      <c r="CH28" s="56"/>
+      <c r="CI28" s="56"/>
       <c r="CJ28" s="48"/>
       <c r="CK28" s="7"/>
       <c r="CN28" s="5"/>
-      <c r="CO28" s="46"/>
-      <c r="CP28" s="47"/>
-      <c r="CQ28" s="47"/>
-      <c r="CR28" s="47"/>
-      <c r="CS28" s="47"/>
-      <c r="CT28" s="47"/>
-      <c r="CU28" s="47"/>
-      <c r="CV28" s="47"/>
-      <c r="CW28" s="47"/>
-      <c r="CX28" s="47"/>
-      <c r="CY28" s="47"/>
-      <c r="CZ28" s="47"/>
-      <c r="DA28" s="47"/>
+      <c r="CO28" s="47"/>
+      <c r="CP28" s="56"/>
+      <c r="CQ28" s="56"/>
+      <c r="CR28" s="56"/>
+      <c r="CS28" s="56"/>
+      <c r="CT28" s="56"/>
+      <c r="CU28" s="56"/>
+      <c r="CV28" s="56"/>
+      <c r="CW28" s="56"/>
+      <c r="CX28" s="56"/>
+      <c r="CY28" s="56"/>
+      <c r="CZ28" s="56"/>
+      <c r="DA28" s="56"/>
       <c r="DB28" s="48"/>
       <c r="DC28" s="7"/>
     </row>
     <row r="29" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="5"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
       <c r="Q29" s="7"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="46"/>
+      <c r="U29" s="47"/>
       <c r="V29" s="48"/>
-      <c r="W29" s="46"/>
+      <c r="W29" s="47"/>
       <c r="X29" s="48"/>
-      <c r="Y29" s="46"/>
+      <c r="Y29" s="47"/>
       <c r="Z29" s="48"/>
-      <c r="AA29" s="46"/>
+      <c r="AA29" s="47"/>
       <c r="AB29" s="48"/>
-      <c r="AC29" s="46"/>
+      <c r="AC29" s="47"/>
       <c r="AD29" s="48"/>
-      <c r="AE29" s="46"/>
+      <c r="AE29" s="47"/>
       <c r="AF29" s="48"/>
-      <c r="AG29" s="46"/>
+      <c r="AG29" s="47"/>
       <c r="AH29" s="48"/>
       <c r="AI29" s="7"/>
       <c r="AL29" s="5"/>
-      <c r="AM29" s="43"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="44"/>
-      <c r="AS29" s="44"/>
-      <c r="AT29" s="44"/>
-      <c r="AU29" s="44"/>
-      <c r="AV29" s="44"/>
-      <c r="AW29" s="44"/>
-      <c r="AX29" s="44"/>
-      <c r="AY29" s="44"/>
-      <c r="AZ29" s="45"/>
+      <c r="AM29" s="49"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
+      <c r="AX29" s="57"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="50"/>
       <c r="BA29" s="7"/>
       <c r="BD29" s="5"/>
       <c r="BE29" s="13"/>
@@ -7303,88 +7330,88 @@
       <c r="BR29" s="15"/>
       <c r="BS29" s="7"/>
       <c r="BV29" s="5"/>
-      <c r="BW29" s="43"/>
-      <c r="BX29" s="44"/>
-      <c r="BY29" s="44"/>
-      <c r="BZ29" s="44"/>
-      <c r="CA29" s="44"/>
-      <c r="CB29" s="44"/>
-      <c r="CC29" s="44"/>
-      <c r="CD29" s="44"/>
-      <c r="CE29" s="44"/>
-      <c r="CF29" s="44"/>
-      <c r="CG29" s="44"/>
-      <c r="CH29" s="44"/>
-      <c r="CI29" s="44"/>
-      <c r="CJ29" s="45"/>
+      <c r="BW29" s="49"/>
+      <c r="BX29" s="57"/>
+      <c r="BY29" s="57"/>
+      <c r="BZ29" s="57"/>
+      <c r="CA29" s="57"/>
+      <c r="CB29" s="57"/>
+      <c r="CC29" s="57"/>
+      <c r="CD29" s="57"/>
+      <c r="CE29" s="57"/>
+      <c r="CF29" s="57"/>
+      <c r="CG29" s="57"/>
+      <c r="CH29" s="57"/>
+      <c r="CI29" s="57"/>
+      <c r="CJ29" s="50"/>
       <c r="CK29" s="7"/>
       <c r="CN29" s="5"/>
-      <c r="CO29" s="46"/>
-      <c r="CP29" s="47"/>
-      <c r="CQ29" s="47"/>
-      <c r="CR29" s="47"/>
-      <c r="CS29" s="47"/>
-      <c r="CT29" s="47"/>
-      <c r="CU29" s="47"/>
-      <c r="CV29" s="47"/>
-      <c r="CW29" s="47"/>
-      <c r="CX29" s="47"/>
-      <c r="CY29" s="47"/>
-      <c r="CZ29" s="47"/>
-      <c r="DA29" s="47"/>
+      <c r="CO29" s="47"/>
+      <c r="CP29" s="56"/>
+      <c r="CQ29" s="56"/>
+      <c r="CR29" s="56"/>
+      <c r="CS29" s="56"/>
+      <c r="CT29" s="56"/>
+      <c r="CU29" s="56"/>
+      <c r="CV29" s="56"/>
+      <c r="CW29" s="56"/>
+      <c r="CX29" s="56"/>
+      <c r="CY29" s="56"/>
+      <c r="CZ29" s="56"/>
+      <c r="DA29" s="56"/>
       <c r="DB29" s="48"/>
       <c r="DC29" s="7"/>
     </row>
     <row r="30" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="5"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
       <c r="Q30" s="7"/>
       <c r="T30" s="5"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="45"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="43"/>
-      <c r="AD30" s="45"/>
-      <c r="AE30" s="43"/>
-      <c r="AF30" s="45"/>
-      <c r="AG30" s="43"/>
-      <c r="AH30" s="45"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="49"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="49"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="49"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="49"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="50"/>
       <c r="AI30" s="7"/>
       <c r="AL30" s="5"/>
-      <c r="AM30" s="40" t="s">
+      <c r="AM30" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AN30" s="41"/>
-      <c r="AO30" s="41"/>
-      <c r="AP30" s="41"/>
-      <c r="AQ30" s="41"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="41"/>
-      <c r="AT30" s="41"/>
-      <c r="AU30" s="41"/>
-      <c r="AV30" s="41"/>
-      <c r="AW30" s="41"/>
-      <c r="AX30" s="41"/>
-      <c r="AY30" s="41"/>
-      <c r="AZ30" s="42"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="55"/>
+      <c r="AR30" s="55"/>
+      <c r="AS30" s="55"/>
+      <c r="AT30" s="55"/>
+      <c r="AU30" s="55"/>
+      <c r="AV30" s="55"/>
+      <c r="AW30" s="55"/>
+      <c r="AX30" s="55"/>
+      <c r="AY30" s="55"/>
+      <c r="AZ30" s="46"/>
       <c r="BA30" s="7"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="13"/>
@@ -7403,87 +7430,87 @@
       <c r="BR30" s="15"/>
       <c r="BS30" s="7"/>
       <c r="BV30" s="5"/>
-      <c r="BW30" s="40" t="s">
+      <c r="BW30" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BX30" s="41"/>
-      <c r="BY30" s="41"/>
-      <c r="BZ30" s="41"/>
-      <c r="CA30" s="41"/>
-      <c r="CB30" s="41"/>
-      <c r="CC30" s="41"/>
-      <c r="CD30" s="41"/>
-      <c r="CE30" s="41"/>
-      <c r="CF30" s="41"/>
-      <c r="CG30" s="41"/>
-      <c r="CH30" s="41"/>
-      <c r="CI30" s="41"/>
-      <c r="CJ30" s="42"/>
+      <c r="BX30" s="55"/>
+      <c r="BY30" s="55"/>
+      <c r="BZ30" s="55"/>
+      <c r="CA30" s="55"/>
+      <c r="CB30" s="55"/>
+      <c r="CC30" s="55"/>
+      <c r="CD30" s="55"/>
+      <c r="CE30" s="55"/>
+      <c r="CF30" s="55"/>
+      <c r="CG30" s="55"/>
+      <c r="CH30" s="55"/>
+      <c r="CI30" s="55"/>
+      <c r="CJ30" s="46"/>
       <c r="CK30" s="7"/>
       <c r="CN30" s="5"/>
-      <c r="CO30" s="46"/>
-      <c r="CP30" s="47"/>
-      <c r="CQ30" s="47"/>
-      <c r="CR30" s="47"/>
-      <c r="CS30" s="47"/>
-      <c r="CT30" s="47"/>
-      <c r="CU30" s="47"/>
-      <c r="CV30" s="47"/>
-      <c r="CW30" s="47"/>
-      <c r="CX30" s="47"/>
-      <c r="CY30" s="47"/>
-      <c r="CZ30" s="47"/>
-      <c r="DA30" s="47"/>
+      <c r="CO30" s="47"/>
+      <c r="CP30" s="56"/>
+      <c r="CQ30" s="56"/>
+      <c r="CR30" s="56"/>
+      <c r="CS30" s="56"/>
+      <c r="CT30" s="56"/>
+      <c r="CU30" s="56"/>
+      <c r="CV30" s="56"/>
+      <c r="CW30" s="56"/>
+      <c r="CX30" s="56"/>
+      <c r="CY30" s="56"/>
+      <c r="CZ30" s="56"/>
+      <c r="DA30" s="56"/>
       <c r="DB30" s="48"/>
       <c r="DC30" s="7"/>
     </row>
     <row r="31" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="5"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
       <c r="Q31" s="7"/>
       <c r="T31" s="5"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="42"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="42"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="42"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="42"/>
+      <c r="U31" s="45"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="45"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="45"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="45"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="46"/>
+      <c r="AE31" s="45"/>
+      <c r="AF31" s="46"/>
+      <c r="AG31" s="45"/>
+      <c r="AH31" s="46"/>
       <c r="AI31" s="7"/>
       <c r="AL31" s="5"/>
-      <c r="AM31" s="46"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47"/>
-      <c r="AS31" s="47"/>
-      <c r="AT31" s="47"/>
-      <c r="AU31" s="47"/>
-      <c r="AV31" s="47"/>
-      <c r="AW31" s="47"/>
-      <c r="AX31" s="47"/>
-      <c r="AY31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="56"/>
+      <c r="AS31" s="56"/>
+      <c r="AT31" s="56"/>
+      <c r="AU31" s="56"/>
+      <c r="AV31" s="56"/>
+      <c r="AW31" s="56"/>
+      <c r="AX31" s="56"/>
+      <c r="AY31" s="56"/>
       <c r="AZ31" s="48"/>
       <c r="BA31" s="7"/>
       <c r="BD31" s="5"/>
@@ -7503,86 +7530,86 @@
       <c r="BR31" s="15"/>
       <c r="BS31" s="7"/>
       <c r="BV31" s="5"/>
-      <c r="BW31" s="46"/>
-      <c r="BX31" s="47"/>
-      <c r="BY31" s="47"/>
-      <c r="BZ31" s="47"/>
-      <c r="CA31" s="47"/>
-      <c r="CB31" s="47"/>
-      <c r="CC31" s="47"/>
-      <c r="CD31" s="47"/>
-      <c r="CE31" s="47"/>
-      <c r="CF31" s="47"/>
-      <c r="CG31" s="47"/>
-      <c r="CH31" s="47"/>
-      <c r="CI31" s="47"/>
+      <c r="BW31" s="47"/>
+      <c r="BX31" s="56"/>
+      <c r="BY31" s="56"/>
+      <c r="BZ31" s="56"/>
+      <c r="CA31" s="56"/>
+      <c r="CB31" s="56"/>
+      <c r="CC31" s="56"/>
+      <c r="CD31" s="56"/>
+      <c r="CE31" s="56"/>
+      <c r="CF31" s="56"/>
+      <c r="CG31" s="56"/>
+      <c r="CH31" s="56"/>
+      <c r="CI31" s="56"/>
       <c r="CJ31" s="48"/>
       <c r="CK31" s="7"/>
       <c r="CN31" s="5"/>
-      <c r="CO31" s="46"/>
-      <c r="CP31" s="47"/>
-      <c r="CQ31" s="47"/>
-      <c r="CR31" s="47"/>
-      <c r="CS31" s="47"/>
-      <c r="CT31" s="47"/>
-      <c r="CU31" s="47"/>
-      <c r="CV31" s="47"/>
-      <c r="CW31" s="47"/>
-      <c r="CX31" s="47"/>
-      <c r="CY31" s="47"/>
-      <c r="CZ31" s="47"/>
-      <c r="DA31" s="47"/>
+      <c r="CO31" s="47"/>
+      <c r="CP31" s="56"/>
+      <c r="CQ31" s="56"/>
+      <c r="CR31" s="56"/>
+      <c r="CS31" s="56"/>
+      <c r="CT31" s="56"/>
+      <c r="CU31" s="56"/>
+      <c r="CV31" s="56"/>
+      <c r="CW31" s="56"/>
+      <c r="CX31" s="56"/>
+      <c r="CY31" s="56"/>
+      <c r="CZ31" s="56"/>
+      <c r="DA31" s="56"/>
       <c r="DB31" s="48"/>
       <c r="DC31" s="7"/>
     </row>
     <row r="32" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="5"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
       <c r="Q32" s="7"/>
       <c r="T32" s="5"/>
-      <c r="U32" s="46"/>
+      <c r="U32" s="47"/>
       <c r="V32" s="48"/>
-      <c r="W32" s="46"/>
+      <c r="W32" s="47"/>
       <c r="X32" s="48"/>
-      <c r="Y32" s="46"/>
+      <c r="Y32" s="47"/>
       <c r="Z32" s="48"/>
-      <c r="AA32" s="46"/>
+      <c r="AA32" s="47"/>
       <c r="AB32" s="48"/>
-      <c r="AC32" s="46"/>
+      <c r="AC32" s="47"/>
       <c r="AD32" s="48"/>
-      <c r="AE32" s="46"/>
+      <c r="AE32" s="47"/>
       <c r="AF32" s="48"/>
-      <c r="AG32" s="46"/>
+      <c r="AG32" s="47"/>
       <c r="AH32" s="48"/>
       <c r="AI32" s="7"/>
       <c r="AL32" s="5"/>
-      <c r="AM32" s="43"/>
-      <c r="AN32" s="44"/>
-      <c r="AO32" s="44"/>
-      <c r="AP32" s="44"/>
-      <c r="AQ32" s="44"/>
-      <c r="AR32" s="44"/>
-      <c r="AS32" s="44"/>
-      <c r="AT32" s="44"/>
-      <c r="AU32" s="44"/>
-      <c r="AV32" s="44"/>
-      <c r="AW32" s="44"/>
-      <c r="AX32" s="44"/>
-      <c r="AY32" s="44"/>
-      <c r="AZ32" s="45"/>
+      <c r="AM32" s="49"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="50"/>
       <c r="BA32" s="7"/>
       <c r="BD32" s="5"/>
       <c r="BE32" s="16"/>
@@ -7601,88 +7628,88 @@
       <c r="BR32" s="18"/>
       <c r="BS32" s="7"/>
       <c r="BV32" s="5"/>
-      <c r="BW32" s="43"/>
-      <c r="BX32" s="44"/>
-      <c r="BY32" s="44"/>
-      <c r="BZ32" s="44"/>
-      <c r="CA32" s="44"/>
-      <c r="CB32" s="44"/>
-      <c r="CC32" s="44"/>
-      <c r="CD32" s="44"/>
-      <c r="CE32" s="44"/>
-      <c r="CF32" s="44"/>
-      <c r="CG32" s="44"/>
-      <c r="CH32" s="44"/>
-      <c r="CI32" s="44"/>
-      <c r="CJ32" s="45"/>
+      <c r="BW32" s="49"/>
+      <c r="BX32" s="57"/>
+      <c r="BY32" s="57"/>
+      <c r="BZ32" s="57"/>
+      <c r="CA32" s="57"/>
+      <c r="CB32" s="57"/>
+      <c r="CC32" s="57"/>
+      <c r="CD32" s="57"/>
+      <c r="CE32" s="57"/>
+      <c r="CF32" s="57"/>
+      <c r="CG32" s="57"/>
+      <c r="CH32" s="57"/>
+      <c r="CI32" s="57"/>
+      <c r="CJ32" s="50"/>
       <c r="CK32" s="7"/>
       <c r="CN32" s="5"/>
-      <c r="CO32" s="43"/>
-      <c r="CP32" s="44"/>
-      <c r="CQ32" s="44"/>
-      <c r="CR32" s="44"/>
-      <c r="CS32" s="44"/>
-      <c r="CT32" s="44"/>
-      <c r="CU32" s="44"/>
-      <c r="CV32" s="44"/>
-      <c r="CW32" s="44"/>
-      <c r="CX32" s="44"/>
-      <c r="CY32" s="44"/>
-      <c r="CZ32" s="44"/>
-      <c r="DA32" s="44"/>
-      <c r="DB32" s="45"/>
+      <c r="CO32" s="49"/>
+      <c r="CP32" s="57"/>
+      <c r="CQ32" s="57"/>
+      <c r="CR32" s="57"/>
+      <c r="CS32" s="57"/>
+      <c r="CT32" s="57"/>
+      <c r="CU32" s="57"/>
+      <c r="CV32" s="57"/>
+      <c r="CW32" s="57"/>
+      <c r="CX32" s="57"/>
+      <c r="CY32" s="57"/>
+      <c r="CZ32" s="57"/>
+      <c r="DA32" s="57"/>
+      <c r="DB32" s="50"/>
       <c r="DC32" s="7"/>
     </row>
     <row r="33" spans="2:107" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="5"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="L33" s="68"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="68"/>
-      <c r="O33" s="68"/>
-      <c r="P33" s="68"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
       <c r="Q33" s="7"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="45"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="45"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="45"/>
-      <c r="AC33" s="43"/>
-      <c r="AD33" s="45"/>
-      <c r="AE33" s="43"/>
-      <c r="AF33" s="45"/>
-      <c r="AG33" s="43"/>
-      <c r="AH33" s="45"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="50"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="50"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="50"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="50"/>
       <c r="AI33" s="7"/>
       <c r="AL33" s="5"/>
-      <c r="AM33" s="40" t="s">
+      <c r="AM33" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="41"/>
-      <c r="AX33" s="41"/>
-      <c r="AY33" s="41"/>
-      <c r="AZ33" s="42"/>
+      <c r="AN33" s="55"/>
+      <c r="AO33" s="55"/>
+      <c r="AP33" s="55"/>
+      <c r="AQ33" s="55"/>
+      <c r="AR33" s="55"/>
+      <c r="AS33" s="55"/>
+      <c r="AT33" s="55"/>
+      <c r="AU33" s="55"/>
+      <c r="AV33" s="55"/>
+      <c r="AW33" s="55"/>
+      <c r="AX33" s="55"/>
+      <c r="AY33" s="55"/>
+      <c r="AZ33" s="46"/>
       <c r="BA33" s="7"/>
       <c r="BD33" s="5"/>
       <c r="BE33" s="6"/>
@@ -7701,22 +7728,22 @@
       <c r="BR33" s="6"/>
       <c r="BS33" s="7"/>
       <c r="BV33" s="5"/>
-      <c r="BW33" s="40" t="s">
+      <c r="BW33" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="BX33" s="41"/>
-      <c r="BY33" s="41"/>
-      <c r="BZ33" s="41"/>
-      <c r="CA33" s="41"/>
-      <c r="CB33" s="41"/>
-      <c r="CC33" s="41"/>
-      <c r="CD33" s="41"/>
-      <c r="CE33" s="41"/>
-      <c r="CF33" s="41"/>
-      <c r="CG33" s="41"/>
-      <c r="CH33" s="41"/>
-      <c r="CI33" s="41"/>
-      <c r="CJ33" s="42"/>
+      <c r="BX33" s="55"/>
+      <c r="BY33" s="55"/>
+      <c r="BZ33" s="55"/>
+      <c r="CA33" s="55"/>
+      <c r="CB33" s="55"/>
+      <c r="CC33" s="55"/>
+      <c r="CD33" s="55"/>
+      <c r="CE33" s="55"/>
+      <c r="CF33" s="55"/>
+      <c r="CG33" s="55"/>
+      <c r="CH33" s="55"/>
+      <c r="CI33" s="55"/>
+      <c r="CJ33" s="46"/>
       <c r="CK33" s="7"/>
       <c r="CN33" s="5"/>
       <c r="CO33" s="14"/>
@@ -7753,96 +7780,96 @@
       <c r="P34" s="6"/>
       <c r="Q34" s="7"/>
       <c r="T34" s="5"/>
-      <c r="U34" s="65" t="s">
+      <c r="U34" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="V34" s="65"/>
-      <c r="W34" s="65"/>
-      <c r="X34" s="65"/>
-      <c r="Y34" s="65"/>
-      <c r="Z34" s="65"/>
-      <c r="AA34" s="65"/>
-      <c r="AB34" s="65" t="s">
+      <c r="V34" s="54"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="54"/>
+      <c r="Y34" s="54"/>
+      <c r="Z34" s="54"/>
+      <c r="AA34" s="54"/>
+      <c r="AB34" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="AC34" s="65"/>
-      <c r="AD34" s="65"/>
-      <c r="AE34" s="65"/>
-      <c r="AF34" s="65"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="65"/>
+      <c r="AC34" s="54"/>
+      <c r="AD34" s="54"/>
+      <c r="AE34" s="54"/>
+      <c r="AF34" s="54"/>
+      <c r="AG34" s="54"/>
+      <c r="AH34" s="54"/>
       <c r="AI34" s="7"/>
       <c r="AL34" s="5"/>
-      <c r="AM34" s="46"/>
-      <c r="AN34" s="47"/>
-      <c r="AO34" s="47"/>
-      <c r="AP34" s="47"/>
-      <c r="AQ34" s="47"/>
-      <c r="AR34" s="47"/>
-      <c r="AS34" s="47"/>
-      <c r="AT34" s="47"/>
-      <c r="AU34" s="47"/>
-      <c r="AV34" s="47"/>
-      <c r="AW34" s="47"/>
-      <c r="AX34" s="47"/>
-      <c r="AY34" s="47"/>
+      <c r="AM34" s="47"/>
+      <c r="AN34" s="56"/>
+      <c r="AO34" s="56"/>
+      <c r="AP34" s="56"/>
+      <c r="AQ34" s="56"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
       <c r="AZ34" s="48"/>
       <c r="BA34" s="7"/>
       <c r="BD34" s="5"/>
-      <c r="BE34" s="36" t="s">
+      <c r="BE34" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="BF34" s="37"/>
+      <c r="BF34" s="66"/>
       <c r="BG34" s="14"/>
-      <c r="BH34" s="40" t="s">
+      <c r="BH34" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="BI34" s="41"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="41"/>
-      <c r="BL34" s="41"/>
-      <c r="BM34" s="41"/>
-      <c r="BN34" s="41"/>
-      <c r="BO34" s="41"/>
-      <c r="BP34" s="41"/>
-      <c r="BQ34" s="41"/>
-      <c r="BR34" s="42"/>
+      <c r="BI34" s="55"/>
+      <c r="BJ34" s="55"/>
+      <c r="BK34" s="55"/>
+      <c r="BL34" s="55"/>
+      <c r="BM34" s="55"/>
+      <c r="BN34" s="55"/>
+      <c r="BO34" s="55"/>
+      <c r="BP34" s="55"/>
+      <c r="BQ34" s="55"/>
+      <c r="BR34" s="46"/>
       <c r="BS34" s="7"/>
       <c r="BV34" s="5"/>
-      <c r="BW34" s="46"/>
-      <c r="BX34" s="47"/>
-      <c r="BY34" s="47"/>
-      <c r="BZ34" s="47"/>
-      <c r="CA34" s="47"/>
-      <c r="CB34" s="47"/>
-      <c r="CC34" s="47"/>
-      <c r="CD34" s="47"/>
-      <c r="CE34" s="47"/>
-      <c r="CF34" s="47"/>
-      <c r="CG34" s="47"/>
-      <c r="CH34" s="47"/>
-      <c r="CI34" s="47"/>
+      <c r="BW34" s="47"/>
+      <c r="BX34" s="56"/>
+      <c r="BY34" s="56"/>
+      <c r="BZ34" s="56"/>
+      <c r="CA34" s="56"/>
+      <c r="CB34" s="56"/>
+      <c r="CC34" s="56"/>
+      <c r="CD34" s="56"/>
+      <c r="CE34" s="56"/>
+      <c r="CF34" s="56"/>
+      <c r="CG34" s="56"/>
+      <c r="CH34" s="56"/>
+      <c r="CI34" s="56"/>
       <c r="CJ34" s="48"/>
       <c r="CK34" s="7"/>
       <c r="CN34" s="5"/>
-      <c r="CO34" s="36" t="s">
+      <c r="CO34" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="CP34" s="37"/>
+      <c r="CP34" s="66"/>
       <c r="CQ34" s="14"/>
-      <c r="CR34" s="58" t="s">
+      <c r="CR34" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="CS34" s="41"/>
-      <c r="CT34" s="41"/>
-      <c r="CU34" s="41"/>
-      <c r="CV34" s="41"/>
-      <c r="CW34" s="41"/>
-      <c r="CX34" s="41"/>
-      <c r="CY34" s="41"/>
-      <c r="CZ34" s="41"/>
-      <c r="DA34" s="41"/>
-      <c r="DB34" s="42"/>
+      <c r="CS34" s="55"/>
+      <c r="CT34" s="55"/>
+      <c r="CU34" s="55"/>
+      <c r="CV34" s="55"/>
+      <c r="CW34" s="55"/>
+      <c r="CX34" s="55"/>
+      <c r="CY34" s="55"/>
+      <c r="CZ34" s="55"/>
+      <c r="DA34" s="55"/>
+      <c r="DB34" s="46"/>
       <c r="DC34" s="7"/>
     </row>
     <row r="35" spans="2:107" x14ac:dyDescent="0.4">
@@ -7863,84 +7890,84 @@
       <c r="P35" s="6"/>
       <c r="Q35" s="7"/>
       <c r="T35" s="5"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="65"/>
-      <c r="AF35" s="65"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="65"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="54"/>
+      <c r="Y35" s="54"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
+      <c r="AB35" s="54"/>
+      <c r="AC35" s="54"/>
+      <c r="AD35" s="54"/>
+      <c r="AE35" s="54"/>
+      <c r="AF35" s="54"/>
+      <c r="AG35" s="54"/>
+      <c r="AH35" s="54"/>
       <c r="AI35" s="7"/>
       <c r="AL35" s="5"/>
-      <c r="AM35" s="43"/>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="44"/>
-      <c r="AR35" s="44"/>
-      <c r="AS35" s="44"/>
-      <c r="AT35" s="44"/>
-      <c r="AU35" s="44"/>
-      <c r="AV35" s="44"/>
-      <c r="AW35" s="44"/>
-      <c r="AX35" s="44"/>
-      <c r="AY35" s="44"/>
-      <c r="AZ35" s="45"/>
+      <c r="AM35" s="49"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
+      <c r="AX35" s="57"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="50"/>
       <c r="BA35" s="7"/>
       <c r="BD35" s="5"/>
-      <c r="BE35" s="38"/>
-      <c r="BF35" s="39"/>
+      <c r="BE35" s="67"/>
+      <c r="BF35" s="68"/>
       <c r="BG35" s="14"/>
-      <c r="BH35" s="43"/>
-      <c r="BI35" s="44"/>
-      <c r="BJ35" s="44"/>
-      <c r="BK35" s="44"/>
-      <c r="BL35" s="44"/>
-      <c r="BM35" s="44"/>
-      <c r="BN35" s="44"/>
-      <c r="BO35" s="44"/>
-      <c r="BP35" s="44"/>
-      <c r="BQ35" s="44"/>
-      <c r="BR35" s="45"/>
+      <c r="BH35" s="49"/>
+      <c r="BI35" s="57"/>
+      <c r="BJ35" s="57"/>
+      <c r="BK35" s="57"/>
+      <c r="BL35" s="57"/>
+      <c r="BM35" s="57"/>
+      <c r="BN35" s="57"/>
+      <c r="BO35" s="57"/>
+      <c r="BP35" s="57"/>
+      <c r="BQ35" s="57"/>
+      <c r="BR35" s="50"/>
       <c r="BS35" s="7"/>
       <c r="BV35" s="5"/>
-      <c r="BW35" s="43"/>
-      <c r="BX35" s="44"/>
-      <c r="BY35" s="44"/>
-      <c r="BZ35" s="44"/>
-      <c r="CA35" s="44"/>
-      <c r="CB35" s="44"/>
-      <c r="CC35" s="44"/>
-      <c r="CD35" s="44"/>
-      <c r="CE35" s="44"/>
-      <c r="CF35" s="44"/>
-      <c r="CG35" s="44"/>
-      <c r="CH35" s="44"/>
-      <c r="CI35" s="44"/>
-      <c r="CJ35" s="45"/>
+      <c r="BW35" s="49"/>
+      <c r="BX35" s="57"/>
+      <c r="BY35" s="57"/>
+      <c r="BZ35" s="57"/>
+      <c r="CA35" s="57"/>
+      <c r="CB35" s="57"/>
+      <c r="CC35" s="57"/>
+      <c r="CD35" s="57"/>
+      <c r="CE35" s="57"/>
+      <c r="CF35" s="57"/>
+      <c r="CG35" s="57"/>
+      <c r="CH35" s="57"/>
+      <c r="CI35" s="57"/>
+      <c r="CJ35" s="50"/>
       <c r="CK35" s="7"/>
       <c r="CN35" s="5"/>
-      <c r="CO35" s="38"/>
-      <c r="CP35" s="39"/>
+      <c r="CO35" s="67"/>
+      <c r="CP35" s="68"/>
       <c r="CQ35" s="14"/>
-      <c r="CR35" s="43"/>
-      <c r="CS35" s="44"/>
-      <c r="CT35" s="44"/>
-      <c r="CU35" s="44"/>
-      <c r="CV35" s="44"/>
-      <c r="CW35" s="44"/>
-      <c r="CX35" s="44"/>
-      <c r="CY35" s="44"/>
-      <c r="CZ35" s="44"/>
-      <c r="DA35" s="44"/>
-      <c r="DB35" s="45"/>
+      <c r="CR35" s="49"/>
+      <c r="CS35" s="57"/>
+      <c r="CT35" s="57"/>
+      <c r="CU35" s="57"/>
+      <c r="CV35" s="57"/>
+      <c r="CW35" s="57"/>
+      <c r="CX35" s="57"/>
+      <c r="CY35" s="57"/>
+      <c r="CZ35" s="57"/>
+      <c r="DA35" s="57"/>
+      <c r="DB35" s="50"/>
       <c r="DC35" s="7"/>
     </row>
     <row r="36" spans="2:107" x14ac:dyDescent="0.4">
@@ -8042,388 +8069,364 @@
       <c r="DC36" s="7"/>
     </row>
     <row r="37" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="49" t="s">
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="49" t="s">
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="51"/>
-      <c r="T37" s="49" t="s">
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="38"/>
+      <c r="T37" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="49" t="s">
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="Z37" s="50"/>
-      <c r="AA37" s="50"/>
-      <c r="AB37" s="50"/>
-      <c r="AC37" s="50"/>
-      <c r="AD37" s="51"/>
-      <c r="AE37" s="49" t="s">
+      <c r="Z37" s="37"/>
+      <c r="AA37" s="37"/>
+      <c r="AB37" s="37"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="51"/>
-      <c r="AL37" s="49" t="s">
+      <c r="AF37" s="37"/>
+      <c r="AG37" s="37"/>
+      <c r="AH37" s="37"/>
+      <c r="AI37" s="38"/>
+      <c r="AL37" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="AM37" s="50"/>
-      <c r="AN37" s="50"/>
-      <c r="AO37" s="50"/>
-      <c r="AP37" s="51"/>
-      <c r="AQ37" s="49" t="s">
+      <c r="AM37" s="37"/>
+      <c r="AN37" s="37"/>
+      <c r="AO37" s="37"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="AR37" s="50"/>
-      <c r="AS37" s="50"/>
-      <c r="AT37" s="50"/>
-      <c r="AU37" s="50"/>
-      <c r="AV37" s="51"/>
-      <c r="AW37" s="49" t="s">
+      <c r="AR37" s="37"/>
+      <c r="AS37" s="37"/>
+      <c r="AT37" s="37"/>
+      <c r="AU37" s="37"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AX37" s="50"/>
-      <c r="AY37" s="50"/>
-      <c r="AZ37" s="50"/>
-      <c r="BA37" s="51"/>
-      <c r="BD37" s="49" t="s">
+      <c r="AX37" s="37"/>
+      <c r="AY37" s="37"/>
+      <c r="AZ37" s="37"/>
+      <c r="BA37" s="38"/>
+      <c r="BD37" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="BE37" s="50"/>
-      <c r="BF37" s="50"/>
-      <c r="BG37" s="50"/>
-      <c r="BH37" s="51"/>
-      <c r="BI37" s="49" t="s">
+      <c r="BE37" s="37"/>
+      <c r="BF37" s="37"/>
+      <c r="BG37" s="37"/>
+      <c r="BH37" s="38"/>
+      <c r="BI37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="BJ37" s="50"/>
-      <c r="BK37" s="50"/>
-      <c r="BL37" s="50"/>
-      <c r="BM37" s="50"/>
-      <c r="BN37" s="51"/>
-      <c r="BO37" s="49" t="s">
+      <c r="BJ37" s="37"/>
+      <c r="BK37" s="37"/>
+      <c r="BL37" s="37"/>
+      <c r="BM37" s="37"/>
+      <c r="BN37" s="38"/>
+      <c r="BO37" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="BP37" s="50"/>
-      <c r="BQ37" s="50"/>
-      <c r="BR37" s="50"/>
-      <c r="BS37" s="51"/>
-      <c r="BV37" s="49" t="s">
+      <c r="BP37" s="37"/>
+      <c r="BQ37" s="37"/>
+      <c r="BR37" s="37"/>
+      <c r="BS37" s="38"/>
+      <c r="BV37" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="BW37" s="50"/>
-      <c r="BX37" s="50"/>
-      <c r="BY37" s="50"/>
-      <c r="BZ37" s="51"/>
-      <c r="CA37" s="49" t="s">
+      <c r="BW37" s="37"/>
+      <c r="BX37" s="37"/>
+      <c r="BY37" s="37"/>
+      <c r="BZ37" s="38"/>
+      <c r="CA37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="CB37" s="50"/>
-      <c r="CC37" s="50"/>
-      <c r="CD37" s="50"/>
-      <c r="CE37" s="50"/>
-      <c r="CF37" s="51"/>
-      <c r="CG37" s="49" t="s">
+      <c r="CB37" s="37"/>
+      <c r="CC37" s="37"/>
+      <c r="CD37" s="37"/>
+      <c r="CE37" s="37"/>
+      <c r="CF37" s="38"/>
+      <c r="CG37" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="CH37" s="50"/>
-      <c r="CI37" s="50"/>
-      <c r="CJ37" s="50"/>
-      <c r="CK37" s="51"/>
-      <c r="CN37" s="49" t="s">
+      <c r="CH37" s="37"/>
+      <c r="CI37" s="37"/>
+      <c r="CJ37" s="37"/>
+      <c r="CK37" s="38"/>
+      <c r="CN37" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="CO37" s="50"/>
-      <c r="CP37" s="50"/>
-      <c r="CQ37" s="50"/>
-      <c r="CR37" s="51"/>
-      <c r="CS37" s="49" t="s">
+      <c r="CO37" s="37"/>
+      <c r="CP37" s="37"/>
+      <c r="CQ37" s="37"/>
+      <c r="CR37" s="38"/>
+      <c r="CS37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="CT37" s="50"/>
-      <c r="CU37" s="50"/>
-      <c r="CV37" s="50"/>
-      <c r="CW37" s="50"/>
-      <c r="CX37" s="51"/>
-      <c r="CY37" s="49" t="s">
+      <c r="CT37" s="37"/>
+      <c r="CU37" s="37"/>
+      <c r="CV37" s="37"/>
+      <c r="CW37" s="37"/>
+      <c r="CX37" s="38"/>
+      <c r="CY37" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="CZ37" s="50"/>
-      <c r="DA37" s="50"/>
-      <c r="DB37" s="50"/>
-      <c r="DC37" s="51"/>
+      <c r="CZ37" s="37"/>
+      <c r="DA37" s="37"/>
+      <c r="DB37" s="37"/>
+      <c r="DC37" s="38"/>
     </row>
     <row r="38" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="53"/>
-      <c r="O38" s="53"/>
-      <c r="P38" s="53"/>
-      <c r="Q38" s="54"/>
-      <c r="T38" s="52"/>
-      <c r="U38" s="53"/>
-      <c r="V38" s="53"/>
-      <c r="W38" s="53"/>
-      <c r="X38" s="54"/>
-      <c r="Y38" s="52"/>
-      <c r="Z38" s="53"/>
-      <c r="AA38" s="53"/>
-      <c r="AB38" s="53"/>
-      <c r="AC38" s="53"/>
-      <c r="AD38" s="54"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="53"/>
-      <c r="AI38" s="54"/>
-      <c r="AL38" s="52"/>
-      <c r="AM38" s="53"/>
-      <c r="AN38" s="53"/>
-      <c r="AO38" s="53"/>
-      <c r="AP38" s="54"/>
-      <c r="AQ38" s="52"/>
-      <c r="AR38" s="53"/>
-      <c r="AS38" s="53"/>
-      <c r="AT38" s="53"/>
-      <c r="AU38" s="53"/>
-      <c r="AV38" s="54"/>
-      <c r="AW38" s="52"/>
-      <c r="AX38" s="53"/>
-      <c r="AY38" s="53"/>
-      <c r="AZ38" s="53"/>
-      <c r="BA38" s="54"/>
-      <c r="BD38" s="52"/>
-      <c r="BE38" s="53"/>
-      <c r="BF38" s="53"/>
-      <c r="BG38" s="53"/>
-      <c r="BH38" s="54"/>
-      <c r="BI38" s="52"/>
-      <c r="BJ38" s="53"/>
-      <c r="BK38" s="53"/>
-      <c r="BL38" s="53"/>
-      <c r="BM38" s="53"/>
-      <c r="BN38" s="54"/>
-      <c r="BO38" s="52"/>
-      <c r="BP38" s="53"/>
-      <c r="BQ38" s="53"/>
-      <c r="BR38" s="53"/>
-      <c r="BS38" s="54"/>
-      <c r="BV38" s="52"/>
-      <c r="BW38" s="53"/>
-      <c r="BX38" s="53"/>
-      <c r="BY38" s="53"/>
-      <c r="BZ38" s="54"/>
-      <c r="CA38" s="52"/>
-      <c r="CB38" s="53"/>
-      <c r="CC38" s="53"/>
-      <c r="CD38" s="53"/>
-      <c r="CE38" s="53"/>
-      <c r="CF38" s="54"/>
-      <c r="CG38" s="52"/>
-      <c r="CH38" s="53"/>
-      <c r="CI38" s="53"/>
-      <c r="CJ38" s="53"/>
-      <c r="CK38" s="54"/>
-      <c r="CN38" s="52"/>
-      <c r="CO38" s="53"/>
-      <c r="CP38" s="53"/>
-      <c r="CQ38" s="53"/>
-      <c r="CR38" s="54"/>
-      <c r="CS38" s="52"/>
-      <c r="CT38" s="53"/>
-      <c r="CU38" s="53"/>
-      <c r="CV38" s="53"/>
-      <c r="CW38" s="53"/>
-      <c r="CX38" s="54"/>
-      <c r="CY38" s="52"/>
-      <c r="CZ38" s="53"/>
-      <c r="DA38" s="53"/>
-      <c r="DB38" s="53"/>
-      <c r="DC38" s="54"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="40"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="41"/>
+      <c r="T38" s="39"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="39"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="41"/>
+      <c r="AE38" s="39"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="40"/>
+      <c r="AI38" s="41"/>
+      <c r="AL38" s="39"/>
+      <c r="AM38" s="40"/>
+      <c r="AN38" s="40"/>
+      <c r="AO38" s="40"/>
+      <c r="AP38" s="41"/>
+      <c r="AQ38" s="39"/>
+      <c r="AR38" s="40"/>
+      <c r="AS38" s="40"/>
+      <c r="AT38" s="40"/>
+      <c r="AU38" s="40"/>
+      <c r="AV38" s="41"/>
+      <c r="AW38" s="39"/>
+      <c r="AX38" s="40"/>
+      <c r="AY38" s="40"/>
+      <c r="AZ38" s="40"/>
+      <c r="BA38" s="41"/>
+      <c r="BD38" s="39"/>
+      <c r="BE38" s="40"/>
+      <c r="BF38" s="40"/>
+      <c r="BG38" s="40"/>
+      <c r="BH38" s="41"/>
+      <c r="BI38" s="39"/>
+      <c r="BJ38" s="40"/>
+      <c r="BK38" s="40"/>
+      <c r="BL38" s="40"/>
+      <c r="BM38" s="40"/>
+      <c r="BN38" s="41"/>
+      <c r="BO38" s="39"/>
+      <c r="BP38" s="40"/>
+      <c r="BQ38" s="40"/>
+      <c r="BR38" s="40"/>
+      <c r="BS38" s="41"/>
+      <c r="BV38" s="39"/>
+      <c r="BW38" s="40"/>
+      <c r="BX38" s="40"/>
+      <c r="BY38" s="40"/>
+      <c r="BZ38" s="41"/>
+      <c r="CA38" s="39"/>
+      <c r="CB38" s="40"/>
+      <c r="CC38" s="40"/>
+      <c r="CD38" s="40"/>
+      <c r="CE38" s="40"/>
+      <c r="CF38" s="41"/>
+      <c r="CG38" s="39"/>
+      <c r="CH38" s="40"/>
+      <c r="CI38" s="40"/>
+      <c r="CJ38" s="40"/>
+      <c r="CK38" s="41"/>
+      <c r="CN38" s="39"/>
+      <c r="CO38" s="40"/>
+      <c r="CP38" s="40"/>
+      <c r="CQ38" s="40"/>
+      <c r="CR38" s="41"/>
+      <c r="CS38" s="39"/>
+      <c r="CT38" s="40"/>
+      <c r="CU38" s="40"/>
+      <c r="CV38" s="40"/>
+      <c r="CW38" s="40"/>
+      <c r="CX38" s="41"/>
+      <c r="CY38" s="39"/>
+      <c r="CZ38" s="40"/>
+      <c r="DA38" s="40"/>
+      <c r="DB38" s="40"/>
+      <c r="DC38" s="41"/>
     </row>
     <row r="39" spans="2:107" x14ac:dyDescent="0.4">
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="57"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="56"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="57"/>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="56"/>
-      <c r="AB39" s="56"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="57"/>
-      <c r="AE39" s="55"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="57"/>
-      <c r="AL39" s="55"/>
-      <c r="AM39" s="56"/>
-      <c r="AN39" s="56"/>
-      <c r="AO39" s="56"/>
-      <c r="AP39" s="57"/>
-      <c r="AQ39" s="55"/>
-      <c r="AR39" s="56"/>
-      <c r="AS39" s="56"/>
-      <c r="AT39" s="56"/>
-      <c r="AU39" s="56"/>
-      <c r="AV39" s="57"/>
-      <c r="AW39" s="55"/>
-      <c r="AX39" s="56"/>
-      <c r="AY39" s="56"/>
-      <c r="AZ39" s="56"/>
-      <c r="BA39" s="57"/>
-      <c r="BD39" s="55"/>
-      <c r="BE39" s="56"/>
-      <c r="BF39" s="56"/>
-      <c r="BG39" s="56"/>
-      <c r="BH39" s="57"/>
-      <c r="BI39" s="55"/>
-      <c r="BJ39" s="56"/>
-      <c r="BK39" s="56"/>
-      <c r="BL39" s="56"/>
-      <c r="BM39" s="56"/>
-      <c r="BN39" s="57"/>
-      <c r="BO39" s="55"/>
-      <c r="BP39" s="56"/>
-      <c r="BQ39" s="56"/>
-      <c r="BR39" s="56"/>
-      <c r="BS39" s="57"/>
-      <c r="BV39" s="55"/>
-      <c r="BW39" s="56"/>
-      <c r="BX39" s="56"/>
-      <c r="BY39" s="56"/>
-      <c r="BZ39" s="57"/>
-      <c r="CA39" s="55"/>
-      <c r="CB39" s="56"/>
-      <c r="CC39" s="56"/>
-      <c r="CD39" s="56"/>
-      <c r="CE39" s="56"/>
-      <c r="CF39" s="57"/>
-      <c r="CG39" s="55"/>
-      <c r="CH39" s="56"/>
-      <c r="CI39" s="56"/>
-      <c r="CJ39" s="56"/>
-      <c r="CK39" s="57"/>
-      <c r="CN39" s="55"/>
-      <c r="CO39" s="56"/>
-      <c r="CP39" s="56"/>
-      <c r="CQ39" s="56"/>
-      <c r="CR39" s="57"/>
-      <c r="CS39" s="55"/>
-      <c r="CT39" s="56"/>
-      <c r="CU39" s="56"/>
-      <c r="CV39" s="56"/>
-      <c r="CW39" s="56"/>
-      <c r="CX39" s="57"/>
-      <c r="CY39" s="55"/>
-      <c r="CZ39" s="56"/>
-      <c r="DA39" s="56"/>
-      <c r="DB39" s="56"/>
-      <c r="DC39" s="57"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="44"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="44"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="44"/>
+      <c r="Y39" s="42"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="44"/>
+      <c r="AE39" s="42"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="43"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="44"/>
+      <c r="AL39" s="42"/>
+      <c r="AM39" s="43"/>
+      <c r="AN39" s="43"/>
+      <c r="AO39" s="43"/>
+      <c r="AP39" s="44"/>
+      <c r="AQ39" s="42"/>
+      <c r="AR39" s="43"/>
+      <c r="AS39" s="43"/>
+      <c r="AT39" s="43"/>
+      <c r="AU39" s="43"/>
+      <c r="AV39" s="44"/>
+      <c r="AW39" s="42"/>
+      <c r="AX39" s="43"/>
+      <c r="AY39" s="43"/>
+      <c r="AZ39" s="43"/>
+      <c r="BA39" s="44"/>
+      <c r="BD39" s="42"/>
+      <c r="BE39" s="43"/>
+      <c r="BF39" s="43"/>
+      <c r="BG39" s="43"/>
+      <c r="BH39" s="44"/>
+      <c r="BI39" s="42"/>
+      <c r="BJ39" s="43"/>
+      <c r="BK39" s="43"/>
+      <c r="BL39" s="43"/>
+      <c r="BM39" s="43"/>
+      <c r="BN39" s="44"/>
+      <c r="BO39" s="42"/>
+      <c r="BP39" s="43"/>
+      <c r="BQ39" s="43"/>
+      <c r="BR39" s="43"/>
+      <c r="BS39" s="44"/>
+      <c r="BV39" s="42"/>
+      <c r="BW39" s="43"/>
+      <c r="BX39" s="43"/>
+      <c r="BY39" s="43"/>
+      <c r="BZ39" s="44"/>
+      <c r="CA39" s="42"/>
+      <c r="CB39" s="43"/>
+      <c r="CC39" s="43"/>
+      <c r="CD39" s="43"/>
+      <c r="CE39" s="43"/>
+      <c r="CF39" s="44"/>
+      <c r="CG39" s="42"/>
+      <c r="CH39" s="43"/>
+      <c r="CI39" s="43"/>
+      <c r="CJ39" s="43"/>
+      <c r="CK39" s="44"/>
+      <c r="CN39" s="42"/>
+      <c r="CO39" s="43"/>
+      <c r="CP39" s="43"/>
+      <c r="CQ39" s="43"/>
+      <c r="CR39" s="44"/>
+      <c r="CS39" s="42"/>
+      <c r="CT39" s="43"/>
+      <c r="CU39" s="43"/>
+      <c r="CV39" s="43"/>
+      <c r="CW39" s="43"/>
+      <c r="CX39" s="44"/>
+      <c r="CY39" s="42"/>
+      <c r="CZ39" s="43"/>
+      <c r="DA39" s="43"/>
+      <c r="DB39" s="43"/>
+      <c r="DC39" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="AE37:AI39"/>
-    <mergeCell ref="G37:L39"/>
-    <mergeCell ref="M37:Q39"/>
-    <mergeCell ref="B37:F39"/>
-    <mergeCell ref="T37:X39"/>
-    <mergeCell ref="Y37:AD39"/>
-    <mergeCell ref="AG16:AH18"/>
-    <mergeCell ref="U19:V21"/>
-    <mergeCell ref="W19:X21"/>
-    <mergeCell ref="Y19:Z21"/>
-    <mergeCell ref="AA19:AB21"/>
-    <mergeCell ref="AC19:AD21"/>
-    <mergeCell ref="AE19:AF21"/>
-    <mergeCell ref="AG19:AH21"/>
-    <mergeCell ref="U16:V18"/>
-    <mergeCell ref="W16:X18"/>
-    <mergeCell ref="Y16:Z18"/>
-    <mergeCell ref="AA16:AB18"/>
-    <mergeCell ref="AC16:AD18"/>
-    <mergeCell ref="AE16:AF18"/>
-    <mergeCell ref="AG22:AH24"/>
-    <mergeCell ref="U25:V27"/>
-    <mergeCell ref="W25:X27"/>
-    <mergeCell ref="Y25:Z27"/>
-    <mergeCell ref="AA25:AB27"/>
-    <mergeCell ref="AC25:AD27"/>
-    <mergeCell ref="AE25:AF27"/>
-    <mergeCell ref="AG25:AH27"/>
-    <mergeCell ref="U22:V24"/>
-    <mergeCell ref="W22:X24"/>
-    <mergeCell ref="Y22:Z24"/>
-    <mergeCell ref="AA22:AB24"/>
-    <mergeCell ref="AC22:AD24"/>
-    <mergeCell ref="AE22:AF24"/>
-    <mergeCell ref="AE31:AF33"/>
-    <mergeCell ref="AG31:AH33"/>
-    <mergeCell ref="U28:V30"/>
-    <mergeCell ref="W28:X30"/>
-    <mergeCell ref="Y28:Z30"/>
-    <mergeCell ref="AA28:AB30"/>
-    <mergeCell ref="AC28:AD30"/>
-    <mergeCell ref="AE28:AF30"/>
-    <mergeCell ref="C15:P33"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="U31:V33"/>
-    <mergeCell ref="W31:X33"/>
-    <mergeCell ref="Y31:Z33"/>
-    <mergeCell ref="AA31:AB33"/>
+    <mergeCell ref="BE34:BF35"/>
+    <mergeCell ref="BH34:BR35"/>
+    <mergeCell ref="AM33:AZ35"/>
+    <mergeCell ref="CN37:CR39"/>
+    <mergeCell ref="CS37:CX39"/>
+    <mergeCell ref="BV37:BZ39"/>
+    <mergeCell ref="CA37:CF39"/>
+    <mergeCell ref="CG37:CK39"/>
+    <mergeCell ref="AL37:AP39"/>
+    <mergeCell ref="AQ37:AV39"/>
+    <mergeCell ref="AW37:BA39"/>
+    <mergeCell ref="CY37:DC39"/>
+    <mergeCell ref="CO34:CP35"/>
+    <mergeCell ref="CO12:DB32"/>
+    <mergeCell ref="CR34:DB35"/>
+    <mergeCell ref="BD37:BH39"/>
+    <mergeCell ref="BI37:BN39"/>
+    <mergeCell ref="BO37:BS39"/>
+    <mergeCell ref="BW15:CJ17"/>
+    <mergeCell ref="BW18:CJ20"/>
+    <mergeCell ref="BW21:CJ23"/>
+    <mergeCell ref="BW24:CJ26"/>
+    <mergeCell ref="BW27:CJ29"/>
+    <mergeCell ref="BW30:CJ32"/>
+    <mergeCell ref="BW33:CJ35"/>
+    <mergeCell ref="BW12:CG13"/>
+    <mergeCell ref="CI12:CJ13"/>
     <mergeCell ref="AM30:AZ32"/>
     <mergeCell ref="U12:AH13"/>
     <mergeCell ref="AB34:AH35"/>
@@ -8440,33 +8443,57 @@
     <mergeCell ref="AE15:AF15"/>
     <mergeCell ref="AG28:AH30"/>
     <mergeCell ref="AC31:AD33"/>
-    <mergeCell ref="CY37:DC39"/>
-    <mergeCell ref="CO34:CP35"/>
-    <mergeCell ref="CO12:DB32"/>
-    <mergeCell ref="CR34:DB35"/>
-    <mergeCell ref="BD37:BH39"/>
-    <mergeCell ref="BI37:BN39"/>
-    <mergeCell ref="BO37:BS39"/>
-    <mergeCell ref="BW15:CJ17"/>
-    <mergeCell ref="BW18:CJ20"/>
-    <mergeCell ref="BW21:CJ23"/>
-    <mergeCell ref="BW24:CJ26"/>
-    <mergeCell ref="BW27:CJ29"/>
-    <mergeCell ref="BW30:CJ32"/>
-    <mergeCell ref="BW33:CJ35"/>
-    <mergeCell ref="BW12:CG13"/>
-    <mergeCell ref="CI12:CJ13"/>
-    <mergeCell ref="BE34:BF35"/>
-    <mergeCell ref="BH34:BR35"/>
-    <mergeCell ref="AM33:AZ35"/>
-    <mergeCell ref="CN37:CR39"/>
-    <mergeCell ref="CS37:CX39"/>
-    <mergeCell ref="BV37:BZ39"/>
-    <mergeCell ref="CA37:CF39"/>
-    <mergeCell ref="CG37:CK39"/>
-    <mergeCell ref="AL37:AP39"/>
-    <mergeCell ref="AQ37:AV39"/>
-    <mergeCell ref="AW37:BA39"/>
+    <mergeCell ref="C15:P33"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="U31:V33"/>
+    <mergeCell ref="W31:X33"/>
+    <mergeCell ref="Y31:Z33"/>
+    <mergeCell ref="AA31:AB33"/>
+    <mergeCell ref="AE31:AF33"/>
+    <mergeCell ref="AG31:AH33"/>
+    <mergeCell ref="U28:V30"/>
+    <mergeCell ref="W28:X30"/>
+    <mergeCell ref="Y28:Z30"/>
+    <mergeCell ref="AA28:AB30"/>
+    <mergeCell ref="AC28:AD30"/>
+    <mergeCell ref="AE28:AF30"/>
+    <mergeCell ref="AG22:AH24"/>
+    <mergeCell ref="U25:V27"/>
+    <mergeCell ref="W25:X27"/>
+    <mergeCell ref="Y25:Z27"/>
+    <mergeCell ref="AA25:AB27"/>
+    <mergeCell ref="AC25:AD27"/>
+    <mergeCell ref="AE25:AF27"/>
+    <mergeCell ref="AG25:AH27"/>
+    <mergeCell ref="U22:V24"/>
+    <mergeCell ref="W22:X24"/>
+    <mergeCell ref="Y22:Z24"/>
+    <mergeCell ref="AA22:AB24"/>
+    <mergeCell ref="AC22:AD24"/>
+    <mergeCell ref="AE22:AF24"/>
+    <mergeCell ref="AG16:AH18"/>
+    <mergeCell ref="U19:V21"/>
+    <mergeCell ref="W19:X21"/>
+    <mergeCell ref="Y19:Z21"/>
+    <mergeCell ref="AA19:AB21"/>
+    <mergeCell ref="AC19:AD21"/>
+    <mergeCell ref="AE19:AF21"/>
+    <mergeCell ref="AG19:AH21"/>
+    <mergeCell ref="U16:V18"/>
+    <mergeCell ref="W16:X18"/>
+    <mergeCell ref="Y16:Z18"/>
+    <mergeCell ref="AA16:AB18"/>
+    <mergeCell ref="AC16:AD18"/>
+    <mergeCell ref="AE16:AF18"/>
+    <mergeCell ref="AE37:AI39"/>
+    <mergeCell ref="G37:L39"/>
+    <mergeCell ref="M37:Q39"/>
+    <mergeCell ref="B37:F39"/>
+    <mergeCell ref="T37:X39"/>
+    <mergeCell ref="Y37:AD39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8480,7 +8507,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="AD24" sqref="AD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
